--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFED4F6-486A-4510-B567-38179DCF0FD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBBBB1-3D8E-4840-BB63-C6152E679899}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
   <si>
     <t>Thursday</t>
   </si>
@@ -119,18 +119,12 @@
     <t>Public, Group</t>
   </si>
   <si>
-    <t>Passed Beta</t>
-  </si>
-  <si>
     <t>Got New Skates</t>
   </si>
   <si>
     <t>Gamma</t>
   </si>
   <si>
-    <t>Blades Sharpened</t>
-  </si>
-  <si>
     <t>Public, Group, Public</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
   </si>
   <si>
     <t>Public, Group, Stroking</t>
-  </si>
-  <si>
-    <t>Rehearsal,</t>
   </si>
   <si>
     <t>First Rehearsal</t>
@@ -293,6 +284,18 @@
       </rPr>
       <t>:</t>
     </r>
+  </si>
+  <si>
+    <t>Rehearsal, Public</t>
+  </si>
+  <si>
+    <t>Party, Private</t>
+  </si>
+  <si>
+    <t>Lessons From Olivia and Sora</t>
+  </si>
+  <si>
+    <t>Passed Beta, Blades Sharpened</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$1</c:f>
+              <c:f>Data!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -504,10 +507,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$28</c:f>
+              <c:f>Data!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -557,47 +560,50 @@
                   <c:v>43309</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43309</c:v>
+                  <c:v>43310</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43310</c:v>
+                  <c:v>43311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43311</c:v>
+                  <c:v>43313</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43313</c:v>
+                  <c:v>43314</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43314</c:v>
+                  <c:v>43315</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43315</c:v>
+                  <c:v>43316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43316</c:v>
+                  <c:v>43317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43316</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43317</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43318</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43321</c:v>
+                  <c:v>43323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$G$2:$G$28</c:f>
+              <c:f>Data!$J$2:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -647,37 +653,40 @@
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.25</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$K$1</c:f>
+              <c:f>Data!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1033,47 +1042,47 @@
                   <c:v>43309</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43309</c:v>
+                  <c:v>43310</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43310</c:v>
+                  <c:v>43311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43311</c:v>
+                  <c:v>43313</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43313</c:v>
+                  <c:v>43314</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43314</c:v>
+                  <c:v>43315</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43315</c:v>
+                  <c:v>43316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43316</c:v>
+                  <c:v>43317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43316</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43317</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43318</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43321</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43322</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$K$2:$K$29</c:f>
+              <c:f>Data!$N$2:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1126,7 +1135,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3</c:v>
@@ -2846,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,16 +2869,17 @@
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2888,23 +2898,32 @@
       <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2925,29 +2944,29 @@
         <f>E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2965,35 +2984,35 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F28" si="1">E3-D3</f>
+        <f>E3-D3</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="G3" s="4">
+      <c r="J3" s="4">
         <v>2.5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <f>SUM(G:G)</f>
-        <v>75.25</v>
-      </c>
-      <c r="N3" s="4">
-        <f>SUM(G20:G28)</f>
-        <v>27.25</v>
-      </c>
       <c r="O3" s="4">
-        <f>SUM(G2:G19)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f>SUM(J:J)</f>
+        <v>71</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM(J19:J29)</f>
+        <v>29.25</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM(J2:J18)</f>
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3011,26 +3030,26 @@
         <v>0.625</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f>E4-D4</f>
         <v>0.13541666666666669</v>
       </c>
-      <c r="G4" s="4">
+      <c r="J4" s="4">
         <v>3.25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3048,23 +3067,23 @@
         <v>0.6875</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f>E5-D5</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="G5" s="4">
+      <c r="J5" s="4">
         <v>3.5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3082,23 +3101,23 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f>E6-D6</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3116,23 +3135,23 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f>E7-D7</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3150,23 +3169,23 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f>E8-D8</f>
         <v>9.3750000000000056E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="J8" s="4">
         <v>2.25</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>16</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3184,23 +3203,23 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f>E9-D9</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="J9" s="4">
         <v>1.5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3218,26 +3237,26 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f>E10-D10</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="J10" s="4">
         <v>1.25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3255,23 +3274,23 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f>E11-D11</f>
         <v>0.125</v>
       </c>
-      <c r="G11" s="4">
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3289,23 +3308,23 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f>E12-D12</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="J12" s="4">
         <v>1.5</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>26</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3323,23 +3342,23 @@
         <v>0.5625</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f>E13-D13</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="J13" s="4">
         <v>1.75</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>26</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3357,26 +3376,26 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f>E14-D14</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="J14" s="4">
         <v>1.25</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>28</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3394,23 +3413,23 @@
         <v>0.875</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f>E15-D15</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3428,23 +3447,23 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f>E16-D16</f>
         <v>0.13541666666666663</v>
       </c>
-      <c r="G16" s="4">
+      <c r="J16" s="4">
         <v>3.25</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3462,442 +3481,477 @@
         <v>0.625</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f>E17-D17</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="I17" s="2">
+        <f>H17-G17</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="J17" s="4">
         <f xml:space="preserve"> 3.5 + 2.75</f>
         <v>6.25</v>
       </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="D18" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E18" s="3">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.11458333333333337</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6.25</v>
-      </c>
-      <c r="H18" t="s">
+        <f>E18-D18</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="D19" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E19" s="3">
-        <v>0.6875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14583333333333337</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="H19" t="s">
+        <f>E19-D19</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
       <c r="B20" s="1">
-        <v>43311</v>
+        <v>43313</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>43311</v>
+        <v>43313</v>
       </c>
       <c r="D20" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E20" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+        <f>E20-D20</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20">
+      <c r="N20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="D21" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>5.2083333333333259E-2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21">
+        <f>E21-D21</f>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="D22" s="3">
         <v>0.75</v>
       </c>
       <c r="E22" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13541666666666663</v>
-      </c>
-      <c r="G22" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22">
+        <f>E22-D22</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="D23" s="3">
-        <v>0.75</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E23" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="G23" s="4">
-        <v>4</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23">
+        <f>E23-D23</f>
+        <v>0.13541666666666669</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I23" s="2">
+        <f>H23-G23</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>43316</v>
+        <v>43317</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>43316</v>
+        <v>43317</v>
       </c>
       <c r="D24" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E24" s="3">
-        <v>0.61458333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13541666666666669</v>
-      </c>
-      <c r="G24" s="4">
-        <v>7.25</v>
-      </c>
-      <c r="I24" t="s">
+        <f>E24-D24</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24">
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>43316</v>
+        <v>43318</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>43316</v>
+        <v>43318</v>
       </c>
       <c r="D25" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E25" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="G25" s="4">
-        <v>7.25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25">
+        <f>E25-D25</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1">
-        <v>43317</v>
+        <v>43321</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>43317</v>
+        <v>43321</v>
       </c>
       <c r="D26" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E26" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="G26" s="4">
+        <f>E26-D26</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
       <c r="B27" s="1">
-        <v>43318</v>
+        <v>43322</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>43318</v>
+        <v>43322</v>
       </c>
       <c r="D27" s="3">
-        <v>0.78125</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E27" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27">
+        <f>E27-D27</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
-        <v>43321</v>
+        <v>43323</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>43321</v>
+        <f t="shared" ref="C28" si="1">B28</f>
+        <v>43323</v>
       </c>
       <c r="D28" s="3">
-        <v>0.78125</v>
+        <v>0.5625</v>
       </c>
       <c r="E28" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f>E28-D28</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I28" s="2">
+        <f>H28-G28</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="G28" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="K28" t="s">
         <v>62</v>
       </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28">
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>43322</v>
+        <v>43324</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>43322</v>
+        <v>43324</v>
       </c>
       <c r="D29" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F29" s="2">
+        <f>E29-D29</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29">
         <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3937,115 +3991,115 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBBBB1-3D8E-4840-BB63-C6152E679899}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27079F28-A6FF-4185-9515-FD4D90A74C95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>Thursday</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>Passed Beta, Blades Sharpened</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Freestyle Ice</t>
+  </si>
+  <si>
+    <t>Passed Gamma, Got Spinner</t>
   </si>
 </sst>
 </file>
@@ -507,10 +519,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$29</c:f>
+              <c:f>Data!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -594,16 +606,25 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43325</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$J$2:$J$29</c:f>
+              <c:f>Data!$J$2:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -687,6 +708,15 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,10 +1019,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$29</c:f>
+              <c:f>Data!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1076,16 +1106,25 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43325</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$N$2:$N$29</c:f>
+              <c:f>Data!$N$2:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1168,6 +1207,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2855,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2989,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F35" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="J2" s="4">
@@ -2974,7 +3022,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C29" si="0">B3</f>
+        <f t="shared" ref="C3:C35" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -2984,7 +3032,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F3" s="2">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="J3" s="4">
@@ -3001,11 +3049,11 @@
       </c>
       <c r="O3" s="4">
         <f>SUM(J:J)</f>
-        <v>71</v>
+        <v>76.45</v>
       </c>
       <c r="P3" s="4">
-        <f>SUM(J19:J29)</f>
-        <v>29.25</v>
+        <f>SUM(J19:J32)</f>
+        <v>34.700000000000003</v>
       </c>
       <c r="Q3" s="4">
         <f>SUM(J2:J18)</f>
@@ -3020,7 +3068,7 @@
         <v>43288</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43288</v>
       </c>
       <c r="D4" s="3">
@@ -3030,7 +3078,7 @@
         <v>0.625</v>
       </c>
       <c r="F4" s="2">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>0.13541666666666669</v>
       </c>
       <c r="J4" s="4">
@@ -3057,7 +3105,7 @@
         <v>43289</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43289</v>
       </c>
       <c r="D5" s="3">
@@ -3067,7 +3115,7 @@
         <v>0.6875</v>
       </c>
       <c r="F5" s="2">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="J5" s="4">
@@ -3091,7 +3139,7 @@
         <v>43293</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43293</v>
       </c>
       <c r="D6" s="3">
@@ -3101,7 +3149,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F6" s="2">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="J6" s="4">
@@ -3125,7 +3173,7 @@
         <v>43294</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43294</v>
       </c>
       <c r="D7" s="3">
@@ -3135,7 +3183,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F7" s="2">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="J7" s="4">
@@ -3159,7 +3207,7 @@
         <v>43295</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43295</v>
       </c>
       <c r="D8" s="3">
@@ -3169,7 +3217,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F8" s="2">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>9.3750000000000056E-2</v>
       </c>
       <c r="J8" s="4">
@@ -3193,7 +3241,7 @@
         <v>43296</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43296</v>
       </c>
       <c r="D9" s="3">
@@ -3203,7 +3251,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F9" s="2">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="J9" s="4">
@@ -3227,7 +3275,7 @@
         <v>43297</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43297</v>
       </c>
       <c r="D10" s="3">
@@ -3237,7 +3285,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F10" s="2">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="J10" s="4">
@@ -3264,7 +3312,7 @@
         <v>43300</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43300</v>
       </c>
       <c r="D11" s="3">
@@ -3274,7 +3322,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F11" s="2">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="J11" s="4">
@@ -3298,7 +3346,7 @@
         <v>43301</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43301</v>
       </c>
       <c r="D12" s="3">
@@ -3308,7 +3356,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F12" s="2">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="J12" s="4">
@@ -3332,7 +3380,7 @@
         <v>43302</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43302</v>
       </c>
       <c r="D13" s="3">
@@ -3342,7 +3390,7 @@
         <v>0.5625</v>
       </c>
       <c r="F13" s="2">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="J13" s="4">
@@ -3366,7 +3414,7 @@
         <v>43304</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43304</v>
       </c>
       <c r="D14" s="3">
@@ -3376,7 +3424,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F14" s="2">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="J14" s="4">
@@ -3403,7 +3451,7 @@
         <v>43307</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43307</v>
       </c>
       <c r="D15" s="3">
@@ -3413,7 +3461,7 @@
         <v>0.875</v>
       </c>
       <c r="F15" s="2">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="J15" s="4">
@@ -3437,7 +3485,7 @@
         <v>43308</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43308</v>
       </c>
       <c r="D16" s="3">
@@ -3447,7 +3495,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F16" s="2">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>0.13541666666666663</v>
       </c>
       <c r="J16" s="4">
@@ -3471,7 +3519,7 @@
         <v>43309</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43309</v>
       </c>
       <c r="D17" s="3">
@@ -3481,7 +3529,7 @@
         <v>0.625</v>
       </c>
       <c r="F17" s="2">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>0.14583333333333331</v>
       </c>
       <c r="G17" s="3">
@@ -3519,7 +3567,7 @@
         <v>43310</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43310</v>
       </c>
       <c r="D18" s="3">
@@ -3529,7 +3577,7 @@
         <v>0.6875</v>
       </c>
       <c r="F18" s="2">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="J18" s="4">
@@ -3556,7 +3604,7 @@
         <v>43311</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43311</v>
       </c>
       <c r="D19" s="3">
@@ -3566,7 +3614,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F19" s="2">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="J19" s="4">
@@ -3593,7 +3641,7 @@
         <v>43313</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43313</v>
       </c>
       <c r="D20" s="3">
@@ -3603,7 +3651,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F20" s="2">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="J20" s="4">
@@ -3627,7 +3675,7 @@
         <v>43314</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43314</v>
       </c>
       <c r="D21" s="3">
@@ -3637,7 +3685,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F21" s="2">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>0.13541666666666663</v>
       </c>
       <c r="J21" s="4">
@@ -3661,7 +3709,7 @@
         <v>43315</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43315</v>
       </c>
       <c r="D22" s="3">
@@ -3671,7 +3719,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F22" s="2">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="J22" s="4">
@@ -3695,7 +3743,7 @@
         <v>43316</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43316</v>
       </c>
       <c r="D23" s="3">
@@ -3705,7 +3753,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="F23" s="2">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>0.13541666666666669</v>
       </c>
       <c r="G23" s="3">
@@ -3739,7 +3787,7 @@
         <v>43317</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43317</v>
       </c>
       <c r="D24" s="3">
@@ -3749,7 +3797,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F24" s="2">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="J24" s="4">
@@ -3773,7 +3821,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43318</v>
       </c>
       <c r="D25" s="3">
@@ -3783,7 +3831,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F25" s="2">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="J25" s="4">
@@ -3807,7 +3855,7 @@
         <v>43321</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43321</v>
       </c>
       <c r="D26" s="3">
@@ -3817,7 +3865,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F26" s="2">
-        <f>E26-D26</f>
+        <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="J26" s="4">
@@ -3841,7 +3889,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43322</v>
       </c>
       <c r="D27" s="3">
@@ -3851,7 +3899,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F27" s="2">
-        <f>E27-D27</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="J27" s="4">
@@ -3878,7 +3926,7 @@
         <v>43323</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28" si="1">B28</f>
+        <f t="shared" ref="C28" si="2">B28</f>
         <v>43323</v>
       </c>
       <c r="D28" s="3">
@@ -3888,7 +3936,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F28" s="2">
-        <f>E28-D28</f>
+        <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="G28" s="3">
@@ -3925,7 +3973,7 @@
         <v>43324</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43324</v>
       </c>
       <c r="D29" s="3">
@@ -3935,7 +3983,7 @@
         <v>0.6875</v>
       </c>
       <c r="F29" s="2">
-        <f>E29-D29</f>
+        <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="J29" s="4">
@@ -3952,6 +4000,162 @@
       </c>
       <c r="N29">
         <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43325</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="1"/>
+        <v>43325</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43326</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="1"/>
+        <v>43326</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43328</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="1"/>
+        <v>43328</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43329</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="1"/>
+        <v>43329</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43330</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="1"/>
+        <v>43330</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43331</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="1"/>
+        <v>43331</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27079F28-A6FF-4185-9515-FD4D90A74C95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3F0C9-4153-40B2-9030-895D6B9036DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="1" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>Thursday</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Passed Gamma, Got Spinner</t>
+  </si>
+  <si>
+    <t>Signed up for Nutcracker</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$32</c:f>
+              <c:f>Data!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -615,16 +624,28 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$J$2:$J$32</c:f>
+              <c:f>Data!$J$2:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -717,6 +738,18 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,10 +1052,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$32</c:f>
+              <c:f>Data!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1115,16 +1148,28 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$N$2:$N$32</c:f>
+              <c:f>Data!$N$2:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1217,6 +1262,18 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,7 +2974,8 @@
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
@@ -2946,10 +3004,10 @@
       <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -2989,7 +3047,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F35" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F36" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="J2" s="4">
@@ -3022,7 +3080,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C35" si="1">B3</f>
+        <f t="shared" ref="C3:C36" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -3049,11 +3107,11 @@
       </c>
       <c r="O3" s="4">
         <f>SUM(J:J)</f>
-        <v>76.45</v>
+        <v>89.7</v>
       </c>
       <c r="P3" s="4">
-        <f>SUM(J19:J32)</f>
-        <v>34.700000000000003</v>
+        <f>SUM(J19:J36)</f>
+        <v>47.95</v>
       </c>
       <c r="Q3" s="4">
         <f>SUM(J2:J18)</f>
@@ -4110,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4121,12 +4179,40 @@
         <f t="shared" si="1"/>
         <v>43329</v>
       </c>
+      <c r="D33" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I33" s="2">
+        <f>H33-G33</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -4137,12 +4223,40 @@
         <f t="shared" si="1"/>
         <v>43330</v>
       </c>
+      <c r="D34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I34" s="2">
+        <f>H34-G34</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="J34" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -4153,9 +4267,64 @@
         <f t="shared" si="1"/>
         <v>43331</v>
       </c>
+      <c r="D35" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.6875</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43332</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="1"/>
+        <v>43332</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4168,7 +4337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3F0C9-4153-40B2-9030-895D6B9036DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C919A-5FF6-4BF3-A974-76B99DAC03C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="1" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
   <si>
     <t>Thursday</t>
   </si>
@@ -317,6 +317,30 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>Private, Rehearsal, Private</t>
+  </si>
+  <si>
+    <t>Public, Group, Private, Public</t>
+  </si>
+  <si>
+    <t>Learned how to bend skate</t>
+  </si>
+  <si>
+    <t>Private, Public, Group</t>
+  </si>
+  <si>
+    <t>Hours:</t>
+  </si>
+  <si>
+    <t>Time Spent In Each Class</t>
+  </si>
+  <si>
+    <t>Skates Sharpened, Skates Punched Out</t>
+  </si>
+  <si>
+    <t>Purchased Team Jacket</t>
   </si>
 </sst>
 </file>
@@ -528,10 +552,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$36</c:f>
+              <c:f>Data!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -636,16 +660,28 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43332</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43336</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$J$2:$J$36</c:f>
+              <c:f>Data!$J$2:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -750,6 +786,18 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,10 +1100,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$36</c:f>
+              <c:f>Data!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1160,16 +1208,34 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43332</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43336</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$N$2:$N$36</c:f>
+              <c:f>Data!$N$2:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1273,6 +1339,24 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1474,6 +1558,370 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Spent in Each Class</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hours Spent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$P$11:$P$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pre Alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gamma</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$Q$11:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D95-491E-81F7-971779134F5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="483587880"/>
+        <c:axId val="483590504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483587880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483590504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483590504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="483587880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1554,6 +2002,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2567,6 +3055,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2655,6 +3646,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF6E01F-FA22-469F-A83B-A85ED7265BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2960,32 +3987,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="13" max="14" width="9.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -3029,7 +4056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +4074,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F36" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F40" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="J2" s="4">
@@ -3072,7 +4099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3080,7 +4107,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C36" si="1">B3</f>
+        <f t="shared" ref="C3:C42" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -3107,18 +4134,18 @@
       </c>
       <c r="O3" s="4">
         <f>SUM(J:J)</f>
-        <v>89.7</v>
+        <v>99.95</v>
       </c>
       <c r="P3" s="4">
-        <f>SUM(J19:J36)</f>
-        <v>47.95</v>
+        <f>SUM(J19:J400)</f>
+        <v>58.2</v>
       </c>
       <c r="Q3" s="4">
         <f>SUM(J2:J18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3155,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3189,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3291,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3361,8 +4388,14 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +4428,15 @@
       <c r="N11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM(J2:J4)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3429,8 +4469,15 @@
       <c r="N12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM(J5:J10)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3463,8 +4510,15 @@
       <c r="N13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM(J11:J17)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3500,8 +4554,15 @@
       <c r="N14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM(J18:J32)</f>
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3534,8 +4595,15 @@
       <c r="N15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM(J33:J42)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3569,7 +4637,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +4685,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3654,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3691,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3725,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3837,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -3976,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -4023,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -4094,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -4131,7 +5199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +5236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4212,7 +5280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -4256,7 +5324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -4290,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -4324,6 +5392,187 @@
         <v>75</v>
       </c>
       <c r="N36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43335</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="1"/>
+        <v>43335</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="J37" s="4">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43336</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="1"/>
+        <v>43336</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43337</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="1"/>
+        <v>43337</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3750000000000056E-2</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43339</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="1"/>
+        <v>43339</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43340</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="1"/>
+        <v>43340</v>
+      </c>
+      <c r="M41" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43342</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="1"/>
+        <v>43342</v>
+      </c>
+      <c r="M42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42">
         <v>4</v>
       </c>
     </row>
@@ -4337,11 +5586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4356,13 +5605,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
@@ -4370,107 +5619,107 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C919A-5FF6-4BF3-A974-76B99DAC03C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713A0FE-F032-44DD-8DE7-A0F1FEC4F0A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
-    <sheet name="Skater Evaluation" sheetId="3" r:id="rId3"/>
+    <sheet name="Off Ice Training" sheetId="4" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId3"/>
+    <sheet name="Skater Evaluation" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>Thursday</t>
   </si>
@@ -341,6 +342,30 @@
   </si>
   <si>
     <t>Purchased Team Jacket</t>
+  </si>
+  <si>
+    <t>Pubic, Rehearsal</t>
+  </si>
+  <si>
+    <t>Freestyle I</t>
+  </si>
+  <si>
+    <t>Public, Group, Private</t>
+  </si>
+  <si>
+    <t>Passed Delta</t>
+  </si>
+  <si>
+    <t>Felt Sick, Blades Sharpened</t>
+  </si>
+  <si>
+    <t>Group, Public, Private, Public</t>
+  </si>
+  <si>
+    <t>Too sick to skate, Learned FS1 routine</t>
+  </si>
+  <si>
+    <t>Stretching</t>
   </si>
 </sst>
 </file>
@@ -529,7 +554,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$J$1</c:f>
+              <c:f>Data!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -552,10 +577,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$40</c:f>
+              <c:f>Data!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -672,16 +697,31 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43342</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$J$2:$J$40</c:f>
+              <c:f>Data!$M$2:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -798,6 +838,21 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1132,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$N$1</c:f>
+              <c:f>Data!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1100,10 +1155,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$42</c:f>
+              <c:f>Data!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1226,16 +1281,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43342</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$N$2:$N$42</c:f>
+              <c:f>Data!$Q$2:$Q$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1358,6 +1422,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,9 +1782,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$P$11:$P$15</c:f>
+              <c:f>Data!$S$11:$S$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -1726,16 +1799,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Freestyle I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$11:$Q$15</c:f>
+              <c:f>Data!$T$11:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
                 </c:pt>
@@ -1749,7 +1825,10 @@
                   <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.5</c:v>
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,32 +4066,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7265625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="14" width="9.453125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -4040,23 +4122,32 @@
       <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4074,32 +4165,32 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F40" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F45" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="M2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4107,7 +4198,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C42" si="1">B3</f>
+        <f t="shared" ref="C3:C45" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -4120,32 +4211,32 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <v>2.5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="O3" s="4">
-        <f>SUM(J:J)</f>
-        <v>99.95</v>
-      </c>
-      <c r="P3" s="4">
-        <f>SUM(J19:J400)</f>
-        <v>58.2</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>SUM(J2:J18)</f>
+      <c r="R3" s="4">
+        <f>SUM(M:M)</f>
+        <v>116.95</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM(M19:M400)</f>
+        <v>75.2</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4166,23 +4257,23 @@
         <f t="shared" si="0"/>
         <v>0.13541666666666669</v>
       </c>
-      <c r="J4" s="4">
+      <c r="M4" s="4">
         <v>3.25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4203,20 +4294,20 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="4">
         <v>3.5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4237,20 +4328,20 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="M6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>16</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4271,20 +4362,20 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="M7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4305,20 +4396,20 @@
         <f t="shared" si="0"/>
         <v>9.3750000000000056E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="M8" s="4">
         <v>2.25</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>16</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4339,20 +4430,20 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="M9" s="4">
         <v>1.5</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>16</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4373,29 +4464,29 @@
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="M10" s="4">
         <v>1.25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>16</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>1</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="S10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4416,27 +4507,27 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J11" s="4">
+      <c r="M11" s="4">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>26</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>2</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="4">
-        <f>SUM(J2:J4)</f>
+      <c r="T11" s="4">
+        <f>SUM(M2:M4)</f>
         <v>7.75</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4457,27 +4548,27 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="M12" s="4">
         <v>1.5</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="4">
-        <f>SUM(J5:J10)</f>
+      <c r="T12" s="4">
+        <f>SUM(M5:M10)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4498,27 +4589,27 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="M13" s="4">
         <v>1.75</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="4">
-        <f>SUM(J11:J17)</f>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM(M11:M17)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4539,30 +4630,30 @@
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="M14" s="4">
         <v>1.25</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>28</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>26</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="4">
-        <f>SUM(J18:J32)</f>
+      <c r="T14" s="4">
+        <f>SUM(M18:M32)</f>
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4583,27 +4674,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="M15" s="4">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>20</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>26</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>2.5</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="4">
-        <f>SUM(J33:J42)</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T15" s="4">
+        <f>SUM(M33:M42)</f>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4624,20 +4715,27 @@
         <f t="shared" si="0"/>
         <v>0.13541666666666663</v>
       </c>
-      <c r="J16" s="4">
+      <c r="M16" s="4">
         <v>3.25</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>21</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>26</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM(M43:M45)</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4668,24 +4766,24 @@
         <f>H17-G17</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="J17" s="4">
+      <c r="M17" s="4">
         <f xml:space="preserve"> 3.5 + 2.75</f>
         <v>6.25</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" t="s">
         <v>68</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>26</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -4706,23 +4804,23 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="J18" s="4">
+      <c r="M18" s="4">
         <v>3.5</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>31</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4743,23 +4841,23 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="M19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>30</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>34</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>31</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4780,20 +4878,20 @@
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="M20" s="4">
         <v>1.25</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>31</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4814,20 +4912,20 @@
         <f t="shared" si="0"/>
         <v>0.13541666666666663</v>
       </c>
-      <c r="J21" s="4">
+      <c r="M21" s="4">
         <v>3.25</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>36</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>31</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4848,20 +4946,20 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J22" s="4">
+      <c r="M22" s="4">
         <v>4</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>36</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" t="s">
         <v>31</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -4892,20 +4990,20 @@
         <f>H23-G23</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="J23" s="4">
+      <c r="M23" s="4">
         <v>7.25</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>31</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4926,20 +5024,20 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="M24" s="4">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>17</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>31</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -4960,20 +5058,20 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="M25" s="4">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>29</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>31</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4994,20 +5092,20 @@
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J26" s="4">
+      <c r="M26" s="4">
         <v>1.25</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>60</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>31</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5028,23 +5126,23 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J27" s="4">
+      <c r="M27" s="4">
         <v>2</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>61</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" t="s">
         <v>65</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>31</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -5075,23 +5173,23 @@
         <f>H28-G28</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J28" s="4">
+      <c r="M28" s="4">
         <v>3.75</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" t="s">
         <v>62</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28" t="s">
         <v>66</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>31</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -5112,23 +5210,23 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="J29" s="4">
+      <c r="M29" s="4">
         <v>3.5</v>
       </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
         <v>67</v>
       </c>
-      <c r="L29" t="s">
+      <c r="O29" t="s">
         <v>17</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>31</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -5149,20 +5247,20 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J30" s="4">
+      <c r="M30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>29</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
         <v>31</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -5183,23 +5281,23 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="J31" s="4">
+      <c r="M31" s="4">
         <v>0.45</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>71</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>70</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>31</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5220,23 +5318,23 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J32" s="4">
+      <c r="M32" s="4">
         <v>4</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" t="s">
         <v>72</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>19</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>31</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5267,20 +5365,20 @@
         <f>H33-G33</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J33" s="4">
+      <c r="M33" s="4">
         <v>1.75</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>65</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
         <v>75</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -5311,20 +5409,20 @@
         <f>H34-G34</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="J34" s="4">
+      <c r="M34" s="4">
         <v>7.5</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" t="s">
         <v>22</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>75</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -5345,20 +5443,20 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J35" s="4">
+      <c r="M35" s="4">
         <v>3</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
         <v>17</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>75</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -5379,23 +5477,23 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J36" s="4">
+      <c r="M36" s="4">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
+      <c r="N36" t="s">
         <v>73</v>
       </c>
-      <c r="L36" t="s">
+      <c r="O36" t="s">
         <v>74</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>75</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5416,23 +5514,23 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J37" s="4">
+      <c r="M37" s="4">
         <v>3</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>83</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>77</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>75</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5453,20 +5551,20 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="J38" s="4">
+      <c r="M38" s="4">
         <v>2.5</v>
       </c>
-      <c r="L38" t="s">
+      <c r="O38" t="s">
         <v>76</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>75</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -5487,23 +5585,23 @@
         <f t="shared" si="0"/>
         <v>9.3750000000000056E-2</v>
       </c>
-      <c r="J39" s="4">
+      <c r="M39" s="4">
         <v>2.25</v>
       </c>
-      <c r="K39" t="s">
+      <c r="N39" t="s">
         <v>82</v>
       </c>
-      <c r="L39" t="s">
+      <c r="O39" t="s">
         <v>77</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>75</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -5524,23 +5622,23 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="J40" s="4">
+      <c r="M40" s="4">
         <v>2.5</v>
       </c>
-      <c r="K40" t="s">
+      <c r="N40" t="s">
         <v>78</v>
       </c>
-      <c r="L40" t="s">
+      <c r="O40" t="s">
         <v>79</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>75</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -5551,14 +5649,30 @@
         <f t="shared" si="1"/>
         <v>43340</v>
       </c>
-      <c r="M41" t="s">
+      <c r="D41" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="s">
         <v>75</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -5569,11 +5683,178 @@
         <f t="shared" si="1"/>
         <v>43342</v>
       </c>
-      <c r="M42" t="s">
+      <c r="D42" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I42" s="2">
+        <f>H42-G42</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>87</v>
+      </c>
+      <c r="O42" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" t="s">
         <v>75</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43343</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="1"/>
+        <v>43343</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43344</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="1"/>
+        <v>43344</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="I44" s="2">
+        <f>H44-G44</f>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="L44" s="2">
+        <f>K44-J44</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M44" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="N44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43346</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="1"/>
+        <v>43346</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="I45" s="2">
+        <f>H45-G45</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M45" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="N45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O45" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5583,21 +5864,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0821BB42-05DB-4A44-8370-53F3AEF2480D}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43345</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43345</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2-D2</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5086004E-F17D-426F-8B07-6579D28C495B}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -5605,13 +5963,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
@@ -5619,107 +5977,107 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713A0FE-F032-44DD-8DE7-A0F1FEC4F0A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E88AF5-7082-47C6-87A1-E99B64AFC37A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="95">
   <si>
     <t>Thursday</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>Stretching</t>
+  </si>
+  <si>
+    <t>Rehearsal Canceled due to weather</t>
+  </si>
+  <si>
+    <t>Extremely Low Confidence, Got Ice Chalet Jacket</t>
+  </si>
+  <si>
+    <t>Confidence Restored, Blades less sharp</t>
   </si>
 </sst>
 </file>
@@ -577,10 +586,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$45</c:f>
+              <c:f>Data!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -712,16 +721,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43346</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43347</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43348</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$45</c:f>
+              <c:f>Data!$M$2:$M$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -853,6 +871,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,10 +1182,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$45</c:f>
+              <c:f>Data!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1290,16 +1317,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43346</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43347</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43348</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$45</c:f>
+              <c:f>Data!$Q$2:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1430,6 +1466,15 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1828,7 +1873,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.75</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,7 +4130,7 @@
     <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
@@ -4165,7 +4210,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F45" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F48" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M2" s="4">
@@ -4198,7 +4243,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C45" si="1">B3</f>
+        <f t="shared" ref="C3:C48" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -4225,11 +4270,11 @@
       </c>
       <c r="R3" s="4">
         <f>SUM(M:M)</f>
-        <v>116.95</v>
+        <v>121.95</v>
       </c>
       <c r="S3" s="4">
         <f>SUM(M19:M400)</f>
-        <v>75.2</v>
+        <v>80.2</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M2:M18)</f>
@@ -4731,8 +4776,8 @@
         <v>85</v>
       </c>
       <c r="T16" s="4">
-        <f>SUM(M43:M45)</f>
-        <v>12.75</v>
+        <f>SUM(M43:M400)</f>
+        <v>17.75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -5854,6 +5899,111 @@
         <v>85</v>
       </c>
       <c r="Q45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43347</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="1"/>
+        <v>43347</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N46" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43348</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="1"/>
+        <v>43348</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43349</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="1"/>
+        <v>43349</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="M48" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="N48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48">
         <v>5</v>
       </c>
     </row>
@@ -5944,7 +6094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E88AF5-7082-47C6-87A1-E99B64AFC37A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6464DE9B-85BA-44B0-AB36-5F3D317DC6A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="4" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Off Ice Training" sheetId="4" r:id="rId2"/>
     <sheet name="Graphs" sheetId="2" r:id="rId3"/>
     <sheet name="Skater Evaluation" sheetId="3" r:id="rId4"/>
+    <sheet name="Test Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="178">
   <si>
     <t>Thursday</t>
   </si>
@@ -356,9 +357,6 @@
     <t>Passed Delta</t>
   </si>
   <si>
-    <t>Felt Sick, Blades Sharpened</t>
-  </si>
-  <si>
     <t>Group, Public, Private, Public</t>
   </si>
   <si>
@@ -375,6 +373,258 @@
   </si>
   <si>
     <t>Confidence Restored, Blades less sharp</t>
+  </si>
+  <si>
+    <t>Stroking, Private</t>
+  </si>
+  <si>
+    <t>Public, Private, Public</t>
+  </si>
+  <si>
+    <t>Rehearsal, Private</t>
+  </si>
+  <si>
+    <t>Dance, Group, Stroking, Public</t>
+  </si>
+  <si>
+    <t>First One Foot Spin, Felt Sick, Blades Sharpened</t>
+  </si>
+  <si>
+    <t>First Salchow</t>
+  </si>
+  <si>
+    <t>Days:</t>
+  </si>
+  <si>
+    <t>Barely Landing Loops</t>
+  </si>
+  <si>
+    <t>Landing Loops and Almost Flips, Attended FS3 practice with Lucy</t>
+  </si>
+  <si>
+    <t>Private, Stroking, Group, Public</t>
+  </si>
+  <si>
+    <t>Amanda's Stroking</t>
+  </si>
+  <si>
+    <t>Public, Rehearsal, Private</t>
+  </si>
+  <si>
+    <t>Short Practice, Took Private Instead</t>
+  </si>
+  <si>
+    <t>First Ice Dance, Won $1 from Larry, Mary Lou's Stroking</t>
+  </si>
+  <si>
+    <t>Freestyle 1</t>
+  </si>
+  <si>
+    <t>Forward Inside Pivot</t>
+  </si>
+  <si>
+    <t>Two-Foot Spin</t>
+  </si>
+  <si>
+    <t>Forward Arabesque</t>
+  </si>
+  <si>
+    <t>One-Half Flip</t>
+  </si>
+  <si>
+    <t>Waltz Jump</t>
+  </si>
+  <si>
+    <t>Backward Edges</t>
+  </si>
+  <si>
+    <t>Freestyle 2</t>
+  </si>
+  <si>
+    <t>Ballet Jump</t>
+  </si>
+  <si>
+    <t>One-Half Lutz</t>
+  </si>
+  <si>
+    <t>One-Foot Spin</t>
+  </si>
+  <si>
+    <t>Dance Step Sequence </t>
+  </si>
+  <si>
+    <t>Two Forward Arabesques</t>
+  </si>
+  <si>
+    <t>Jump Sequence</t>
+  </si>
+  <si>
+    <t>Freestyle 3</t>
+  </si>
+  <si>
+    <t>Salchow Jump</t>
+  </si>
+  <si>
+    <t>Change Foot Spin</t>
+  </si>
+  <si>
+    <t>Backward Arabesque</t>
+  </si>
+  <si>
+    <t>Backward Inside Pivot</t>
+  </si>
+  <si>
+    <t>Toe Loop Jump</t>
+  </si>
+  <si>
+    <t>Freestyle 4</t>
+  </si>
+  <si>
+    <t>Flip Jump</t>
+  </si>
+  <si>
+    <t>Loop Jump</t>
+  </si>
+  <si>
+    <t>Sit Spin</t>
+  </si>
+  <si>
+    <t>One-Half Loop Jump</t>
+  </si>
+  <si>
+    <t>Two Backward Arabesques</t>
+  </si>
+  <si>
+    <t>Freestyle 5</t>
+  </si>
+  <si>
+    <t>Lutz Jump</t>
+  </si>
+  <si>
+    <t>Axel Jump</t>
+  </si>
+  <si>
+    <t>Camel Spin</t>
+  </si>
+  <si>
+    <t>Camel-Sit-Upright Spin</t>
+  </si>
+  <si>
+    <t>Fast Back Scratch Spin</t>
+  </si>
+  <si>
+    <t>Freestyle 6</t>
+  </si>
+  <si>
+    <t>Split Jump</t>
+  </si>
+  <si>
+    <t>Split Falling Leaf Jump</t>
+  </si>
+  <si>
+    <t>Double Salchow Jump</t>
+  </si>
+  <si>
+    <t>Freestyle 7</t>
+  </si>
+  <si>
+    <t>Two Walley jumps in a Row</t>
+  </si>
+  <si>
+    <t>Flying Camel Spin</t>
+  </si>
+  <si>
+    <t>Freestyle 8</t>
+  </si>
+  <si>
+    <t>Double Loop Jump</t>
+  </si>
+  <si>
+    <t>Double Flip Jump</t>
+  </si>
+  <si>
+    <t>Split Lutz Jump</t>
+  </si>
+  <si>
+    <t>Camel-Jump-Camel Spin</t>
+  </si>
+  <si>
+    <t>Freestyle 9</t>
+  </si>
+  <si>
+    <t>Opposite Spin</t>
+  </si>
+  <si>
+    <t>Double Lutz Jump</t>
+  </si>
+  <si>
+    <t>Axel / Double Loop Jump Combination</t>
+  </si>
+  <si>
+    <t>Axel in Opposite Direction or Double Axel Jump</t>
+  </si>
+  <si>
+    <t>Jump Combination – Rocker or Counter Jump / Double Toe Assisted Jump / Double Loop</t>
+  </si>
+  <si>
+    <t>Flying Camel into a Jump Sit Spin</t>
+  </si>
+  <si>
+    <t>Dance Step Sequence – Straight Line Pattern</t>
+  </si>
+  <si>
+    <t>Freestyle 10</t>
+  </si>
+  <si>
+    <t>Double Axel / Double Toe Loop Jump Combination </t>
+  </si>
+  <si>
+    <t>Triple Edge Jump (skater’s choice)</t>
+  </si>
+  <si>
+    <t>Death Drop</t>
+  </si>
+  <si>
+    <t>Four Alternating Axels in a Row or Triple Toe Assist Jump</t>
+  </si>
+  <si>
+    <t>Creative Dance Step Sequence</t>
+  </si>
+  <si>
+    <t>Axel / One-Half Loop / Flip</t>
+  </si>
+  <si>
+    <t>Layback</t>
+  </si>
+  <si>
+    <t>Spin Combination</t>
+  </si>
+  <si>
+    <t>Dance Step Sequence</t>
+  </si>
+  <si>
+    <t>Double Toe Loop</t>
+  </si>
+  <si>
+    <t>Combination Spin</t>
+  </si>
+  <si>
+    <t>One-Foot Axel/ One-Quarter Flip/ Axel</t>
+  </si>
+  <si>
+    <t>Jump in Opposite Direction</t>
+  </si>
+  <si>
+    <t>Flying Sit Spin</t>
+  </si>
+  <si>
+    <t>One and One-Quarter Flip / One and One-Quarter Flip / Double Salchow</t>
+  </si>
+  <si>
+    <t>Three Butterfly Jumps in a Row</t>
+  </si>
+  <si>
+    <t>Double Jump to the Right and Double Jump to the Left (not in sequence)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +636,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +663,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF002350"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -447,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -461,6 +723,10 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +852,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$48</c:f>
+              <c:f>Data!$C$2:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -730,16 +996,34 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43349</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43350</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43352</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43353</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43354</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$48</c:f>
+              <c:f>Data!$M$2:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -880,6 +1164,24 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,10 +1484,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$48</c:f>
+              <c:f>Data!$C$2:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1326,16 +1628,34 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43349</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43350</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43352</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43353</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43354</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$48</c:f>
+              <c:f>Data!$Q$2:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1475,6 +1795,24 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1873,7 +2211,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.75</c:v>
+                  <c:v>36.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,6 +2294,376 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="483587880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Days Spent in Each Class</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Days Spent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$S$11:$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Pre Alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gamma</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Freestyle I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$U$11:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3012-4BD2-A3CA-E6B3C38C72D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="483587880"/>
+        <c:axId val="483590504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483587880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483590504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483590504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2166,6 +2874,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3199,6 +3947,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3806,6 +5057,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC51AB2-FDD0-445B-8C8A-B3B90303F3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4111,10 +5400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,7 +5428,7 @@
     <col min="20" max="20" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -4192,7 +5481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4210,7 +5499,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F48" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F54" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M2" s="4">
@@ -4235,7 +5524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4243,7 +5532,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C48" si="1">B3</f>
+        <f t="shared" ref="C3:C55" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -4270,18 +5559,18 @@
       </c>
       <c r="R3" s="4">
         <f>SUM(M:M)</f>
-        <v>121.95</v>
+        <v>140.94999999999999</v>
       </c>
       <c r="S3" s="4">
         <f>SUM(M19:M400)</f>
-        <v>80.2</v>
+        <v>99.2</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4352,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4420,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4454,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4488,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4530,8 +5819,11 @@
       <c r="T10" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4571,8 +5863,11 @@
         <f>SUM(M2:M4)</f>
         <v>7.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4612,8 +5907,11 @@
         <f>SUM(M5:M10)</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4653,8 +5951,11 @@
         <f>SUM(M11:M17)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4697,8 +5998,11 @@
         <f>SUM(M18:M32)</f>
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4738,8 +6042,11 @@
         <f>SUM(M33:M42)</f>
         <v>27.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4777,7 +6084,10 @@
       </c>
       <c r="T16" s="4">
         <f>SUM(M43:M400)</f>
-        <v>17.75</v>
+        <v>36.75</v>
+      </c>
+      <c r="U16">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -5788,6 +7098,9 @@
       <c r="M43" s="4">
         <v>2.25</v>
       </c>
+      <c r="N43" t="s">
+        <v>99</v>
+      </c>
       <c r="O43" t="s">
         <v>21</v>
       </c>
@@ -5843,10 +7156,10 @@
         <v>7.75</v>
       </c>
       <c r="N44" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" t="s">
         <v>88</v>
-      </c>
-      <c r="O44" t="s">
-        <v>89</v>
       </c>
       <c r="P44" t="s">
         <v>85</v>
@@ -5890,7 +7203,7 @@
         <v>2.75</v>
       </c>
       <c r="N45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
@@ -5927,7 +7240,7 @@
         <v>0.75</v>
       </c>
       <c r="N46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" t="s">
         <v>36</v>
@@ -5964,7 +7277,10 @@
         <v>0.5</v>
       </c>
       <c r="N47" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="O47" t="s">
+        <v>94</v>
       </c>
       <c r="P47" t="s">
         <v>85</v>
@@ -5998,13 +7314,244 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="O48" t="s">
+        <v>95</v>
       </c>
       <c r="P48" t="s">
         <v>85</v>
       </c>
       <c r="Q48">
         <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43350</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="1"/>
+        <v>43350</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="M49" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="O49" t="s">
+        <v>96</v>
+      </c>
+      <c r="P49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43351</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="1"/>
+        <v>43351</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30208333333333337</v>
+      </c>
+      <c r="M50" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43352</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="1"/>
+        <v>43352</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M51" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>101</v>
+      </c>
+      <c r="O51" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43353</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="1"/>
+        <v>43353</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P52" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43354</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="1"/>
+        <v>43354</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N53" t="s">
+        <v>106</v>
+      </c>
+      <c r="O53" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43355</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="1"/>
+        <v>43355</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="M54" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43356</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="1"/>
+        <v>43356</v>
       </c>
     </row>
   </sheetData>
@@ -6082,7 +7629,7 @@
         <v>1.75</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6094,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,4 +7782,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB340EFD-F3F6-409D-9A34-1F02F1C8F328}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6464DE9B-85BA-44B0-AB36-5F3D317DC6A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB5CA2-3ABD-45A4-B1CC-79E8AE176C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="4" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="181">
   <si>
     <t>Thursday</t>
   </si>
@@ -396,12 +401,6 @@
     <t>Days:</t>
   </si>
   <si>
-    <t>Barely Landing Loops</t>
-  </si>
-  <si>
-    <t>Landing Loops and Almost Flips, Attended FS3 practice with Lucy</t>
-  </si>
-  <si>
     <t>Private, Stroking, Group, Public</t>
   </si>
   <si>
@@ -414,9 +413,6 @@
     <t>Short Practice, Took Private Instead</t>
   </si>
   <si>
-    <t>First Ice Dance, Won $1 from Larry, Mary Lou's Stroking</t>
-  </si>
-  <si>
     <t>Freestyle 1</t>
   </si>
   <si>
@@ -625,6 +621,24 @@
   </si>
   <si>
     <t>Double Jump to the Right and Double Jump to the Left (not in sequence)</t>
+  </si>
+  <si>
+    <t>Barely Landing Loops and Almost Flips, Attended FS3 practice with Lucy</t>
+  </si>
+  <si>
+    <t>Barely Landing Loops with Sora</t>
+  </si>
+  <si>
+    <t>First Ice Dance, Won $1 from Larry, Mary Lou's Stroking, Cantilevers and knee slides</t>
+  </si>
+  <si>
+    <t>Knee Hurts Bad Bad</t>
+  </si>
+  <si>
+    <t>First Homeless Night, One Foot Spin Practice, Lightbuld with Arabesque</t>
+  </si>
+  <si>
+    <t>Bought Skates from Greg</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1498,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$54</c:f>
+              <c:f>Data!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1646,16 +1660,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$54</c:f>
+              <c:f>Data!$Q$2:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1813,6 +1830,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2581,7 +2604,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5400,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,6 +5528,9 @@
       <c r="M2" s="4">
         <v>2</v>
       </c>
+      <c r="N2" t="s">
+        <v>180</v>
+      </c>
       <c r="O2" t="s">
         <v>17</v>
       </c>
@@ -6087,7 +6113,7 @@
         <v>36.75</v>
       </c>
       <c r="U16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7385,7 +7411,7 @@
         <v>7.25</v>
       </c>
       <c r="N50" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="O50" t="s">
         <v>97</v>
@@ -7422,7 +7448,7 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
@@ -7459,10 +7485,10 @@
         <v>2.25</v>
       </c>
       <c r="N52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P52" t="s">
         <v>85</v>
@@ -7496,10 +7522,10 @@
         <v>0.75</v>
       </c>
       <c r="N53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P53" t="s">
         <v>85</v>
@@ -7533,7 +7559,7 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="P54" t="s">
         <v>85</v>
@@ -7552,6 +7578,29 @@
       <c r="C55" s="5">
         <f t="shared" si="1"/>
         <v>43356</v>
+      </c>
+      <c r="N55" t="s">
+        <v>179</v>
+      </c>
+      <c r="P55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>178</v>
+      </c>
+      <c r="P56" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7788,7 +7837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB340EFD-F3F6-409D-9A34-1F02F1C8F328}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -7808,243 +7857,243 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="H5" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" t="s">
         <v>173</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB5CA2-3ABD-45A4-B1CC-79E8AE176C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C54386-79B3-4DE7-B5DB-6807F17E9761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>Thursday</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Private, Stroking, Group, Public</t>
   </si>
   <si>
-    <t>Amanda's Stroking</t>
-  </si>
-  <si>
     <t>Public, Rehearsal, Private</t>
   </si>
   <si>
@@ -639,6 +636,12 @@
   </si>
   <si>
     <t>Bought Skates from Greg</t>
+  </si>
+  <si>
+    <t>Hurt Ankle On Waltz Jump</t>
+  </si>
+  <si>
+    <t>Amanda's Stroking, Gum Pain</t>
   </si>
 </sst>
 </file>
@@ -5425,8 +5428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5529,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -7376,6 +7379,9 @@
       <c r="M49" s="4">
         <v>2.75</v>
       </c>
+      <c r="N49" t="s">
+        <v>180</v>
+      </c>
       <c r="O49" t="s">
         <v>96</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>7.25</v>
       </c>
       <c r="N50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O50" t="s">
         <v>97</v>
@@ -7448,7 +7454,7 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
@@ -7485,7 +7491,7 @@
         <v>2.25</v>
       </c>
       <c r="N52" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="O52" t="s">
         <v>101</v>
@@ -7522,10 +7528,10 @@
         <v>0.75</v>
       </c>
       <c r="N53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P53" t="s">
         <v>85</v>
@@ -7559,7 +7565,7 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s">
         <v>85</v>
@@ -7580,7 +7586,7 @@
         <v>43356</v>
       </c>
       <c r="N55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P55" t="s">
         <v>85</v>
@@ -7594,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P56" t="s">
         <v>85</v>
@@ -7857,243 +7863,243 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C54386-79B3-4DE7-B5DB-6807F17E9761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A66C9E-83DC-418C-B846-DDB43A0FB81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="189">
   <si>
     <t>Thursday</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Extremely Low Confidence, Got Ice Chalet Jacket</t>
   </si>
   <si>
-    <t>Confidence Restored, Blades less sharp</t>
-  </si>
-  <si>
     <t>Stroking, Private</t>
   </si>
   <si>
@@ -398,9 +395,6 @@
     <t>First Salchow</t>
   </si>
   <si>
-    <t>Days:</t>
-  </si>
-  <si>
     <t>Private, Stroking, Group, Public</t>
   </si>
   <si>
@@ -620,21 +614,12 @@
     <t>Double Jump to the Right and Double Jump to the Left (not in sequence)</t>
   </si>
   <si>
-    <t>Barely Landing Loops and Almost Flips, Attended FS3 practice with Lucy</t>
-  </si>
-  <si>
     <t>Barely Landing Loops with Sora</t>
   </si>
   <si>
     <t>First Ice Dance, Won $1 from Larry, Mary Lou's Stroking, Cantilevers and knee slides</t>
   </si>
   <si>
-    <t>Knee Hurts Bad Bad</t>
-  </si>
-  <si>
-    <t>First Homeless Night, One Foot Spin Practice, Lightbuld with Arabesque</t>
-  </si>
-  <si>
     <t>Bought Skates from Greg</t>
   </si>
   <si>
@@ -642,6 +627,42 @@
   </si>
   <si>
     <t>Amanda's Stroking, Gum Pain</t>
+  </si>
+  <si>
+    <t>First Time Back on Ice; Knee still hurts</t>
+  </si>
+  <si>
+    <t>Rehearsal</t>
+  </si>
+  <si>
+    <t>Knee Hurts too bad to skate</t>
+  </si>
+  <si>
+    <t>Confidence Restored, Blades less sharp, Shoulder Pain</t>
+  </si>
+  <si>
+    <t>Dance, Group, Stroking</t>
+  </si>
+  <si>
+    <t>Knee Hurts</t>
+  </si>
+  <si>
+    <t>Knee Hurts Badly, Was going to leave early due to knee pain, but then Ellie came, Convinced Ellie to do Ice Dance</t>
+  </si>
+  <si>
+    <t>Public, Stroking, Group</t>
+  </si>
+  <si>
+    <t>Landing Loops and Almost Flips, Lucy Stroking, Attended FS3 practice with Lucy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Foot Spin Practice, Lightbulb with Arabesque, Knee Pain, First Homeless Night </t>
+  </si>
+  <si>
+    <t>Skating Days:</t>
+  </si>
+  <si>
+    <t>Total Days:</t>
   </si>
 </sst>
 </file>
@@ -869,10 +890,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$54</c:f>
+              <c:f>Data!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1031,16 +1052,31 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43356</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$54</c:f>
+              <c:f>Data!$M$2:$M$102</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1199,6 +1235,21 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,10 +1552,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$57</c:f>
+              <c:f>Data!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1666,16 +1717,28 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43356</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$57</c:f>
+              <c:f>Data!$Q$2:$Q$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1839,6 +1902,15 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2237,7 +2309,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.75</c:v>
+                  <c:v>46.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,7 +2517,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Days Spent in Each Class</a:t>
+              <a:t>Skating Days Spent in Each Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2607,7 +2679,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5426,10 +5498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38:N41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,9 +5524,11 @@
     <col min="18" max="18" width="10.42578125" customWidth="1"/>
     <col min="19" max="19" width="22.28515625" customWidth="1"/>
     <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +5581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5525,14 +5599,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F54" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F66" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M2" s="4">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -5553,7 +5627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5561,7 +5635,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C55" si="1">B3</f>
+        <f t="shared" ref="C3:C59" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -5588,18 +5662,18 @@
       </c>
       <c r="R3" s="4">
         <f>SUM(M:M)</f>
-        <v>140.94999999999999</v>
+        <v>150.94999999999999</v>
       </c>
       <c r="S3" s="4">
-        <f>SUM(M19:M400)</f>
-        <v>99.2</v>
+        <f>SUM(M19:M402)</f>
+        <v>109.2</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5636,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5670,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5704,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -5738,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5772,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5806,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5849,10 +5923,13 @@
         <v>80</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5895,8 +5972,12 @@
       <c r="U11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <f>C4-C2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -5939,8 +6020,12 @@
       <c r="U12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <f>C10-C5+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5983,8 +6068,12 @@
       <c r="U13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <f>C17-C11+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6030,8 +6119,12 @@
       <c r="U14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <f>C32-C18+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -6074,8 +6167,12 @@
       <c r="U15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <f>C42-C33+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -6112,11 +6209,15 @@
         <v>85</v>
       </c>
       <c r="T16" s="4">
-        <f>SUM(M43:M400)</f>
-        <v>36.75</v>
+        <f>SUM(M43:M402)</f>
+        <v>46.75</v>
       </c>
       <c r="U16">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <f>C59-C43+1</f>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7128,7 +7229,7 @@
         <v>2.25</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O43" t="s">
         <v>21</v>
@@ -7185,7 +7286,7 @@
         <v>7.75</v>
       </c>
       <c r="N44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O44" t="s">
         <v>88</v>
@@ -7309,7 +7410,7 @@
         <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P47" t="s">
         <v>85</v>
@@ -7343,10 +7444,10 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="O48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s">
         <v>85</v>
@@ -7380,10 +7481,10 @@
         <v>2.75</v>
       </c>
       <c r="N49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P49" t="s">
         <v>85</v>
@@ -7417,10 +7518,10 @@
         <v>7.25</v>
       </c>
       <c r="N50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P50" t="s">
         <v>85</v>
@@ -7454,7 +7555,7 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
@@ -7491,10 +7592,10 @@
         <v>2.25</v>
       </c>
       <c r="N52" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s">
         <v>85</v>
@@ -7528,10 +7629,10 @@
         <v>0.75</v>
       </c>
       <c r="N53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P53" t="s">
         <v>85</v>
@@ -7565,7 +7666,10 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="O54" t="s">
+        <v>184</v>
       </c>
       <c r="P54" t="s">
         <v>85</v>
@@ -7585,8 +7689,21 @@
         <f t="shared" si="1"/>
         <v>43356</v>
       </c>
+      <c r="D55" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="M55" s="4">
+        <v>3.75</v>
+      </c>
       <c r="N55" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P55" t="s">
         <v>85</v>
@@ -7599,13 +7716,144 @@
       <c r="A56" t="s">
         <v>1</v>
       </c>
+      <c r="B56" s="1">
+        <v>43357</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="1"/>
+        <v>43357</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="M56" s="4">
+        <v>3.25</v>
+      </c>
       <c r="N56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P56" t="s">
         <v>85</v>
       </c>
       <c r="Q56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43358</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="1"/>
+        <v>43358</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="M57" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>182</v>
+      </c>
+      <c r="O57" t="s">
+        <v>181</v>
+      </c>
+      <c r="P57" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43359</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="1"/>
+        <v>43359</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43361</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="1"/>
+        <v>43361</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>177</v>
+      </c>
+      <c r="O59" t="s">
+        <v>178</v>
+      </c>
+      <c r="P59" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q59">
         <v>5</v>
       </c>
     </row>
@@ -7697,7 +7945,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="K49" sqref="K48:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7863,243 +8111,243 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
         <v>171</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A66C9E-83DC-418C-B846-DDB43A0FB81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56261543-1D84-4FE3-A1CB-6A40B62701B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="202">
   <si>
     <t>Thursday</t>
   </si>
@@ -647,9 +647,6 @@
     <t>Knee Hurts</t>
   </si>
   <si>
-    <t>Knee Hurts Badly, Was going to leave early due to knee pain, but then Ellie came, Convinced Ellie to do Ice Dance</t>
-  </si>
-  <si>
     <t>Public, Stroking, Group</t>
   </si>
   <si>
@@ -663,6 +660,48 @@
   </si>
   <si>
     <t>Total Days:</t>
+  </si>
+  <si>
+    <t>Practiced jumps and spins the entire time</t>
+  </si>
+  <si>
+    <t>Dance, Group</t>
+  </si>
+  <si>
+    <t>Had to leave after group with parents</t>
+  </si>
+  <si>
+    <t>Private, Stroking, Group</t>
+  </si>
+  <si>
+    <t>Slow skating week due to parents, Late to Private, Amanda's Stroking</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal, No private Laurel Mad</t>
+  </si>
+  <si>
+    <t>Low attendence</t>
+  </si>
+  <si>
+    <t>Worked on edges and spins</t>
+  </si>
+  <si>
+    <t>Practice before Parents came</t>
+  </si>
+  <si>
+    <t>Dance, Group, Public</t>
+  </si>
+  <si>
+    <t>Right knee pain towards end, Missed Stroking for Work Picnic and lease sign, Skated with Ivy and Ivy's sister, Got Tony to sharpen skates</t>
+  </si>
+  <si>
+    <t>Knee Hurts Badly, Was going to leave early due to knee pain but then Ellie came, Convinced Ellie to do Ice Dance</t>
+  </si>
+  <si>
+    <t>Rehearsal, Private, Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't go to rehearsal, crowded, </t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1107,39 @@
                 <c:pt idx="57">
                   <c:v>43361</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>43363</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43368</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43370</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43374</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1250,6 +1322,36 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,6 +1832,39 @@
                 <c:pt idx="57">
                   <c:v>43361</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>43363</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43368</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43370</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43374</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1911,6 +2046,39 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2309,7 +2477,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.75</c:v>
+                  <c:v>69.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,7 +2847,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5498,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,7 +5767,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F66" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F65" si="0">E2-D2</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M2" s="4">
@@ -5635,7 +5803,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C59" si="1">B3</f>
+        <f t="shared" ref="C3:C70" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -5662,11 +5830,11 @@
       </c>
       <c r="R3" s="4">
         <f>SUM(M:M)</f>
-        <v>150.94999999999999</v>
+        <v>173.95</v>
       </c>
       <c r="S3" s="4">
         <f>SUM(M19:M402)</f>
-        <v>109.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M2:M18)</f>
@@ -5923,10 +6091,10 @@
         <v>80</v>
       </c>
       <c r="U10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -6210,14 +6378,14 @@
       </c>
       <c r="T16" s="4">
         <f>SUM(M43:M402)</f>
-        <v>46.75</v>
+        <v>69.75</v>
       </c>
       <c r="U16">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="V16">
-        <f>C59-C43+1</f>
-        <v>19</v>
+        <f>C70-C43+1</f>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7666,10 +7834,10 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P54" t="s">
         <v>85</v>
@@ -7703,7 +7871,10 @@
         <v>3.75</v>
       </c>
       <c r="N55" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
       </c>
       <c r="P55" t="s">
         <v>85</v>
@@ -7737,7 +7908,10 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="s">
-        <v>183</v>
+        <v>199</v>
+      </c>
+      <c r="O56" t="s">
+        <v>200</v>
       </c>
       <c r="P56" t="s">
         <v>85</v>
@@ -7854,6 +8028,399 @@
         <v>85</v>
       </c>
       <c r="Q59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43363</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="1"/>
+        <v>43363</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43364</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="1"/>
+        <v>43364</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N61" t="s">
+        <v>201</v>
+      </c>
+      <c r="P61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43365</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="1"/>
+        <v>43365</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="I62" s="2">
+        <f>H62-G62</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M62" s="4">
+        <v>6</v>
+      </c>
+      <c r="N62" t="s">
+        <v>198</v>
+      </c>
+      <c r="O62" t="s">
+        <v>197</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43366</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="1"/>
+        <v>43366</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M63" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>196</v>
+      </c>
+      <c r="O63" t="s">
+        <v>17</v>
+      </c>
+      <c r="P63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43367</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="1"/>
+        <v>43367</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M64" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>192</v>
+      </c>
+      <c r="O64" t="s">
+        <v>191</v>
+      </c>
+      <c r="P64" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43368</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="1"/>
+        <v>43368</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N65" t="s">
+        <v>194</v>
+      </c>
+      <c r="O65" t="s">
+        <v>178</v>
+      </c>
+      <c r="P65" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43370</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="1"/>
+        <v>43370</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ref="F66:F70" si="3">E66-D66</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M66" s="4">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>195</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43371</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="1"/>
+        <v>43371</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N67" t="s">
+        <v>193</v>
+      </c>
+      <c r="O67" t="s">
+        <v>178</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43372</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="1"/>
+        <v>43372</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="M68" s="4">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>190</v>
+      </c>
+      <c r="O68" t="s">
+        <v>189</v>
+      </c>
+      <c r="P68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43373</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="1"/>
+        <v>43373</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M69" s="4">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>188</v>
+      </c>
+      <c r="O69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P69" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43374</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="1"/>
+        <v>43374</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70">
         <v>5</v>
       </c>
     </row>
@@ -7945,7 +8512,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K48:K49"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56261543-1D84-4FE3-A1CB-6A40B62701B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACC5C9-A31B-4DC3-9335-1D91CFA11C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="220">
   <si>
     <t>Thursday</t>
   </si>
@@ -702,6 +702,60 @@
   </si>
   <si>
     <t xml:space="preserve">Didn't go to rehearsal, crowded, </t>
+  </si>
+  <si>
+    <t>FS, Rehearsal, FS</t>
+  </si>
+  <si>
+    <t>FS, Private, FS</t>
+  </si>
+  <si>
+    <t>Learned FS2 program, Extra FS practice due to theatrical comp</t>
+  </si>
+  <si>
+    <t>Getting really good one foot spins</t>
+  </si>
+  <si>
+    <t>High Confidence, knees hurt at end, worked on FS1 and 2 programs, learned to tack loops on to end of jumps, worked on full flip</t>
+  </si>
+  <si>
+    <t>FS, Private, FS, Private</t>
+  </si>
+  <si>
+    <t>Total Break Days:</t>
+  </si>
+  <si>
+    <t>Break Days:</t>
+  </si>
+  <si>
+    <t>Ankle hurts too badly to skate, knee pain, Pulled Glute on off ice axel, fell on head, hurt neck</t>
+  </si>
+  <si>
+    <t>FS, Private, FS, Private, Public</t>
+  </si>
+  <si>
+    <t>Competition, Won 1st for Beauty and Beast</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Outside Ankle Pain, </t>
+  </si>
+  <si>
+    <t>Did Jumps and spins the entire time</t>
+  </si>
+  <si>
+    <t>FS, Private, Public, Private</t>
+  </si>
+  <si>
+    <t>Running Time</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -929,10 +983,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$102</c:f>
+              <c:f>Data!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1139,16 +1193,37 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43380</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$102</c:f>
+              <c:f>Data!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1352,6 +1427,27 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,10 +1750,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$102</c:f>
+              <c:f>Data!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1864,16 +1960,37 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43380</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$102</c:f>
+              <c:f>Data!$Q$2:$Q$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2079,6 +2196,27 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2431,7 +2569,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$S$11:$S$16</c:f>
+              <c:f>Data!$T$11:$T$16</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2457,7 +2595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$11:$T$16</c:f>
+              <c:f>Data!$U$11:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2477,7 +2615,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.75</c:v>
+                  <c:v>86.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,7 +2939,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$S$11:$S$16</c:f>
+              <c:f>Data!$T$11:$T$16</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2827,7 +2965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$11:$U$16</c:f>
+              <c:f>Data!$V$11:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2847,7 +2985,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,6 +3114,789 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Spent vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Date</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Running Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>m/d;@</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>43286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43310</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43311</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43314</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43315</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43317</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43318</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43322</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43325</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43332</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43336</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43342</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43346</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43347</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43348</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43349</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43350</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43352</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43353</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43354</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43356</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43363</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43368</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43370</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43380</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$R$2:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97.45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106.45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>114.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>116.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>117.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>121.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>124.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>131.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>135.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>137.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>138.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>140.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>144.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>147.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>151.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>153.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>165.45</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>166.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>167.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>167.95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>169.95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>173.95</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>176.95</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>184.45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>184.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>188.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>190.95</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>190.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B051-496D-9474-977FF6267E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="575553080"/>
+        <c:axId val="575551112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575553080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="43285"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575551112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575551112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575553080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3180,6 +4101,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5199,6 +6160,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5361,6 +6838,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EC58CA-E1D5-4A5A-8AF0-E7482F4925B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5666,20 +7181,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="W66" sqref="W66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
@@ -5689,14 +7204,16 @@
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="25" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -5748,8 +7265,11 @@
       <c r="Q1" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="R1" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5785,17 +7305,21 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="4">
+        <f>M2</f>
+        <v>2</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5803,7 +7327,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C70" si="1">B3</f>
+        <f t="shared" ref="C3:C77" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -5829,19 +7353,23 @@
         <v>0</v>
       </c>
       <c r="R3" s="4">
+        <f>R2+M3</f>
+        <v>4.5</v>
+      </c>
+      <c r="S3" s="4">
         <f>SUM(M:M)</f>
-        <v>173.95</v>
-      </c>
-      <c r="S3" s="4">
-        <f>SUM(M19:M402)</f>
-        <v>132.19999999999999</v>
+        <v>190.95</v>
       </c>
       <c r="T3" s="4">
+        <f>SUM(M19:M401)</f>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="U3" s="4">
         <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5877,8 +7405,12 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="R4" s="4">
+        <f>R3+M4</f>
+        <v>7.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5911,8 +7443,12 @@
       <c r="Q5">
         <v>1</v>
       </c>
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R68" si="2">R4+M5</f>
+        <v>11.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5945,8 +7481,12 @@
       <c r="Q6">
         <v>1</v>
       </c>
+      <c r="R6" s="4">
+        <f t="shared" si="2"/>
+        <v>13.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -5979,8 +7519,12 @@
       <c r="Q7">
         <v>1</v>
       </c>
+      <c r="R7" s="4">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -6013,8 +7557,12 @@
       <c r="Q8">
         <v>1</v>
       </c>
+      <c r="R8" s="4">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6047,8 +7595,12 @@
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6084,20 +7636,27 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="R10" s="4">
+        <f t="shared" si="2"/>
+        <v>19.25</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>187</v>
       </c>
+      <c r="X10" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6130,22 +7689,31 @@
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="S11" t="s">
+      <c r="R11" s="4">
+        <f t="shared" si="2"/>
+        <v>22.25</v>
+      </c>
+      <c r="T11" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <f>SUM(M2:M4)</f>
         <v>7.75</v>
       </c>
-      <c r="U11">
+      <c r="V11">
+        <f>COUNTIF(P:P, "Pre Alpha")</f>
         <v>3</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f>C4-C2+1</f>
         <v>3</v>
       </c>
+      <c r="X11">
+        <f>W11-V11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6178,22 +7746,31 @@
       <c r="Q12">
         <v>2</v>
       </c>
-      <c r="S12" t="s">
+      <c r="R12" s="4">
+        <f t="shared" si="2"/>
+        <v>23.75</v>
+      </c>
+      <c r="T12" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <f>SUM(M5:M10)</f>
         <v>11.5</v>
       </c>
-      <c r="U12">
+      <c r="V12">
+        <f>COUNTIF(P:P, "Alpha")</f>
         <v>6</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f>C10-C5+1</f>
         <v>9</v>
       </c>
+      <c r="X12">
+        <f t="shared" ref="X12:X16" si="3">W12-V12</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6226,22 +7803,31 @@
       <c r="Q13">
         <v>2</v>
       </c>
-      <c r="S13" t="s">
+      <c r="R13" s="4">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="T13" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <f>SUM(M11:M17)</f>
         <v>19</v>
       </c>
-      <c r="U13">
+      <c r="V13">
+        <f>COUNTIF(P:P, "Beta")</f>
         <v>7</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f>C17-C11+1</f>
         <v>10</v>
       </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6277,22 +7863,31 @@
       <c r="Q14">
         <v>2</v>
       </c>
-      <c r="S14" t="s">
+      <c r="R14" s="4">
+        <f t="shared" si="2"/>
+        <v>26.75</v>
+      </c>
+      <c r="T14" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <f>SUM(M18:M32)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="U14">
+      <c r="V14">
+        <f>COUNTIF(P:P, "Gamma")</f>
         <v>15</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f>C32-C18+1</f>
         <v>19</v>
       </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -6325,22 +7920,31 @@
       <c r="Q15">
         <v>2.5</v>
       </c>
-      <c r="S15" t="s">
+      <c r="R15" s="4">
+        <f t="shared" si="2"/>
+        <v>28.75</v>
+      </c>
+      <c r="T15" t="s">
         <v>75</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <f>SUM(M33:M42)</f>
         <v>27.75</v>
       </c>
-      <c r="U15">
+      <c r="V15">
+        <f>COUNTIF(P:P, "Delta")</f>
         <v>10</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <f>C42-C33+1</f>
         <v>14</v>
       </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -6373,22 +7977,31 @@
       <c r="Q16">
         <v>2.5</v>
       </c>
-      <c r="S16" t="s">
+      <c r="R16" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
         <v>85</v>
       </c>
-      <c r="T16" s="4">
-        <f>SUM(M43:M402)</f>
-        <v>69.75</v>
-      </c>
-      <c r="U16">
-        <v>27</v>
+      <c r="U16" s="4">
+        <f>SUM(M43:M401)</f>
+        <v>86.75</v>
       </c>
       <c r="V16">
-        <f>C70-C43+1</f>
-        <v>32</v>
+        <f>COUNTIF(P:P, "Freestyle I")</f>
+        <v>35</v>
+      </c>
+      <c r="W16">
+        <f>C77-C43+1</f>
+        <v>41</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -6435,8 +8048,12 @@
       <c r="Q17">
         <v>2.5</v>
       </c>
+      <c r="R17" s="4">
+        <f t="shared" si="2"/>
+        <v>38.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -6472,8 +8089,15 @@
       <c r="Q18">
         <v>3</v>
       </c>
+      <c r="R18" s="4">
+        <f t="shared" si="2"/>
+        <v>41.75</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6509,8 +8133,16 @@
       <c r="Q19">
         <v>3</v>
       </c>
+      <c r="R19" s="4">
+        <f t="shared" si="2"/>
+        <v>42.75</v>
+      </c>
+      <c r="X19">
+        <f>SUM(X11:X16)</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -6543,8 +8175,12 @@
       <c r="Q20">
         <v>3</v>
       </c>
+      <c r="R20" s="4">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -6577,8 +8213,12 @@
       <c r="Q21">
         <v>3</v>
       </c>
+      <c r="R21" s="4">
+        <f t="shared" si="2"/>
+        <v>47.25</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -6611,8 +8251,12 @@
       <c r="Q22">
         <v>3</v>
       </c>
+      <c r="R22" s="4">
+        <f t="shared" si="2"/>
+        <v>51.25</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -6655,8 +8299,12 @@
       <c r="Q23">
         <v>3</v>
       </c>
+      <c r="R23" s="4">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -6689,8 +8337,12 @@
       <c r="Q24">
         <v>3</v>
       </c>
+      <c r="R24" s="4">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6723,8 +8375,12 @@
       <c r="Q25">
         <v>3</v>
       </c>
+      <c r="R25" s="4">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -6757,8 +8413,12 @@
       <c r="Q26">
         <v>3</v>
       </c>
+      <c r="R26" s="4">
+        <f t="shared" si="2"/>
+        <v>61.75</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -6794,8 +8454,12 @@
       <c r="Q27">
         <v>3</v>
       </c>
+      <c r="R27" s="4">
+        <f t="shared" si="2"/>
+        <v>63.75</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -6803,7 +8467,7 @@
         <v>43323</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28" si="2">B28</f>
+        <f t="shared" ref="C28" si="4">B28</f>
         <v>43323</v>
       </c>
       <c r="D28" s="3">
@@ -6841,8 +8505,12 @@
       <c r="Q28">
         <v>3</v>
       </c>
+      <c r="R28" s="4">
+        <f t="shared" si="2"/>
+        <v>67.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -6878,8 +8546,12 @@
       <c r="Q29">
         <v>3</v>
       </c>
+      <c r="R29" s="4">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6912,8 +8584,12 @@
       <c r="Q30">
         <v>3</v>
       </c>
+      <c r="R30" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -6949,8 +8625,12 @@
       <c r="Q31">
         <v>3</v>
       </c>
+      <c r="R31" s="4">
+        <f t="shared" si="2"/>
+        <v>72.45</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -6986,8 +8666,12 @@
       <c r="Q32">
         <v>3</v>
       </c>
+      <c r="R32" s="4">
+        <f t="shared" si="2"/>
+        <v>76.45</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -7030,8 +8714,12 @@
       <c r="Q33">
         <v>4</v>
       </c>
+      <c r="R33" s="4">
+        <f t="shared" si="2"/>
+        <v>78.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -7074,8 +8762,12 @@
       <c r="Q34">
         <v>4</v>
       </c>
+      <c r="R34" s="4">
+        <f t="shared" si="2"/>
+        <v>85.7</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7108,8 +8800,12 @@
       <c r="Q35">
         <v>4</v>
       </c>
+      <c r="R35" s="4">
+        <f t="shared" si="2"/>
+        <v>88.7</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -7145,8 +8841,12 @@
       <c r="Q36">
         <v>4</v>
       </c>
+      <c r="R36" s="4">
+        <f t="shared" si="2"/>
+        <v>89.7</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -7182,8 +8882,12 @@
       <c r="Q37">
         <v>4</v>
       </c>
+      <c r="R37" s="4">
+        <f t="shared" si="2"/>
+        <v>92.7</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -7216,8 +8920,12 @@
       <c r="Q38">
         <v>4</v>
       </c>
+      <c r="R38" s="4">
+        <f t="shared" si="2"/>
+        <v>95.2</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -7253,8 +8961,12 @@
       <c r="Q39">
         <v>4</v>
       </c>
+      <c r="R39" s="4">
+        <f t="shared" si="2"/>
+        <v>97.45</v>
+      </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -7290,8 +9002,12 @@
       <c r="Q40">
         <v>4</v>
       </c>
+      <c r="R40" s="4">
+        <f t="shared" si="2"/>
+        <v>99.95</v>
+      </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -7324,8 +9040,12 @@
       <c r="Q41">
         <v>4</v>
       </c>
+      <c r="R41" s="4">
+        <f t="shared" si="2"/>
+        <v>100.95</v>
+      </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -7371,8 +9091,12 @@
       <c r="Q42">
         <v>4</v>
       </c>
+      <c r="R42" s="4">
+        <f t="shared" si="2"/>
+        <v>104.2</v>
+      </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -7408,8 +9132,12 @@
       <c r="Q43">
         <v>5</v>
       </c>
+      <c r="R43" s="4">
+        <f t="shared" si="2"/>
+        <v>106.45</v>
+      </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -7465,8 +9193,12 @@
       <c r="Q44">
         <v>5</v>
       </c>
+      <c r="R44" s="4">
+        <f t="shared" si="2"/>
+        <v>114.2</v>
+      </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -7512,8 +9244,12 @@
       <c r="Q45">
         <v>5</v>
       </c>
+      <c r="R45" s="4">
+        <f t="shared" si="2"/>
+        <v>116.95</v>
+      </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -7549,8 +9285,12 @@
       <c r="Q46">
         <v>5</v>
       </c>
+      <c r="R46" s="4">
+        <f t="shared" si="2"/>
+        <v>117.7</v>
+      </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -7586,8 +9326,12 @@
       <c r="Q47">
         <v>5</v>
       </c>
+      <c r="R47" s="4">
+        <f t="shared" si="2"/>
+        <v>118.2</v>
+      </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -7623,8 +9367,12 @@
       <c r="Q48">
         <v>5</v>
       </c>
+      <c r="R48" s="4">
+        <f t="shared" si="2"/>
+        <v>121.95</v>
+      </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -7660,8 +9408,12 @@
       <c r="Q49">
         <v>5</v>
       </c>
+      <c r="R49" s="4">
+        <f t="shared" si="2"/>
+        <v>124.7</v>
+      </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -7697,8 +9449,12 @@
       <c r="Q50">
         <v>5</v>
       </c>
+      <c r="R50" s="4">
+        <f t="shared" si="2"/>
+        <v>131.94999999999999</v>
+      </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -7734,8 +9490,12 @@
       <c r="Q51">
         <v>5</v>
       </c>
+      <c r="R51" s="4">
+        <f t="shared" si="2"/>
+        <v>135.44999999999999</v>
+      </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7771,8 +9531,12 @@
       <c r="Q52">
         <v>5</v>
       </c>
+      <c r="R52" s="4">
+        <f t="shared" si="2"/>
+        <v>137.69999999999999</v>
+      </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -7808,8 +9572,12 @@
       <c r="Q53">
         <v>5</v>
       </c>
+      <c r="R53" s="4">
+        <f t="shared" si="2"/>
+        <v>138.44999999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -7845,8 +9613,12 @@
       <c r="Q54">
         <v>5</v>
       </c>
+      <c r="R54" s="4">
+        <f t="shared" si="2"/>
+        <v>140.94999999999999</v>
+      </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7882,8 +9654,12 @@
       <c r="Q55">
         <v>5</v>
       </c>
+      <c r="R55" s="4">
+        <f t="shared" si="2"/>
+        <v>144.69999999999999</v>
+      </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -7919,8 +9695,12 @@
       <c r="Q56">
         <v>5</v>
       </c>
+      <c r="R56" s="4">
+        <f t="shared" si="2"/>
+        <v>147.94999999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -7956,8 +9736,12 @@
       <c r="Q57">
         <v>5</v>
       </c>
+      <c r="R57" s="4">
+        <f t="shared" si="2"/>
+        <v>150.44999999999999</v>
+      </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -7993,8 +9777,12 @@
       <c r="Q58">
         <v>5</v>
       </c>
+      <c r="R58" s="4">
+        <f t="shared" si="2"/>
+        <v>150.44999999999999</v>
+      </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -8030,8 +9818,12 @@
       <c r="Q59">
         <v>5</v>
       </c>
+      <c r="R59" s="4">
+        <f t="shared" si="2"/>
+        <v>150.94999999999999</v>
+      </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -8061,8 +9853,12 @@
       <c r="Q60">
         <v>5</v>
       </c>
+      <c r="R60" s="4">
+        <f t="shared" si="2"/>
+        <v>151.94999999999999</v>
+      </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -8095,8 +9891,12 @@
       <c r="Q61">
         <v>5</v>
       </c>
+      <c r="R61" s="4">
+        <f t="shared" si="2"/>
+        <v>153.69999999999999</v>
+      </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -8142,8 +9942,12 @@
       <c r="Q62">
         <v>5</v>
       </c>
+      <c r="R62" s="4">
+        <f t="shared" si="2"/>
+        <v>159.69999999999999</v>
+      </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -8179,8 +9983,12 @@
       <c r="Q63">
         <v>5</v>
       </c>
+      <c r="R63" s="4">
+        <f t="shared" si="2"/>
+        <v>163.19999999999999</v>
+      </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8216,8 +10024,12 @@
       <c r="Q64">
         <v>5</v>
       </c>
+      <c r="R64" s="4">
+        <f t="shared" si="2"/>
+        <v>165.45</v>
+      </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -8253,8 +10065,12 @@
       <c r="Q65">
         <v>5</v>
       </c>
+      <c r="R65" s="4">
+        <f t="shared" si="2"/>
+        <v>166.2</v>
+      </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -8272,7 +10088,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F70" si="3">E66-D66</f>
+        <f t="shared" ref="F66:F77" si="5">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
@@ -8290,8 +10106,12 @@
       <c r="Q66">
         <v>5</v>
       </c>
+      <c r="R66" s="4">
+        <f t="shared" si="2"/>
+        <v>167.2</v>
+      </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -8309,7 +10129,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
       <c r="M67" s="4">
@@ -8327,8 +10147,12 @@
       <c r="Q67">
         <v>5</v>
       </c>
+      <c r="R67" s="4">
+        <f t="shared" si="2"/>
+        <v>167.95</v>
+      </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -8346,7 +10170,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="M68" s="4">
@@ -8364,8 +10188,12 @@
       <c r="Q68">
         <v>5</v>
       </c>
+      <c r="R68" s="4">
+        <f t="shared" si="2"/>
+        <v>169.95</v>
+      </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -8383,7 +10211,7 @@
         <v>0.6875</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="M69" s="4">
@@ -8401,8 +10229,12 @@
       <c r="Q69">
         <v>5</v>
       </c>
+      <c r="R69" s="4">
+        <f t="shared" ref="R69:R77" si="6">R68+M69</f>
+        <v>173.95</v>
+      </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8413,15 +10245,326 @@
         <f t="shared" si="1"/>
         <v>43374</v>
       </c>
+      <c r="D70" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="F70" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="M70" s="4">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>204</v>
+      </c>
+      <c r="O70" t="s">
+        <v>203</v>
       </c>
       <c r="P70" t="s">
         <v>85</v>
       </c>
       <c r="Q70">
         <v>5</v>
+      </c>
+      <c r="R70" s="4">
+        <f t="shared" si="6"/>
+        <v>176.95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43375</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="1"/>
+        <v>43375</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="5"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N71" t="s">
+        <v>205</v>
+      </c>
+      <c r="O71" t="s">
+        <v>202</v>
+      </c>
+      <c r="P71" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q71">
+        <v>5</v>
+      </c>
+      <c r="R71" s="4">
+        <f t="shared" si="6"/>
+        <v>178.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43376</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="1"/>
+        <v>43376</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="M72" s="4">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>206</v>
+      </c>
+      <c r="O72" t="s">
+        <v>207</v>
+      </c>
+      <c r="P72" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="6"/>
+        <v>181.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43377</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="1"/>
+        <v>43377</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I73" s="2">
+        <f>H73-G73</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="M73" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="N73" t="s">
+        <v>215</v>
+      </c>
+      <c r="O73" t="s">
+        <v>216</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73">
+        <v>5</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="6"/>
+        <v>184.45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43379</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="1"/>
+        <v>43379</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N74" t="s">
+        <v>212</v>
+      </c>
+      <c r="O74" t="s">
+        <v>213</v>
+      </c>
+      <c r="P74" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" si="6"/>
+        <v>184.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43380</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="1"/>
+        <v>43380</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M75" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>214</v>
+      </c>
+      <c r="O75" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75" s="4">
+        <f t="shared" si="6"/>
+        <v>188.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43381</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="1"/>
+        <v>43381</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I76" s="2">
+        <f>H76-G76</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="M76" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="N76" t="s">
+        <v>210</v>
+      </c>
+      <c r="O76" t="s">
+        <v>211</v>
+      </c>
+      <c r="P76" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="6"/>
+        <v>190.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43383</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77" s="4">
+        <f t="shared" si="6"/>
+        <v>190.95</v>
       </c>
     </row>
   </sheetData>
@@ -8512,7 +10655,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8527,7 +10670,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8548,105 +10691,168 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8659,7 +10865,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACC5C9-A31B-4DC3-9335-1D91CFA11C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36F846-0E71-45AD-B39D-D6F9CA0580B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
   <si>
     <t>Thursday</t>
   </si>
@@ -756,6 +756,21 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Jill's stroking and FS3/4 class</t>
+  </si>
+  <si>
+    <t>Almost landing axel, Last jump pulled glute badly</t>
+  </si>
+  <si>
+    <t>FS, Private, FS, Public, Private</t>
+  </si>
+  <si>
+    <t>Jump Training</t>
+  </si>
+  <si>
+    <t>With Laurel</t>
   </si>
 </sst>
 </file>
@@ -1215,6 +1230,12 @@
                 <c:pt idx="75">
                   <c:v>43383</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>43384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43385</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1448,6 +1469,12 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,6 +2009,12 @@
                 <c:pt idx="75">
                   <c:v>43383</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>43384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43385</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2217,6 +2250,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2615,7 +2654,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.75</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,7 +3024,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,6 +3545,12 @@
                 <c:pt idx="75">
                   <c:v>43383</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>43384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43385</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3741,7 +3786,13 @@
                   <c:v>190.95</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>190.95</c:v>
+                  <c:v>192.95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>196.45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>196.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7181,10 +7232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:X77"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,7 +7245,7 @@
     <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
@@ -7327,7 +7378,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C77" si="1">B3</f>
+        <f t="shared" ref="C3:C79" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -7358,11 +7409,11 @@
       </c>
       <c r="S3" s="4">
         <f>SUM(M:M)</f>
-        <v>190.95</v>
+        <v>196.45</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>149.19999999999999</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="U3" s="4">
         <f>SUM(M2:M18)</f>
@@ -7986,15 +8037,15 @@
       </c>
       <c r="U16" s="4">
         <f>SUM(M43:M401)</f>
-        <v>86.75</v>
+        <v>92.25</v>
       </c>
       <c r="V16">
         <f>COUNTIF(P:P, "Freestyle I")</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W16">
-        <f>C77-C43+1</f>
-        <v>41</v>
+        <f>C79-C43+1</f>
+        <v>43</v>
       </c>
       <c r="X16">
         <f t="shared" si="3"/>
@@ -10088,7 +10139,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F77" si="5">E66-D66</f>
+        <f t="shared" ref="F66:F78" si="5">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
@@ -10230,7 +10281,7 @@
         <v>5</v>
       </c>
       <c r="R69" s="4">
-        <f t="shared" ref="R69:R77" si="6">R68+M69</f>
+        <f t="shared" ref="R69:R79" si="6">R68+M69</f>
         <v>173.95</v>
       </c>
     </row>
@@ -10552,9 +10603,24 @@
         <f t="shared" si="1"/>
         <v>43383</v>
       </c>
+      <c r="D77" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F77" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="M77" s="4">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>220</v>
+      </c>
+      <c r="O77" t="s">
+        <v>183</v>
       </c>
       <c r="P77" t="s">
         <v>85</v>
@@ -10564,7 +10630,80 @@
       </c>
       <c r="R77" s="4">
         <f t="shared" si="6"/>
-        <v>190.95</v>
+        <v>192.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43384</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="1"/>
+        <v>43384</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="I78" s="2">
+        <f>H78-G78</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="M78" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>221</v>
+      </c>
+      <c r="O78" t="s">
+        <v>222</v>
+      </c>
+      <c r="P78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" si="6"/>
+        <v>196.45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43385</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="1"/>
+        <v>43385</v>
+      </c>
+      <c r="P79" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79" s="4">
+        <f t="shared" si="6"/>
+        <v>196.45</v>
       </c>
     </row>
   </sheetData>
@@ -10575,24 +10714,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0821BB42-05DB-4A44-8370-53F3AEF2480D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -10617,8 +10758,11 @@
       <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10643,6 +10787,63 @@
       </c>
       <c r="H2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43380</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43380</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3-D3</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43383</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43383</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4-D4</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -10654,7 +10855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36F846-0E71-45AD-B39D-D6F9CA0580B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABC736-0EAA-4527-AFD1-C3FC130C1702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="228">
   <si>
     <t>Thursday</t>
   </si>
@@ -758,9 +758,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Jill's stroking and FS3/4 class</t>
-  </si>
-  <si>
     <t>Almost landing axel, Last jump pulled glute badly</t>
   </si>
   <si>
@@ -771,6 +768,18 @@
   </si>
   <si>
     <t>With Laurel</t>
+  </si>
+  <si>
+    <t>Started Pairs with Laurel, One foot spins improving</t>
+  </si>
+  <si>
+    <t>Consitent flips</t>
+  </si>
+  <si>
+    <t>Skates sharpened from Cool Sports, Jill's stroking and FS3/4 class</t>
+  </si>
+  <si>
+    <t>Tried Hockey Skates and fell hard, Getting closer to landing Axel</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -873,6 +882,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,6 +1246,15 @@
                 <c:pt idx="77">
                   <c:v>43385</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43387</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43388</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1475,6 +1494,15 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,6 +2043,15 @@
                 <c:pt idx="77">
                   <c:v>43385</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43387</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43388</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2256,6 +2293,15 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2654,7 +2700,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.25</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,7 +3070,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,6 +3597,15 @@
                 <c:pt idx="77">
                   <c:v>43385</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43387</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43388</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3792,7 +3847,16 @@
                   <c:v>196.45</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>196.45</c:v>
+                  <c:v>200.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>204.45</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>208.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>208.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7232,10 +7296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7378,7 +7442,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C79" si="1">B3</f>
+        <f t="shared" ref="C3:C82" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -7409,11 +7473,11 @@
       </c>
       <c r="S3" s="4">
         <f>SUM(M:M)</f>
-        <v>196.45</v>
+        <v>208.2</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>154.69999999999999</v>
+        <v>166.45</v>
       </c>
       <c r="U3" s="4">
         <f>SUM(M2:M18)</f>
@@ -7817,7 +7881,7 @@
         <v>9</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:X16" si="3">W12-V12</f>
+        <f t="shared" ref="X12:X15" si="3">W12-V12</f>
         <v>3</v>
       </c>
     </row>
@@ -8037,18 +8101,18 @@
       </c>
       <c r="U16" s="4">
         <f>SUM(M43:M401)</f>
-        <v>92.25</v>
+        <v>104</v>
       </c>
       <c r="V16">
         <f>COUNTIF(P:P, "Freestyle I")</f>
-        <v>37</v>
-      </c>
-      <c r="W16">
-        <f>C79-C43+1</f>
-        <v>43</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="W16" s="15">
+        <f>(INDEX(C:C,COUNTA(C:C))) - C43 + 1</f>
+        <v>46</v>
+      </c>
+      <c r="X16" s="15">
+        <f>W16-V16</f>
         <v>6</v>
       </c>
     </row>
@@ -10139,7 +10203,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F78" si="5">E66-D66</f>
+        <f t="shared" ref="F66:F81" si="5">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
@@ -10281,7 +10345,7 @@
         <v>5</v>
       </c>
       <c r="R69" s="4">
-        <f t="shared" ref="R69:R79" si="6">R68+M69</f>
+        <f t="shared" ref="R69:R82" si="6">R68+M69</f>
         <v>173.95</v>
       </c>
     </row>
@@ -10617,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O77" t="s">
         <v>183</v>
@@ -10668,10 +10732,10 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="s">
+        <v>220</v>
+      </c>
+      <c r="O78" t="s">
         <v>221</v>
-      </c>
-      <c r="O78" t="s">
-        <v>222</v>
       </c>
       <c r="P78" t="s">
         <v>85</v>
@@ -10695,6 +10759,25 @@
         <f t="shared" si="1"/>
         <v>43385</v>
       </c>
+      <c r="D79" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15625</v>
+      </c>
+      <c r="M79" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="N79" t="s">
+        <v>225</v>
+      </c>
+      <c r="O79" t="s">
+        <v>21</v>
+      </c>
       <c r="P79" t="s">
         <v>85</v>
       </c>
@@ -10703,7 +10786,111 @@
       </c>
       <c r="R79" s="4">
         <f t="shared" si="6"/>
-        <v>196.45</v>
+        <v>200.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43386</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="1"/>
+        <v>43386</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="M80" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="N80" t="s">
+        <v>227</v>
+      </c>
+      <c r="O80" t="s">
+        <v>96</v>
+      </c>
+      <c r="P80" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" si="6"/>
+        <v>204.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43387</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="1"/>
+        <v>43387</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15625</v>
+      </c>
+      <c r="M81" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="N81" t="s">
+        <v>224</v>
+      </c>
+      <c r="O81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+      <c r="R81" s="4">
+        <f t="shared" si="6"/>
+        <v>208.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43388</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="1"/>
+        <v>43388</v>
+      </c>
+      <c r="P82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" si="6"/>
+        <v>208.2</v>
       </c>
     </row>
   </sheetData>
@@ -10813,7 +11000,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10840,10 +11027,10 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
         <v>223</v>
-      </c>
-      <c r="I4" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -10855,7 +11042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABC736-0EAA-4527-AFD1-C3FC130C1702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B13D63-2DEB-4932-B067-056CB096E529}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="236">
   <si>
     <t>Thursday</t>
   </si>
@@ -665,12 +665,6 @@
     <t>Practiced jumps and spins the entire time</t>
   </si>
   <si>
-    <t>Dance, Group</t>
-  </si>
-  <si>
-    <t>Had to leave after group with parents</t>
-  </si>
-  <si>
     <t>Private, Stroking, Group</t>
   </si>
   <si>
@@ -704,12 +698,6 @@
     <t xml:space="preserve">Didn't go to rehearsal, crowded, </t>
   </si>
   <si>
-    <t>FS, Rehearsal, FS</t>
-  </si>
-  <si>
-    <t>FS, Private, FS</t>
-  </si>
-  <si>
     <t>Learned FS2 program, Extra FS practice due to theatrical comp</t>
   </si>
   <si>
@@ -719,9 +707,6 @@
     <t>High Confidence, knees hurt at end, worked on FS1 and 2 programs, learned to tack loops on to end of jumps, worked on full flip</t>
   </si>
   <si>
-    <t>FS, Private, FS, Private</t>
-  </si>
-  <si>
     <t>Total Break Days:</t>
   </si>
   <si>
@@ -731,9 +716,6 @@
     <t>Ankle hurts too badly to skate, knee pain, Pulled Glute on off ice axel, fell on head, hurt neck</t>
   </si>
   <si>
-    <t>FS, Private, FS, Private, Public</t>
-  </si>
-  <si>
     <t>Competition, Won 1st for Beauty and Beast</t>
   </si>
   <si>
@@ -746,9 +728,6 @@
     <t>Did Jumps and spins the entire time</t>
   </si>
   <si>
-    <t>FS, Private, Public, Private</t>
-  </si>
-  <si>
     <t>Running Time</t>
   </si>
   <si>
@@ -761,9 +740,6 @@
     <t>Almost landing axel, Last jump pulled glute badly</t>
   </si>
   <si>
-    <t>FS, Private, FS, Public, Private</t>
-  </si>
-  <si>
     <t>Jump Training</t>
   </si>
   <si>
@@ -779,7 +755,55 @@
     <t>Skates sharpened from Cool Sports, Jill's stroking and FS3/4 class</t>
   </si>
   <si>
-    <t>Tried Hockey Skates and fell hard, Getting closer to landing Axel</t>
+    <t>Went to FS2 Group</t>
+  </si>
+  <si>
+    <t>Lucie's Stroking, Went to FS3 Group, Waltzer Rehearsal</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice</t>
+  </si>
+  <si>
+    <t>FS Ice, Rehearsal, FS Ice</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice, Private</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, Public, Private</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice, Private, Public</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice, Public, Private</t>
+  </si>
+  <si>
+    <t>Private, FS Ice, FS2, Public</t>
+  </si>
+  <si>
+    <t>Stroking, FS3, Rehearal, FS Practice</t>
+  </si>
+  <si>
+    <t>Dance, FS1, Stroking, Public</t>
+  </si>
+  <si>
+    <t>Tried Hockey Skates and fell hard, Getting closer to landing Axel, Larry FS1</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS1</t>
+  </si>
+  <si>
+    <t>Dance, FS1</t>
+  </si>
+  <si>
+    <t>Had to leave after group with parents, Larry FS1</t>
+  </si>
+  <si>
+    <t>Rehearsal, FS Ice, Public, Stroking, Private, Public</t>
+  </si>
+  <si>
+    <t>Fixed Waltz Jump and baby Axels, First successful change foot spin, getting better at camels and sit spins, Courier Knives Rehearsal, Laurel's Basics Stroking, Ribs and Sternum Hurt</t>
   </si>
 </sst>
 </file>
@@ -887,7 +911,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1255,6 +1287,15 @@
                 <c:pt idx="80">
                   <c:v>43388</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>43390</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43391</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43392</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1503,6 +1544,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,6 +2102,15 @@
                 <c:pt idx="80">
                   <c:v>43388</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>43390</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43391</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43392</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2302,6 +2361,15 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2700,7 +2768,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104</c:v>
+                  <c:v>113.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,7 +3138,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3606,6 +3674,15 @@
                 <c:pt idx="80">
                   <c:v>43388</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>43390</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43391</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43392</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3856,7 +3933,16 @@
                   <c:v>208.2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>208.2</c:v>
+                  <c:v>210.95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>212.95</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>217.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>217.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7296,10 +7382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:X82"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7310,10 +7396,10 @@
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
@@ -7381,7 +7467,7 @@
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7442,7 +7528,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C82" si="1">B3</f>
+        <f t="shared" ref="C3:C85" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -7473,11 +7559,11 @@
       </c>
       <c r="S3" s="4">
         <f>SUM(M:M)</f>
-        <v>208.2</v>
+        <v>217.7</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>166.45</v>
+        <v>175.95</v>
       </c>
       <c r="U3" s="4">
         <f>SUM(M2:M18)</f>
@@ -7768,7 +7854,7 @@
         <v>187</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -8101,19 +8187,19 @@
       </c>
       <c r="U16" s="4">
         <f>SUM(M43:M401)</f>
-        <v>104</v>
+        <v>113.5</v>
       </c>
       <c r="V16">
         <f>COUNTIF(P:P, "Freestyle I")</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W16" s="15">
         <f>(INDEX(C:C,COUNTA(C:C))) - C43 + 1</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X16" s="15">
         <f>W16-V16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -8209,7 +8295,7 @@
         <v>41.75</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -8254,7 +8340,7 @@
       </c>
       <c r="X19">
         <f>SUM(X11:X16)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -9799,10 +9885,10 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P56" t="s">
         <v>85</v>
@@ -9998,7 +10084,7 @@
         <v>1.75</v>
       </c>
       <c r="N61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P61" t="s">
         <v>85</v>
@@ -10046,10 +10132,10 @@
         <v>6</v>
       </c>
       <c r="N62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P62" t="s">
         <v>85</v>
@@ -10087,7 +10173,7 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O63" t="s">
         <v>17</v>
@@ -10128,10 +10214,10 @@
         <v>2.25</v>
       </c>
       <c r="N64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P64" t="s">
         <v>85</v>
@@ -10169,7 +10255,7 @@
         <v>0.75</v>
       </c>
       <c r="N65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" t="s">
         <v>178</v>
@@ -10203,14 +10289,14 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F81" si="5">E66-D66</f>
+        <f t="shared" ref="F66:F84" si="5">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" t="s">
         <v>20</v>
@@ -10251,7 +10337,7 @@
         <v>0.75</v>
       </c>
       <c r="N67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" t="s">
         <v>178</v>
@@ -10292,10 +10378,10 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="O68" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="P68" t="s">
         <v>85</v>
@@ -10345,7 +10431,7 @@
         <v>5</v>
       </c>
       <c r="R69" s="4">
-        <f t="shared" ref="R69:R82" si="6">R68+M69</f>
+        <f t="shared" ref="R69:R85" si="6">R68+M69</f>
         <v>173.95</v>
       </c>
     </row>
@@ -10374,10 +10460,10 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O70" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="P70" t="s">
         <v>85</v>
@@ -10415,10 +10501,10 @@
         <v>1.75</v>
       </c>
       <c r="N71" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O71" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="P71" t="s">
         <v>85</v>
@@ -10456,10 +10542,10 @@
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O72" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="P72" t="s">
         <v>85</v>
@@ -10507,10 +10593,10 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O73" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="P73" t="s">
         <v>85</v>
@@ -10548,10 +10634,10 @@
         <v>0.25</v>
       </c>
       <c r="N74" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O74" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P74" t="s">
         <v>85</v>
@@ -10589,7 +10675,7 @@
         <v>3.5</v>
       </c>
       <c r="N75" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -10640,10 +10726,10 @@
         <v>2.75</v>
       </c>
       <c r="N76" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O76" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P76" t="s">
         <v>85</v>
@@ -10681,10 +10767,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O77" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="P77" t="s">
         <v>85</v>
@@ -10732,10 +10818,10 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O78" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P78" t="s">
         <v>85</v>
@@ -10773,7 +10859,7 @@
         <v>3.75</v>
       </c>
       <c r="N79" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
@@ -10814,10 +10900,10 @@
         <v>4.25</v>
       </c>
       <c r="N80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O80" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="P80" t="s">
         <v>85</v>
@@ -10855,7 +10941,7 @@
         <v>3.75</v>
       </c>
       <c r="N81" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
@@ -10882,6 +10968,45 @@
         <f t="shared" si="1"/>
         <v>43388</v>
       </c>
+      <c r="D82" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="5"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I82" s="2">
+        <f>H82-G82</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="L82" s="2">
+        <f>K82-J82</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="M82" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="N82" t="s">
+        <v>219</v>
+      </c>
+      <c r="O82" t="s">
+        <v>227</v>
+      </c>
       <c r="P82" t="s">
         <v>85</v>
       </c>
@@ -10890,10 +11015,119 @@
       </c>
       <c r="R82" s="4">
         <f t="shared" si="6"/>
-        <v>208.2</v>
+        <v>210.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43390</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="1"/>
+        <v>43390</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="M83" s="4">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>220</v>
+      </c>
+      <c r="O83" t="s">
+        <v>228</v>
+      </c>
+      <c r="P83" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q83">
+        <v>5</v>
+      </c>
+      <c r="R83" s="4">
+        <f t="shared" si="6"/>
+        <v>212.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="1"/>
+        <v>43391</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="M84" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="N84" t="s">
+        <v>235</v>
+      </c>
+      <c r="O84" t="s">
+        <v>234</v>
+      </c>
+      <c r="P84" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" si="6"/>
+        <v>217.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43392</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="1"/>
+        <v>43392</v>
+      </c>
+      <c r="P85" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85" s="4">
+        <f t="shared" si="6"/>
+        <v>217.7</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:R542">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11000,7 +11234,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -11027,10 +11261,10 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -11042,8 +11276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11080,7 +11314,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11088,7 +11322,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11096,7 +11330,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11104,7 +11338,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11112,7 +11346,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11120,7 +11354,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11128,7 +11362,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11136,7 +11370,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11144,7 +11378,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11152,7 +11386,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11160,7 +11394,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -11168,7 +11402,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11176,7 +11410,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -11184,7 +11418,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11192,7 +11426,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -11200,7 +11434,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -11208,7 +11442,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -11216,7 +11450,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -11224,7 +11458,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -11232,7 +11466,7 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -11240,7 +11474,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11250,15 +11484,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB340EFD-F3F6-409D-9A34-1F02F1C8F328}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
@@ -11270,244 +11504,395 @@
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="14" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="14" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="14" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="14" t="s">
+    </row>
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="14" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="14" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="14" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>159</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B13D63-2DEB-4932-B067-056CB096E529}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4687B36-F1F9-4C11-8712-83BCCD603307}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Off Ice Training" sheetId="4" r:id="rId2"/>
-    <sheet name="Graphs" sheetId="2" r:id="rId3"/>
-    <sheet name="Skater Evaluation" sheetId="3" r:id="rId4"/>
-    <sheet name="Test Requirements" sheetId="5" r:id="rId5"/>
+    <sheet name="Testing Scores" sheetId="6" r:id="rId2"/>
+    <sheet name="Off Ice Training" sheetId="4" r:id="rId3"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId4"/>
+    <sheet name="Skater Evaluation" sheetId="3" r:id="rId5"/>
+    <sheet name="Test Requirements" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="239">
   <si>
     <t>Thursday</t>
   </si>
@@ -804,6 +805,15 @@
   </si>
   <si>
     <t>Fixed Waltz Jump and baby Axels, First successful change foot spin, getting better at camels and sit spins, Courier Knives Rehearsal, Laurel's Basics Stroking, Ribs and Sternum Hurt</t>
+  </si>
+  <si>
+    <t>Passed Ice Dance 1, Compulsory FS1/FS2 Class with Mary Lou, Mary Lou Stroking, Worked on Programs in Private</t>
+  </si>
+  <si>
+    <t>Dance, FS1, Stroking, Private</t>
+  </si>
+  <si>
+    <t>Halloween Party, Skates Sharpened</t>
   </si>
 </sst>
 </file>
@@ -1296,6 +1306,27 @@
                 <c:pt idx="83">
                   <c:v>43392</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>43393</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43398</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1553,6 +1584,30 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,6 +2166,27 @@
                 <c:pt idx="83">
                   <c:v>43392</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>43393</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43398</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2370,6 +2446,27 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2768,7 +2865,7 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.5</c:v>
+                  <c:v>134.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,7 +3235,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,6 +3780,27 @@
                 <c:pt idx="83">
                   <c:v>43392</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>43393</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43398</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3942,7 +4060,28 @@
                   <c:v>217.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>217.7</c:v>
+                  <c:v>220.45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>228.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>230.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>230.95</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>233.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>235.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>238.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7382,10 +7521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7528,7 +7667,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C85" si="1">B3</f>
+        <f t="shared" ref="C3:C93" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -7559,11 +7698,11 @@
       </c>
       <c r="S3" s="4">
         <f>SUM(M:M)</f>
-        <v>217.7</v>
+        <v>238.95</v>
       </c>
       <c r="T3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>175.95</v>
+        <v>197.2</v>
       </c>
       <c r="U3" s="4">
         <f>SUM(M2:M18)</f>
@@ -8187,19 +8326,19 @@
       </c>
       <c r="U16" s="4">
         <f>SUM(M43:M401)</f>
-        <v>113.5</v>
+        <v>134.75</v>
       </c>
       <c r="V16">
         <f>COUNTIF(P:P, "Freestyle I")</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W16" s="15">
         <f>(INDEX(C:C,COUNTA(C:C))) - C43 + 1</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X16" s="15">
         <f>W16-V16</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -8340,7 +8479,7 @@
       </c>
       <c r="X19">
         <f>SUM(X11:X16)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -10289,7 +10428,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F84" si="5">E66-D66</f>
+        <f t="shared" ref="F66:F92" si="5">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
@@ -10431,7 +10570,7 @@
         <v>5</v>
       </c>
       <c r="R69" s="4">
-        <f t="shared" ref="R69:R85" si="6">R68+M69</f>
+        <f t="shared" ref="R69:R92" si="6">R68+M69</f>
         <v>173.95</v>
       </c>
     </row>
@@ -11111,6 +11250,19 @@
         <f t="shared" si="1"/>
         <v>43392</v>
       </c>
+      <c r="D85" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="M85" s="4">
+        <v>2.75</v>
+      </c>
       <c r="P85" t="s">
         <v>85</v>
       </c>
@@ -11119,7 +11271,294 @@
       </c>
       <c r="R85" s="4">
         <f t="shared" si="6"/>
-        <v>217.7</v>
+        <v>220.45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43393</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="1"/>
+        <v>43393</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="M86" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="P86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86" s="4">
+        <f t="shared" si="6"/>
+        <v>224.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43394</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="1"/>
+        <v>43394</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M87" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="P87" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="R87" s="4">
+        <f t="shared" si="6"/>
+        <v>228.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43395</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="1"/>
+        <v>43395</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="5"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I88" s="2">
+        <f>H88-G88</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="M88" s="4">
+        <v>2</v>
+      </c>
+      <c r="P88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88" s="4">
+        <f t="shared" si="6"/>
+        <v>230.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="1"/>
+        <v>43397</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="5"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="P89" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89" s="4">
+        <f t="shared" si="6"/>
+        <v>230.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43398</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="1"/>
+        <v>43398</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="5"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="I90" s="2">
+        <f>H90-G90</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M90" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="P90" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+      <c r="R90" s="4">
+        <f t="shared" si="6"/>
+        <v>233.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43399</v>
+      </c>
+      <c r="C91" s="5">
+        <f t="shared" si="1"/>
+        <v>43399</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="5"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M91" s="4">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>238</v>
+      </c>
+      <c r="O91" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91" s="4">
+        <f t="shared" si="6"/>
+        <v>235.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43400</v>
+      </c>
+      <c r="C92" s="5">
+        <f t="shared" si="1"/>
+        <v>43400</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I92" s="2">
+        <f>H92-G92</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M92" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="N92" t="s">
+        <v>236</v>
+      </c>
+      <c r="O92" t="s">
+        <v>237</v>
+      </c>
+      <c r="P92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92" s="4">
+        <f t="shared" si="6"/>
+        <v>238.95</v>
       </c>
     </row>
   </sheetData>
@@ -11134,6 +11573,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567847FE-064D-4C62-A1EF-8A9B93147086}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0821BB42-05DB-4A44-8370-53F3AEF2480D}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -11272,11 +11723,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -11287,7 +11738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5086004E-F17D-426F-8B07-6579D28C495B}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -11482,7 +11933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB340EFD-F3F6-409D-9A34-1F02F1C8F328}">
   <dimension ref="A1:F84"/>
   <sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4687B36-F1F9-4C11-8712-83BCCD603307}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A37A32-9491-4854-8E40-B06729715349}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="254">
   <si>
     <t>Thursday</t>
   </si>
@@ -814,6 +814,51 @@
   </si>
   <si>
     <t>Halloween Party, Skates Sharpened</t>
+  </si>
+  <si>
+    <t>Passed FS1</t>
+  </si>
+  <si>
+    <t>Freestyle II</t>
+  </si>
+  <si>
+    <t>Freestyle III</t>
+  </si>
+  <si>
+    <t>Passed FS2</t>
+  </si>
+  <si>
+    <t>FS I</t>
+  </si>
+  <si>
+    <t>FS II</t>
+  </si>
+  <si>
+    <t>FS III</t>
+  </si>
+  <si>
+    <t>After Disney on Ice</t>
+  </si>
+  <si>
+    <t>Last Practice before Tests</t>
+  </si>
+  <si>
+    <t>FS Ice, Private</t>
+  </si>
+  <si>
+    <t>Test Session</t>
+  </si>
+  <si>
+    <t>Dance Class</t>
+  </si>
+  <si>
+    <t>Dance Class (int)</t>
+  </si>
+  <si>
+    <t>Dance I</t>
+  </si>
+  <si>
+    <t>Dance II</t>
   </si>
 </sst>
 </file>
@@ -1327,6 +1372,21 @@
                 <c:pt idx="90">
                   <c:v>43400</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43404</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1608,6 +1668,18 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,6 +2259,21 @@
                 <c:pt idx="90">
                   <c:v>43400</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43404</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2468,6 +2555,21 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,9 +2849,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Hours Spent</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2819,9 +2918,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$T$11:$T$16</c:f>
+              <c:f>Data!$V$11:$V$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -2838,17 +2937,23 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Freestyle I</c:v>
+                  <c:v>FS I</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FS II</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FS III</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$11:$U$16</c:f>
+              <c:f>Data!$W$11:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
                 </c:pt>
@@ -2865,7 +2970,13 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.75</c:v>
+                  <c:v>137.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3117,9 +3228,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Days Spent</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3189,9 +3297,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$T$11:$T$16</c:f>
+              <c:f>Data!$V$11:$V$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -3208,17 +3316,23 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Freestyle I</c:v>
+                  <c:v>FS I</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FS II</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FS III</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$11:$V$16</c:f>
+              <c:f>Data!$X$11:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3235,7 +3349,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,7 +3621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$R$1</c:f>
+              <c:f>Data!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3801,12 +3921,27 @@
                 <c:pt idx="90">
                   <c:v>43400</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43404</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$R$2:$R$101</c:f>
+              <c:f>Data!$T$2:$T$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4082,6 +4217,21 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>238.95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>239.95</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>240.95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>241.45</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>241.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>241.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7521,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N92" sqref="N92"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7544,16 +7694,18 @@
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="25" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -7606,10 +7758,16 @@
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7645,21 +7803,21 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="4">
+      <c r="T2" s="4">
         <f>M2</f>
         <v>2</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7667,7 +7825,7 @@
         <v>43287</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C93" si="1">B3</f>
+        <f t="shared" ref="C3:C95" si="1">B3</f>
         <v>43287</v>
       </c>
       <c r="D3" s="3">
@@ -7692,24 +7850,24 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="4">
-        <f>R2+M3</f>
+      <c r="T3" s="4">
+        <f>T2+M3</f>
         <v>4.5</v>
       </c>
-      <c r="S3" s="4">
+      <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>238.95</v>
-      </c>
-      <c r="T3" s="4">
+        <v>241.95</v>
+      </c>
+      <c r="V3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>197.2</v>
-      </c>
-      <c r="U3" s="4">
+        <v>200.2</v>
+      </c>
+      <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7745,12 +7903,12 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="4">
-        <f>R3+M4</f>
+      <c r="T4" s="4">
+        <f>T3+M4</f>
         <v>7.75</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7783,12 +7941,12 @@
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R5" s="4">
-        <f t="shared" ref="R5:R68" si="2">R4+M5</f>
+      <c r="T5" s="4">
+        <f>T4+M5</f>
         <v>11.25</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7821,12 +7979,12 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" s="4">
-        <f t="shared" si="2"/>
+      <c r="T6" s="4">
+        <f>T5+M6</f>
         <v>13.25</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -7859,12 +8017,12 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" s="4">
-        <f t="shared" si="2"/>
+      <c r="T7" s="4">
+        <f>T6+M7</f>
         <v>14.25</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7897,12 +8055,12 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" s="4">
-        <f t="shared" si="2"/>
+      <c r="T8" s="4">
+        <f>T7+M8</f>
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -7935,12 +8093,12 @@
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9" s="4">
-        <f t="shared" si="2"/>
+      <c r="T9" s="4">
+        <f>T8+M9</f>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7976,27 +8134,27 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10" s="4">
-        <f t="shared" si="2"/>
+      <c r="T10" s="4">
+        <f>T9+M10</f>
         <v>19.25</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="Y10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="Z10" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8029,31 +8187,31 @@
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="R11" s="4">
-        <f t="shared" si="2"/>
+      <c r="T11" s="4">
+        <f>T10+M11</f>
         <v>22.25</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <f>SUM(M2:M4)</f>
         <v>7.75</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <f>COUNTIF(P:P, "Pre Alpha")</f>
         <v>3</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f>C4-C2+1</f>
         <v>3</v>
       </c>
-      <c r="X11">
-        <f>W11-V11</f>
+      <c r="Z11">
+        <f>Y11-X11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -8086,31 +8244,31 @@
       <c r="Q12">
         <v>2</v>
       </c>
-      <c r="R12" s="4">
-        <f t="shared" si="2"/>
+      <c r="T12" s="4">
+        <f>T11+M12</f>
         <v>23.75</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <f>SUM(M5:M10)</f>
         <v>11.5</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <f>COUNTIF(P:P, "Alpha")</f>
         <v>6</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f>C10-C5+1</f>
         <v>9</v>
       </c>
-      <c r="X12">
-        <f t="shared" ref="X12:X15" si="3">W12-V12</f>
+      <c r="Z12">
+        <f t="shared" ref="Z12:Z15" si="2">Y12-X12</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -8143,31 +8301,31 @@
       <c r="Q13">
         <v>2</v>
       </c>
-      <c r="R13" s="4">
-        <f t="shared" si="2"/>
+      <c r="T13" s="4">
+        <f>T12+M13</f>
         <v>25.5</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>26</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <f>SUM(M11:M17)</f>
         <v>19</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <f>COUNTIF(P:P, "Beta")</f>
         <v>7</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f>C17-C11+1</f>
         <v>10</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="3"/>
+      <c r="Z13">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8203,31 +8361,31 @@
       <c r="Q14">
         <v>2</v>
       </c>
-      <c r="R14" s="4">
-        <f t="shared" si="2"/>
+      <c r="T14" s="4">
+        <f>T13+M14</f>
         <v>26.75</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <f>SUM(M18:M32)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <f>COUNTIF(P:P, "Gamma")</f>
         <v>15</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f>C32-C18+1</f>
         <v>19</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="3"/>
+      <c r="Z14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8260,31 +8418,31 @@
       <c r="Q15">
         <v>2.5</v>
       </c>
-      <c r="R15" s="4">
-        <f t="shared" si="2"/>
+      <c r="T15" s="4">
+        <f>T14+M15</f>
         <v>28.75</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>75</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <f>SUM(M33:M42)</f>
         <v>27.75</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <f>COUNTIF(P:P, "Delta")</f>
         <v>10</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <f>C42-C33+1</f>
         <v>14</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="3"/>
+      <c r="Z15">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -8317,31 +8475,31 @@
       <c r="Q16">
         <v>2.5</v>
       </c>
-      <c r="R16" s="4">
-        <f t="shared" si="2"/>
+      <c r="T16" s="4">
+        <f>T15+M16</f>
         <v>32</v>
       </c>
-      <c r="T16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="4">
-        <f>SUM(M43:M401)</f>
-        <v>134.75</v>
-      </c>
-      <c r="V16">
+      <c r="V16" t="s">
+        <v>243</v>
+      </c>
+      <c r="W16" s="4">
+        <f>SUM(M43:M95)</f>
+        <v>137.25</v>
+      </c>
+      <c r="X16">
         <f>COUNTIF(P:P, "Freestyle I")</f>
-        <v>50</v>
-      </c>
-      <c r="W16" s="15">
-        <f>(INDEX(C:C,COUNTA(C:C))) - C43 + 1</f>
-        <v>58</v>
-      </c>
-      <c r="X16" s="15">
-        <f>W16-V16</f>
+        <v>53</v>
+      </c>
+      <c r="Y16" s="15">
+        <f>C95-C43+1</f>
+        <v>61</v>
+      </c>
+      <c r="Z16" s="15">
+        <f>Y16-X16</f>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -8388,12 +8546,29 @@
       <c r="Q17">
         <v>2.5</v>
       </c>
-      <c r="R17" s="4">
-        <f t="shared" si="2"/>
+      <c r="T17" s="4">
+        <f>T16+M17</f>
         <v>38.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>244</v>
+      </c>
+      <c r="W17" s="4">
+        <f>SUM(M96)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <f>COUNTIF(P:P, "Freestyle II")</f>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -8429,15 +8604,23 @@
       <c r="Q18">
         <v>3</v>
       </c>
-      <c r="R18" s="4">
-        <f t="shared" si="2"/>
+      <c r="T18" s="4">
+        <f>T17+M18</f>
         <v>41.75</v>
       </c>
-      <c r="X18" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>245</v>
+      </c>
+      <c r="W18" s="4">
+        <f>SUM(M97:M400)</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>COUNTIF(P:P, "Freestyle III")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8473,16 +8656,12 @@
       <c r="Q19">
         <v>3</v>
       </c>
-      <c r="R19" s="4">
-        <f t="shared" si="2"/>
+      <c r="T19" s="4">
+        <f>T18+M19</f>
         <v>42.75</v>
       </c>
-      <c r="X19">
-        <f>SUM(X11:X16)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -8515,12 +8694,31 @@
       <c r="Q20">
         <v>3</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="2"/>
+      <c r="T20" s="4">
+        <f>T19+M20</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>252</v>
+      </c>
+      <c r="W20" s="4">
+        <f>SUM(M50:M92)</f>
+        <v>114.25</v>
+      </c>
+      <c r="X20">
+        <f>COUNTIF(R:R, "Dance I")</f>
+        <v>43</v>
+      </c>
+      <c r="Y20" s="15">
+        <f>C92-C50+1</f>
+        <v>50</v>
+      </c>
+      <c r="Z20" s="15">
+        <f>Y20-X20</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8553,12 +8751,31 @@
       <c r="Q21">
         <v>3</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" si="2"/>
+      <c r="T21" s="4">
+        <f>T20+M21</f>
         <v>47.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>253</v>
+      </c>
+      <c r="W21" s="4">
+        <f>SUM(M93:M400)</f>
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <f>COUNTIF(R:R, "Dance II")</f>
+        <v>5</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>INDEX(C:C,COUNT(C:C))</f>
+        <v>43403</v>
+      </c>
+      <c r="Z21" s="15">
+        <f>Y21-X21</f>
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -8591,12 +8808,12 @@
       <c r="Q22">
         <v>3</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" si="2"/>
+      <c r="T22" s="4">
+        <f>T21+M22</f>
         <v>51.25</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -8639,12 +8856,15 @@
       <c r="Q23">
         <v>3</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="2"/>
+      <c r="T23" s="4">
+        <f>T22+M23</f>
         <v>58.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z23" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -8677,12 +8897,16 @@
       <c r="Q24">
         <v>3</v>
       </c>
-      <c r="R24" s="4">
-        <f t="shared" si="2"/>
+      <c r="T24" s="4">
+        <f>T23+M24</f>
         <v>59.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f>SUM(Z11:Z16)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -8715,12 +8939,12 @@
       <c r="Q25">
         <v>3</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="2"/>
+      <c r="T25" s="4">
+        <f>T24+M25</f>
         <v>60.5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8753,12 +8977,12 @@
       <c r="Q26">
         <v>3</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="2"/>
+      <c r="T26" s="4">
+        <f>T25+M26</f>
         <v>61.75</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -8794,12 +9018,12 @@
       <c r="Q27">
         <v>3</v>
       </c>
-      <c r="R27" s="4">
-        <f t="shared" si="2"/>
+      <c r="T27" s="4">
+        <f>T26+M27</f>
         <v>63.75</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -8807,7 +9031,7 @@
         <v>43323</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28" si="4">B28</f>
+        <f t="shared" ref="C28" si="3">B28</f>
         <v>43323</v>
       </c>
       <c r="D28" s="3">
@@ -8845,12 +9069,12 @@
       <c r="Q28">
         <v>3</v>
       </c>
-      <c r="R28" s="4">
-        <f t="shared" si="2"/>
+      <c r="T28" s="4">
+        <f>T27+M28</f>
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -8886,12 +9110,12 @@
       <c r="Q29">
         <v>3</v>
       </c>
-      <c r="R29" s="4">
-        <f t="shared" si="2"/>
+      <c r="T29" s="4">
+        <f>T28+M29</f>
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -8924,12 +9148,12 @@
       <c r="Q30">
         <v>3</v>
       </c>
-      <c r="R30" s="4">
-        <f t="shared" si="2"/>
+      <c r="T30" s="4">
+        <f>T29+M30</f>
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -8965,12 +9189,12 @@
       <c r="Q31">
         <v>3</v>
       </c>
-      <c r="R31" s="4">
-        <f t="shared" si="2"/>
+      <c r="T31" s="4">
+        <f>T30+M31</f>
         <v>72.45</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -9006,12 +9230,12 @@
       <c r="Q32">
         <v>3</v>
       </c>
-      <c r="R32" s="4">
-        <f t="shared" si="2"/>
+      <c r="T32" s="4">
+        <f>T31+M32</f>
         <v>76.45</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -9054,12 +9278,12 @@
       <c r="Q33">
         <v>4</v>
       </c>
-      <c r="R33" s="4">
-        <f t="shared" si="2"/>
+      <c r="T33" s="4">
+        <f>T32+M33</f>
         <v>78.2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -9102,12 +9326,12 @@
       <c r="Q34">
         <v>4</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" si="2"/>
+      <c r="T34" s="4">
+        <f>T33+M34</f>
         <v>85.7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -9140,12 +9364,12 @@
       <c r="Q35">
         <v>4</v>
       </c>
-      <c r="R35" s="4">
-        <f t="shared" si="2"/>
+      <c r="T35" s="4">
+        <f>T34+M35</f>
         <v>88.7</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -9181,12 +9405,12 @@
       <c r="Q36">
         <v>4</v>
       </c>
-      <c r="R36" s="4">
-        <f t="shared" si="2"/>
+      <c r="T36" s="4">
+        <f>T35+M36</f>
         <v>89.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -9222,12 +9446,12 @@
       <c r="Q37">
         <v>4</v>
       </c>
-      <c r="R37" s="4">
-        <f t="shared" si="2"/>
+      <c r="T37" s="4">
+        <f>T36+M37</f>
         <v>92.7</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -9260,12 +9484,12 @@
       <c r="Q38">
         <v>4</v>
       </c>
-      <c r="R38" s="4">
-        <f t="shared" si="2"/>
+      <c r="T38" s="4">
+        <f>T37+M38</f>
         <v>95.2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -9301,12 +9525,12 @@
       <c r="Q39">
         <v>4</v>
       </c>
-      <c r="R39" s="4">
-        <f t="shared" si="2"/>
+      <c r="T39" s="4">
+        <f>T38+M39</f>
         <v>97.45</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -9342,12 +9566,12 @@
       <c r="Q40">
         <v>4</v>
       </c>
-      <c r="R40" s="4">
-        <f t="shared" si="2"/>
+      <c r="T40" s="4">
+        <f>T39+M40</f>
         <v>99.95</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -9380,12 +9604,12 @@
       <c r="Q41">
         <v>4</v>
       </c>
-      <c r="R41" s="4">
-        <f t="shared" si="2"/>
+      <c r="T41" s="4">
+        <f>T40+M41</f>
         <v>100.95</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -9431,12 +9655,12 @@
       <c r="Q42">
         <v>4</v>
       </c>
-      <c r="R42" s="4">
-        <f t="shared" si="2"/>
+      <c r="T42" s="4">
+        <f>T41+M42</f>
         <v>104.2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -9472,12 +9696,12 @@
       <c r="Q43">
         <v>5</v>
       </c>
-      <c r="R43" s="4">
-        <f t="shared" si="2"/>
+      <c r="T43" s="4">
+        <f>T42+M43</f>
         <v>106.45</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -9533,12 +9757,12 @@
       <c r="Q44">
         <v>5</v>
       </c>
-      <c r="R44" s="4">
-        <f t="shared" si="2"/>
+      <c r="T44" s="4">
+        <f>T43+M44</f>
         <v>114.2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -9584,12 +9808,12 @@
       <c r="Q45">
         <v>5</v>
       </c>
-      <c r="R45" s="4">
-        <f t="shared" si="2"/>
+      <c r="T45" s="4">
+        <f>T44+M45</f>
         <v>116.95</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -9625,12 +9849,12 @@
       <c r="Q46">
         <v>5</v>
       </c>
-      <c r="R46" s="4">
-        <f t="shared" si="2"/>
+      <c r="T46" s="4">
+        <f>T45+M46</f>
         <v>117.7</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -9666,12 +9890,12 @@
       <c r="Q47">
         <v>5</v>
       </c>
-      <c r="R47" s="4">
-        <f t="shared" si="2"/>
+      <c r="T47" s="4">
+        <f>T46+M47</f>
         <v>118.2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -9707,12 +9931,12 @@
       <c r="Q48">
         <v>5</v>
       </c>
-      <c r="R48" s="4">
-        <f t="shared" si="2"/>
+      <c r="T48" s="4">
+        <f>T47+M48</f>
         <v>121.95</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -9748,12 +9972,12 @@
       <c r="Q49">
         <v>5</v>
       </c>
-      <c r="R49" s="4">
-        <f t="shared" si="2"/>
+      <c r="T49" s="4">
+        <f>T48+M49</f>
         <v>124.7</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -9789,12 +10013,18 @@
       <c r="Q50">
         <v>5</v>
       </c>
-      <c r="R50" s="4">
-        <f t="shared" si="2"/>
+      <c r="R50" t="s">
+        <v>252</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50" s="4">
+        <f>T49+M50</f>
         <v>131.94999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -9830,12 +10060,18 @@
       <c r="Q51">
         <v>5</v>
       </c>
-      <c r="R51" s="4">
-        <f t="shared" si="2"/>
+      <c r="R51" t="s">
+        <v>252</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
+        <f>T50+M51</f>
         <v>135.44999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -9871,12 +10107,18 @@
       <c r="Q52">
         <v>5</v>
       </c>
-      <c r="R52" s="4">
-        <f t="shared" si="2"/>
+      <c r="R52" t="s">
+        <v>252</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
+        <f>T51+M52</f>
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -9912,12 +10154,18 @@
       <c r="Q53">
         <v>5</v>
       </c>
-      <c r="R53" s="4">
-        <f t="shared" si="2"/>
+      <c r="R53" t="s">
+        <v>252</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53" s="4">
+        <f>T52+M53</f>
         <v>138.44999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -9953,12 +10201,18 @@
       <c r="Q54">
         <v>5</v>
       </c>
-      <c r="R54" s="4">
-        <f t="shared" si="2"/>
+      <c r="R54" t="s">
+        <v>252</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54" s="4">
+        <f>T53+M54</f>
         <v>140.94999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -9994,12 +10248,18 @@
       <c r="Q55">
         <v>5</v>
       </c>
-      <c r="R55" s="4">
-        <f t="shared" si="2"/>
+      <c r="R55" t="s">
+        <v>252</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
+        <f>T54+M55</f>
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -10035,12 +10295,18 @@
       <c r="Q56">
         <v>5</v>
       </c>
-      <c r="R56" s="4">
-        <f t="shared" si="2"/>
+      <c r="R56" t="s">
+        <v>252</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56" s="4">
+        <f>T55+M56</f>
         <v>147.94999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -10076,12 +10342,18 @@
       <c r="Q57">
         <v>5</v>
       </c>
-      <c r="R57" s="4">
-        <f t="shared" si="2"/>
+      <c r="R57" t="s">
+        <v>252</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57" s="4">
+        <f>T56+M57</f>
         <v>150.44999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -10117,12 +10389,18 @@
       <c r="Q58">
         <v>5</v>
       </c>
-      <c r="R58" s="4">
-        <f t="shared" si="2"/>
+      <c r="R58" t="s">
+        <v>252</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58" s="4">
+        <f>T57+M58</f>
         <v>150.44999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -10158,12 +10436,18 @@
       <c r="Q59">
         <v>5</v>
       </c>
-      <c r="R59" s="4">
-        <f t="shared" si="2"/>
+      <c r="R59" t="s">
+        <v>252</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59" s="4">
+        <f>T58+M59</f>
         <v>150.94999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -10193,12 +10477,18 @@
       <c r="Q60">
         <v>5</v>
       </c>
-      <c r="R60" s="4">
-        <f t="shared" si="2"/>
+      <c r="R60" t="s">
+        <v>252</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60" s="4">
+        <f>T59+M60</f>
         <v>151.94999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -10231,12 +10521,18 @@
       <c r="Q61">
         <v>5</v>
       </c>
-      <c r="R61" s="4">
-        <f t="shared" si="2"/>
+      <c r="R61" t="s">
+        <v>252</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61" s="4">
+        <f>T60+M61</f>
         <v>153.69999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -10282,12 +10578,18 @@
       <c r="Q62">
         <v>5</v>
       </c>
-      <c r="R62" s="4">
-        <f t="shared" si="2"/>
+      <c r="R62" t="s">
+        <v>252</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62" s="4">
+        <f>T61+M62</f>
         <v>159.69999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -10323,12 +10625,18 @@
       <c r="Q63">
         <v>5</v>
       </c>
-      <c r="R63" s="4">
-        <f t="shared" si="2"/>
+      <c r="R63" t="s">
+        <v>252</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63" s="4">
+        <f>T62+M63</f>
         <v>163.19999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -10364,12 +10672,18 @@
       <c r="Q64">
         <v>5</v>
       </c>
-      <c r="R64" s="4">
-        <f t="shared" si="2"/>
+      <c r="R64" t="s">
+        <v>252</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" s="4">
+        <f>T63+M64</f>
         <v>165.45</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -10405,12 +10719,18 @@
       <c r="Q65">
         <v>5</v>
       </c>
-      <c r="R65" s="4">
-        <f t="shared" si="2"/>
+      <c r="R65" t="s">
+        <v>252</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65" s="4">
+        <f>T64+M65</f>
         <v>166.2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -10428,7 +10748,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F92" si="5">E66-D66</f>
+        <f t="shared" ref="F66:F96" si="4">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
@@ -10446,12 +10766,18 @@
       <c r="Q66">
         <v>5</v>
       </c>
-      <c r="R66" s="4">
-        <f t="shared" si="2"/>
+      <c r="R66" t="s">
+        <v>252</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66" s="4">
+        <f>T65+M66</f>
         <v>167.2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -10469,7 +10795,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
       <c r="M67" s="4">
@@ -10487,12 +10813,18 @@
       <c r="Q67">
         <v>5</v>
       </c>
-      <c r="R67" s="4">
-        <f t="shared" si="2"/>
+      <c r="R67" t="s">
+        <v>252</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67" s="4">
+        <f>T66+M67</f>
         <v>167.95</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -10510,7 +10842,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="M68" s="4">
@@ -10528,12 +10860,18 @@
       <c r="Q68">
         <v>5</v>
       </c>
-      <c r="R68" s="4">
-        <f t="shared" si="2"/>
+      <c r="R68" t="s">
+        <v>252</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68" s="4">
+        <f>T67+M68</f>
         <v>169.95</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -10551,7 +10889,7 @@
         <v>0.6875</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="M69" s="4">
@@ -10569,12 +10907,18 @@
       <c r="Q69">
         <v>5</v>
       </c>
-      <c r="R69" s="4">
-        <f t="shared" ref="R69:R92" si="6">R68+M69</f>
+      <c r="R69" t="s">
+        <v>252</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69" s="4">
+        <f>T68+M69</f>
         <v>173.95</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -10592,7 +10936,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="M70" s="4">
@@ -10610,12 +10954,18 @@
       <c r="Q70">
         <v>5</v>
       </c>
-      <c r="R70" s="4">
-        <f t="shared" si="6"/>
+      <c r="R70" t="s">
+        <v>252</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4">
+        <f>T69+M70</f>
         <v>176.95</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -10633,7 +10983,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2916666666666741E-2</v>
       </c>
       <c r="M71" s="4">
@@ -10651,12 +11001,18 @@
       <c r="Q71">
         <v>5</v>
       </c>
-      <c r="R71" s="4">
-        <f t="shared" si="6"/>
+      <c r="R71" t="s">
+        <v>252</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71" s="4">
+        <f>T70+M71</f>
         <v>178.7</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -10674,7 +11030,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="M72" s="4">
@@ -10692,12 +11048,18 @@
       <c r="Q72">
         <v>5</v>
       </c>
-      <c r="R72" s="4">
-        <f t="shared" si="6"/>
+      <c r="R72" t="s">
+        <v>252</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72" s="4">
+        <f>T71+M72</f>
         <v>181.7</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -10715,7 +11077,7 @@
         <v>0.8125</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
       <c r="G73" s="3">
@@ -10743,12 +11105,18 @@
       <c r="Q73">
         <v>5</v>
       </c>
-      <c r="R73" s="4">
-        <f t="shared" si="6"/>
+      <c r="R73" t="s">
+        <v>252</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73" s="4">
+        <f>T72+M73</f>
         <v>184.45</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -10766,7 +11134,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="M74" s="4">
@@ -10784,12 +11152,18 @@
       <c r="Q74">
         <v>5</v>
       </c>
-      <c r="R74" s="4">
-        <f t="shared" si="6"/>
+      <c r="R74" t="s">
+        <v>252</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74" s="4">
+        <f>T73+M74</f>
         <v>184.7</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -10807,7 +11181,7 @@
         <v>0.6875</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="M75" s="4">
@@ -10825,12 +11199,18 @@
       <c r="Q75">
         <v>5</v>
       </c>
-      <c r="R75" s="4">
-        <f t="shared" si="6"/>
+      <c r="R75" t="s">
+        <v>252</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75" s="4">
+        <f>T74+M75</f>
         <v>188.2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -10848,7 +11228,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
       <c r="G76" s="3">
@@ -10876,12 +11256,18 @@
       <c r="Q76">
         <v>5</v>
       </c>
-      <c r="R76" s="4">
-        <f t="shared" si="6"/>
+      <c r="R76" t="s">
+        <v>252</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76" s="4">
+        <f>T75+M76</f>
         <v>190.95</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -10899,7 +11285,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M77" s="4">
@@ -10917,12 +11303,18 @@
       <c r="Q77">
         <v>5</v>
       </c>
-      <c r="R77" s="4">
-        <f t="shared" si="6"/>
+      <c r="R77" t="s">
+        <v>252</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77" s="4">
+        <f>T76+M77</f>
         <v>192.95</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -10940,7 +11332,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G78" s="3">
@@ -10968,12 +11360,18 @@
       <c r="Q78">
         <v>5</v>
       </c>
-      <c r="R78" s="4">
-        <f t="shared" si="6"/>
+      <c r="R78" t="s">
+        <v>252</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78" s="4">
+        <f>T77+M78</f>
         <v>196.45</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -10991,7 +11389,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15625</v>
       </c>
       <c r="M79" s="4">
@@ -11009,12 +11407,18 @@
       <c r="Q79">
         <v>5</v>
       </c>
-      <c r="R79" s="4">
-        <f t="shared" si="6"/>
+      <c r="R79" t="s">
+        <v>252</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79" s="4">
+        <f>T78+M79</f>
         <v>200.2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -11032,7 +11436,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="M80" s="4">
@@ -11050,12 +11454,18 @@
       <c r="Q80">
         <v>5</v>
       </c>
-      <c r="R80" s="4">
-        <f t="shared" si="6"/>
+      <c r="R80" t="s">
+        <v>252</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80" s="4">
+        <f>T79+M80</f>
         <v>204.45</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -11073,7 +11483,7 @@
         <v>0.6875</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15625</v>
       </c>
       <c r="M81" s="4">
@@ -11091,12 +11501,18 @@
       <c r="Q81">
         <v>5</v>
       </c>
-      <c r="R81" s="4">
-        <f t="shared" si="6"/>
+      <c r="R81" t="s">
+        <v>252</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81" s="4">
+        <f>T80+M81</f>
         <v>208.2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -11114,7 +11530,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="G82" s="3">
@@ -11152,12 +11568,18 @@
       <c r="Q82">
         <v>5</v>
       </c>
-      <c r="R82" s="4">
-        <f t="shared" si="6"/>
+      <c r="R82" t="s">
+        <v>252</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82" s="4">
+        <f>T81+M82</f>
         <v>210.95</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -11175,7 +11597,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M83" s="4">
@@ -11193,12 +11615,18 @@
       <c r="Q83">
         <v>5</v>
       </c>
-      <c r="R83" s="4">
-        <f t="shared" si="6"/>
+      <c r="R83" t="s">
+        <v>252</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83" s="4">
+        <f>T82+M83</f>
         <v>212.95</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -11216,7 +11644,7 @@
         <v>0.90625</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19791666666666663</v>
       </c>
       <c r="M84" s="4">
@@ -11234,12 +11662,18 @@
       <c r="Q84">
         <v>5</v>
       </c>
-      <c r="R84" s="4">
-        <f t="shared" si="6"/>
+      <c r="R84" t="s">
+        <v>252</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84" s="4">
+        <f>T83+M84</f>
         <v>217.7</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -11257,7 +11691,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11458333333333326</v>
       </c>
       <c r="M85" s="4">
@@ -11269,12 +11703,18 @@
       <c r="Q85">
         <v>5</v>
       </c>
-      <c r="R85" s="4">
-        <f t="shared" si="6"/>
+      <c r="R85" t="s">
+        <v>252</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85" s="4">
+        <f>T84+M85</f>
         <v>220.45</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -11292,7 +11732,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="M86" s="4">
@@ -11304,12 +11744,18 @@
       <c r="Q86">
         <v>5</v>
       </c>
-      <c r="R86" s="4">
-        <f t="shared" si="6"/>
+      <c r="R86" t="s">
+        <v>252</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86" s="4">
+        <f>T85+M86</f>
         <v>224.7</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -11327,7 +11773,7 @@
         <v>0.6875</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="M87" s="4">
@@ -11339,12 +11785,18 @@
       <c r="Q87">
         <v>5</v>
       </c>
-      <c r="R87" s="4">
-        <f t="shared" si="6"/>
+      <c r="R87" t="s">
+        <v>252</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87" s="4">
+        <f>T86+M87</f>
         <v>228.2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -11362,7 +11814,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
       <c r="G88" s="3">
@@ -11384,12 +11836,18 @@
       <c r="Q88">
         <v>5</v>
       </c>
-      <c r="R88" s="4">
-        <f t="shared" si="6"/>
+      <c r="R88" t="s">
+        <v>252</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88" s="4">
+        <f>T87+M88</f>
         <v>230.2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -11407,7 +11865,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
       <c r="M89" s="4">
@@ -11419,12 +11877,18 @@
       <c r="Q89">
         <v>5</v>
       </c>
-      <c r="R89" s="4">
-        <f t="shared" si="6"/>
+      <c r="R89" t="s">
+        <v>252</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89" s="4">
+        <f>T88+M89</f>
         <v>230.95</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -11442,7 +11906,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
       <c r="G90" s="3">
@@ -11464,12 +11928,18 @@
       <c r="Q90">
         <v>5</v>
       </c>
-      <c r="R90" s="4">
-        <f t="shared" si="6"/>
+      <c r="R90" t="s">
+        <v>252</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90" s="4">
+        <f>T89+M90</f>
         <v>233.2</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -11487,7 +11957,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M91" s="4">
@@ -11505,12 +11975,18 @@
       <c r="Q91">
         <v>5</v>
       </c>
-      <c r="R91" s="4">
-        <f t="shared" si="6"/>
+      <c r="R91" t="s">
+        <v>252</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91" s="4">
+        <f>T90+M91</f>
         <v>235.2</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -11528,7 +12004,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10416666666666669</v>
       </c>
       <c r="G92" s="3">
@@ -11556,13 +12032,235 @@
       <c r="Q92">
         <v>5</v>
       </c>
-      <c r="R92" s="4">
-        <f t="shared" si="6"/>
+      <c r="R92" t="s">
+        <v>252</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92" s="4">
+        <f>T91+M92</f>
         <v>238.95</v>
       </c>
     </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43401</v>
+      </c>
+      <c r="C93" s="5">
+        <f t="shared" si="1"/>
+        <v>43401</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>246</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s">
+        <v>253</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93" s="4">
+        <f>T92+M93</f>
+        <v>239.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43402</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="1"/>
+        <v>43402</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M94" s="4">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>247</v>
+      </c>
+      <c r="O94" t="s">
+        <v>248</v>
+      </c>
+      <c r="P94" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q94">
+        <v>5</v>
+      </c>
+      <c r="R94" t="s">
+        <v>253</v>
+      </c>
+      <c r="S94">
+        <v>2</v>
+      </c>
+      <c r="T94" s="4">
+        <f>T93+M94</f>
+        <v>240.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43403</v>
+      </c>
+      <c r="C95" s="5">
+        <f t="shared" si="1"/>
+        <v>43403</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>239</v>
+      </c>
+      <c r="O95" t="s">
+        <v>249</v>
+      </c>
+      <c r="P95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95" t="s">
+        <v>253</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95" s="4">
+        <f>T94+M95</f>
+        <v>241.45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43403</v>
+      </c>
+      <c r="C96" s="5">
+        <f>B96</f>
+        <v>43403</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>242</v>
+      </c>
+      <c r="O96" t="s">
+        <v>249</v>
+      </c>
+      <c r="P96" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q96">
+        <v>6</v>
+      </c>
+      <c r="R96" t="s">
+        <v>253</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96" s="4">
+        <f>T95+M96</f>
+        <v>241.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43404</v>
+      </c>
+      <c r="C97" s="5">
+        <f>B97</f>
+        <v>43404</v>
+      </c>
+      <c r="P97" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q97">
+        <v>7</v>
+      </c>
+      <c r="R97" t="s">
+        <v>253</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97" s="4">
+        <f>T96+M97</f>
+        <v>241.95</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:R542">
+  <conditionalFormatting sqref="A2:T542">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -11727,8 +12425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\repositories\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A37A32-9491-4854-8E40-B06729715349}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850218E-E89E-469B-8A89-53784230211D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="261">
   <si>
     <t>Thursday</t>
   </si>
@@ -672,9 +672,6 @@
     <t>Slow skating week due to parents, Late to Private, Amanda's Stroking</t>
   </si>
   <si>
-    <t>Dress Rehearsal, No private Laurel Mad</t>
-  </si>
-  <si>
     <t>Low attendence</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>Rehearsal, Private, Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Didn't go to rehearsal, crowded, </t>
-  </si>
-  <si>
     <t>Learned FS2 program, Extra FS practice due to theatrical comp</t>
   </si>
   <si>
@@ -859,6 +853,33 @@
   </si>
   <si>
     <t>Dance II</t>
+  </si>
+  <si>
+    <t>Didn't go to rehearsal, crowded</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal, No private</t>
+  </si>
+  <si>
+    <t>Courier practice, Voluntold by Johnathan to do a lot of stuff including racing, Skated with Mom</t>
+  </si>
+  <si>
+    <t>Rehearsal, Private, Stroking</t>
+  </si>
+  <si>
+    <t>Private, FS2</t>
+  </si>
+  <si>
+    <t>No Laurel Private</t>
+  </si>
+  <si>
+    <t>Waltzers, Larry said I can try Fancy Dance but won't be able to do it</t>
+  </si>
+  <si>
+    <t>No Waltzers, Devon FS and stroking, got jump help from Johnathan</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS3/FS4, Public</t>
   </si>
 </sst>
 </file>
@@ -1680,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +3000,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,7 +4255,7 @@
                   <c:v>241.95</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>241.95</c:v>
+                  <c:v>244.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7673,8 +7697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7685,10 +7709,10 @@
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
@@ -7758,13 +7782,13 @@
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -7851,16 +7875,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="4">
-        <f>T2+M3</f>
+        <f t="shared" ref="T3:T34" si="2">T2+M3</f>
         <v>4.5</v>
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>241.95</v>
+        <v>244.95</v>
       </c>
       <c r="V3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>200.2</v>
+        <v>203.2</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
@@ -7904,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="4">
-        <f>T3+M4</f>
+        <f t="shared" si="2"/>
         <v>7.75</v>
       </c>
     </row>
@@ -7942,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <f>T4+M5</f>
+        <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
     </row>
@@ -7980,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <f>T5+M6</f>
+        <f t="shared" si="2"/>
         <v>13.25</v>
       </c>
     </row>
@@ -8018,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <f>T6+M7</f>
+        <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
     </row>
@@ -8056,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <f>T7+M8</f>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
     </row>
@@ -8094,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <f>T8+M9</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -8135,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <f>T9+M10</f>
+        <f t="shared" si="2"/>
         <v>19.25</v>
       </c>
       <c r="V10" s="7" t="s">
@@ -8151,7 +8175,7 @@
         <v>187</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -8188,7 +8212,7 @@
         <v>2</v>
       </c>
       <c r="T11" s="4">
-        <f>T10+M11</f>
+        <f t="shared" si="2"/>
         <v>22.25</v>
       </c>
       <c r="V11" t="s">
@@ -8245,7 +8269,7 @@
         <v>2</v>
       </c>
       <c r="T12" s="4">
-        <f>T11+M12</f>
+        <f t="shared" si="2"/>
         <v>23.75</v>
       </c>
       <c r="V12" t="s">
@@ -8264,7 +8288,7 @@
         <v>9</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:Z15" si="2">Y12-X12</f>
+        <f t="shared" ref="Z12:Z15" si="3">Y12-X12</f>
         <v>3</v>
       </c>
     </row>
@@ -8302,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="T13" s="4">
-        <f>T12+M13</f>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
       <c r="V13" t="s">
@@ -8321,7 +8345,7 @@
         <v>10</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -8362,7 +8386,7 @@
         <v>2</v>
       </c>
       <c r="T14" s="4">
-        <f>T13+M14</f>
+        <f t="shared" si="2"/>
         <v>26.75</v>
       </c>
       <c r="V14" t="s">
@@ -8381,7 +8405,7 @@
         <v>19</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8419,7 +8443,7 @@
         <v>2.5</v>
       </c>
       <c r="T15" s="4">
-        <f>T14+M15</f>
+        <f t="shared" si="2"/>
         <v>28.75</v>
       </c>
       <c r="V15" t="s">
@@ -8438,7 +8462,7 @@
         <v>14</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8476,11 +8500,11 @@
         <v>2.5</v>
       </c>
       <c r="T16" s="4">
-        <f>T15+M16</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M95)</f>
@@ -8547,11 +8571,11 @@
         <v>2.5</v>
       </c>
       <c r="T17" s="4">
-        <f>T16+M17</f>
+        <f t="shared" si="2"/>
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M96)</f>
@@ -8605,20 +8629,28 @@
         <v>3</v>
       </c>
       <c r="T18" s="4">
-        <f>T17+M18</f>
+        <f t="shared" si="2"/>
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W18" s="4">
         <f>SUM(M97:M400)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <f>COUNTIF(P:P, "Freestyle III")</f>
         <v>1</v>
       </c>
+      <c r="Y18" s="15">
+        <f>(INDEX(C:C,COUNTA(C:C))) - C97 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="15">
+        <f>Y18-X18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -8657,7 +8689,7 @@
         <v>3</v>
       </c>
       <c r="T19" s="4">
-        <f>T18+M19</f>
+        <f t="shared" si="2"/>
         <v>42.75</v>
       </c>
     </row>
@@ -8695,11 +8727,11 @@
         <v>3</v>
       </c>
       <c r="T20" s="4">
-        <f>T19+M20</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="V20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W20" s="4">
         <f>SUM(M50:M92)</f>
@@ -8752,27 +8784,27 @@
         <v>3</v>
       </c>
       <c r="T21" s="4">
-        <f>T20+M21</f>
+        <f t="shared" si="2"/>
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="W21" s="4">
         <f>SUM(M93:M400)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X21">
         <f>COUNTIF(R:R, "Dance II")</f>
         <v>5</v>
       </c>
-      <c r="Y21" s="1">
-        <f>INDEX(C:C,COUNT(C:C))</f>
-        <v>43403</v>
+      <c r="Y21" s="15">
+        <f>(INDEX(C:C,COUNTA(C:C))) - C92 + 1</f>
+        <v>5</v>
       </c>
       <c r="Z21" s="15">
         <f>Y21-X21</f>
-        <v>43398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -8809,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="T22" s="4">
-        <f>T21+M22</f>
+        <f t="shared" si="2"/>
         <v>51.25</v>
       </c>
     </row>
@@ -8857,11 +8889,11 @@
         <v>3</v>
       </c>
       <c r="T23" s="4">
-        <f>T22+M23</f>
+        <f t="shared" si="2"/>
         <v>58.5</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -8898,7 +8930,7 @@
         <v>3</v>
       </c>
       <c r="T24" s="4">
-        <f>T23+M24</f>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="Z24">
@@ -8940,7 +8972,7 @@
         <v>3</v>
       </c>
       <c r="T25" s="4">
-        <f>T24+M25</f>
+        <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
     </row>
@@ -8978,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="T26" s="4">
-        <f>T25+M26</f>
+        <f t="shared" si="2"/>
         <v>61.75</v>
       </c>
     </row>
@@ -9019,7 +9051,7 @@
         <v>3</v>
       </c>
       <c r="T27" s="4">
-        <f>T26+M27</f>
+        <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
     </row>
@@ -9031,7 +9063,7 @@
         <v>43323</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28" si="3">B28</f>
+        <f t="shared" ref="C28" si="4">B28</f>
         <v>43323</v>
       </c>
       <c r="D28" s="3">
@@ -9070,7 +9102,7 @@
         <v>3</v>
       </c>
       <c r="T28" s="4">
-        <f>T27+M28</f>
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
     </row>
@@ -9111,7 +9143,7 @@
         <v>3</v>
       </c>
       <c r="T29" s="4">
-        <f>T28+M29</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
@@ -9149,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="T30" s="4">
-        <f>T29+M30</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
@@ -9190,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="T31" s="4">
-        <f>T30+M31</f>
+        <f t="shared" si="2"/>
         <v>72.45</v>
       </c>
     </row>
@@ -9231,7 +9263,7 @@
         <v>3</v>
       </c>
       <c r="T32" s="4">
-        <f>T31+M32</f>
+        <f t="shared" si="2"/>
         <v>76.45</v>
       </c>
     </row>
@@ -9279,7 +9311,7 @@
         <v>4</v>
       </c>
       <c r="T33" s="4">
-        <f>T32+M33</f>
+        <f t="shared" si="2"/>
         <v>78.2</v>
       </c>
     </row>
@@ -9327,7 +9359,7 @@
         <v>4</v>
       </c>
       <c r="T34" s="4">
-        <f>T33+M34</f>
+        <f t="shared" si="2"/>
         <v>85.7</v>
       </c>
     </row>
@@ -9365,7 +9397,7 @@
         <v>4</v>
       </c>
       <c r="T35" s="4">
-        <f>T34+M35</f>
+        <f t="shared" ref="T35:T66" si="5">T34+M35</f>
         <v>88.7</v>
       </c>
     </row>
@@ -9406,7 +9438,7 @@
         <v>4</v>
       </c>
       <c r="T36" s="4">
-        <f>T35+M36</f>
+        <f t="shared" si="5"/>
         <v>89.7</v>
       </c>
     </row>
@@ -9447,7 +9479,7 @@
         <v>4</v>
       </c>
       <c r="T37" s="4">
-        <f>T36+M37</f>
+        <f t="shared" si="5"/>
         <v>92.7</v>
       </c>
     </row>
@@ -9485,7 +9517,7 @@
         <v>4</v>
       </c>
       <c r="T38" s="4">
-        <f>T37+M38</f>
+        <f t="shared" si="5"/>
         <v>95.2</v>
       </c>
     </row>
@@ -9526,7 +9558,7 @@
         <v>4</v>
       </c>
       <c r="T39" s="4">
-        <f>T38+M39</f>
+        <f t="shared" si="5"/>
         <v>97.45</v>
       </c>
     </row>
@@ -9567,7 +9599,7 @@
         <v>4</v>
       </c>
       <c r="T40" s="4">
-        <f>T39+M40</f>
+        <f t="shared" si="5"/>
         <v>99.95</v>
       </c>
     </row>
@@ -9605,7 +9637,7 @@
         <v>4</v>
       </c>
       <c r="T41" s="4">
-        <f>T40+M41</f>
+        <f t="shared" si="5"/>
         <v>100.95</v>
       </c>
     </row>
@@ -9656,7 +9688,7 @@
         <v>4</v>
       </c>
       <c r="T42" s="4">
-        <f>T41+M42</f>
+        <f t="shared" si="5"/>
         <v>104.2</v>
       </c>
     </row>
@@ -9697,7 +9729,7 @@
         <v>5</v>
       </c>
       <c r="T43" s="4">
-        <f>T42+M43</f>
+        <f t="shared" si="5"/>
         <v>106.45</v>
       </c>
     </row>
@@ -9758,7 +9790,7 @@
         <v>5</v>
       </c>
       <c r="T44" s="4">
-        <f>T43+M44</f>
+        <f t="shared" si="5"/>
         <v>114.2</v>
       </c>
     </row>
@@ -9809,7 +9841,7 @@
         <v>5</v>
       </c>
       <c r="T45" s="4">
-        <f>T44+M45</f>
+        <f t="shared" si="5"/>
         <v>116.95</v>
       </c>
     </row>
@@ -9850,7 +9882,7 @@
         <v>5</v>
       </c>
       <c r="T46" s="4">
-        <f>T45+M46</f>
+        <f t="shared" si="5"/>
         <v>117.7</v>
       </c>
     </row>
@@ -9891,7 +9923,7 @@
         <v>5</v>
       </c>
       <c r="T47" s="4">
-        <f>T46+M47</f>
+        <f t="shared" si="5"/>
         <v>118.2</v>
       </c>
     </row>
@@ -9932,7 +9964,7 @@
         <v>5</v>
       </c>
       <c r="T48" s="4">
-        <f>T47+M48</f>
+        <f t="shared" si="5"/>
         <v>121.95</v>
       </c>
     </row>
@@ -9973,7 +10005,7 @@
         <v>5</v>
       </c>
       <c r="T49" s="4">
-        <f>T48+M49</f>
+        <f t="shared" si="5"/>
         <v>124.7</v>
       </c>
     </row>
@@ -10014,13 +10046,13 @@
         <v>5</v>
       </c>
       <c r="R50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <f>T49+M50</f>
+        <f t="shared" si="5"/>
         <v>131.94999999999999</v>
       </c>
     </row>
@@ -10061,13 +10093,13 @@
         <v>5</v>
       </c>
       <c r="R51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <f>T50+M51</f>
+        <f t="shared" si="5"/>
         <v>135.44999999999999</v>
       </c>
     </row>
@@ -10108,13 +10140,13 @@
         <v>5</v>
       </c>
       <c r="R52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <f>T51+M52</f>
+        <f t="shared" si="5"/>
         <v>137.69999999999999</v>
       </c>
     </row>
@@ -10155,13 +10187,13 @@
         <v>5</v>
       </c>
       <c r="R53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53" s="4">
-        <f>T52+M53</f>
+        <f t="shared" si="5"/>
         <v>138.44999999999999</v>
       </c>
     </row>
@@ -10202,13 +10234,13 @@
         <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54" s="4">
-        <f>T53+M54</f>
+        <f t="shared" si="5"/>
         <v>140.94999999999999</v>
       </c>
     </row>
@@ -10249,13 +10281,13 @@
         <v>5</v>
       </c>
       <c r="R55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <f>T54+M55</f>
+        <f t="shared" si="5"/>
         <v>144.69999999999999</v>
       </c>
     </row>
@@ -10284,10 +10316,10 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="s">
+        <v>196</v>
+      </c>
+      <c r="O56" t="s">
         <v>197</v>
-      </c>
-      <c r="O56" t="s">
-        <v>198</v>
       </c>
       <c r="P56" t="s">
         <v>85</v>
@@ -10296,13 +10328,13 @@
         <v>5</v>
       </c>
       <c r="R56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <f>T55+M56</f>
+        <f t="shared" si="5"/>
         <v>147.94999999999999</v>
       </c>
     </row>
@@ -10343,13 +10375,13 @@
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57" s="4">
-        <f>T56+M57</f>
+        <f t="shared" si="5"/>
         <v>150.44999999999999</v>
       </c>
     </row>
@@ -10390,13 +10422,13 @@
         <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S58">
         <v>1</v>
       </c>
       <c r="T58" s="4">
-        <f>T57+M58</f>
+        <f t="shared" si="5"/>
         <v>150.44999999999999</v>
       </c>
     </row>
@@ -10437,13 +10469,13 @@
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59" s="4">
-        <f>T58+M59</f>
+        <f t="shared" si="5"/>
         <v>150.94999999999999</v>
       </c>
     </row>
@@ -10478,13 +10510,13 @@
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <f>T59+M60</f>
+        <f t="shared" si="5"/>
         <v>151.94999999999999</v>
       </c>
     </row>
@@ -10513,7 +10545,10 @@
         <v>1.75</v>
       </c>
       <c r="N61" t="s">
-        <v>199</v>
+        <v>252</v>
+      </c>
+      <c r="O61" t="s">
+        <v>17</v>
       </c>
       <c r="P61" t="s">
         <v>85</v>
@@ -10522,13 +10557,13 @@
         <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61" s="4">
-        <f>T60+M61</f>
+        <f t="shared" si="5"/>
         <v>153.69999999999999</v>
       </c>
     </row>
@@ -10567,10 +10602,10 @@
         <v>6</v>
       </c>
       <c r="N62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P62" t="s">
         <v>85</v>
@@ -10579,13 +10614,13 @@
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62" s="4">
-        <f>T61+M62</f>
+        <f t="shared" si="5"/>
         <v>159.69999999999999</v>
       </c>
     </row>
@@ -10614,7 +10649,7 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" t="s">
         <v>17</v>
@@ -10626,13 +10661,13 @@
         <v>5</v>
       </c>
       <c r="R63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63" s="4">
-        <f>T62+M63</f>
+        <f t="shared" si="5"/>
         <v>163.19999999999999</v>
       </c>
     </row>
@@ -10673,13 +10708,13 @@
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64" s="4">
-        <f>T63+M64</f>
+        <f t="shared" si="5"/>
         <v>165.45</v>
       </c>
     </row>
@@ -10708,7 +10743,7 @@
         <v>0.75</v>
       </c>
       <c r="N65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" t="s">
         <v>178</v>
@@ -10720,13 +10755,13 @@
         <v>5</v>
       </c>
       <c r="R65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65" s="4">
-        <f>T64+M65</f>
+        <f t="shared" si="5"/>
         <v>166.2</v>
       </c>
     </row>
@@ -10748,14 +10783,14 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F96" si="4">E66-D66</f>
+        <f t="shared" ref="F66:F97" si="6">E66-D66</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M66" s="4">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" t="s">
         <v>20</v>
@@ -10767,13 +10802,13 @@
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66" s="4">
-        <f>T65+M66</f>
+        <f t="shared" si="5"/>
         <v>167.2</v>
       </c>
     </row>
@@ -10795,14 +10830,14 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.125E-2</v>
       </c>
       <c r="M67" s="4">
         <v>0.75</v>
       </c>
       <c r="N67" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="O67" t="s">
         <v>178</v>
@@ -10814,13 +10849,13 @@
         <v>5</v>
       </c>
       <c r="R67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f>T66+M67</f>
+        <f t="shared" ref="T67:T97" si="7">T66+M67</f>
         <v>167.95</v>
       </c>
     </row>
@@ -10842,17 +10877,17 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="M68" s="4">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P68" t="s">
         <v>85</v>
@@ -10861,13 +10896,13 @@
         <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68" s="4">
-        <f>T67+M68</f>
+        <f t="shared" si="7"/>
         <v>169.95</v>
       </c>
     </row>
@@ -10889,7 +10924,7 @@
         <v>0.6875</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="M69" s="4">
@@ -10908,13 +10943,13 @@
         <v>5</v>
       </c>
       <c r="R69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" s="4">
-        <f>T68+M69</f>
+        <f t="shared" si="7"/>
         <v>173.95</v>
       </c>
     </row>
@@ -10936,17 +10971,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="M70" s="4">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P70" t="s">
         <v>85</v>
@@ -10955,13 +10990,13 @@
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70" s="4">
-        <f>T69+M70</f>
+        <f t="shared" si="7"/>
         <v>176.95</v>
       </c>
     </row>
@@ -10983,17 +11018,17 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.2916666666666741E-2</v>
       </c>
       <c r="M71" s="4">
         <v>1.75</v>
       </c>
       <c r="N71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P71" t="s">
         <v>85</v>
@@ -11002,13 +11037,13 @@
         <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71" s="4">
-        <f>T70+M71</f>
+        <f t="shared" si="7"/>
         <v>178.7</v>
       </c>
     </row>
@@ -11030,17 +11065,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="M72" s="4">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P72" t="s">
         <v>85</v>
@@ -11049,13 +11084,13 @@
         <v>5</v>
       </c>
       <c r="R72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72" s="4">
-        <f>T71+M72</f>
+        <f t="shared" si="7"/>
         <v>181.7</v>
       </c>
     </row>
@@ -11077,7 +11112,7 @@
         <v>0.8125</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="G73" s="3">
@@ -11094,10 +11129,10 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P73" t="s">
         <v>85</v>
@@ -11106,13 +11141,13 @@
         <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73" s="4">
-        <f>T72+M73</f>
+        <f t="shared" si="7"/>
         <v>184.45</v>
       </c>
     </row>
@@ -11134,17 +11169,17 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="M74" s="4">
         <v>0.25</v>
       </c>
       <c r="N74" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P74" t="s">
         <v>85</v>
@@ -11153,13 +11188,13 @@
         <v>5</v>
       </c>
       <c r="R74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74" s="4">
-        <f>T73+M74</f>
+        <f t="shared" si="7"/>
         <v>184.7</v>
       </c>
     </row>
@@ -11181,14 +11216,14 @@
         <v>0.6875</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="M75" s="4">
         <v>3.5</v>
       </c>
       <c r="N75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -11200,13 +11235,13 @@
         <v>5</v>
       </c>
       <c r="R75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75" s="4">
-        <f>T74+M75</f>
+        <f t="shared" si="7"/>
         <v>188.2</v>
       </c>
     </row>
@@ -11228,7 +11263,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="G76" s="3">
@@ -11245,10 +11280,10 @@
         <v>2.75</v>
       </c>
       <c r="N76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P76" t="s">
         <v>85</v>
@@ -11257,13 +11292,13 @@
         <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76" s="4">
-        <f>T75+M76</f>
+        <f t="shared" si="7"/>
         <v>190.95</v>
       </c>
     </row>
@@ -11285,17 +11320,17 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M77" s="4">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P77" t="s">
         <v>85</v>
@@ -11304,13 +11339,13 @@
         <v>5</v>
       </c>
       <c r="R77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77" s="4">
-        <f>T76+M77</f>
+        <f t="shared" si="7"/>
         <v>192.95</v>
       </c>
     </row>
@@ -11332,7 +11367,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G78" s="3">
@@ -11349,10 +11384,10 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P78" t="s">
         <v>85</v>
@@ -11361,13 +11396,13 @@
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S78">
         <v>1</v>
       </c>
       <c r="T78" s="4">
-        <f>T77+M78</f>
+        <f t="shared" si="7"/>
         <v>196.45</v>
       </c>
     </row>
@@ -11389,14 +11424,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15625</v>
       </c>
       <c r="M79" s="4">
         <v>3.75</v>
       </c>
       <c r="N79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
@@ -11408,13 +11443,13 @@
         <v>5</v>
       </c>
       <c r="R79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79" s="4">
-        <f>T78+M79</f>
+        <f t="shared" si="7"/>
         <v>200.2</v>
       </c>
     </row>
@@ -11436,17 +11471,17 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="M80" s="4">
         <v>4.25</v>
       </c>
       <c r="N80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P80" t="s">
         <v>85</v>
@@ -11455,13 +11490,13 @@
         <v>5</v>
       </c>
       <c r="R80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80" s="4">
-        <f>T79+M80</f>
+        <f t="shared" si="7"/>
         <v>204.45</v>
       </c>
     </row>
@@ -11483,14 +11518,14 @@
         <v>0.6875</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15625</v>
       </c>
       <c r="M81" s="4">
         <v>3.75</v>
       </c>
       <c r="N81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
@@ -11502,13 +11537,13 @@
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S81">
         <v>1</v>
       </c>
       <c r="T81" s="4">
-        <f>T80+M81</f>
+        <f t="shared" si="7"/>
         <v>208.2</v>
       </c>
     </row>
@@ -11530,7 +11565,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="G82" s="3">
@@ -11557,10 +11592,10 @@
         <v>2.75</v>
       </c>
       <c r="N82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P82" t="s">
         <v>85</v>
@@ -11569,13 +11604,13 @@
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S82">
         <v>1</v>
       </c>
       <c r="T82" s="4">
-        <f>T81+M82</f>
+        <f t="shared" si="7"/>
         <v>210.95</v>
       </c>
     </row>
@@ -11597,17 +11632,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="M83" s="4">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P83" t="s">
         <v>85</v>
@@ -11616,13 +11651,13 @@
         <v>5</v>
       </c>
       <c r="R83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S83">
         <v>1</v>
       </c>
       <c r="T83" s="4">
-        <f>T82+M83</f>
+        <f t="shared" si="7"/>
         <v>212.95</v>
       </c>
     </row>
@@ -11644,17 +11679,17 @@
         <v>0.90625</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19791666666666663</v>
       </c>
       <c r="M84" s="4">
         <v>4.75</v>
       </c>
       <c r="N84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P84" t="s">
         <v>85</v>
@@ -11663,13 +11698,13 @@
         <v>5</v>
       </c>
       <c r="R84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S84">
         <v>1</v>
       </c>
       <c r="T84" s="4">
-        <f>T83+M84</f>
+        <f t="shared" si="7"/>
         <v>217.7</v>
       </c>
     </row>
@@ -11691,12 +11726,18 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11458333333333326</v>
       </c>
       <c r="M85" s="4">
         <v>2.75</v>
       </c>
+      <c r="N85" t="s">
+        <v>257</v>
+      </c>
+      <c r="O85" t="s">
+        <v>17</v>
+      </c>
       <c r="P85" t="s">
         <v>85</v>
       </c>
@@ -11704,13 +11745,13 @@
         <v>5</v>
       </c>
       <c r="R85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S85">
         <v>1</v>
       </c>
       <c r="T85" s="4">
-        <f>T84+M85</f>
+        <f t="shared" si="7"/>
         <v>220.45</v>
       </c>
     </row>
@@ -11732,12 +11773,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="M86" s="4">
         <v>4.25</v>
       </c>
+      <c r="O86" t="s">
+        <v>227</v>
+      </c>
       <c r="P86" t="s">
         <v>85</v>
       </c>
@@ -11745,13 +11789,13 @@
         <v>5</v>
       </c>
       <c r="R86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S86">
         <v>1</v>
       </c>
       <c r="T86" s="4">
-        <f>T85+M86</f>
+        <f t="shared" si="7"/>
         <v>224.7</v>
       </c>
     </row>
@@ -11773,12 +11817,15 @@
         <v>0.6875</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="M87" s="4">
         <v>3.5</v>
       </c>
+      <c r="O87" t="s">
+        <v>17</v>
+      </c>
       <c r="P87" t="s">
         <v>85</v>
       </c>
@@ -11786,13 +11833,13 @@
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S87">
         <v>1</v>
       </c>
       <c r="T87" s="4">
-        <f>T86+M87</f>
+        <f t="shared" si="7"/>
         <v>228.2</v>
       </c>
     </row>
@@ -11814,7 +11861,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.125E-2</v>
       </c>
       <c r="G88" s="3">
@@ -11830,6 +11877,9 @@
       <c r="M88" s="4">
         <v>2</v>
       </c>
+      <c r="O88" t="s">
+        <v>256</v>
+      </c>
       <c r="P88" t="s">
         <v>85</v>
       </c>
@@ -11837,13 +11887,13 @@
         <v>5</v>
       </c>
       <c r="R88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S88">
         <v>1</v>
       </c>
       <c r="T88" s="4">
-        <f>T87+M88</f>
+        <f t="shared" si="7"/>
         <v>230.2</v>
       </c>
     </row>
@@ -11865,12 +11915,18 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.125E-2</v>
       </c>
       <c r="M89" s="4">
         <v>0.75</v>
       </c>
+      <c r="N89" t="s">
+        <v>258</v>
+      </c>
+      <c r="O89" t="s">
+        <v>178</v>
+      </c>
       <c r="P89" t="s">
         <v>85</v>
       </c>
@@ -11878,13 +11934,13 @@
         <v>5</v>
       </c>
       <c r="R89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89" s="4">
-        <f>T88+M89</f>
+        <f t="shared" si="7"/>
         <v>230.95</v>
       </c>
     </row>
@@ -11906,7 +11962,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.125E-2</v>
       </c>
       <c r="G90" s="3">
@@ -11922,6 +11978,12 @@
       <c r="M90" s="4">
         <v>2.25</v>
       </c>
+      <c r="N90" t="s">
+        <v>254</v>
+      </c>
+      <c r="O90" t="s">
+        <v>255</v>
+      </c>
       <c r="P90" t="s">
         <v>85</v>
       </c>
@@ -11929,13 +11991,13 @@
         <v>5</v>
       </c>
       <c r="R90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S90">
         <v>1</v>
       </c>
       <c r="T90" s="4">
-        <f>T89+M90</f>
+        <f t="shared" si="7"/>
         <v>233.2</v>
       </c>
     </row>
@@ -11957,14 +12019,14 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M91" s="4">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
@@ -11976,13 +12038,13 @@
         <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S91">
         <v>1</v>
       </c>
       <c r="T91" s="4">
-        <f>T90+M91</f>
+        <f t="shared" si="7"/>
         <v>235.2</v>
       </c>
     </row>
@@ -12004,7 +12066,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10416666666666669</v>
       </c>
       <c r="G92" s="3">
@@ -12021,10 +12083,10 @@
         <v>3.75</v>
       </c>
       <c r="N92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O92" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P92" t="s">
         <v>85</v>
@@ -12033,13 +12095,13 @@
         <v>5</v>
       </c>
       <c r="R92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S92">
         <v>1</v>
       </c>
       <c r="T92" s="4">
-        <f>T91+M92</f>
+        <f t="shared" si="7"/>
         <v>238.95</v>
       </c>
     </row>
@@ -12061,14 +12123,14 @@
         <v>0.6875</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M93" s="4">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O93" t="s">
         <v>70</v>
@@ -12080,13 +12142,13 @@
         <v>5</v>
       </c>
       <c r="R93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S93">
         <v>2</v>
       </c>
       <c r="T93" s="4">
-        <f>T92+M93</f>
+        <f t="shared" si="7"/>
         <v>239.95</v>
       </c>
     </row>
@@ -12108,17 +12170,17 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="M94" s="4">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P94" t="s">
         <v>85</v>
@@ -12127,13 +12189,13 @@
         <v>5</v>
       </c>
       <c r="R94" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S94">
         <v>2</v>
       </c>
       <c r="T94" s="4">
-        <f>T93+M94</f>
+        <f t="shared" si="7"/>
         <v>240.95</v>
       </c>
     </row>
@@ -12155,17 +12217,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="M95" s="4">
         <v>0.5</v>
       </c>
       <c r="N95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P95" t="s">
         <v>85</v>
@@ -12174,13 +12236,13 @@
         <v>5</v>
       </c>
       <c r="R95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S95">
         <v>2</v>
       </c>
       <c r="T95" s="4">
-        <f>T94+M95</f>
+        <f t="shared" si="7"/>
         <v>241.45</v>
       </c>
     </row>
@@ -12202,32 +12264,32 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="M96" s="4">
         <v>0.5</v>
       </c>
       <c r="N96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>6</v>
       </c>
       <c r="R96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S96">
         <v>2</v>
       </c>
       <c r="T96" s="4">
-        <f>T95+M96</f>
+        <f t="shared" si="7"/>
         <v>241.95</v>
       </c>
     </row>
@@ -12242,21 +12304,40 @@
         <f>B97</f>
         <v>43404</v>
       </c>
+      <c r="D97" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="M97" s="4">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>259</v>
+      </c>
+      <c r="O97" t="s">
+        <v>260</v>
+      </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>7</v>
       </c>
       <c r="R97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S97">
         <v>2</v>
       </c>
       <c r="T97" s="4">
-        <f>T96+M97</f>
-        <v>241.95</v>
+        <f t="shared" si="7"/>
+        <v>244.95</v>
       </c>
     </row>
   </sheetData>
@@ -12383,7 +12464,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12410,10 +12491,10 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -12425,8 +12506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12463,7 +12544,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12471,7 +12552,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12479,7 +12560,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12487,7 +12568,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12495,7 +12576,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12503,7 +12584,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12511,7 +12592,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12519,7 +12600,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12527,7 +12608,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12535,7 +12616,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12543,7 +12624,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12551,7 +12632,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12559,7 +12640,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12567,7 +12648,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12575,7 +12656,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12583,7 +12664,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12591,7 +12672,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -12599,7 +12680,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12607,7 +12688,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -12615,7 +12696,7 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12623,7 +12704,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850218E-E89E-469B-8A89-53784230211D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65FDBD7-4A07-4F7A-B907-66F9E8929940}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="292">
   <si>
     <t>Thursday</t>
   </si>
@@ -777,9 +777,6 @@
     <t>Private, FS Ice, FS2, Public</t>
   </si>
   <si>
-    <t>Stroking, FS3, Rehearal, FS Practice</t>
-  </si>
-  <si>
     <t>Dance, FS1, Stroking, Public</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
     <t>Had to leave after group with parents, Larry FS1</t>
   </si>
   <si>
-    <t>Rehearsal, FS Ice, Public, Stroking, Private, Public</t>
-  </si>
-  <si>
     <t>Fixed Waltz Jump and baby Axels, First successful change foot spin, getting better at camels and sit spins, Courier Knives Rehearsal, Laurel's Basics Stroking, Ribs and Sternum Hurt</t>
   </si>
   <si>
@@ -864,9 +858,6 @@
     <t>Courier practice, Voluntold by Johnathan to do a lot of stuff including racing, Skated with Mom</t>
   </si>
   <si>
-    <t>Rehearsal, Private, Stroking</t>
-  </si>
-  <si>
     <t>Private, FS2</t>
   </si>
   <si>
@@ -880,6 +871,108 @@
   </si>
   <si>
     <t>Public, Stroking, FS3/FS4, Public</t>
+  </si>
+  <si>
+    <t>Posture</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Rhythm</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Dance 1</t>
+  </si>
+  <si>
+    <t>Forward Chasses</t>
+  </si>
+  <si>
+    <t>Forward Progressives</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
+  <si>
+    <t>Unison</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS3/FS4, Private, Public</t>
+  </si>
+  <si>
+    <t>Change foot spins, Fixed backwards pivot, very discouraged</t>
+  </si>
+  <si>
+    <t>Sass from Lily Parker, Early stop for Isaiah day, Learned pancake spin and stork spin</t>
+  </si>
+  <si>
+    <t>Extra private due to late Larry, got change foot better: control external rotation of hip and snap, help from Sora, finished Waltzers, good sit spin</t>
+  </si>
+  <si>
+    <t>Pairs practice after private</t>
+  </si>
+  <si>
+    <t>Private, Pairs</t>
+  </si>
+  <si>
+    <t>Discovered jumping through toe pick, Lights went out, Learned FS3 program and Pairs3 Program</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS3/FS4, Waltzers</t>
+  </si>
+  <si>
+    <t>Fancy Dance Practice, skated with Greta</t>
+  </si>
+  <si>
+    <t>New private schedule no mondays, First learning FS3 program, Compulsories</t>
+  </si>
+  <si>
+    <t>Took change foot video, got insoles: balance different, late skate with katie</t>
+  </si>
+  <si>
+    <t>Dance III</t>
+  </si>
+  <si>
+    <t>Private cancelled, Obnoxious kids</t>
+  </si>
+  <si>
+    <t>Passed Dance II, played addon with katie</t>
+  </si>
+  <si>
+    <t>Dance, FS2/FS3, Stroking, Private, Public</t>
+  </si>
+  <si>
+    <t>Currier, Figures, stroking, Private, Pairs</t>
+  </si>
+  <si>
+    <t>Currier, Figures, Stroking, Private</t>
+  </si>
+  <si>
+    <t>Currierl, Private, Stroking</t>
+  </si>
+  <si>
+    <t>Waltzers</t>
+  </si>
+  <si>
+    <t>Currier, FS Ice, Public, Stroking, Private, Public</t>
+  </si>
+  <si>
+    <t>Stroking, FS3, Waltzers, FS Practice</t>
   </si>
 </sst>
 </file>
@@ -891,7 +984,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,12 +1013,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF002350"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -964,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -978,16 +1087,28 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1408,6 +1529,18 @@
                 <c:pt idx="95">
                   <c:v>43404</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43406</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1704,6 +1837,18 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,6 +2443,18 @@
                 <c:pt idx="95">
                   <c:v>43404</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43406</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2593,6 +2750,18 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3000,7 +3169,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,7 +3548,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,6 +4129,18 @@
                 <c:pt idx="95">
                   <c:v>43404</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43406</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4256,6 +4437,18 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>244.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>248.95</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>249.95</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>257.95</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>261.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7695,10 +7888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="Q98" sqref="Q98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7782,10 +7975,10 @@
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>208</v>
@@ -7880,11 +8073,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>244.95</v>
+        <v>283.95</v>
       </c>
       <c r="V3" s="4">
         <f>SUM(M19:M401)</f>
-        <v>203.2</v>
+        <v>242.2</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
@@ -8504,7 +8697,7 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M95)</f>
@@ -8514,11 +8707,11 @@
         <f>COUNTIF(P:P, "Freestyle I")</f>
         <v>53</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16" s="14">
         <f>C95-C43+1</f>
         <v>61</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="Z16" s="14">
         <f>Y16-X16</f>
         <v>8</v>
       </c>
@@ -8575,7 +8768,7 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M96)</f>
@@ -8633,23 +8826,23 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="W18" s="4">
         <f>SUM(M97:M400)</f>
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="X18">
         <f>COUNTIF(P:P, "Freestyle III")</f>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="15">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C97 + 1</f>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="15">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="14">
         <f>Y18-X18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -8731,7 +8924,7 @@
         <v>44</v>
       </c>
       <c r="V20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W20" s="4">
         <f>SUM(M50:M92)</f>
@@ -8741,11 +8934,11 @@
         <f>COUNTIF(R:R, "Dance I")</f>
         <v>43</v>
       </c>
-      <c r="Y20" s="15">
+      <c r="Y20" s="14">
         <f>C92-C50+1</f>
         <v>50</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="14">
         <f>Y20-X20</f>
         <v>7</v>
       </c>
@@ -8788,21 +8981,21 @@
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W21" s="4">
-        <f>SUM(M93:M400)</f>
-        <v>6</v>
+        <f>SUM(M93:M100)</f>
+        <v>19</v>
       </c>
       <c r="X21">
-        <f>COUNTIF(R:R, "Dance II")</f>
-        <v>5</v>
-      </c>
-      <c r="Y21" s="15">
-        <f>(INDEX(C:C,COUNTA(C:C))) - C92 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="Z21" s="15">
+        <f>COUNTIF(R:R, "Dance II") - 1</f>
+        <v>7</v>
+      </c>
+      <c r="Y21" s="14">
+        <f>C100 - C92</f>
+        <v>7</v>
+      </c>
+      <c r="Z21" s="14">
         <f>Y21-X21</f>
         <v>0</v>
       </c>
@@ -8844,6 +9037,25 @@
         <f t="shared" si="2"/>
         <v>51.25</v>
       </c>
+      <c r="V22" t="s">
+        <v>282</v>
+      </c>
+      <c r="W22" s="4">
+        <f>SUM(M100:M401)</f>
+        <v>34</v>
+      </c>
+      <c r="X22">
+        <f>COUNTIF(R:R, "Dance III")</f>
+        <v>9</v>
+      </c>
+      <c r="Y22" s="14">
+        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
+        <v>11</v>
+      </c>
+      <c r="Z22" s="14">
+        <f>Y22-X22</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -10046,7 +10258,7 @@
         <v>5</v>
       </c>
       <c r="R50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -10093,7 +10305,7 @@
         <v>5</v>
       </c>
       <c r="R51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -10140,7 +10352,7 @@
         <v>5</v>
       </c>
       <c r="R52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -10187,7 +10399,7 @@
         <v>5</v>
       </c>
       <c r="R53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -10234,7 +10446,7 @@
         <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -10281,7 +10493,7 @@
         <v>5</v>
       </c>
       <c r="R55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -10328,7 +10540,7 @@
         <v>5</v>
       </c>
       <c r="R56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -10375,7 +10587,7 @@
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -10422,7 +10634,7 @@
         <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -10469,7 +10681,7 @@
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -10510,7 +10722,7 @@
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -10545,7 +10757,7 @@
         <v>1.75</v>
       </c>
       <c r="N61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O61" t="s">
         <v>17</v>
@@ -10557,7 +10769,7 @@
         <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -10614,7 +10826,7 @@
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -10661,7 +10873,7 @@
         <v>5</v>
       </c>
       <c r="R63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -10708,7 +10920,7 @@
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -10755,7 +10967,7 @@
         <v>5</v>
       </c>
       <c r="R65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -10802,7 +11014,7 @@
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -10837,7 +11049,7 @@
         <v>0.75</v>
       </c>
       <c r="N67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O67" t="s">
         <v>178</v>
@@ -10849,13 +11061,13 @@
         <v>5</v>
       </c>
       <c r="R67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" ref="T67:T97" si="7">T66+M67</f>
+        <f t="shared" ref="T67:T109" si="7">T66+M67</f>
         <v>167.95</v>
       </c>
     </row>
@@ -10884,10 +11096,10 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P68" t="s">
         <v>85</v>
@@ -10896,7 +11108,7 @@
         <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -10943,7 +11155,7 @@
         <v>5</v>
       </c>
       <c r="R69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -10990,7 +11202,7 @@
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -11037,7 +11249,7 @@
         <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -11084,7 +11296,7 @@
         <v>5</v>
       </c>
       <c r="R72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -11141,7 +11353,7 @@
         <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -11188,7 +11400,7 @@
         <v>5</v>
       </c>
       <c r="R74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -11235,7 +11447,7 @@
         <v>5</v>
       </c>
       <c r="R75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -11292,7 +11504,7 @@
         <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -11330,7 +11542,7 @@
         <v>216</v>
       </c>
       <c r="O77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P77" t="s">
         <v>85</v>
@@ -11339,7 +11551,7 @@
         <v>5</v>
       </c>
       <c r="R77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -11396,7 +11608,7 @@
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -11443,7 +11655,7 @@
         <v>5</v>
       </c>
       <c r="R79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -11478,10 +11690,10 @@
         <v>4.25</v>
       </c>
       <c r="N80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P80" t="s">
         <v>85</v>
@@ -11490,7 +11702,7 @@
         <v>5</v>
       </c>
       <c r="R80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -11537,7 +11749,7 @@
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -11604,7 +11816,7 @@
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -11642,7 +11854,7 @@
         <v>218</v>
       </c>
       <c r="O83" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="P83" t="s">
         <v>85</v>
@@ -11651,7 +11863,7 @@
         <v>5</v>
       </c>
       <c r="R83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -11686,10 +11898,10 @@
         <v>4.75</v>
       </c>
       <c r="N84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O84" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="P84" t="s">
         <v>85</v>
@@ -11698,7 +11910,7 @@
         <v>5</v>
       </c>
       <c r="R84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -11733,7 +11945,7 @@
         <v>2.75</v>
       </c>
       <c r="N85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
@@ -11745,7 +11957,7 @@
         <v>5</v>
       </c>
       <c r="R85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -11780,7 +11992,7 @@
         <v>4.25</v>
       </c>
       <c r="O86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P86" t="s">
         <v>85</v>
@@ -11789,7 +12001,7 @@
         <v>5</v>
       </c>
       <c r="R86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -11833,7 +12045,7 @@
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -11878,7 +12090,7 @@
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P88" t="s">
         <v>85</v>
@@ -11887,7 +12099,7 @@
         <v>5</v>
       </c>
       <c r="R88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -11922,10 +12134,10 @@
         <v>0.75</v>
       </c>
       <c r="N89" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O89" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="P89" t="s">
         <v>85</v>
@@ -11934,7 +12146,7 @@
         <v>5</v>
       </c>
       <c r="R89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -11979,10 +12191,10 @@
         <v>2.25</v>
       </c>
       <c r="N90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P90" t="s">
         <v>85</v>
@@ -11991,7 +12203,7 @@
         <v>5</v>
       </c>
       <c r="R90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -12026,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
@@ -12038,7 +12250,7 @@
         <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -12083,10 +12295,10 @@
         <v>3.75</v>
       </c>
       <c r="N92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P92" t="s">
         <v>85</v>
@@ -12095,7 +12307,7 @@
         <v>5</v>
       </c>
       <c r="R92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -12130,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O93" t="s">
         <v>70</v>
@@ -12142,7 +12354,7 @@
         <v>5</v>
       </c>
       <c r="R93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S93">
         <v>2</v>
@@ -12177,10 +12389,10 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P94" t="s">
         <v>85</v>
@@ -12189,7 +12401,7 @@
         <v>5</v>
       </c>
       <c r="R94" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S94">
         <v>2</v>
@@ -12224,10 +12436,10 @@
         <v>0.5</v>
       </c>
       <c r="N95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P95" t="s">
         <v>85</v>
@@ -12236,7 +12448,7 @@
         <v>5</v>
       </c>
       <c r="R95" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S95">
         <v>2</v>
@@ -12271,19 +12483,19 @@
         <v>0.5</v>
       </c>
       <c r="N96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>6</v>
       </c>
       <c r="R96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S96">
         <v>2</v>
@@ -12318,19 +12530,19 @@
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>7</v>
       </c>
       <c r="R97" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S97">
         <v>2</v>
@@ -12340,8 +12552,591 @@
         <v>244.95</v>
       </c>
     </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43405</v>
+      </c>
+      <c r="C98" s="5">
+        <f>B98</f>
+        <v>43405</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" ref="F98:F109" si="8">E98-D98</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M98" s="4">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>287</v>
+      </c>
+      <c r="P98" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q98">
+        <v>7</v>
+      </c>
+      <c r="R98" t="s">
+        <v>249</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98" s="4">
+        <f t="shared" si="7"/>
+        <v>248.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43406</v>
+      </c>
+      <c r="C99" s="5">
+        <f>B99</f>
+        <v>43406</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="8"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>283</v>
+      </c>
+      <c r="O99" t="s">
+        <v>17</v>
+      </c>
+      <c r="P99" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99" t="s">
+        <v>249</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99" s="4">
+        <f t="shared" si="7"/>
+        <v>249.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43407</v>
+      </c>
+      <c r="C100" s="5">
+        <f>B100</f>
+        <v>43407</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="M100" s="4">
+        <v>8</v>
+      </c>
+      <c r="N100" t="s">
+        <v>284</v>
+      </c>
+      <c r="O100" t="s">
+        <v>285</v>
+      </c>
+      <c r="P100" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q100">
+        <v>7</v>
+      </c>
+      <c r="R100" t="s">
+        <v>249</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100" s="4">
+        <f t="shared" si="7"/>
+        <v>257.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43408</v>
+      </c>
+      <c r="C101" s="5">
+        <f>B101</f>
+        <v>43408</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M101" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q101">
+        <v>7</v>
+      </c>
+      <c r="R101" t="s">
+        <v>282</v>
+      </c>
+      <c r="S101">
+        <v>3</v>
+      </c>
+      <c r="T101" s="4">
+        <f t="shared" si="7"/>
+        <v>261.45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43410</v>
+      </c>
+      <c r="C102" s="5">
+        <f>B102</f>
+        <v>43410</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="8"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N102" t="s">
+        <v>280</v>
+      </c>
+      <c r="O102" t="s">
+        <v>70</v>
+      </c>
+      <c r="P102" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q102">
+        <v>7</v>
+      </c>
+      <c r="R102" t="s">
+        <v>282</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102" s="4">
+        <f t="shared" si="7"/>
+        <v>262.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43411</v>
+      </c>
+      <c r="C103" s="5">
+        <f>B103</f>
+        <v>43411</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" ref="F103" si="9">E103-D103</f>
+        <v>0.125</v>
+      </c>
+      <c r="M103" s="4">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>279</v>
+      </c>
+      <c r="O103" t="s">
+        <v>278</v>
+      </c>
+      <c r="P103" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+      <c r="R103" t="s">
+        <v>282</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103" s="4">
+        <f t="shared" si="7"/>
+        <v>265.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43412</v>
+      </c>
+      <c r="C104" s="5">
+        <f>B104</f>
+        <v>43412</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="8"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I104" s="2">
+        <f>H104-G104</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="M104" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O104" t="s">
+        <v>286</v>
+      </c>
+      <c r="P104" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q104">
+        <v>7</v>
+      </c>
+      <c r="R104" t="s">
+        <v>282</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="7"/>
+        <v>269.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43413</v>
+      </c>
+      <c r="C105" s="5">
+        <f>B105</f>
+        <v>43413</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="8"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I105" s="2">
+        <f>H105-G105</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="M105" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>281</v>
+      </c>
+      <c r="O105" t="s">
+        <v>36</v>
+      </c>
+      <c r="P105" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q105">
+        <v>7</v>
+      </c>
+      <c r="R105" t="s">
+        <v>282</v>
+      </c>
+      <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="7"/>
+        <v>273.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43414</v>
+      </c>
+      <c r="C106" s="5">
+        <f>B106</f>
+        <v>43414</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21875</v>
+      </c>
+      <c r="M106" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="N106" t="s">
+        <v>273</v>
+      </c>
+      <c r="O106" t="s">
+        <v>285</v>
+      </c>
+      <c r="P106" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106" t="s">
+        <v>282</v>
+      </c>
+      <c r="S106">
+        <v>3</v>
+      </c>
+      <c r="T106" s="4">
+        <f t="shared" si="7"/>
+        <v>278.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43415</v>
+      </c>
+      <c r="C107" s="5">
+        <f>B107</f>
+        <v>43415</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="8"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M107" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N107" t="s">
+        <v>275</v>
+      </c>
+      <c r="O107" t="s">
+        <v>276</v>
+      </c>
+      <c r="P107" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q107">
+        <v>7</v>
+      </c>
+      <c r="R107" t="s">
+        <v>282</v>
+      </c>
+      <c r="S107">
+        <v>3</v>
+      </c>
+      <c r="T107" s="4">
+        <f t="shared" si="7"/>
+        <v>279.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43417</v>
+      </c>
+      <c r="C108" s="5">
+        <f>B108</f>
+        <v>43417</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="8"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M108" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N108" t="s">
+        <v>272</v>
+      </c>
+      <c r="O108" t="s">
+        <v>70</v>
+      </c>
+      <c r="P108" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q108">
+        <v>7</v>
+      </c>
+      <c r="R108" t="s">
+        <v>282</v>
+      </c>
+      <c r="S108">
+        <v>3</v>
+      </c>
+      <c r="T108" s="4">
+        <f t="shared" si="7"/>
+        <v>280.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43418</v>
+      </c>
+      <c r="C109" s="5">
+        <f>B109</f>
+        <v>43418</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="M109" s="4">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>274</v>
+      </c>
+      <c r="O109" t="s">
+        <v>271</v>
+      </c>
+      <c r="P109" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q109">
+        <v>7</v>
+      </c>
+      <c r="R109" t="s">
+        <v>282</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:T542">
+  <conditionalFormatting sqref="O104 A2:T97 A110:T542 A104:M104 P98:T109 A98:O103 A105:O109">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -12506,7 +13301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -12522,7 +13317,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,415 +13509,565 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB340EFD-F3F6-409D-9A34-1F02F1C8F328}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29" style="17" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="18">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="13">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="18">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="18">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="18">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B7" s="18">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="18">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="18">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="18">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B14" s="18">
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>113</v>
       </c>
+      <c r="B15" s="18">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="17" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="17" t="s">
         <v>159</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65FDBD7-4A07-4F7A-B907-66F9E8929940}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{71EE47CB-E029-47CB-9E2F-643E3D72A644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Skater Evaluation" sheetId="3" r:id="rId5"/>
     <sheet name="Test Requirements" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="297">
   <si>
     <t>Thursday</t>
   </si>
@@ -354,9 +353,6 @@
     <t>Pubic, Rehearsal</t>
   </si>
   <si>
-    <t>Freestyle I</t>
-  </si>
-  <si>
     <t>Public, Group, Private</t>
   </si>
   <si>
@@ -807,24 +803,9 @@
     <t>Passed FS1</t>
   </si>
   <si>
-    <t>Freestyle II</t>
-  </si>
-  <si>
-    <t>Freestyle III</t>
-  </si>
-  <si>
     <t>Passed FS2</t>
   </si>
   <si>
-    <t>FS I</t>
-  </si>
-  <si>
-    <t>FS II</t>
-  </si>
-  <si>
-    <t>FS III</t>
-  </si>
-  <si>
     <t>After Disney on Ice</t>
   </si>
   <si>
@@ -843,12 +824,6 @@
     <t>Dance Class (int)</t>
   </si>
   <si>
-    <t>Dance I</t>
-  </si>
-  <si>
-    <t>Dance II</t>
-  </si>
-  <si>
     <t>Didn't go to rehearsal, crowded</t>
   </si>
   <si>
@@ -945,15 +920,9 @@
     <t>Took change foot video, got insoles: balance different, late skate with katie</t>
   </si>
   <si>
-    <t>Dance III</t>
-  </si>
-  <si>
     <t>Private cancelled, Obnoxious kids</t>
   </si>
   <si>
-    <t>Passed Dance II, played addon with katie</t>
-  </si>
-  <si>
     <t>Dance, FS2/FS3, Stroking, Private, Public</t>
   </si>
   <si>
@@ -963,9 +932,6 @@
     <t>Currier, Figures, Stroking, Private</t>
   </si>
   <si>
-    <t>Currierl, Private, Stroking</t>
-  </si>
-  <si>
     <t>Waltzers</t>
   </si>
   <si>
@@ -973,12 +939,60 @@
   </si>
   <si>
     <t>Stroking, FS3, Waltzers, FS Practice</t>
+  </si>
+  <si>
+    <t>Passed FS3</t>
+  </si>
+  <si>
+    <t>Dance 2</t>
+  </si>
+  <si>
+    <t>Passed Dance 2, played addon with katie</t>
+  </si>
+  <si>
+    <t>Dance 3</t>
+  </si>
+  <si>
+    <t>Last day of classes until Holiday school</t>
+  </si>
+  <si>
+    <t>10 minute private, learned FS4 footwork</t>
+  </si>
+  <si>
+    <t>Private, FS Ice</t>
+  </si>
+  <si>
+    <t>Worked on Pairs 1-3</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
+  <si>
+    <t>Test Session, Public, Private</t>
+  </si>
+  <si>
+    <t>Currier, Private, Stroking</t>
+  </si>
+  <si>
+    <t>Makeup Currier, Landing awesome flips during practice</t>
+  </si>
+  <si>
+    <t>FS 1</t>
+  </si>
+  <si>
+    <t>FS 2</t>
+  </si>
+  <si>
+    <t>FS 3</t>
+  </si>
+  <si>
+    <t>FS 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
@@ -1073,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1097,11 +1111,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1174,6 +1268,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2006,6 +2101,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2013,7 +2109,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2088,6 +2183,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2151,10 +2247,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$101</c:f>
+              <c:f>Data!$C$2:$C$401</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2454,16 +2550,76 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43410</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43411</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43413</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43414</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43415</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43417</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43420</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43421</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43422</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43423</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43424</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43425</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$101</c:f>
+              <c:f>Data!$Q$2:$Q$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2763,6 +2919,66 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,6 +3137,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2928,7 +3145,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3003,6 +3219,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3091,6 +3308,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3111,9 +3329,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$V$11:$V$18</c:f>
+              <c:f>Data!$V$11:$V$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -3130,23 +3348,26 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FS I</c:v>
+                  <c:v>FS 1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FS II</c:v>
+                  <c:v>FS 2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FS III</c:v>
+                  <c:v>FS 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FS 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$11:$W$18</c:f>
+              <c:f>Data!$W$11:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
                 </c:pt>
@@ -3169,7 +3390,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,6 +3493,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3300,6 +3525,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3307,7 +3533,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3382,6 +3607,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3470,6 +3696,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3490,9 +3717,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$V$11:$V$18</c:f>
+              <c:f>Data!$V$11:$V$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -3509,23 +3736,26 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FS I</c:v>
+                  <c:v>FS 1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FS II</c:v>
+                  <c:v>FS 2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FS III</c:v>
+                  <c:v>FS 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FS 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$11:$X$18</c:f>
+              <c:f>Data!$X$11:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3548,7 +3778,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3648,6 +3881,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3679,6 +3913,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3686,7 +3921,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3774,6 +4008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3837,10 +4072,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$101</c:f>
+              <c:f>Data!$C$2:$C$401</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -4140,16 +4375,76 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43410</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43411</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43413</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43414</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43415</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43417</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43420</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43421</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43422</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43423</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43424</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43425</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$101</c:f>
+              <c:f>Data!$T$2:$T$401</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -4449,6 +4744,66 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>261.45</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>262.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>265.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>269.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>273.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>278.45</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>279.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>280.95</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>283.95</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>287.45</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>288.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>290.2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>290.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4606,6 +4961,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4613,7 +4969,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7887,11 +8242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D52CE-F677-4C27-BBDA-60D3BC0A2860}">
-  <dimension ref="A1:Z109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7902,14 +8257,14 @@
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11" style="20" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
     <col min="19" max="19" width="16.140625" customWidth="1"/>
@@ -7968,20 +8323,20 @@
       <c r="O1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -8009,12 +8364,12 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Q2">
@@ -8061,7 +8416,7 @@
       <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Q3">
@@ -8073,11 +8428,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>283.95</v>
+        <v>290.2</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M19:M401)</f>
-        <v>242.2</v>
+        <f>SUM(M19:M400)</f>
+        <v>248.45</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
@@ -8114,7 +8469,7 @@
       <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Q4">
@@ -8152,7 +8507,7 @@
       <c r="O5" t="s">
         <v>17</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="Q5">
@@ -8190,7 +8545,7 @@
       <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="Q6">
@@ -8228,7 +8583,7 @@
       <c r="O7" t="s">
         <v>21</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="Q7">
@@ -8266,7 +8621,7 @@
       <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="20" t="s">
         <v>16</v>
       </c>
       <c r="Q8">
@@ -8304,7 +8659,7 @@
       <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="Q9">
@@ -8345,7 +8700,7 @@
       <c r="O10" t="s">
         <v>23</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="Q10">
@@ -8362,13 +8717,13 @@
         <v>80</v>
       </c>
       <c r="X10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="Y10" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="Z10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -8398,7 +8753,7 @@
       <c r="O11" t="s">
         <v>20</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q11">
@@ -8455,7 +8810,7 @@
       <c r="O12" t="s">
         <v>21</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q12">
@@ -8512,7 +8867,7 @@
       <c r="O13" t="s">
         <v>29</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q13">
@@ -8572,7 +8927,7 @@
       <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q14">
@@ -8629,7 +8984,7 @@
       <c r="O15" t="s">
         <v>20</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q15">
@@ -8686,7 +9041,7 @@
       <c r="O16" t="s">
         <v>21</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q16">
@@ -8697,14 +9052,14 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M95)</f>
         <v>137.25</v>
       </c>
       <c r="X16">
-        <f>COUNTIF(P:P, "Freestyle I")</f>
+        <f>COUNTIF(P:P, "Freestyle 1")</f>
         <v>53</v>
       </c>
       <c r="Y16" s="14">
@@ -8757,7 +9112,7 @@
       <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Q17">
@@ -8768,14 +9123,14 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M96)</f>
         <v>0.5</v>
       </c>
       <c r="X17">
-        <f>COUNTIF(P:P, "Freestyle II")</f>
+        <f>COUNTIF(P:P, "Freestyle 2")</f>
         <v>1</v>
       </c>
       <c r="Y17">
@@ -8815,7 +9170,7 @@
       <c r="O18" t="s">
         <v>17</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q18">
@@ -8826,23 +9181,23 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="W18" s="4">
-        <f>SUM(M97:M400)</f>
-        <v>42</v>
+        <f>SUM(M97:M118)</f>
+        <v>45.5</v>
       </c>
       <c r="X18">
-        <f>COUNTIF(P:P, "Freestyle III")</f>
-        <v>13</v>
+        <f>COUNTIF(P:P, "Freestyle 3")</f>
+        <v>22</v>
       </c>
       <c r="Y18" s="14">
-        <f>(INDEX(C:C,COUNTA(C:C))) - C97 + 1</f>
-        <v>15</v>
+        <f>C118-C97+1</f>
+        <v>25</v>
       </c>
       <c r="Z18" s="14">
         <f>Y18-X18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -8875,7 +9230,7 @@
       <c r="O19" t="s">
         <v>34</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q19">
@@ -8885,6 +9240,22 @@
         <f t="shared" si="2"/>
         <v>42.75</v>
       </c>
+      <c r="V19" t="s">
+        <v>296</v>
+      </c>
+      <c r="W19" s="4">
+        <f>SUM(M119:M400)</f>
+        <v>2.75</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8913,7 +9284,7 @@
       <c r="O20" t="s">
         <v>17</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q20">
@@ -8923,25 +9294,6 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="V20" t="s">
-        <v>248</v>
-      </c>
-      <c r="W20" s="4">
-        <f>SUM(M50:M92)</f>
-        <v>114.25</v>
-      </c>
-      <c r="X20">
-        <f>COUNTIF(R:R, "Dance I")</f>
-        <v>43</v>
-      </c>
-      <c r="Y20" s="14">
-        <f>C92-C50+1</f>
-        <v>50</v>
-      </c>
-      <c r="Z20" s="14">
-        <f>Y20-X20</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -8970,7 +9322,7 @@
       <c r="O21" t="s">
         <v>36</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q21">
@@ -8981,23 +9333,23 @@
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="W21" s="4">
-        <f>SUM(M93:M100)</f>
-        <v>19</v>
+        <f>SUM(M50:M92)</f>
+        <v>114.25</v>
       </c>
       <c r="X21">
-        <f>COUNTIF(R:R, "Dance II") - 1</f>
-        <v>7</v>
+        <f>COUNTIF(R:R, "Dance 1")</f>
+        <v>43</v>
       </c>
       <c r="Y21" s="14">
-        <f>C100 - C92</f>
-        <v>7</v>
+        <f>C92-C50+1</f>
+        <v>50</v>
       </c>
       <c r="Z21" s="14">
         <f>Y21-X21</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -9027,7 +9379,7 @@
       <c r="O22" t="s">
         <v>36</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q22">
@@ -9041,20 +9393,20 @@
         <v>282</v>
       </c>
       <c r="W22" s="4">
-        <f>SUM(M100:M401)</f>
-        <v>34</v>
+        <f>SUM(M93:M100)</f>
+        <v>19</v>
       </c>
       <c r="X22">
-        <f>COUNTIF(R:R, "Dance III")</f>
-        <v>9</v>
+        <f>COUNTIF(R:R, "Dance 2") - 1</f>
+        <v>7</v>
       </c>
       <c r="Y22" s="14">
-        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>11</v>
+        <f>C100 - C92</f>
+        <v>7</v>
       </c>
       <c r="Z22" s="14">
         <f>Y22-X22</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -9094,7 +9446,7 @@
       <c r="O23" t="s">
         <v>17</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q23">
@@ -9104,8 +9456,24 @@
         <f t="shared" si="2"/>
         <v>58.5</v>
       </c>
-      <c r="Z23" s="7" t="s">
-        <v>201</v>
+      <c r="V23" t="s">
+        <v>284</v>
+      </c>
+      <c r="W23" s="4">
+        <f>SUM(M100:M400)</f>
+        <v>40.25</v>
+      </c>
+      <c r="X23">
+        <f>COUNTIF(R:R, "Dance 3")</f>
+        <v>21</v>
+      </c>
+      <c r="Y23" s="14">
+        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
+        <v>24</v>
+      </c>
+      <c r="Z23" s="14">
+        <f>Y23-X23</f>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -9135,7 +9503,7 @@
       <c r="O24" t="s">
         <v>17</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q24">
@@ -9145,9 +9513,8 @@
         <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
-      <c r="Z24">
-        <f>SUM(Z11:Z16)</f>
-        <v>22</v>
+      <c r="Z24" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -9177,7 +9544,7 @@
       <c r="O25" t="s">
         <v>29</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q25">
@@ -9187,6 +9554,10 @@
         <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
+      <c r="Z25">
+        <f>SUM(Z11:Z19)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9215,7 +9586,7 @@
       <c r="O26" t="s">
         <v>60</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q26">
@@ -9256,7 +9627,7 @@
       <c r="O27" t="s">
         <v>65</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q27">
@@ -9307,7 +9678,7 @@
       <c r="O28" t="s">
         <v>66</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q28">
@@ -9348,7 +9719,7 @@
       <c r="O29" t="s">
         <v>17</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q29">
@@ -9386,7 +9757,7 @@
       <c r="O30" t="s">
         <v>29</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q30">
@@ -9427,7 +9798,7 @@
       <c r="O31" t="s">
         <v>70</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q31">
@@ -9468,7 +9839,7 @@
       <c r="O32" t="s">
         <v>19</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q32">
@@ -9516,7 +9887,7 @@
       <c r="O33" t="s">
         <v>65</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q33">
@@ -9564,7 +9935,7 @@
       <c r="O34" t="s">
         <v>22</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q34">
@@ -9602,7 +9973,7 @@
       <c r="O35" t="s">
         <v>17</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q35">
@@ -9643,7 +10014,7 @@
       <c r="O36" t="s">
         <v>74</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q36">
@@ -9684,7 +10055,7 @@
       <c r="O37" t="s">
         <v>77</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q37">
@@ -9722,7 +10093,7 @@
       <c r="O38" t="s">
         <v>76</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q38">
@@ -9763,7 +10134,7 @@
       <c r="O39" t="s">
         <v>77</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q39">
@@ -9804,7 +10175,7 @@
       <c r="O40" t="s">
         <v>79</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q40">
@@ -9842,7 +10213,7 @@
       <c r="O41" t="s">
         <v>84</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q41">
@@ -9888,12 +10259,12 @@
         <v>3.25</v>
       </c>
       <c r="N42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
-      </c>
-      <c r="P42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P42" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q42">
@@ -9929,13 +10300,13 @@
         <v>2.25</v>
       </c>
       <c r="N43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O43" t="s">
         <v>21</v>
       </c>
-      <c r="P43" t="s">
-        <v>85</v>
+      <c r="P43" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9990,13 +10361,13 @@
         <v>7.75</v>
       </c>
       <c r="N44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
-      </c>
-      <c r="P44" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -10041,13 +10412,13 @@
         <v>2.75</v>
       </c>
       <c r="N45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
       </c>
-      <c r="P45" t="s">
-        <v>85</v>
+      <c r="P45" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10082,13 +10453,13 @@
         <v>0.75</v>
       </c>
       <c r="N46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O46" t="s">
         <v>36</v>
       </c>
-      <c r="P46" t="s">
-        <v>85</v>
+      <c r="P46" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10123,13 +10494,13 @@
         <v>0.5</v>
       </c>
       <c r="N47" t="s">
+        <v>91</v>
+      </c>
+      <c r="O47" t="s">
         <v>92</v>
       </c>
-      <c r="O47" t="s">
-        <v>93</v>
-      </c>
-      <c r="P47" t="s">
-        <v>85</v>
+      <c r="P47" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10164,13 +10535,13 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
-      </c>
-      <c r="P48" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10205,13 +10576,13 @@
         <v>2.75</v>
       </c>
       <c r="N49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O49" t="s">
-        <v>95</v>
-      </c>
-      <c r="P49" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10246,19 +10617,19 @@
         <v>7.25</v>
       </c>
       <c r="N50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O50" t="s">
-        <v>96</v>
-      </c>
-      <c r="P50" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q50">
         <v>5</v>
       </c>
       <c r="R50" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -10293,19 +10664,19 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
       </c>
-      <c r="P51" t="s">
-        <v>85</v>
+      <c r="P51" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q51">
         <v>5</v>
       </c>
       <c r="R51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -10340,19 +10711,19 @@
         <v>2.25</v>
       </c>
       <c r="N52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O52" t="s">
-        <v>99</v>
-      </c>
-      <c r="P52" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q52">
         <v>5</v>
       </c>
       <c r="R52" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -10387,19 +10758,19 @@
         <v>0.75</v>
       </c>
       <c r="N53" t="s">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P53" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="O53" t="s">
-        <v>100</v>
-      </c>
-      <c r="P53" t="s">
-        <v>85</v>
       </c>
       <c r="Q53">
         <v>5</v>
       </c>
       <c r="R53" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -10434,19 +10805,19 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O54" t="s">
-        <v>183</v>
-      </c>
-      <c r="P54" t="s">
-        <v>85</v>
+        <v>182</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -10481,19 +10852,19 @@
         <v>3.75</v>
       </c>
       <c r="N55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
-      </c>
-      <c r="P55" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q55">
         <v>5</v>
       </c>
       <c r="R55" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -10528,19 +10899,19 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="s">
+        <v>195</v>
+      </c>
+      <c r="O56" t="s">
         <v>196</v>
       </c>
-      <c r="O56" t="s">
-        <v>197</v>
-      </c>
-      <c r="P56" t="s">
-        <v>85</v>
+      <c r="P56" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q56">
         <v>5</v>
       </c>
       <c r="R56" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -10575,19 +10946,19 @@
         <v>2.5</v>
       </c>
       <c r="N57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O57" t="s">
-        <v>181</v>
-      </c>
-      <c r="P57" t="s">
-        <v>85</v>
+        <v>180</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q57">
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -10622,19 +10993,19 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" t="s">
         <v>70</v>
       </c>
-      <c r="P58" t="s">
-        <v>85</v>
+      <c r="P58" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q58">
         <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -10669,19 +11040,19 @@
         <v>0.5</v>
       </c>
       <c r="N59" t="s">
+        <v>176</v>
+      </c>
+      <c r="O59" t="s">
         <v>177</v>
       </c>
-      <c r="O59" t="s">
-        <v>178</v>
-      </c>
-      <c r="P59" t="s">
-        <v>85</v>
+      <c r="P59" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q59">
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -10715,14 +11086,14 @@
       <c r="M60" s="4">
         <v>1</v>
       </c>
-      <c r="P60" t="s">
-        <v>85</v>
+      <c r="P60" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q60">
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -10757,19 +11128,19 @@
         <v>1.75</v>
       </c>
       <c r="N61" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O61" t="s">
         <v>17</v>
       </c>
-      <c r="P61" t="s">
-        <v>85</v>
+      <c r="P61" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q61">
         <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -10814,19 +11185,19 @@
         <v>6</v>
       </c>
       <c r="N62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O62" t="s">
-        <v>194</v>
-      </c>
-      <c r="P62" t="s">
-        <v>85</v>
+        <v>193</v>
+      </c>
+      <c r="P62" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q62">
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -10861,19 +11232,19 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" t="s">
         <v>17</v>
       </c>
-      <c r="P63" t="s">
-        <v>85</v>
+      <c r="P63" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q63">
         <v>5</v>
       </c>
       <c r="R63" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -10908,19 +11279,19 @@
         <v>2.25</v>
       </c>
       <c r="N64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" t="s">
-        <v>189</v>
-      </c>
-      <c r="P64" t="s">
-        <v>85</v>
+        <v>188</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -10955,19 +11326,19 @@
         <v>0.75</v>
       </c>
       <c r="N65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" t="s">
-        <v>178</v>
-      </c>
-      <c r="P65" t="s">
-        <v>85</v>
+        <v>177</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q65">
         <v>5</v>
       </c>
       <c r="R65" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -11002,19 +11373,19 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" t="s">
         <v>20</v>
       </c>
-      <c r="P66" t="s">
-        <v>85</v>
+      <c r="P66" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -11049,25 +11420,25 @@
         <v>0.75</v>
       </c>
       <c r="N67" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O67" t="s">
-        <v>178</v>
-      </c>
-      <c r="P67" t="s">
-        <v>85</v>
+        <v>177</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q67">
         <v>5</v>
       </c>
       <c r="R67" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" ref="T67:T109" si="7">T66+M67</f>
+        <f t="shared" ref="T67:T121" si="7">T66+M67</f>
         <v>167.95</v>
       </c>
     </row>
@@ -11096,19 +11467,19 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O68" t="s">
-        <v>229</v>
-      </c>
-      <c r="P68" t="s">
-        <v>85</v>
+        <v>228</v>
+      </c>
+      <c r="P68" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q68">
         <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -11143,19 +11514,19 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O69" t="s">
         <v>17</v>
       </c>
-      <c r="P69" t="s">
-        <v>85</v>
+      <c r="P69" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q69">
         <v>5</v>
       </c>
       <c r="R69" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -11190,19 +11561,19 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O70" t="s">
-        <v>219</v>
-      </c>
-      <c r="P70" t="s">
-        <v>85</v>
+        <v>218</v>
+      </c>
+      <c r="P70" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q70">
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -11237,19 +11608,19 @@
         <v>1.75</v>
       </c>
       <c r="N71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O71" t="s">
-        <v>220</v>
-      </c>
-      <c r="P71" t="s">
-        <v>85</v>
+        <v>219</v>
+      </c>
+      <c r="P71" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q71">
         <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -11284,19 +11655,19 @@
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O72" t="s">
-        <v>221</v>
-      </c>
-      <c r="P72" t="s">
-        <v>85</v>
+        <v>220</v>
+      </c>
+      <c r="P72" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q72">
         <v>5</v>
       </c>
       <c r="R72" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -11341,19 +11712,19 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O73" t="s">
-        <v>222</v>
-      </c>
-      <c r="P73" t="s">
-        <v>85</v>
+        <v>221</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q73">
         <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -11388,19 +11759,19 @@
         <v>0.25</v>
       </c>
       <c r="N74" t="s">
+        <v>203</v>
+      </c>
+      <c r="O74" t="s">
         <v>204</v>
       </c>
-      <c r="O74" t="s">
-        <v>205</v>
-      </c>
-      <c r="P74" t="s">
-        <v>85</v>
+      <c r="P74" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q74">
         <v>5</v>
       </c>
       <c r="R74" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -11435,19 +11806,19 @@
         <v>3.5</v>
       </c>
       <c r="N75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
       </c>
-      <c r="P75" t="s">
-        <v>85</v>
+      <c r="P75" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q75">
         <v>5</v>
       </c>
       <c r="R75" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -11492,19 +11863,19 @@
         <v>2.75</v>
       </c>
       <c r="N76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O76" t="s">
-        <v>223</v>
-      </c>
-      <c r="P76" t="s">
-        <v>85</v>
+        <v>222</v>
+      </c>
+      <c r="P76" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q76">
         <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -11539,19 +11910,19 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" t="s">
-        <v>228</v>
-      </c>
-      <c r="P77" t="s">
-        <v>85</v>
+        <v>227</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q77">
         <v>5</v>
       </c>
       <c r="R77" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -11596,19 +11967,19 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O78" t="s">
-        <v>224</v>
-      </c>
-      <c r="P78" t="s">
-        <v>85</v>
+        <v>223</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q78">
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -11643,19 +12014,19 @@
         <v>3.75</v>
       </c>
       <c r="N79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
       </c>
-      <c r="P79" t="s">
-        <v>85</v>
+      <c r="P79" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q79">
         <v>5</v>
       </c>
       <c r="R79" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -11690,19 +12061,19 @@
         <v>4.25</v>
       </c>
       <c r="N80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" t="s">
-        <v>226</v>
-      </c>
-      <c r="P80" t="s">
-        <v>85</v>
+        <v>225</v>
+      </c>
+      <c r="P80" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q80">
         <v>5</v>
       </c>
       <c r="R80" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -11737,19 +12108,19 @@
         <v>3.75</v>
       </c>
       <c r="N81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
       </c>
-      <c r="P81" t="s">
-        <v>85</v>
+      <c r="P81" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q81">
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -11804,19 +12175,19 @@
         <v>2.75</v>
       </c>
       <c r="N82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O82" t="s">
-        <v>225</v>
-      </c>
-      <c r="P82" t="s">
-        <v>85</v>
+        <v>224</v>
+      </c>
+      <c r="P82" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q82">
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -11851,19 +12222,19 @@
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O83" t="s">
-        <v>291</v>
-      </c>
-      <c r="P83" t="s">
-        <v>85</v>
+        <v>280</v>
+      </c>
+      <c r="P83" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q83">
         <v>5</v>
       </c>
       <c r="R83" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -11898,19 +12269,19 @@
         <v>4.75</v>
       </c>
       <c r="N84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O84" t="s">
-        <v>290</v>
-      </c>
-      <c r="P84" t="s">
-        <v>85</v>
+        <v>279</v>
+      </c>
+      <c r="P84" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q84">
         <v>5</v>
       </c>
       <c r="R84" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -11945,19 +12316,19 @@
         <v>2.75</v>
       </c>
       <c r="N85" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
       </c>
-      <c r="P85" t="s">
-        <v>85</v>
+      <c r="P85" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q85">
         <v>5</v>
       </c>
       <c r="R85" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -11992,16 +12363,16 @@
         <v>4.25</v>
       </c>
       <c r="O86" t="s">
-        <v>226</v>
-      </c>
-      <c r="P86" t="s">
-        <v>85</v>
+        <v>225</v>
+      </c>
+      <c r="P86" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q86">
         <v>5</v>
       </c>
       <c r="R86" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -12038,14 +12409,14 @@
       <c r="O87" t="s">
         <v>17</v>
       </c>
-      <c r="P87" t="s">
-        <v>85</v>
+      <c r="P87" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q87">
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -12090,16 +12461,16 @@
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>253</v>
-      </c>
-      <c r="P88" t="s">
-        <v>85</v>
+        <v>245</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q88">
         <v>5</v>
       </c>
       <c r="R88" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -12134,19 +12505,19 @@
         <v>0.75</v>
       </c>
       <c r="N89" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O89" t="s">
-        <v>289</v>
-      </c>
-      <c r="P89" t="s">
-        <v>85</v>
+        <v>278</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q89">
         <v>5</v>
       </c>
       <c r="R89" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -12191,19 +12562,19 @@
         <v>2.25</v>
       </c>
       <c r="N90" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O90" t="s">
-        <v>288</v>
-      </c>
-      <c r="P90" t="s">
-        <v>85</v>
+        <v>291</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q90">
         <v>5</v>
       </c>
       <c r="R90" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -12238,19 +12609,19 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
       </c>
-      <c r="P91" t="s">
-        <v>85</v>
+      <c r="P91" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q91">
         <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -12295,19 +12666,19 @@
         <v>3.75</v>
       </c>
       <c r="N92" t="s">
+        <v>231</v>
+      </c>
+      <c r="O92" t="s">
         <v>232</v>
       </c>
-      <c r="O92" t="s">
-        <v>233</v>
-      </c>
-      <c r="P92" t="s">
-        <v>85</v>
+      <c r="P92" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q92">
         <v>5</v>
       </c>
       <c r="R92" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -12342,19 +12713,19 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O93" t="s">
         <v>70</v>
       </c>
-      <c r="P93" t="s">
-        <v>85</v>
+      <c r="P93" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q93">
         <v>5</v>
       </c>
       <c r="R93" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S93">
         <v>2</v>
@@ -12389,19 +12760,19 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O94" t="s">
-        <v>244</v>
-      </c>
-      <c r="P94" t="s">
-        <v>85</v>
+        <v>238</v>
+      </c>
+      <c r="P94" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q94">
         <v>5</v>
       </c>
       <c r="R94" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S94">
         <v>2</v>
@@ -12436,19 +12807,19 @@
         <v>0.5</v>
       </c>
       <c r="N95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O95" t="s">
-        <v>245</v>
-      </c>
-      <c r="P95" t="s">
-        <v>85</v>
+        <v>239</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="Q95">
         <v>5</v>
       </c>
       <c r="R95" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S95">
         <v>2</v>
@@ -12466,7 +12837,7 @@
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f>B96</f>
+        <f t="shared" ref="C96:C121" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -12483,19 +12854,19 @@
         <v>0.5</v>
       </c>
       <c r="N96" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O96" t="s">
-        <v>245</v>
-      </c>
-      <c r="P96" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="P96" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="Q96">
         <v>6</v>
       </c>
       <c r="R96" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S96">
         <v>2</v>
@@ -12513,7 +12884,7 @@
         <v>43404</v>
       </c>
       <c r="C97" s="5">
-        <f>B97</f>
+        <f t="shared" si="8"/>
         <v>43404</v>
       </c>
       <c r="D97" s="3">
@@ -12530,19 +12901,19 @@
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O97" t="s">
-        <v>257</v>
-      </c>
-      <c r="P97" t="s">
-        <v>237</v>
+        <v>249</v>
+      </c>
+      <c r="P97" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q97">
         <v>7</v>
       </c>
       <c r="R97" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S97">
         <v>2</v>
@@ -12560,7 +12931,7 @@
         <v>43405</v>
       </c>
       <c r="C98" s="5">
-        <f>B98</f>
+        <f t="shared" si="8"/>
         <v>43405</v>
       </c>
       <c r="D98" s="3">
@@ -12570,23 +12941,23 @@
         <v>0.875</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F109" si="8">E98-D98</f>
+        <f t="shared" ref="F98:F121" si="9">E98-D98</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="M98" s="4">
         <v>4</v>
       </c>
       <c r="O98" t="s">
-        <v>287</v>
-      </c>
-      <c r="P98" t="s">
-        <v>237</v>
+        <v>277</v>
+      </c>
+      <c r="P98" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q98">
         <v>7</v>
       </c>
       <c r="R98" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S98">
         <v>2</v>
@@ -12604,7 +12975,7 @@
         <v>43406</v>
       </c>
       <c r="C99" s="5">
-        <f>B99</f>
+        <f t="shared" si="8"/>
         <v>43406</v>
       </c>
       <c r="D99" s="3">
@@ -12614,26 +12985,26 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M99" s="4">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
       </c>
-      <c r="P99" t="s">
-        <v>237</v>
+      <c r="P99" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q99">
         <v>7</v>
       </c>
       <c r="R99" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S99">
         <v>2</v>
@@ -12651,7 +13022,7 @@
         <v>43407</v>
       </c>
       <c r="C100" s="5">
-        <f>B100</f>
+        <f t="shared" si="8"/>
         <v>43407</v>
       </c>
       <c r="D100" s="3">
@@ -12661,26 +13032,26 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="M100" s="4">
         <v>8</v>
       </c>
       <c r="N100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O100" t="s">
-        <v>285</v>
-      </c>
-      <c r="P100" t="s">
-        <v>237</v>
+        <v>275</v>
+      </c>
+      <c r="P100" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q100">
         <v>7</v>
       </c>
       <c r="R100" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S100">
         <v>2</v>
@@ -12698,7 +13069,7 @@
         <v>43408</v>
       </c>
       <c r="C101" s="5">
-        <f>B101</f>
+        <f t="shared" si="8"/>
         <v>43408</v>
       </c>
       <c r="D101" s="3">
@@ -12708,7 +13079,7 @@
         <v>0.6875</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="M101" s="4">
@@ -12717,14 +13088,14 @@
       <c r="O101" t="s">
         <v>17</v>
       </c>
-      <c r="P101" t="s">
-        <v>237</v>
+      <c r="P101" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q101">
         <v>7</v>
       </c>
       <c r="R101" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S101">
         <v>3</v>
@@ -12742,7 +13113,7 @@
         <v>43410</v>
       </c>
       <c r="C102" s="5">
-        <f>B102</f>
+        <f t="shared" si="8"/>
         <v>43410</v>
       </c>
       <c r="D102" s="3">
@@ -12752,26 +13123,26 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.125E-2</v>
       </c>
       <c r="M102" s="4">
         <v>0.75</v>
       </c>
       <c r="N102" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O102" t="s">
         <v>70</v>
       </c>
-      <c r="P102" t="s">
-        <v>237</v>
+      <c r="P102" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q102">
         <v>7</v>
       </c>
       <c r="R102" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S102">
         <v>3</v>
@@ -12789,7 +13160,7 @@
         <v>43411</v>
       </c>
       <c r="C103" s="5">
-        <f>B103</f>
+        <f t="shared" si="8"/>
         <v>43411</v>
       </c>
       <c r="D103" s="3">
@@ -12799,26 +13170,26 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" ref="F103" si="9">E103-D103</f>
+        <f t="shared" ref="F103" si="10">E103-D103</f>
         <v>0.125</v>
       </c>
       <c r="M103" s="4">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O103" t="s">
-        <v>278</v>
-      </c>
-      <c r="P103" t="s">
-        <v>237</v>
+        <v>270</v>
+      </c>
+      <c r="P103" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q103">
         <v>7</v>
       </c>
       <c r="R103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S103">
         <v>3</v>
@@ -12836,7 +13207,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="5">
-        <f>B104</f>
+        <f t="shared" si="8"/>
         <v>43412</v>
       </c>
       <c r="D104" s="3">
@@ -12846,7 +13217,7 @@
         <v>0.75</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="G104" s="3">
@@ -12863,19 +13234,19 @@
         <v>4.5</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s">
-        <v>286</v>
-      </c>
-      <c r="P104" t="s">
-        <v>237</v>
+        <v>276</v>
+      </c>
+      <c r="P104" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q104">
         <v>7</v>
       </c>
       <c r="R104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S104">
         <v>3</v>
@@ -12893,7 +13264,7 @@
         <v>43413</v>
       </c>
       <c r="C105" s="5">
-        <f>B105</f>
+        <f t="shared" si="8"/>
         <v>43413</v>
       </c>
       <c r="D105" s="3">
@@ -12903,7 +13274,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="G105" s="3">
@@ -12920,19 +13291,19 @@
         <v>3.5</v>
       </c>
       <c r="N105" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O105" t="s">
         <v>36</v>
       </c>
-      <c r="P105" t="s">
-        <v>237</v>
+      <c r="P105" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q105">
         <v>7</v>
       </c>
       <c r="R105" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S105">
         <v>3</v>
@@ -12950,7 +13321,7 @@
         <v>43414</v>
       </c>
       <c r="C106" s="5">
-        <f>B106</f>
+        <f t="shared" si="8"/>
         <v>43414</v>
       </c>
       <c r="D106" s="3">
@@ -12960,26 +13331,26 @@
         <v>0.59375</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21875</v>
       </c>
       <c r="M106" s="4">
         <v>5.25</v>
       </c>
       <c r="N106" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O106" t="s">
-        <v>285</v>
-      </c>
-      <c r="P106" t="s">
-        <v>237</v>
+        <v>275</v>
+      </c>
+      <c r="P106" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q106">
         <v>7</v>
       </c>
       <c r="R106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S106">
         <v>3</v>
@@ -12997,7 +13368,7 @@
         <v>43415</v>
       </c>
       <c r="C107" s="5">
-        <f>B107</f>
+        <f t="shared" si="8"/>
         <v>43415</v>
       </c>
       <c r="D107" s="3">
@@ -13007,26 +13378,26 @@
         <v>0.59375</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="M107" s="4">
         <v>1.25</v>
       </c>
       <c r="N107" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O107" t="s">
-        <v>276</v>
-      </c>
-      <c r="P107" t="s">
-        <v>237</v>
+        <v>268</v>
+      </c>
+      <c r="P107" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q107">
         <v>7</v>
       </c>
       <c r="R107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S107">
         <v>3</v>
@@ -13044,7 +13415,7 @@
         <v>43417</v>
       </c>
       <c r="C108" s="5">
-        <f>B108</f>
+        <f t="shared" si="8"/>
         <v>43417</v>
       </c>
       <c r="D108" s="3">
@@ -13054,26 +13425,26 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="M108" s="4">
         <v>1.25</v>
       </c>
       <c r="N108" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O108" t="s">
         <v>70</v>
       </c>
-      <c r="P108" t="s">
-        <v>237</v>
+      <c r="P108" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q108">
         <v>7</v>
       </c>
       <c r="R108" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S108">
         <v>3</v>
@@ -13091,7 +13462,7 @@
         <v>43418</v>
       </c>
       <c r="C109" s="5">
-        <f>B109</f>
+        <f t="shared" si="8"/>
         <v>43418</v>
       </c>
       <c r="D109" s="3">
@@ -13101,26 +13472,26 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="M109" s="4">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O109" t="s">
-        <v>271</v>
-      </c>
-      <c r="P109" t="s">
-        <v>237</v>
+        <v>263</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q109">
         <v>7</v>
       </c>
       <c r="R109" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S109">
         <v>3</v>
@@ -13130,14 +13501,524 @@
         <v>283.95</v>
       </c>
     </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43419</v>
+      </c>
+      <c r="C110" s="5">
+        <f t="shared" si="8"/>
+        <v>43419</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q110">
+        <v>7</v>
+      </c>
+      <c r="R110" t="s">
+        <v>284</v>
+      </c>
+      <c r="S110">
+        <v>3</v>
+      </c>
+      <c r="T110" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43420</v>
+      </c>
+      <c r="C111" s="5">
+        <f t="shared" si="8"/>
+        <v>43420</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111" t="s">
+        <v>284</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="T111" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43421</v>
+      </c>
+      <c r="C112" s="5">
+        <f t="shared" si="8"/>
+        <v>43421</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>285</v>
+      </c>
+      <c r="P112" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q112">
+        <v>7</v>
+      </c>
+      <c r="R112" t="s">
+        <v>284</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="T112" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43422</v>
+      </c>
+      <c r="C113" s="5">
+        <f t="shared" si="8"/>
+        <v>43422</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
+      </c>
+      <c r="R113" t="s">
+        <v>284</v>
+      </c>
+      <c r="S113">
+        <v>3</v>
+      </c>
+      <c r="T113" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1">
+        <v>43423</v>
+      </c>
+      <c r="C114" s="5">
+        <f t="shared" si="8"/>
+        <v>43423</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>292</v>
+      </c>
+      <c r="P114" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q114">
+        <v>7</v>
+      </c>
+      <c r="R114" t="s">
+        <v>284</v>
+      </c>
+      <c r="S114">
+        <v>3</v>
+      </c>
+      <c r="T114" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" s="1">
+        <v>43424</v>
+      </c>
+      <c r="C115" s="5">
+        <f t="shared" si="8"/>
+        <v>43424</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P115" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115" t="s">
+        <v>284</v>
+      </c>
+      <c r="S115">
+        <v>3</v>
+      </c>
+      <c r="T115" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43425</v>
+      </c>
+      <c r="C116" s="5">
+        <f t="shared" si="8"/>
+        <v>43425</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q116">
+        <v>7</v>
+      </c>
+      <c r="R116" t="s">
+        <v>284</v>
+      </c>
+      <c r="S116">
+        <v>3</v>
+      </c>
+      <c r="T116" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1">
+        <v>43427</v>
+      </c>
+      <c r="C117" s="5">
+        <f t="shared" si="8"/>
+        <v>43427</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117" t="s">
+        <v>284</v>
+      </c>
+      <c r="S117">
+        <v>3</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" si="7"/>
+        <v>283.95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43428</v>
+      </c>
+      <c r="C118" s="5">
+        <f t="shared" si="8"/>
+        <v>43428</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I118" s="2">
+        <f>H118-G118</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L118" s="2">
+        <f>K118-J118</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M118" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>281</v>
+      </c>
+      <c r="O118" t="s">
+        <v>290</v>
+      </c>
+      <c r="P118" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118" t="s">
+        <v>284</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118" s="4">
+        <f t="shared" si="7"/>
+        <v>287.45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1">
+        <v>43429</v>
+      </c>
+      <c r="C119" s="5">
+        <f t="shared" si="8"/>
+        <v>43429</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="9"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M119" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N119" t="s">
+        <v>288</v>
+      </c>
+      <c r="O119" t="s">
+        <v>289</v>
+      </c>
+      <c r="P119" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q119">
+        <v>8</v>
+      </c>
+      <c r="R119" t="s">
+        <v>284</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119" s="4">
+        <f t="shared" si="7"/>
+        <v>288.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43430</v>
+      </c>
+      <c r="C120" s="5">
+        <f t="shared" si="8"/>
+        <v>43430</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M120" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>286</v>
+      </c>
+      <c r="O120" t="s">
+        <v>287</v>
+      </c>
+      <c r="P120" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120" t="s">
+        <v>284</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120" s="4">
+        <f t="shared" si="7"/>
+        <v>290.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43431</v>
+      </c>
+      <c r="C121" s="5">
+        <f t="shared" si="8"/>
+        <v>43431</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q121">
+        <v>8</v>
+      </c>
+      <c r="R121" t="s">
+        <v>284</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" si="7"/>
+        <v>290.2</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A2:T97 A110:T542 A104:M104 P98:T109 A98:O103 A105:O109">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 A122:T541 R110:R111 Q110:Q118 R117:R121 S110:T121 G119:Q121 A110:F121 G110:O118">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N104">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P99:P100">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P101:P102">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P103:P104">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P105:P106">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P107:P108">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109:P110">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P111:P112">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P113:P114">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P115:P116">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P117:P118">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R112:R116">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13147,7 +14028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567847FE-064D-4C62-A1EF-8A9B93147086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13159,7 +14040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0821BB42-05DB-4A44-8370-53F3AEF2480D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13232,7 +14113,7 @@
         <v>1.75</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -13259,7 +14140,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -13286,10 +14167,10 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" t="s">
         <v>212</v>
-      </c>
-      <c r="I4" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -13298,11 +14179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257756-F959-46B2-BDDB-4D61042D0459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13313,7 +14194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5086004E-F17D-426F-8B07-6579D28C495B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13339,7 +14220,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13347,7 +14228,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13355,7 +14236,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13363,7 +14244,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13371,7 +14252,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13379,7 +14260,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -13387,7 +14268,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -13395,7 +14276,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13403,7 +14284,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -13411,7 +14292,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -13419,7 +14300,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -13427,7 +14308,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13435,7 +14316,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -13443,7 +14324,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -13451,7 +14332,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13459,7 +14340,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13467,7 +14348,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13475,7 +14356,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -13483,7 +14364,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -13491,7 +14372,7 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -13499,7 +14380,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -13508,11 +14389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB340EFD-F3F6-409D-9A34-1F02F1C8F328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13532,48 +14413,48 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="15"/>
       <c r="G1" s="15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="18">
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="18">
         <v>9</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G3" s="13">
         <v>7</v>
@@ -13584,19 +14465,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="18">
         <v>6</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G4" s="13">
         <v>8</v>
@@ -13607,19 +14488,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="18">
         <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G5" s="13">
         <v>7</v>
@@ -13630,19 +14511,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="18">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G6" s="13">
         <v>8</v>
@@ -13653,19 +14534,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="18">
         <v>8</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G7" s="13">
         <v>9</v>
@@ -13679,18 +14560,21 @@
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -13698,13 +14582,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="18">
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -13712,13 +14596,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="18">
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -13726,13 +14610,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="18">
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -13740,13 +14624,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="18">
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -13754,321 +14638,339 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="18">
         <v>7</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="C19" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="C22" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1332,10 +1332,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$101</c:f>
+              <c:f>Data!$C$2:$C$401</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1635,16 +1635,76 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43410</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43411</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43413</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43414</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43415</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43417</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43420</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43421</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43422</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43423</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43424</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43425</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$101</c:f>
+              <c:f>Data!$M$2:$M$401</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1944,6 +2004,39 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8245,7 +8338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z121"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
@@ -14182,7 +14275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -14392,7 +14485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63080333-AFB1-4DA5-9005-5EB20EB9785C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Skater Evaluation" sheetId="3" r:id="rId5"/>
     <sheet name="Test Requirements" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="303">
   <si>
     <t>Thursday</t>
   </si>
@@ -953,9 +955,6 @@
     <t>Dance 3</t>
   </si>
   <si>
-    <t>Last day of classes until Holiday school</t>
-  </si>
-  <si>
     <t>10 minute private, learned FS4 footwork</t>
   </si>
   <si>
@@ -974,9 +973,6 @@
     <t>Currier, Private, Stroking</t>
   </si>
   <si>
-    <t>Makeup Currier, Landing awesome flips during practice</t>
-  </si>
-  <si>
     <t>FS 1</t>
   </si>
   <si>
@@ -987,12 +983,36 @@
   </si>
   <si>
     <t>FS 4</t>
+  </si>
+  <si>
+    <t>Axels with Laurel</t>
+  </si>
+  <si>
+    <t>Change foot spins, Axel Practice</t>
+  </si>
+  <si>
+    <t>Compulsories</t>
+  </si>
+  <si>
+    <t>Last day of classes until Holiday school, 3 and 4 with Larry and Laurel, Footwork practice, Mary Lou stroking</t>
+  </si>
+  <si>
+    <t>Dance, FS2/FS3, Stroking,  Public, Private</t>
+  </si>
+  <si>
+    <t>Axel Practice with Laurel</t>
+  </si>
+  <si>
+    <t>Currier, Stroking, Private</t>
+  </si>
+  <si>
+    <t>FS4 Footwork, Compulsories, Sit Spins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
@@ -1118,21 +1138,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1268,7 +1274,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1332,10 +1337,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$401</c:f>
+              <c:f>Data!$C$2:$C$399</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1664,36 +1669,30 @@
                   <c:v>43419</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43420</c:v>
+                  <c:v>43421</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43421</c:v>
+                  <c:v>43422</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43422</c:v>
+                  <c:v>43424</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43423</c:v>
+                  <c:v>43425</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43424</c:v>
+                  <c:v>43427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43425</c:v>
+                  <c:v>43428</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43427</c:v>
+                  <c:v>43429</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43428</c:v>
+                  <c:v>43430</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43429</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43430</c:v>
-                </c:pt>
-                <c:pt idx="119">
                   <c:v>43431</c:v>
                 </c:pt>
               </c:numCache>
@@ -1701,10 +1700,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$401</c:f>
+              <c:f>Data!$M$2:$M$399</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2029,14 +2028,35 @@
                 <c:pt idx="107">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.25</c:v>
+                </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,7 +2214,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2202,6 +2221,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2276,7 +2296,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2340,10 +2359,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$401</c:f>
+              <c:f>Data!$C$2:$C$399</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2672,36 +2691,30 @@
                   <c:v>43419</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43420</c:v>
+                  <c:v>43421</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43421</c:v>
+                  <c:v>43422</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43422</c:v>
+                  <c:v>43424</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43423</c:v>
+                  <c:v>43425</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43424</c:v>
+                  <c:v>43427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43425</c:v>
+                  <c:v>43428</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43427</c:v>
+                  <c:v>43429</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43428</c:v>
+                  <c:v>43430</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43429</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43430</c:v>
-                </c:pt>
-                <c:pt idx="119">
                   <c:v>43431</c:v>
                 </c:pt>
               </c:numCache>
@@ -2709,10 +2722,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$401</c:f>
+              <c:f>Data!$Q$2:$Q$399</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3059,18 +3072,12 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="119">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3230,7 +3237,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3238,6 +3244,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3312,7 +3319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3401,7 +3407,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3483,10 +3488,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.75</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,7 +3591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3618,7 +3622,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3626,6 +3629,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3700,7 +3704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3789,7 +3792,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3871,7 +3873,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -3974,7 +3976,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4006,7 +4007,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4014,6 +4014,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4101,7 +4102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4165,10 +4165,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$401</c:f>
+              <c:f>Data!$C$2:$C$399</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -4497,36 +4497,30 @@
                   <c:v>43419</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43420</c:v>
+                  <c:v>43421</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43421</c:v>
+                  <c:v>43422</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43422</c:v>
+                  <c:v>43424</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43423</c:v>
+                  <c:v>43425</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43424</c:v>
+                  <c:v>43427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43425</c:v>
+                  <c:v>43428</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43427</c:v>
+                  <c:v>43429</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43428</c:v>
+                  <c:v>43430</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43429</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43430</c:v>
-                </c:pt>
-                <c:pt idx="119">
                   <c:v>43431</c:v>
                 </c:pt>
               </c:numCache>
@@ -4534,10 +4528,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$401</c:f>
+              <c:f>Data!$T$2:$T$399</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -4863,40 +4857,34 @@
                   <c:v>283.95</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>283.95</c:v>
+                  <c:v>286.45</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>283.95</c:v>
+                  <c:v>293.2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>283.95</c:v>
+                  <c:v>295.45</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>283.95</c:v>
+                  <c:v>296.45</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>283.95</c:v>
+                  <c:v>298.45</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>283.95</c:v>
+                  <c:v>299.45</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>283.95</c:v>
+                  <c:v>302.95</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>283.95</c:v>
+                  <c:v>304.2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>287.45</c:v>
+                  <c:v>305.7</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>288.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>290.2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>290.2</c:v>
+                  <c:v>306.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5054,7 +5042,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5062,6 +5049,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8335,11 +8323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA40" sqref="AA40"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="T121" sqref="T121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8349,11 +8337,11 @@
     <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
@@ -8521,11 +8509,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>290.2</v>
+        <v>306.7</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M19:M400)</f>
-        <v>248.45</v>
+        <f>SUM(M19:M398)</f>
+        <v>264.95</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
@@ -9145,7 +9133,7 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M95)</f>
@@ -9216,7 +9204,7 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M96)</f>
@@ -9274,23 +9262,23 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="W18" s="4">
-        <f>SUM(M97:M118)</f>
-        <v>45.5</v>
+        <f>SUM(M97:M116)</f>
+        <v>61</v>
       </c>
       <c r="X18">
         <f>COUNTIF(P:P, "Freestyle 3")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="14">
-        <f>C118-C97+1</f>
+        <f>C116-C97+1</f>
         <v>25</v>
       </c>
       <c r="Z18" s="14">
         <f>Y18-X18</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -9334,11 +9322,11 @@
         <v>42.75</v>
       </c>
       <c r="V19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M119:M400)</f>
-        <v>2.75</v>
+        <f>SUM(M117:M398)</f>
+        <v>3.75</v>
       </c>
       <c r="X19">
         <v>3</v>
@@ -9553,12 +9541,12 @@
         <v>284</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M400)</f>
-        <v>40.25</v>
+        <f>SUM(M100:M398)</f>
+        <v>56.75</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
@@ -9566,7 +9554,7 @@
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -9649,7 +9637,7 @@
       </c>
       <c r="Z25">
         <f>SUM(Z11:Z19)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -11531,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" ref="T67:T121" si="7">T66+M67</f>
+        <f t="shared" ref="T67:T119" si="7">T66+M67</f>
         <v>167.95</v>
       </c>
     </row>
@@ -12658,7 +12646,7 @@
         <v>244</v>
       </c>
       <c r="O90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P90" s="21" t="s">
         <v>101</v>
@@ -12930,7 +12918,7 @@
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C121" si="8">B96</f>
+        <f t="shared" ref="C96:C119" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -13034,7 +13022,7 @@
         <v>0.875</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F121" si="9">E98-D98</f>
+        <f t="shared" ref="F98:F119" si="9">E98-D98</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="M98" s="4">
@@ -13605,9 +13593,34 @@
         <f t="shared" si="8"/>
         <v>43419</v>
       </c>
+      <c r="D110" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F110" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="I110" s="2">
+        <f>H110-G110</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M110" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>300</v>
+      </c>
+      <c r="O110" t="s">
+        <v>301</v>
       </c>
       <c r="P110" s="20" t="s">
         <v>115</v>
@@ -13623,23 +13636,58 @@
       </c>
       <c r="T110" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>286.45</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1">
-        <v>43420</v>
+        <v>43421</v>
       </c>
       <c r="C111" s="5">
         <f t="shared" si="8"/>
-        <v>43420</v>
+        <v>43421</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.47916666666666669</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I111" s="2">
+        <f>H111-G111</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="L111" s="2">
+        <f>K111-J111</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M111" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="N111" t="s">
+        <v>298</v>
+      </c>
+      <c r="O111" t="s">
+        <v>299</v>
       </c>
       <c r="P111" s="20" t="s">
         <v>115</v>
@@ -13655,26 +13703,35 @@
       </c>
       <c r="T111" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>293.2</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" s="1">
-        <v>43421</v>
+        <v>43422</v>
       </c>
       <c r="C112" s="5">
         <f t="shared" si="8"/>
-        <v>43421</v>
+        <v>43422</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.65625</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N112" t="s">
-        <v>285</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M112" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="O112" t="s">
+        <v>17</v>
       </c>
       <c r="P112" s="20" t="s">
         <v>115</v>
@@ -13690,23 +13747,38 @@
       </c>
       <c r="T112" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>295.45</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B113" s="1">
-        <v>43422</v>
+        <v>43424</v>
       </c>
       <c r="C113" s="5">
         <f t="shared" si="8"/>
-        <v>43422</v>
+        <v>43424</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.73958333333333337</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M113" s="4">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>297</v>
+      </c>
+      <c r="O113" t="s">
+        <v>286</v>
       </c>
       <c r="P113" s="20" t="s">
         <v>115</v>
@@ -13722,26 +13794,38 @@
       </c>
       <c r="T113" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>296.45</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B114" s="1">
-        <v>43423</v>
+        <v>43425</v>
       </c>
       <c r="C114" s="5">
         <f t="shared" si="8"/>
-        <v>43423</v>
+        <v>43425</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.82291666666666663</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="M114" s="4">
+        <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>292</v>
+        <v>278</v>
+      </c>
+      <c r="O114" t="s">
+        <v>65</v>
       </c>
       <c r="P114" s="20" t="s">
         <v>115</v>
@@ -13757,23 +13841,38 @@
       </c>
       <c r="T114" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>298.45</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B115" s="1">
-        <v>43424</v>
+        <v>43427</v>
       </c>
       <c r="C115" s="5">
         <f t="shared" si="8"/>
-        <v>43424</v>
+        <v>43427</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.85416666666666663</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M115" s="4">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>296</v>
+      </c>
+      <c r="O115" t="s">
+        <v>70</v>
       </c>
       <c r="P115" s="20" t="s">
         <v>115</v>
@@ -13789,23 +13888,58 @@
       </c>
       <c r="T115" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>299.45</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B116" s="1">
-        <v>43425</v>
+        <v>43428</v>
       </c>
       <c r="C116" s="5">
         <f t="shared" si="8"/>
-        <v>43425</v>
+        <v>43428</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.41666666666666669</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="2">
+        <f>H116-G116</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L116" s="2">
+        <f>K116-J116</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M116" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>281</v>
+      </c>
+      <c r="O116" t="s">
+        <v>289</v>
       </c>
       <c r="P116" s="20" t="s">
         <v>115</v>
@@ -13821,29 +13955,44 @@
       </c>
       <c r="T116" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>302.95</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B117" s="1">
-        <v>43427</v>
+        <v>43429</v>
       </c>
       <c r="C117" s="5">
         <f t="shared" si="8"/>
-        <v>43427</v>
+        <v>43429</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.59375</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M117" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N117" t="s">
+        <v>287</v>
+      </c>
+      <c r="O117" t="s">
+        <v>288</v>
       </c>
       <c r="P117" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R117" t="s">
         <v>284</v>
@@ -13853,64 +14002,44 @@
       </c>
       <c r="T117" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1">
-        <v>43428</v>
+        <v>43430</v>
       </c>
       <c r="C118" s="5">
         <f t="shared" si="8"/>
-        <v>43428</v>
+        <v>43430</v>
       </c>
       <c r="D118" s="3">
-        <v>0.375</v>
+        <v>0.65625</v>
       </c>
       <c r="E118" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.71875</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" si="9"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="H118" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I118" s="2">
-        <f>H118-G118</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
-      <c r="J118" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="K118" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="L118" s="2">
-        <f>K118-J118</f>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M118" s="4">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N118" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O118" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P118" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R118" t="s">
         <v>284</v>
@@ -13920,38 +14049,38 @@
       </c>
       <c r="T118" s="4">
         <f t="shared" si="7"/>
-        <v>287.45</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B119" s="1">
-        <v>43429</v>
+        <v>43431</v>
       </c>
       <c r="C119" s="5">
         <f t="shared" si="8"/>
-        <v>43429</v>
+        <v>43431</v>
       </c>
       <c r="D119" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E119" s="3">
-        <v>0.59375</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" si="9"/>
-        <v>5.208333333333337E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="M119" s="4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O119" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P119" s="20" t="s">
         <v>121</v>
@@ -13967,151 +14096,62 @@
       </c>
       <c r="T119" s="4">
         <f t="shared" si="7"/>
-        <v>288.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="1">
-        <v>43430</v>
-      </c>
-      <c r="C120" s="5">
-        <f t="shared" si="8"/>
-        <v>43430</v>
-      </c>
-      <c r="D120" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="E120" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="F120" s="2">
-        <f t="shared" si="9"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="M120" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="N120" t="s">
-        <v>286</v>
-      </c>
-      <c r="O120" t="s">
-        <v>287</v>
-      </c>
-      <c r="P120" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q120">
-        <v>8</v>
-      </c>
-      <c r="R120" t="s">
-        <v>284</v>
-      </c>
-      <c r="S120">
-        <v>3</v>
-      </c>
-      <c r="T120" s="4">
-        <f t="shared" si="7"/>
-        <v>290.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" s="1">
-        <v>43431</v>
-      </c>
-      <c r="C121" s="5">
-        <f t="shared" si="8"/>
-        <v>43431</v>
-      </c>
-      <c r="F121" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P121" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q121">
-        <v>8</v>
-      </c>
-      <c r="R121" t="s">
-        <v>284</v>
-      </c>
-      <c r="S121">
-        <v>3</v>
-      </c>
-      <c r="T121" s="4">
-        <f t="shared" si="7"/>
-        <v>290.2</v>
+        <v>306.7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 A122:T541 R110:R111 Q110:Q118 R117:R121 S110:T121 G119:Q121 A110:F121 G110:O118">
-    <cfRule type="expression" dxfId="12" priority="15">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 A120:T539 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 R110:T119">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N104">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P99:P100">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P101:P102">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P103:P104">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P106">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P107:P108">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P109:P110">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P111:P112">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="P112">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113:P114">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115:P116">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P117:P118">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R112:R116">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14121,7 +14161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14133,11 +14173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14266,16 +14306,46 @@
         <v>212</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43431</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43431</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5-D5</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -14287,7 +14357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14482,7 +14552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63080333-AFB1-4DA5-9005-5EB20EB9785C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6823E-0D0F-4257-8086-80F78E9F2D1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Testing Scores" sheetId="6" r:id="rId2"/>
-    <sheet name="Off Ice Training" sheetId="4" r:id="rId3"/>
-    <sheet name="Graphs" sheetId="2" r:id="rId4"/>
-    <sheet name="Skater Evaluation" sheetId="3" r:id="rId5"/>
-    <sheet name="Test Requirements" sheetId="5" r:id="rId6"/>
+    <sheet name="Off Ice Training" sheetId="4" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId3"/>
+    <sheet name="Skater Evaluation" sheetId="3" r:id="rId4"/>
+    <sheet name="Test Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="314">
   <si>
     <t>Thursday</t>
   </si>
@@ -1007,6 +1006,39 @@
   </si>
   <si>
     <t>FS4 Footwork, Compulsories, Sit Spins</t>
+  </si>
+  <si>
+    <t>FS5, High Stroking, Private, FS4, Stroking, Public</t>
+  </si>
+  <si>
+    <t>Extended Public. Worked on figures, then FS4. Having trouble controlling backwards edges and can't speed to do full circle on backwards. Figured out more about hip alignment. Now the takeoff edge for the Waltz jump feels weird.</t>
+  </si>
+  <si>
+    <t>Worked on Axels with Lily Grace's cousin, Ordered skates, Learned how to ankle bend with Laurel, improved sit spin entrance</t>
+  </si>
+  <si>
+    <t>Nutcracker</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal</t>
+  </si>
+  <si>
+    <t>Axel Work, Improved Waltz and Loop Jumps</t>
+  </si>
+  <si>
+    <t>First Larry Stroking, Worked on backscratches all day, dull blades</t>
+  </si>
+  <si>
+    <t>Currier</t>
+  </si>
+  <si>
+    <t>Public, Figures</t>
+  </si>
+  <si>
+    <t>Figures Camp, Learned Maltese Cross, Learned more about alignment, three turns should speed you up, brackets</t>
+  </si>
+  <si>
+    <t>Private, FSI, Public</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1107,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,6 +1126,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1107,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1134,11 +1178,62 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1337,10 +1432,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$399</c:f>
+              <c:f>Data!$C$2:$C$388</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1694,16 +1789,70 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43432</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43433</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43437</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43440</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43441</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43443</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43447</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43448</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43450</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43452</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43455</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43456</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43458</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$399</c:f>
+              <c:f>Data!$M$2:$M$388</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2057,6 +2206,60 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,10 +2562,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$399</c:f>
+              <c:f>Data!$C$2:$C$388</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2716,16 +2919,70 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43432</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43433</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43437</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43440</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43441</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43443</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43447</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43448</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43450</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43452</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43455</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43456</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43458</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$399</c:f>
+              <c:f>Data!$Q$2:$Q$388</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3078,6 +3335,60 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3491,7 +3802,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.75</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +4187,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4165,10 +4476,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$399</c:f>
+              <c:f>Data!$C$2:$C$388</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -4522,16 +4833,70 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43432</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43433</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43437</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43440</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43441</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43443</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43447</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43448</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43450</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43452</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43455</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43456</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43458</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$399</c:f>
+              <c:f>Data!$T$2:$T$388</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -4885,6 +5250,60 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>306.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>312.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>316.45</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>319.95</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>321.7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>323.45</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>325.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>328.7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>332.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>335.45</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>337.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>344.95</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>345.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>347.7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>349.45</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>361.2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>363.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8324,10 +8743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="T121" sqref="T121"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8337,7 +8756,7 @@
     <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
@@ -8509,11 +8928,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>306.7</v>
+        <v>363.45</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M19:M398)</f>
-        <v>264.95</v>
+        <f>SUM(M19:M387)</f>
+        <v>321.7</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
@@ -9325,17 +9744,20 @@
         <v>294</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M117:M398)</f>
-        <v>3.75</v>
+        <f>SUM(M117:M387)</f>
+        <v>60.5</v>
       </c>
       <c r="X19">
-        <v>3</v>
-      </c>
-      <c r="Y19">
-        <v>3</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
+        <f>COUNTIF(P:P, "Freestyle 4")</f>
+        <v>21</v>
+      </c>
+      <c r="Y19" s="14">
+        <f>C137-C117+1</f>
+        <v>32</v>
+      </c>
+      <c r="Z19" s="14">
+        <f>Y19-X19</f>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -9541,20 +9963,20 @@
         <v>284</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M398)</f>
-        <v>56.75</v>
+        <f>SUM(M100:M387)</f>
+        <v>113.5</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -9637,7 +10059,7 @@
       </c>
       <c r="Z25">
         <f>SUM(Z11:Z19)</f>
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -11519,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" ref="T67:T119" si="7">T66+M67</f>
+        <f t="shared" ref="T67:T130" si="7">T66+M67</f>
         <v>167.95</v>
       </c>
     </row>
@@ -12918,7 +13340,7 @@
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C119" si="8">B96</f>
+        <f t="shared" ref="C96:C137" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -13022,7 +13444,7 @@
         <v>0.875</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F119" si="9">E98-D98</f>
+        <f t="shared" ref="F98:F121" si="9">E98-D98</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="M98" s="4">
@@ -14099,59 +14521,981 @@
         <v>306.7</v>
       </c>
     </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43432</v>
+      </c>
+      <c r="C120" s="5">
+        <f t="shared" si="8"/>
+        <v>43432</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M120" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O120" t="s">
+        <v>278</v>
+      </c>
+      <c r="P120" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120" t="s">
+        <v>284</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120" s="4">
+        <f t="shared" si="7"/>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43433</v>
+      </c>
+      <c r="C121" s="5">
+        <f t="shared" si="8"/>
+        <v>43433</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M121" s="4">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>310</v>
+      </c>
+      <c r="P121" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q121">
+        <v>8</v>
+      </c>
+      <c r="R121" t="s">
+        <v>284</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" si="7"/>
+        <v>312.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1">
+        <v>43435</v>
+      </c>
+      <c r="C122" s="5">
+        <f t="shared" si="8"/>
+        <v>43435</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" ref="F122:F123" si="11">E122-D122</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="I122" s="2">
+        <f>H122-G122</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="M122" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="O122" t="s">
+        <v>313</v>
+      </c>
+      <c r="P122" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="R122" t="s">
+        <v>284</v>
+      </c>
+      <c r="S122">
+        <v>3</v>
+      </c>
+      <c r="T122" s="4">
+        <f t="shared" si="7"/>
+        <v>316.45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>43437</v>
+      </c>
+      <c r="C123" s="5">
+        <f t="shared" si="8"/>
+        <v>43437</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E123" s="23">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M123" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N123" t="s">
+        <v>307</v>
+      </c>
+      <c r="O123" t="s">
+        <v>307</v>
+      </c>
+      <c r="P123" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q123">
+        <v>8</v>
+      </c>
+      <c r="R123" t="s">
+        <v>284</v>
+      </c>
+      <c r="S123">
+        <v>3</v>
+      </c>
+      <c r="T123" s="4">
+        <f t="shared" si="7"/>
+        <v>319.95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="1">
+        <v>43439</v>
+      </c>
+      <c r="C124" s="5">
+        <f t="shared" si="8"/>
+        <v>43439</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" ref="F124:F128" si="12">E124-D124</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M124" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N124" t="s">
+        <v>306</v>
+      </c>
+      <c r="O124" t="s">
+        <v>306</v>
+      </c>
+      <c r="P124" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q124">
+        <v>8</v>
+      </c>
+      <c r="R124" t="s">
+        <v>284</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124" s="4">
+        <f t="shared" si="7"/>
+        <v>321.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>43440</v>
+      </c>
+      <c r="C125" s="5">
+        <f t="shared" si="8"/>
+        <v>43440</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="12"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M125" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N125" t="s">
+        <v>306</v>
+      </c>
+      <c r="O125" t="s">
+        <v>306</v>
+      </c>
+      <c r="P125" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q125">
+        <v>8</v>
+      </c>
+      <c r="R125" t="s">
+        <v>284</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125" s="4">
+        <f t="shared" si="7"/>
+        <v>323.45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1">
+        <v>43441</v>
+      </c>
+      <c r="C126" s="5">
+        <f t="shared" si="8"/>
+        <v>43441</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="12"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M126" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N126" t="s">
+        <v>306</v>
+      </c>
+      <c r="O126" t="s">
+        <v>306</v>
+      </c>
+      <c r="P126" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q126">
+        <v>8</v>
+      </c>
+      <c r="R126" t="s">
+        <v>284</v>
+      </c>
+      <c r="S126">
+        <v>3</v>
+      </c>
+      <c r="T126" s="4">
+        <f t="shared" si="7"/>
+        <v>325.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43442</v>
+      </c>
+      <c r="C127" s="5">
+        <f t="shared" si="8"/>
+        <v>43442</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E127" s="23">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="12"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="I127" s="2">
+        <f t="shared" ref="I127" si="13">H127-G127</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M127" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N127" t="s">
+        <v>306</v>
+      </c>
+      <c r="O127" t="s">
+        <v>306</v>
+      </c>
+      <c r="P127" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127" t="s">
+        <v>284</v>
+      </c>
+      <c r="S127">
+        <v>3</v>
+      </c>
+      <c r="T127" s="4">
+        <f t="shared" si="7"/>
+        <v>328.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="1">
+        <v>43443</v>
+      </c>
+      <c r="C128" s="5">
+        <f t="shared" si="8"/>
+        <v>43443</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E128" s="22">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="12"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="I128" s="2">
+        <f t="shared" ref="I128" si="14">H128-G128</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M128" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N128" t="s">
+        <v>306</v>
+      </c>
+      <c r="O128" t="s">
+        <v>306</v>
+      </c>
+      <c r="P128" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q128">
+        <v>8</v>
+      </c>
+      <c r="R128" t="s">
+        <v>284</v>
+      </c>
+      <c r="S128">
+        <v>3</v>
+      </c>
+      <c r="T128" s="4">
+        <f t="shared" si="7"/>
+        <v>332.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>43447</v>
+      </c>
+      <c r="C129" s="5">
+        <f t="shared" si="8"/>
+        <v>43447</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="F129" s="2">
+        <f>E129-D129</f>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="M129" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="O129" t="s">
+        <v>36</v>
+      </c>
+      <c r="P129" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q129">
+        <v>8</v>
+      </c>
+      <c r="R129" t="s">
+        <v>284</v>
+      </c>
+      <c r="S129">
+        <v>3</v>
+      </c>
+      <c r="T129" s="4">
+        <f t="shared" si="7"/>
+        <v>335.45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1">
+        <v>43448</v>
+      </c>
+      <c r="C130" s="5">
+        <f t="shared" si="8"/>
+        <v>43448</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" ref="F130" si="15">E130-D130</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M130" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="O130" t="s">
+        <v>21</v>
+      </c>
+      <c r="P130" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q130">
+        <v>8</v>
+      </c>
+      <c r="R130" t="s">
+        <v>284</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130" s="4">
+        <f t="shared" si="7"/>
+        <v>337.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="1">
+        <v>43450</v>
+      </c>
+      <c r="C131" s="5">
+        <f t="shared" si="8"/>
+        <v>43450</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" ref="F131:F132" si="16">E131-D131</f>
+        <v>0.32291666666666674</v>
+      </c>
+      <c r="M131" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="N131" t="s">
+        <v>312</v>
+      </c>
+      <c r="O131" t="s">
+        <v>311</v>
+      </c>
+      <c r="P131" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q131">
+        <v>8</v>
+      </c>
+      <c r="R131" t="s">
+        <v>284</v>
+      </c>
+      <c r="S131">
+        <v>3</v>
+      </c>
+      <c r="T131" s="4">
+        <f t="shared" ref="T131:T137" si="17">T130+M131</f>
+        <v>344.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" s="1">
+        <v>43452</v>
+      </c>
+      <c r="C132" s="5">
+        <f t="shared" si="8"/>
+        <v>43452</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="16"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M132" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="O132" t="s">
+        <v>70</v>
+      </c>
+      <c r="P132" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q132">
+        <v>8</v>
+      </c>
+      <c r="R132" t="s">
+        <v>284</v>
+      </c>
+      <c r="S132">
+        <v>3</v>
+      </c>
+      <c r="T132" s="4">
+        <f t="shared" si="17"/>
+        <v>345.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>35</v>
+      </c>
+      <c r="B133" s="1">
+        <v>43453</v>
+      </c>
+      <c r="C133" s="5">
+        <f t="shared" si="8"/>
+        <v>43453</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" ref="F133:F134" si="18">E133-D133</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M133" s="4">
+        <v>2</v>
+      </c>
+      <c r="N133" t="s">
+        <v>304</v>
+      </c>
+      <c r="O133" t="s">
+        <v>17</v>
+      </c>
+      <c r="P133" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q133">
+        <v>8</v>
+      </c>
+      <c r="R133" t="s">
+        <v>284</v>
+      </c>
+      <c r="S133">
+        <v>3</v>
+      </c>
+      <c r="T133" s="4">
+        <f t="shared" si="17"/>
+        <v>347.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1">
+        <v>43455</v>
+      </c>
+      <c r="C134" s="5">
+        <f t="shared" si="8"/>
+        <v>43455</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="18"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M134" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="O134" t="s">
+        <v>17</v>
+      </c>
+      <c r="P134" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q134">
+        <v>8</v>
+      </c>
+      <c r="R134" t="s">
+        <v>284</v>
+      </c>
+      <c r="S134">
+        <v>3</v>
+      </c>
+      <c r="T134" s="4">
+        <f t="shared" si="17"/>
+        <v>349.45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1">
+        <v>43456</v>
+      </c>
+      <c r="C135" s="5">
+        <f t="shared" si="8"/>
+        <v>43456</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" ref="F135:F137" si="19">E135-D135</f>
+        <v>0.125</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I135" s="2">
+        <f>H135-G135</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M135" s="4">
+        <v>5</v>
+      </c>
+      <c r="N135" t="s">
+        <v>308</v>
+      </c>
+      <c r="O135" t="s">
+        <v>303</v>
+      </c>
+      <c r="P135" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q135">
+        <v>8</v>
+      </c>
+      <c r="R135" t="s">
+        <v>284</v>
+      </c>
+      <c r="S135">
+        <v>3</v>
+      </c>
+      <c r="T135" s="4">
+        <f t="shared" si="17"/>
+        <v>354.45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>43458</v>
+      </c>
+      <c r="C136" s="5">
+        <f t="shared" si="8"/>
+        <v>43458</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="19"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I136" s="2">
+        <f>H136-G136</f>
+        <v>0.125</v>
+      </c>
+      <c r="M136" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="N136" t="s">
+        <v>309</v>
+      </c>
+      <c r="O136" t="s">
+        <v>303</v>
+      </c>
+      <c r="P136" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q136">
+        <v>8</v>
+      </c>
+      <c r="R136" t="s">
+        <v>284</v>
+      </c>
+      <c r="S136">
+        <v>3</v>
+      </c>
+      <c r="T136" s="4">
+        <f t="shared" si="17"/>
+        <v>361.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>35</v>
+      </c>
+      <c r="B137" s="1">
+        <v>43460</v>
+      </c>
+      <c r="C137" s="5">
+        <f t="shared" si="8"/>
+        <v>43460</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="19"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I137" s="2">
+        <f>H137-G137</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M137" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N137" t="s">
+        <v>305</v>
+      </c>
+      <c r="O137" t="s">
+        <v>21</v>
+      </c>
+      <c r="P137" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q137">
+        <v>8</v>
+      </c>
+      <c r="R137" t="s">
+        <v>284</v>
+      </c>
+      <c r="S137">
+        <v>3</v>
+      </c>
+      <c r="T137" s="4">
+        <f t="shared" si="17"/>
+        <v>363.45</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 A120:T539 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 R110:T119">
-    <cfRule type="expression" dxfId="10" priority="15">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A138:T528 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137">
+    <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N104">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="16" priority="31">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P99:P100">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P101:P102">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="14" priority="29">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P103:P104">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="13" priority="28">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P106">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P107:P108">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P109:P110">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="10" priority="25">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P112">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113:P114">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="8" priority="22">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115:P116">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="7" priority="20">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P126:P128">
+    <cfRule type="expression" dxfId="6" priority="15">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N123:N128">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14161,23 +15505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14341,11 +15673,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -14356,7 +15688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -14551,11 +15883,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6823E-0D0F-4257-8086-80F78E9F2D1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E34E9-9C66-4B1A-AA11-7A532A778B52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="323">
   <si>
     <t>Thursday</t>
   </si>
@@ -1039,6 +1038,33 @@
   </si>
   <si>
     <t>Private, FSI, Public</t>
+  </si>
+  <si>
+    <t>Larry Group lesson and stroking. Worked on sitspin with hockey stick on back. Learned how to do loop patterns and how to switch from BI to FO while in a spin</t>
+  </si>
+  <si>
+    <t>Fixed Entry Edge to Waltz jump. Sit spin getting lower. Getting closer on axel. Ankle pain on both ankles. Worked on jump combos. Worked on walleys and FS4 manuevers</t>
+  </si>
+  <si>
+    <t>Low confidence day. Lesson with visiting lady. Worked on camel spins. Could not do them. Feeling much more in control of sit spin. Able to turn foot out and adjust posture while in the spin.</t>
+  </si>
+  <si>
+    <t>FS5, Stroking, FS3/FS4, Private</t>
+  </si>
+  <si>
+    <t>Worked on split jumps and half loops. Ankles hurt. Glute and lower back hurt. Got skates sharpened last night. Private with Laurel on basics. Went over three turns and mohawks. Sit spins</t>
+  </si>
+  <si>
+    <t>Sprained ankle last night at jump jam, but it doesn't hurt when I skate. Worked on jump combos with Laurel. Skipped lessons this morning because Larry was teaching them and my ankle was hurting. Did basic stroking with Laurel. Noticed Inadequacy holding certain edges. Worked on basics in my private. Learned more about properly executing three turns and learned more about entry edges.</t>
+  </si>
+  <si>
+    <t>Worked on sitspin until glute pain in left leg became too intense. Got confirmation that new skates are ordered.</t>
+  </si>
+  <si>
+    <t>Worked on sit spins with Laurel. One foot spins are getting crazy good.</t>
+  </si>
+  <si>
+    <t>Ober skating with Laurel. Played add-on and getting good with half loops.</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1458,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$388</c:f>
+              <c:f>Data!$C$2:$C$391</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1843,16 +1869,70 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43460</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43461</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43462</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43463</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43467</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43468</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43470</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43471</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43473</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43474</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43475</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43477</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$388</c:f>
+              <c:f>Data!$M$2:$M$391</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2259,6 +2339,24 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="153">
                   <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -2562,10 +2660,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$388</c:f>
+              <c:f>Data!$C$2:$C$391</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2973,16 +3071,70 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43460</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43461</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43462</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43463</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43467</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43468</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43470</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43471</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43473</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43474</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43475</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43477</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$388</c:f>
+              <c:f>Data!$Q$2:$Q$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3389,6 +3541,60 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="153">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3802,7 +4008,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,7 +4393,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4476,10 +4682,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$388</c:f>
+              <c:f>Data!$C$2:$C$391</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -4887,16 +5093,70 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43460</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43461</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43462</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43463</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43467</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43468</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43470</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43471</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43473</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43474</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43475</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43477</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$388</c:f>
+              <c:f>Data!$T$2:$T$391</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5304,6 +5564,60 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>363.45</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>365.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>367.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>367.7</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>373.95</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>378.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8743,10 +9057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8757,10 +9071,10 @@
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
@@ -8928,11 +9242,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>363.45</v>
+        <v>378.45</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M19:M387)</f>
-        <v>321.7</v>
+        <f>SUM(M19:M390)</f>
+        <v>336.7</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M2:M18)</f>
@@ -9744,12 +10058,12 @@
         <v>294</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M117:M387)</f>
-        <v>60.5</v>
+        <f>SUM(M117:M390)</f>
+        <v>75.5</v>
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 4")</f>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Y19" s="14">
         <f>C137-C117+1</f>
@@ -9757,7 +10071,7 @@
       </c>
       <c r="Z19" s="14">
         <f>Y19-X19</f>
-        <v>11</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -9963,16 +10277,16 @@
         <v>284</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M387)</f>
-        <v>113.5</v>
+        <f>SUM(M100:M390)</f>
+        <v>128.5</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
@@ -10059,7 +10373,7 @@
       </c>
       <c r="Z25">
         <f>SUM(Z11:Z19)</f>
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -13340,7 +13654,7 @@
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C137" si="8">B96</f>
+        <f t="shared" ref="C96:C155" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -15098,7 +15412,7 @@
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T137" si="17">T130+M131</f>
+        <f t="shared" ref="T131:T155" si="17">T130+M131</f>
         <v>344.95</v>
       </c>
     </row>
@@ -15255,7 +15569,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F137" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F155" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -15408,8 +15722,702 @@
         <v>363.45</v>
       </c>
     </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C138" s="5">
+        <f t="shared" si="8"/>
+        <v>43461</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="19"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M138" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N138" t="s">
+        <v>316</v>
+      </c>
+      <c r="O138" t="s">
+        <v>317</v>
+      </c>
+      <c r="P138" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q138">
+        <v>8</v>
+      </c>
+      <c r="R138" t="s">
+        <v>284</v>
+      </c>
+      <c r="S138">
+        <v>3</v>
+      </c>
+      <c r="T138" s="4">
+        <f t="shared" si="17"/>
+        <v>365.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1">
+        <v>43462</v>
+      </c>
+      <c r="C139" s="5">
+        <f t="shared" si="8"/>
+        <v>43462</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I139" s="2">
+        <f>H139-G139</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M139" s="4">
+        <v>2</v>
+      </c>
+      <c r="N139" t="s">
+        <v>318</v>
+      </c>
+      <c r="P139" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="R139" t="s">
+        <v>284</v>
+      </c>
+      <c r="S139">
+        <v>3</v>
+      </c>
+      <c r="T139" s="4">
+        <f t="shared" si="17"/>
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1">
+        <v>43463</v>
+      </c>
+      <c r="C140" s="5">
+        <f t="shared" si="8"/>
+        <v>43463</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.52083333333333337</v>
+      </c>
+      <c r="N140" t="s">
+        <v>319</v>
+      </c>
+      <c r="P140" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q140">
+        <v>8</v>
+      </c>
+      <c r="R140" t="s">
+        <v>284</v>
+      </c>
+      <c r="S140">
+        <v>3</v>
+      </c>
+      <c r="T140" s="4">
+        <f t="shared" si="17"/>
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1">
+        <v>43464</v>
+      </c>
+      <c r="C141" s="5">
+        <f t="shared" si="8"/>
+        <v>43464</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="19"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M141" s="4">
+        <v>2</v>
+      </c>
+      <c r="N141" t="s">
+        <v>315</v>
+      </c>
+      <c r="P141" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q141">
+        <v>8</v>
+      </c>
+      <c r="R141" t="s">
+        <v>284</v>
+      </c>
+      <c r="S141">
+        <v>3</v>
+      </c>
+      <c r="T141" s="4">
+        <f t="shared" si="17"/>
+        <v>369.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
+        <v>43465</v>
+      </c>
+      <c r="C142" s="5">
+        <f t="shared" si="8"/>
+        <v>43465</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="19"/>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="M142" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="N142" t="s">
+        <v>314</v>
+      </c>
+      <c r="P142" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q142">
+        <v>8</v>
+      </c>
+      <c r="R142" t="s">
+        <v>284</v>
+      </c>
+      <c r="S142">
+        <v>3</v>
+      </c>
+      <c r="T142" s="4">
+        <f t="shared" si="17"/>
+        <v>373.95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C143" s="5">
+        <f t="shared" si="8"/>
+        <v>43466</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="19"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M143" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N143" t="s">
+        <v>320</v>
+      </c>
+      <c r="P143" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q143">
+        <v>8</v>
+      </c>
+      <c r="R143" t="s">
+        <v>284</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43467</v>
+      </c>
+      <c r="C144" s="5">
+        <f t="shared" si="8"/>
+        <v>43467</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P144" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144" t="s">
+        <v>284</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>43468</v>
+      </c>
+      <c r="C145" s="5">
+        <f t="shared" si="8"/>
+        <v>43468</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P145" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q145">
+        <v>8</v>
+      </c>
+      <c r="R145" t="s">
+        <v>284</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1">
+        <v>43469</v>
+      </c>
+      <c r="C146" s="5">
+        <f t="shared" si="8"/>
+        <v>43469</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P146" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q146">
+        <v>8</v>
+      </c>
+      <c r="R146" t="s">
+        <v>284</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1">
+        <v>43470</v>
+      </c>
+      <c r="C147" s="5">
+        <f t="shared" si="8"/>
+        <v>43470</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P147" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q147">
+        <v>8</v>
+      </c>
+      <c r="R147" t="s">
+        <v>284</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1">
+        <v>43471</v>
+      </c>
+      <c r="C148" s="5">
+        <f t="shared" si="8"/>
+        <v>43471</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="N148" t="s">
+        <v>321</v>
+      </c>
+      <c r="P148" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q148">
+        <v>8</v>
+      </c>
+      <c r="R148" t="s">
+        <v>284</v>
+      </c>
+      <c r="S148">
+        <v>3</v>
+      </c>
+      <c r="T148" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C149" s="5">
+        <f t="shared" si="8"/>
+        <v>43472</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.72916666666666663</v>
+      </c>
+      <c r="P149" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q149">
+        <v>8</v>
+      </c>
+      <c r="R149" t="s">
+        <v>284</v>
+      </c>
+      <c r="S149">
+        <v>3</v>
+      </c>
+      <c r="T149" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>69</v>
+      </c>
+      <c r="B150" s="1">
+        <v>43473</v>
+      </c>
+      <c r="C150" s="5">
+        <f t="shared" si="8"/>
+        <v>43473</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P150" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q150">
+        <v>8</v>
+      </c>
+      <c r="R150" t="s">
+        <v>284</v>
+      </c>
+      <c r="S150">
+        <v>3</v>
+      </c>
+      <c r="T150" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>35</v>
+      </c>
+      <c r="B151" s="1">
+        <v>43474</v>
+      </c>
+      <c r="C151" s="5">
+        <f t="shared" si="8"/>
+        <v>43474</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.69791666666666663</v>
+      </c>
+      <c r="P151" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q151">
+        <v>8</v>
+      </c>
+      <c r="R151" t="s">
+        <v>284</v>
+      </c>
+      <c r="S151">
+        <v>3</v>
+      </c>
+      <c r="T151" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43475</v>
+      </c>
+      <c r="C152" s="5">
+        <f t="shared" si="8"/>
+        <v>43475</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.69791666666666663</v>
+      </c>
+      <c r="P152" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q152">
+        <v>8</v>
+      </c>
+      <c r="R152" t="s">
+        <v>284</v>
+      </c>
+      <c r="S152">
+        <v>3</v>
+      </c>
+      <c r="T152" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1">
+        <v>43476</v>
+      </c>
+      <c r="C153" s="5">
+        <f t="shared" si="8"/>
+        <v>43476</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.78125</v>
+      </c>
+      <c r="P153" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q153">
+        <v>8</v>
+      </c>
+      <c r="R153" t="s">
+        <v>284</v>
+      </c>
+      <c r="S153">
+        <v>3</v>
+      </c>
+      <c r="T153" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1">
+        <v>43477</v>
+      </c>
+      <c r="C154" s="5">
+        <f t="shared" si="8"/>
+        <v>43477</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.73958333333333337</v>
+      </c>
+      <c r="P154" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q154">
+        <v>8</v>
+      </c>
+      <c r="R154" t="s">
+        <v>284</v>
+      </c>
+      <c r="S154">
+        <v>3</v>
+      </c>
+      <c r="T154" s="4">
+        <f t="shared" si="17"/>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1">
+        <v>43478</v>
+      </c>
+      <c r="C155" s="5">
+        <f t="shared" si="8"/>
+        <v>43478</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="19"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M155" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N155" t="s">
+        <v>322</v>
+      </c>
+      <c r="P155" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q155">
+        <v>8</v>
+      </c>
+      <c r="R155" t="s">
+        <v>284</v>
+      </c>
+      <c r="S155">
+        <v>3</v>
+      </c>
+      <c r="T155" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A138:T528 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T531">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E34E9-9C66-4B1A-AA11-7A532A778B52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B312D251-2B42-41CD-8120-CD126F99EBEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="328">
   <si>
     <t>Thursday</t>
   </si>
@@ -225,29 +226,790 @@
     <t>Skates Sharpened</t>
   </si>
   <si>
-    <r>
-      <t>Time (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NEW SKATES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>):</t>
-    </r>
+    <t>Rehearsal, Public</t>
+  </si>
+  <si>
+    <t>Party, Private</t>
+  </si>
+  <si>
+    <t>Lessons From Olivia and Sora</t>
+  </si>
+  <si>
+    <t>Passed Beta, Blades Sharpened</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Freestyle Ice</t>
+  </si>
+  <si>
+    <t>Passed Gamma, Got Spinner</t>
+  </si>
+  <si>
+    <t>Signed up for Nutcracker</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Private, Rehearsal, Private</t>
+  </si>
+  <si>
+    <t>Public, Group, Private, Public</t>
+  </si>
+  <si>
+    <t>Learned how to bend skate</t>
+  </si>
+  <si>
+    <t>Private, Public, Group</t>
+  </si>
+  <si>
+    <t>Hours:</t>
+  </si>
+  <si>
+    <t>Time Spent In Each Class</t>
+  </si>
+  <si>
+    <t>Skates Sharpened, Skates Punched Out</t>
+  </si>
+  <si>
+    <t>Purchased Team Jacket</t>
+  </si>
+  <si>
+    <t>Pubic, Rehearsal</t>
+  </si>
+  <si>
+    <t>Public, Group, Private</t>
+  </si>
+  <si>
+    <t>Passed Delta</t>
+  </si>
+  <si>
+    <t>Group, Public, Private, Public</t>
+  </si>
+  <si>
+    <t>Too sick to skate, Learned FS1 routine</t>
+  </si>
+  <si>
+    <t>Stretching</t>
+  </si>
+  <si>
+    <t>Rehearsal Canceled due to weather</t>
+  </si>
+  <si>
+    <t>Extremely Low Confidence, Got Ice Chalet Jacket</t>
+  </si>
+  <si>
+    <t>Stroking, Private</t>
+  </si>
+  <si>
+    <t>Public, Private, Public</t>
+  </si>
+  <si>
+    <t>Rehearsal, Private</t>
+  </si>
+  <si>
+    <t>Dance, Group, Stroking, Public</t>
+  </si>
+  <si>
+    <t>First One Foot Spin, Felt Sick, Blades Sharpened</t>
+  </si>
+  <si>
+    <t>First Salchow</t>
+  </si>
+  <si>
+    <t>Private, Stroking, Group, Public</t>
+  </si>
+  <si>
+    <t>Public, Rehearsal, Private</t>
+  </si>
+  <si>
+    <t>Short Practice, Took Private Instead</t>
+  </si>
+  <si>
+    <t>Freestyle 1</t>
+  </si>
+  <si>
+    <t>Forward Inside Pivot</t>
+  </si>
+  <si>
+    <t>Two-Foot Spin</t>
+  </si>
+  <si>
+    <t>Forward Arabesque</t>
+  </si>
+  <si>
+    <t>One-Half Flip</t>
+  </si>
+  <si>
+    <t>Waltz Jump</t>
+  </si>
+  <si>
+    <t>Backward Edges</t>
+  </si>
+  <si>
+    <t>Freestyle 2</t>
+  </si>
+  <si>
+    <t>Ballet Jump</t>
+  </si>
+  <si>
+    <t>One-Half Lutz</t>
+  </si>
+  <si>
+    <t>One-Foot Spin</t>
+  </si>
+  <si>
+    <t>Dance Step Sequence </t>
+  </si>
+  <si>
+    <t>Two Forward Arabesques</t>
+  </si>
+  <si>
+    <t>Jump Sequence</t>
+  </si>
+  <si>
+    <t>Freestyle 3</t>
+  </si>
+  <si>
+    <t>Salchow Jump</t>
+  </si>
+  <si>
+    <t>Change Foot Spin</t>
+  </si>
+  <si>
+    <t>Backward Arabesque</t>
+  </si>
+  <si>
+    <t>Backward Inside Pivot</t>
+  </si>
+  <si>
+    <t>Toe Loop Jump</t>
+  </si>
+  <si>
+    <t>Freestyle 4</t>
+  </si>
+  <si>
+    <t>Flip Jump</t>
+  </si>
+  <si>
+    <t>Loop Jump</t>
+  </si>
+  <si>
+    <t>Sit Spin</t>
+  </si>
+  <si>
+    <t>One-Half Loop Jump</t>
+  </si>
+  <si>
+    <t>Two Backward Arabesques</t>
+  </si>
+  <si>
+    <t>Freestyle 5</t>
+  </si>
+  <si>
+    <t>Lutz Jump</t>
+  </si>
+  <si>
+    <t>Axel Jump</t>
+  </si>
+  <si>
+    <t>Camel Spin</t>
+  </si>
+  <si>
+    <t>Camel-Sit-Upright Spin</t>
+  </si>
+  <si>
+    <t>Fast Back Scratch Spin</t>
+  </si>
+  <si>
+    <t>Freestyle 6</t>
+  </si>
+  <si>
+    <t>Split Jump</t>
+  </si>
+  <si>
+    <t>Split Falling Leaf Jump</t>
+  </si>
+  <si>
+    <t>Double Salchow Jump</t>
+  </si>
+  <si>
+    <t>Freestyle 7</t>
+  </si>
+  <si>
+    <t>Two Walley jumps in a Row</t>
+  </si>
+  <si>
+    <t>Flying Camel Spin</t>
+  </si>
+  <si>
+    <t>Freestyle 8</t>
+  </si>
+  <si>
+    <t>Double Loop Jump</t>
+  </si>
+  <si>
+    <t>Double Flip Jump</t>
+  </si>
+  <si>
+    <t>Split Lutz Jump</t>
+  </si>
+  <si>
+    <t>Camel-Jump-Camel Spin</t>
+  </si>
+  <si>
+    <t>Freestyle 9</t>
+  </si>
+  <si>
+    <t>Opposite Spin</t>
+  </si>
+  <si>
+    <t>Double Lutz Jump</t>
+  </si>
+  <si>
+    <t>Axel / Double Loop Jump Combination</t>
+  </si>
+  <si>
+    <t>Axel in Opposite Direction or Double Axel Jump</t>
+  </si>
+  <si>
+    <t>Jump Combination – Rocker or Counter Jump / Double Toe Assisted Jump / Double Loop</t>
+  </si>
+  <si>
+    <t>Flying Camel into a Jump Sit Spin</t>
+  </si>
+  <si>
+    <t>Dance Step Sequence – Straight Line Pattern</t>
+  </si>
+  <si>
+    <t>Freestyle 10</t>
+  </si>
+  <si>
+    <t>Double Axel / Double Toe Loop Jump Combination </t>
+  </si>
+  <si>
+    <t>Triple Edge Jump (skater’s choice)</t>
+  </si>
+  <si>
+    <t>Death Drop</t>
+  </si>
+  <si>
+    <t>Four Alternating Axels in a Row or Triple Toe Assist Jump</t>
+  </si>
+  <si>
+    <t>Creative Dance Step Sequence</t>
+  </si>
+  <si>
+    <t>Axel / One-Half Loop / Flip</t>
+  </si>
+  <si>
+    <t>Layback</t>
+  </si>
+  <si>
+    <t>Spin Combination</t>
+  </si>
+  <si>
+    <t>Dance Step Sequence</t>
+  </si>
+  <si>
+    <t>Double Toe Loop</t>
+  </si>
+  <si>
+    <t>Combination Spin</t>
+  </si>
+  <si>
+    <t>One-Foot Axel/ One-Quarter Flip/ Axel</t>
+  </si>
+  <si>
+    <t>Jump in Opposite Direction</t>
+  </si>
+  <si>
+    <t>Flying Sit Spin</t>
+  </si>
+  <si>
+    <t>One and One-Quarter Flip / One and One-Quarter Flip / Double Salchow</t>
+  </si>
+  <si>
+    <t>Three Butterfly Jumps in a Row</t>
+  </si>
+  <si>
+    <t>Double Jump to the Right and Double Jump to the Left (not in sequence)</t>
+  </si>
+  <si>
+    <t>Barely Landing Loops with Sora</t>
+  </si>
+  <si>
+    <t>First Ice Dance, Won $1 from Larry, Mary Lou's Stroking, Cantilevers and knee slides</t>
+  </si>
+  <si>
+    <t>Bought Skates from Greg</t>
+  </si>
+  <si>
+    <t>Hurt Ankle On Waltz Jump</t>
+  </si>
+  <si>
+    <t>Amanda's Stroking, Gum Pain</t>
+  </si>
+  <si>
+    <t>First Time Back on Ice; Knee still hurts</t>
+  </si>
+  <si>
+    <t>Rehearsal</t>
+  </si>
+  <si>
+    <t>Knee Hurts too bad to skate</t>
+  </si>
+  <si>
+    <t>Confidence Restored, Blades less sharp, Shoulder Pain</t>
+  </si>
+  <si>
+    <t>Dance, Group, Stroking</t>
+  </si>
+  <si>
+    <t>Knee Hurts</t>
+  </si>
+  <si>
+    <t>Public, Stroking, Group</t>
+  </si>
+  <si>
+    <t>Landing Loops and Almost Flips, Lucy Stroking, Attended FS3 practice with Lucy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Foot Spin Practice, Lightbulb with Arabesque, Knee Pain, First Homeless Night </t>
+  </si>
+  <si>
+    <t>Skating Days:</t>
+  </si>
+  <si>
+    <t>Total Days:</t>
+  </si>
+  <si>
+    <t>Practiced jumps and spins the entire time</t>
+  </si>
+  <si>
+    <t>Private, Stroking, Group</t>
+  </si>
+  <si>
+    <t>Slow skating week due to parents, Late to Private, Amanda's Stroking</t>
+  </si>
+  <si>
+    <t>Low attendence</t>
+  </si>
+  <si>
+    <t>Worked on edges and spins</t>
+  </si>
+  <si>
+    <t>Practice before Parents came</t>
+  </si>
+  <si>
+    <t>Dance, Group, Public</t>
+  </si>
+  <si>
+    <t>Right knee pain towards end, Missed Stroking for Work Picnic and lease sign, Skated with Ivy and Ivy's sister, Got Tony to sharpen skates</t>
+  </si>
+  <si>
+    <t>Knee Hurts Badly, Was going to leave early due to knee pain but then Ellie came, Convinced Ellie to do Ice Dance</t>
+  </si>
+  <si>
+    <t>Rehearsal, Private, Group</t>
+  </si>
+  <si>
+    <t>Learned FS2 program, Extra FS practice due to theatrical comp</t>
+  </si>
+  <si>
+    <t>Getting really good one foot spins</t>
+  </si>
+  <si>
+    <t>High Confidence, knees hurt at end, worked on FS1 and 2 programs, learned to tack loops on to end of jumps, worked on full flip</t>
+  </si>
+  <si>
+    <t>Total Break Days:</t>
+  </si>
+  <si>
+    <t>Break Days:</t>
+  </si>
+  <si>
+    <t>Ankle hurts too badly to skate, knee pain, Pulled Glute on off ice axel, fell on head, hurt neck</t>
+  </si>
+  <si>
+    <t>Competition, Won 1st for Beauty and Beast</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Outside Ankle Pain, </t>
+  </si>
+  <si>
+    <t>Did Jumps and spins the entire time</t>
+  </si>
+  <si>
+    <t>Running Time</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Almost landing axel, Last jump pulled glute badly</t>
+  </si>
+  <si>
+    <t>Jump Training</t>
+  </si>
+  <si>
+    <t>With Laurel</t>
+  </si>
+  <si>
+    <t>Started Pairs with Laurel, One foot spins improving</t>
+  </si>
+  <si>
+    <t>Consitent flips</t>
+  </si>
+  <si>
+    <t>Skates sharpened from Cool Sports, Jill's stroking and FS3/4 class</t>
+  </si>
+  <si>
+    <t>Went to FS2 Group</t>
+  </si>
+  <si>
+    <t>Lucie's Stroking, Went to FS3 Group, Waltzer Rehearsal</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice</t>
+  </si>
+  <si>
+    <t>FS Ice, Rehearsal, FS Ice</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice, Private</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, Public, Private</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice, Private, Public</t>
+  </si>
+  <si>
+    <t>FS Ice, Private, FS Ice, Public, Private</t>
+  </si>
+  <si>
+    <t>Private, FS Ice, FS2, Public</t>
+  </si>
+  <si>
+    <t>Dance, FS1, Stroking, Public</t>
+  </si>
+  <si>
+    <t>Tried Hockey Skates and fell hard, Getting closer to landing Axel, Larry FS1</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS1</t>
+  </si>
+  <si>
+    <t>Dance, FS1</t>
+  </si>
+  <si>
+    <t>Had to leave after group with parents, Larry FS1</t>
+  </si>
+  <si>
+    <t>Fixed Waltz Jump and baby Axels, First successful change foot spin, getting better at camels and sit spins, Courier Knives Rehearsal, Laurel's Basics Stroking, Ribs and Sternum Hurt</t>
+  </si>
+  <si>
+    <t>Passed Ice Dance 1, Compulsory FS1/FS2 Class with Mary Lou, Mary Lou Stroking, Worked on Programs in Private</t>
+  </si>
+  <si>
+    <t>Dance, FS1, Stroking, Private</t>
+  </si>
+  <si>
+    <t>Halloween Party, Skates Sharpened</t>
+  </si>
+  <si>
+    <t>Passed FS1</t>
+  </si>
+  <si>
+    <t>Passed FS2</t>
+  </si>
+  <si>
+    <t>After Disney on Ice</t>
+  </si>
+  <si>
+    <t>Last Practice before Tests</t>
+  </si>
+  <si>
+    <t>FS Ice, Private</t>
+  </si>
+  <si>
+    <t>Test Session</t>
+  </si>
+  <si>
+    <t>Dance Class</t>
+  </si>
+  <si>
+    <t>Dance Class (int)</t>
+  </si>
+  <si>
+    <t>Didn't go to rehearsal, crowded</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal, No private</t>
+  </si>
+  <si>
+    <t>Courier practice, Voluntold by Johnathan to do a lot of stuff including racing, Skated with Mom</t>
+  </si>
+  <si>
+    <t>Private, FS2</t>
+  </si>
+  <si>
+    <t>No Laurel Private</t>
+  </si>
+  <si>
+    <t>Waltzers, Larry said I can try Fancy Dance but won't be able to do it</t>
+  </si>
+  <si>
+    <t>No Waltzers, Devon FS and stroking, got jump help from Johnathan</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS3/FS4, Public</t>
+  </si>
+  <si>
+    <t>Posture</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Rhythm</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Dance 1</t>
+  </si>
+  <si>
+    <t>Forward Chasses</t>
+  </si>
+  <si>
+    <t>Forward Progressives</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
+  <si>
+    <t>Unison</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS3/FS4, Private, Public</t>
+  </si>
+  <si>
+    <t>Change foot spins, Fixed backwards pivot, very discouraged</t>
+  </si>
+  <si>
+    <t>Sass from Lily Parker, Early stop for Isaiah day, Learned pancake spin and stork spin</t>
+  </si>
+  <si>
+    <t>Extra private due to late Larry, got change foot better: control external rotation of hip and snap, help from Sora, finished Waltzers, good sit spin</t>
+  </si>
+  <si>
+    <t>Pairs practice after private</t>
+  </si>
+  <si>
+    <t>Private, Pairs</t>
+  </si>
+  <si>
+    <t>Discovered jumping through toe pick, Lights went out, Learned FS3 program and Pairs3 Program</t>
+  </si>
+  <si>
+    <t>Public, Stroking, FS3/FS4, Waltzers</t>
+  </si>
+  <si>
+    <t>Fancy Dance Practice, skated with Greta</t>
+  </si>
+  <si>
+    <t>New private schedule no mondays, First learning FS3 program, Compulsories</t>
+  </si>
+  <si>
+    <t>Took change foot video, got insoles: balance different, late skate with katie</t>
+  </si>
+  <si>
+    <t>Private cancelled, Obnoxious kids</t>
+  </si>
+  <si>
+    <t>Dance, FS2/FS3, Stroking, Private, Public</t>
+  </si>
+  <si>
+    <t>Currier, Figures, stroking, Private, Pairs</t>
+  </si>
+  <si>
+    <t>Currier, Figures, Stroking, Private</t>
+  </si>
+  <si>
+    <t>Waltzers</t>
+  </si>
+  <si>
+    <t>Currier, FS Ice, Public, Stroking, Private, Public</t>
+  </si>
+  <si>
+    <t>Stroking, FS3, Waltzers, FS Practice</t>
+  </si>
+  <si>
+    <t>Passed FS3</t>
+  </si>
+  <si>
+    <t>Dance 2</t>
+  </si>
+  <si>
+    <t>Passed Dance 2, played addon with katie</t>
+  </si>
+  <si>
+    <t>Dance 3</t>
+  </si>
+  <si>
+    <t>10 minute private, learned FS4 footwork</t>
+  </si>
+  <si>
+    <t>Private, FS Ice</t>
+  </si>
+  <si>
+    <t>Worked on Pairs 1-3</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
+  <si>
+    <t>Test Session, Public, Private</t>
+  </si>
+  <si>
+    <t>Currier, Private, Stroking</t>
+  </si>
+  <si>
+    <t>FS 1</t>
+  </si>
+  <si>
+    <t>FS 2</t>
+  </si>
+  <si>
+    <t>FS 3</t>
+  </si>
+  <si>
+    <t>FS 4</t>
+  </si>
+  <si>
+    <t>Axels with Laurel</t>
+  </si>
+  <si>
+    <t>Change foot spins, Axel Practice</t>
+  </si>
+  <si>
+    <t>Compulsories</t>
+  </si>
+  <si>
+    <t>Last day of classes until Holiday school, 3 and 4 with Larry and Laurel, Footwork practice, Mary Lou stroking</t>
+  </si>
+  <si>
+    <t>Dance, FS2/FS3, Stroking,  Public, Private</t>
+  </si>
+  <si>
+    <t>Axel Practice with Laurel</t>
+  </si>
+  <si>
+    <t>Currier, Stroking, Private</t>
+  </si>
+  <si>
+    <t>FS4 Footwork, Compulsories, Sit Spins</t>
+  </si>
+  <si>
+    <t>FS5, High Stroking, Private, FS4, Stroking, Public</t>
+  </si>
+  <si>
+    <t>Extended Public. Worked on figures, then FS4. Having trouble controlling backwards edges and can't speed to do full circle on backwards. Figured out more about hip alignment. Now the takeoff edge for the Waltz jump feels weird.</t>
+  </si>
+  <si>
+    <t>Worked on Axels with Lily Grace's cousin, Ordered skates, Learned how to ankle bend with Laurel, improved sit spin entrance</t>
+  </si>
+  <si>
+    <t>Nutcracker</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal</t>
+  </si>
+  <si>
+    <t>Axel Work, Improved Waltz and Loop Jumps</t>
+  </si>
+  <si>
+    <t>First Larry Stroking, Worked on backscratches all day, dull blades</t>
+  </si>
+  <si>
+    <t>Currier</t>
+  </si>
+  <si>
+    <t>Public, Figures</t>
+  </si>
+  <si>
+    <t>Figures Camp, Learned Maltese Cross, Learned more about alignment, three turns should speed you up, brackets</t>
+  </si>
+  <si>
+    <t>Private, FSI, Public</t>
+  </si>
+  <si>
+    <t>Larry Group lesson and stroking. Worked on sitspin with hockey stick on back. Learned how to do loop patterns and how to switch from BI to FO while in a spin</t>
+  </si>
+  <si>
+    <t>Fixed Entry Edge to Waltz jump. Sit spin getting lower. Getting closer on axel. Ankle pain on both ankles. Worked on jump combos. Worked on walleys and FS4 manuevers</t>
+  </si>
+  <si>
+    <t>Low confidence day. Lesson with visiting lady. Worked on camel spins. Could not do them. Feeling much more in control of sit spin. Able to turn foot out and adjust posture while in the spin.</t>
+  </si>
+  <si>
+    <t>FS5, Stroking, FS3/FS4, Private</t>
+  </si>
+  <si>
+    <t>Worked on split jumps and half loops. Ankles hurt. Glute and lower back hurt. Got skates sharpened last night. Private with Laurel on basics. Went over three turns and mohawks. Sit spins</t>
+  </si>
+  <si>
+    <t>Sprained ankle last night at jump jam, but it doesn't hurt when I skate. Worked on jump combos with Laurel. Skipped lessons this morning because Larry was teaching them and my ankle was hurting. Did basic stroking with Laurel. Noticed Inadequacy holding certain edges. Worked on basics in my private. Learned more about properly executing three turns and learned more about entry edges.</t>
+  </si>
+  <si>
+    <t>Worked on sitspin until glute pain in left leg became too intense. Got confirmation that new skates are ordered.</t>
+  </si>
+  <si>
+    <t>Worked on sit spins with Laurel. One foot spins are getting crazy good.</t>
+  </si>
+  <si>
+    <t>Ober skating with Laurel. Played add-on and getting good with half loops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson With Devon. Worked on backscratches, edges, and axels. Landed first axel fully rotated but fell. Landing axels in harness. Mid-air position sucks. Need to remember not to jump out of the edge, but alow the edge to let me jump. Also need to remember to bend down when jumping as well as to check the jump before and during. Need to practice landing with hands crossed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Minute Lesson with Laurel. Worked on spins mostly due to heel blister pain.  </t>
+  </si>
+  <si>
+    <t>FS2 class with Julia rotating the opposite way. Learned Toe Walley vs. Toe Loop. Landed My Walley and almost an axel when joking around</t>
+  </si>
+  <si>
+    <t>Private (Cool Sports)</t>
   </si>
   <si>
     <r>
@@ -270,7 +1032,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>OLD SKATES</t>
+      <t>Ridell's</t>
     </r>
     <r>
       <rPr>
@@ -293,778 +1055,54 @@
     </r>
   </si>
   <si>
-    <t>Rehearsal, Public</t>
-  </si>
-  <si>
-    <t>Party, Private</t>
-  </si>
-  <si>
-    <t>Lessons From Olivia and Sora</t>
-  </si>
-  <si>
-    <t>Passed Beta, Blades Sharpened</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Freestyle Ice</t>
-  </si>
-  <si>
-    <t>Passed Gamma, Got Spinner</t>
-  </si>
-  <si>
-    <t>Signed up for Nutcracker</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Private, Rehearsal, Private</t>
-  </si>
-  <si>
-    <t>Public, Group, Private, Public</t>
-  </si>
-  <si>
-    <t>Learned how to bend skate</t>
-  </si>
-  <si>
-    <t>Private, Public, Group</t>
-  </si>
-  <si>
-    <t>Hours:</t>
-  </si>
-  <si>
-    <t>Time Spent In Each Class</t>
-  </si>
-  <si>
-    <t>Skates Sharpened, Skates Punched Out</t>
-  </si>
-  <si>
-    <t>Purchased Team Jacket</t>
-  </si>
-  <si>
-    <t>Pubic, Rehearsal</t>
-  </si>
-  <si>
-    <t>Public, Group, Private</t>
-  </si>
-  <si>
-    <t>Passed Delta</t>
-  </si>
-  <si>
-    <t>Group, Public, Private, Public</t>
-  </si>
-  <si>
-    <t>Too sick to skate, Learned FS1 routine</t>
-  </si>
-  <si>
-    <t>Stretching</t>
-  </si>
-  <si>
-    <t>Rehearsal Canceled due to weather</t>
-  </si>
-  <si>
-    <t>Extremely Low Confidence, Got Ice Chalet Jacket</t>
-  </si>
-  <si>
-    <t>Stroking, Private</t>
-  </si>
-  <si>
-    <t>Public, Private, Public</t>
-  </si>
-  <si>
-    <t>Rehearsal, Private</t>
-  </si>
-  <si>
-    <t>Dance, Group, Stroking, Public</t>
-  </si>
-  <si>
-    <t>First One Foot Spin, Felt Sick, Blades Sharpened</t>
-  </si>
-  <si>
-    <t>First Salchow</t>
-  </si>
-  <si>
-    <t>Private, Stroking, Group, Public</t>
-  </si>
-  <si>
-    <t>Public, Rehearsal, Private</t>
-  </si>
-  <si>
-    <t>Short Practice, Took Private Instead</t>
-  </si>
-  <si>
-    <t>Freestyle 1</t>
-  </si>
-  <si>
-    <t>Forward Inside Pivot</t>
-  </si>
-  <si>
-    <t>Two-Foot Spin</t>
-  </si>
-  <si>
-    <t>Forward Arabesque</t>
-  </si>
-  <si>
-    <t>One-Half Flip</t>
-  </si>
-  <si>
-    <t>Waltz Jump</t>
-  </si>
-  <si>
-    <t>Backward Edges</t>
-  </si>
-  <si>
-    <t>Freestyle 2</t>
-  </si>
-  <si>
-    <t>Ballet Jump</t>
-  </si>
-  <si>
-    <t>One-Half Lutz</t>
-  </si>
-  <si>
-    <t>One-Foot Spin</t>
-  </si>
-  <si>
-    <t>Dance Step Sequence </t>
-  </si>
-  <si>
-    <t>Two Forward Arabesques</t>
-  </si>
-  <si>
-    <t>Jump Sequence</t>
-  </si>
-  <si>
-    <t>Freestyle 3</t>
-  </si>
-  <si>
-    <t>Salchow Jump</t>
-  </si>
-  <si>
-    <t>Change Foot Spin</t>
-  </si>
-  <si>
-    <t>Backward Arabesque</t>
-  </si>
-  <si>
-    <t>Backward Inside Pivot</t>
-  </si>
-  <si>
-    <t>Toe Loop Jump</t>
-  </si>
-  <si>
-    <t>Freestyle 4</t>
-  </si>
-  <si>
-    <t>Flip Jump</t>
-  </si>
-  <si>
-    <t>Loop Jump</t>
-  </si>
-  <si>
-    <t>Sit Spin</t>
-  </si>
-  <si>
-    <t>One-Half Loop Jump</t>
-  </si>
-  <si>
-    <t>Two Backward Arabesques</t>
-  </si>
-  <si>
-    <t>Freestyle 5</t>
-  </si>
-  <si>
-    <t>Lutz Jump</t>
-  </si>
-  <si>
-    <t>Axel Jump</t>
-  </si>
-  <si>
-    <t>Camel Spin</t>
-  </si>
-  <si>
-    <t>Camel-Sit-Upright Spin</t>
-  </si>
-  <si>
-    <t>Fast Back Scratch Spin</t>
-  </si>
-  <si>
-    <t>Freestyle 6</t>
-  </si>
-  <si>
-    <t>Split Jump</t>
-  </si>
-  <si>
-    <t>Split Falling Leaf Jump</t>
-  </si>
-  <si>
-    <t>Double Salchow Jump</t>
-  </si>
-  <si>
-    <t>Freestyle 7</t>
-  </si>
-  <si>
-    <t>Two Walley jumps in a Row</t>
-  </si>
-  <si>
-    <t>Flying Camel Spin</t>
-  </si>
-  <si>
-    <t>Freestyle 8</t>
-  </si>
-  <si>
-    <t>Double Loop Jump</t>
-  </si>
-  <si>
-    <t>Double Flip Jump</t>
-  </si>
-  <si>
-    <t>Split Lutz Jump</t>
-  </si>
-  <si>
-    <t>Camel-Jump-Camel Spin</t>
-  </si>
-  <si>
-    <t>Freestyle 9</t>
-  </si>
-  <si>
-    <t>Opposite Spin</t>
-  </si>
-  <si>
-    <t>Double Lutz Jump</t>
-  </si>
-  <si>
-    <t>Axel / Double Loop Jump Combination</t>
-  </si>
-  <si>
-    <t>Axel in Opposite Direction or Double Axel Jump</t>
-  </si>
-  <si>
-    <t>Jump Combination – Rocker or Counter Jump / Double Toe Assisted Jump / Double Loop</t>
-  </si>
-  <si>
-    <t>Flying Camel into a Jump Sit Spin</t>
-  </si>
-  <si>
-    <t>Dance Step Sequence – Straight Line Pattern</t>
-  </si>
-  <si>
-    <t>Freestyle 10</t>
-  </si>
-  <si>
-    <t>Double Axel / Double Toe Loop Jump Combination </t>
-  </si>
-  <si>
-    <t>Triple Edge Jump (skater’s choice)</t>
-  </si>
-  <si>
-    <t>Death Drop</t>
-  </si>
-  <si>
-    <t>Four Alternating Axels in a Row or Triple Toe Assist Jump</t>
-  </si>
-  <si>
-    <t>Creative Dance Step Sequence</t>
-  </si>
-  <si>
-    <t>Axel / One-Half Loop / Flip</t>
-  </si>
-  <si>
-    <t>Layback</t>
-  </si>
-  <si>
-    <t>Spin Combination</t>
-  </si>
-  <si>
-    <t>Dance Step Sequence</t>
-  </si>
-  <si>
-    <t>Double Toe Loop</t>
-  </si>
-  <si>
-    <t>Combination Spin</t>
-  </si>
-  <si>
-    <t>One-Foot Axel/ One-Quarter Flip/ Axel</t>
-  </si>
-  <si>
-    <t>Jump in Opposite Direction</t>
-  </si>
-  <si>
-    <t>Flying Sit Spin</t>
-  </si>
-  <si>
-    <t>One and One-Quarter Flip / One and One-Quarter Flip / Double Salchow</t>
-  </si>
-  <si>
-    <t>Three Butterfly Jumps in a Row</t>
-  </si>
-  <si>
-    <t>Double Jump to the Right and Double Jump to the Left (not in sequence)</t>
-  </si>
-  <si>
-    <t>Barely Landing Loops with Sora</t>
-  </si>
-  <si>
-    <t>First Ice Dance, Won $1 from Larry, Mary Lou's Stroking, Cantilevers and knee slides</t>
-  </si>
-  <si>
-    <t>Bought Skates from Greg</t>
-  </si>
-  <si>
-    <t>Hurt Ankle On Waltz Jump</t>
-  </si>
-  <si>
-    <t>Amanda's Stroking, Gum Pain</t>
-  </si>
-  <si>
-    <t>First Time Back on Ice; Knee still hurts</t>
-  </si>
-  <si>
-    <t>Rehearsal</t>
-  </si>
-  <si>
-    <t>Knee Hurts too bad to skate</t>
-  </si>
-  <si>
-    <t>Confidence Restored, Blades less sharp, Shoulder Pain</t>
-  </si>
-  <si>
-    <t>Dance, Group, Stroking</t>
-  </si>
-  <si>
-    <t>Knee Hurts</t>
-  </si>
-  <si>
-    <t>Public, Stroking, Group</t>
-  </si>
-  <si>
-    <t>Landing Loops and Almost Flips, Lucy Stroking, Attended FS3 practice with Lucy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Foot Spin Practice, Lightbulb with Arabesque, Knee Pain, First Homeless Night </t>
-  </si>
-  <si>
-    <t>Skating Days:</t>
-  </si>
-  <si>
-    <t>Total Days:</t>
-  </si>
-  <si>
-    <t>Practiced jumps and spins the entire time</t>
-  </si>
-  <si>
-    <t>Private, Stroking, Group</t>
-  </si>
-  <si>
-    <t>Slow skating week due to parents, Late to Private, Amanda's Stroking</t>
-  </si>
-  <si>
-    <t>Low attendence</t>
-  </si>
-  <si>
-    <t>Worked on edges and spins</t>
-  </si>
-  <si>
-    <t>Practice before Parents came</t>
-  </si>
-  <si>
-    <t>Dance, Group, Public</t>
-  </si>
-  <si>
-    <t>Right knee pain towards end, Missed Stroking for Work Picnic and lease sign, Skated with Ivy and Ivy's sister, Got Tony to sharpen skates</t>
-  </si>
-  <si>
-    <t>Knee Hurts Badly, Was going to leave early due to knee pain but then Ellie came, Convinced Ellie to do Ice Dance</t>
-  </si>
-  <si>
-    <t>Rehearsal, Private, Group</t>
-  </si>
-  <si>
-    <t>Learned FS2 program, Extra FS practice due to theatrical comp</t>
-  </si>
-  <si>
-    <t>Getting really good one foot spins</t>
-  </si>
-  <si>
-    <t>High Confidence, knees hurt at end, worked on FS1 and 2 programs, learned to tack loops on to end of jumps, worked on full flip</t>
-  </si>
-  <si>
-    <t>Total Break Days:</t>
-  </si>
-  <si>
-    <t>Break Days:</t>
-  </si>
-  <si>
-    <t>Ankle hurts too badly to skate, knee pain, Pulled Glute on off ice axel, fell on head, hurt neck</t>
-  </si>
-  <si>
-    <t>Competition, Won 1st for Beauty and Beast</t>
-  </si>
-  <si>
-    <t>Competition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left Outside Ankle Pain, </t>
-  </si>
-  <si>
-    <t>Did Jumps and spins the entire time</t>
-  </si>
-  <si>
-    <t>Running Time</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Almost landing axel, Last jump pulled glute badly</t>
-  </si>
-  <si>
-    <t>Jump Training</t>
-  </si>
-  <si>
-    <t>With Laurel</t>
-  </si>
-  <si>
-    <t>Started Pairs with Laurel, One foot spins improving</t>
-  </si>
-  <si>
-    <t>Consitent flips</t>
-  </si>
-  <si>
-    <t>Skates sharpened from Cool Sports, Jill's stroking and FS3/4 class</t>
-  </si>
-  <si>
-    <t>Went to FS2 Group</t>
-  </si>
-  <si>
-    <t>Lucie's Stroking, Went to FS3 Group, Waltzer Rehearsal</t>
-  </si>
-  <si>
-    <t>FS Ice, Private, FS Ice</t>
-  </si>
-  <si>
-    <t>FS Ice, Rehearsal, FS Ice</t>
-  </si>
-  <si>
-    <t>FS Ice, Private, FS Ice, Private</t>
-  </si>
-  <si>
-    <t>FS Ice, Private, Public, Private</t>
-  </si>
-  <si>
-    <t>FS Ice, Private, FS Ice, Private, Public</t>
-  </si>
-  <si>
-    <t>FS Ice, Private, FS Ice, Public, Private</t>
-  </si>
-  <si>
-    <t>Private, FS Ice, FS2, Public</t>
-  </si>
-  <si>
-    <t>Dance, FS1, Stroking, Public</t>
-  </si>
-  <si>
-    <t>Tried Hockey Skates and fell hard, Getting closer to landing Axel, Larry FS1</t>
-  </si>
-  <si>
-    <t>Public, Stroking, FS1</t>
-  </si>
-  <si>
-    <t>Dance, FS1</t>
-  </si>
-  <si>
-    <t>Had to leave after group with parents, Larry FS1</t>
-  </si>
-  <si>
-    <t>Fixed Waltz Jump and baby Axels, First successful change foot spin, getting better at camels and sit spins, Courier Knives Rehearsal, Laurel's Basics Stroking, Ribs and Sternum Hurt</t>
-  </si>
-  <si>
-    <t>Passed Ice Dance 1, Compulsory FS1/FS2 Class with Mary Lou, Mary Lou Stroking, Worked on Programs in Private</t>
-  </si>
-  <si>
-    <t>Dance, FS1, Stroking, Private</t>
-  </si>
-  <si>
-    <t>Halloween Party, Skates Sharpened</t>
-  </si>
-  <si>
-    <t>Passed FS1</t>
-  </si>
-  <si>
-    <t>Passed FS2</t>
-  </si>
-  <si>
-    <t>After Disney on Ice</t>
-  </si>
-  <si>
-    <t>Last Practice before Tests</t>
-  </si>
-  <si>
-    <t>FS Ice, Private</t>
-  </si>
-  <si>
-    <t>Test Session</t>
-  </si>
-  <si>
-    <t>Dance Class</t>
-  </si>
-  <si>
-    <t>Dance Class (int)</t>
-  </si>
-  <si>
-    <t>Didn't go to rehearsal, crowded</t>
-  </si>
-  <si>
-    <t>Dress Rehearsal, No private</t>
-  </si>
-  <si>
-    <t>Courier practice, Voluntold by Johnathan to do a lot of stuff including racing, Skated with Mom</t>
-  </si>
-  <si>
-    <t>Private, FS2</t>
-  </si>
-  <si>
-    <t>No Laurel Private</t>
-  </si>
-  <si>
-    <t>Waltzers, Larry said I can try Fancy Dance but won't be able to do it</t>
-  </si>
-  <si>
-    <t>No Waltzers, Devon FS and stroking, got jump help from Johnathan</t>
-  </si>
-  <si>
-    <t>Public, Stroking, FS3/FS4, Public</t>
-  </si>
-  <si>
-    <t>Posture</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Rhythm</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Dance 1</t>
-  </si>
-  <si>
-    <t>Forward Chasses</t>
-  </si>
-  <si>
-    <t>Forward Progressives</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Correctness</t>
-  </si>
-  <si>
-    <t>Unison</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
-    <t>Public, Stroking, FS3/FS4, Private, Public</t>
-  </si>
-  <si>
-    <t>Change foot spins, Fixed backwards pivot, very discouraged</t>
-  </si>
-  <si>
-    <t>Sass from Lily Parker, Early stop for Isaiah day, Learned pancake spin and stork spin</t>
-  </si>
-  <si>
-    <t>Extra private due to late Larry, got change foot better: control external rotation of hip and snap, help from Sora, finished Waltzers, good sit spin</t>
-  </si>
-  <si>
-    <t>Pairs practice after private</t>
-  </si>
-  <si>
-    <t>Private, Pairs</t>
-  </si>
-  <si>
-    <t>Discovered jumping through toe pick, Lights went out, Learned FS3 program and Pairs3 Program</t>
-  </si>
-  <si>
-    <t>Public, Stroking, FS3/FS4, Waltzers</t>
-  </si>
-  <si>
-    <t>Fancy Dance Practice, skated with Greta</t>
-  </si>
-  <si>
-    <t>New private schedule no mondays, First learning FS3 program, Compulsories</t>
-  </si>
-  <si>
-    <t>Took change foot video, got insoles: balance different, late skate with katie</t>
-  </si>
-  <si>
-    <t>Private cancelled, Obnoxious kids</t>
-  </si>
-  <si>
-    <t>Dance, FS2/FS3, Stroking, Private, Public</t>
-  </si>
-  <si>
-    <t>Currier, Figures, stroking, Private, Pairs</t>
-  </si>
-  <si>
-    <t>Currier, Figures, Stroking, Private</t>
-  </si>
-  <si>
-    <t>Waltzers</t>
-  </si>
-  <si>
-    <t>Currier, FS Ice, Public, Stroking, Private, Public</t>
-  </si>
-  <si>
-    <t>Stroking, FS3, Waltzers, FS Practice</t>
-  </si>
-  <si>
-    <t>Passed FS3</t>
-  </si>
-  <si>
-    <t>Dance 2</t>
-  </si>
-  <si>
-    <t>Passed Dance 2, played addon with katie</t>
-  </si>
-  <si>
-    <t>Dance 3</t>
-  </si>
-  <si>
-    <t>10 minute private, learned FS4 footwork</t>
-  </si>
-  <si>
-    <t>Private, FS Ice</t>
-  </si>
-  <si>
-    <t>Worked on Pairs 1-3</t>
-  </si>
-  <si>
-    <t>Pairs</t>
-  </si>
-  <si>
-    <t>Test Session, Public, Private</t>
-  </si>
-  <si>
-    <t>Currier, Private, Stroking</t>
-  </si>
-  <si>
-    <t>FS 1</t>
-  </si>
-  <si>
-    <t>FS 2</t>
-  </si>
-  <si>
-    <t>FS 3</t>
-  </si>
-  <si>
-    <t>FS 4</t>
-  </si>
-  <si>
-    <t>Axels with Laurel</t>
-  </si>
-  <si>
-    <t>Change foot spins, Axel Practice</t>
-  </si>
-  <si>
-    <t>Compulsories</t>
-  </si>
-  <si>
-    <t>Last day of classes until Holiday school, 3 and 4 with Larry and Laurel, Footwork practice, Mary Lou stroking</t>
-  </si>
-  <si>
-    <t>Dance, FS2/FS3, Stroking,  Public, Private</t>
-  </si>
-  <si>
-    <t>Axel Practice with Laurel</t>
-  </si>
-  <si>
-    <t>Currier, Stroking, Private</t>
-  </si>
-  <si>
-    <t>FS4 Footwork, Compulsories, Sit Spins</t>
-  </si>
-  <si>
-    <t>FS5, High Stroking, Private, FS4, Stroking, Public</t>
-  </si>
-  <si>
-    <t>Extended Public. Worked on figures, then FS4. Having trouble controlling backwards edges and can't speed to do full circle on backwards. Figured out more about hip alignment. Now the takeoff edge for the Waltz jump feels weird.</t>
-  </si>
-  <si>
-    <t>Worked on Axels with Lily Grace's cousin, Ordered skates, Learned how to ankle bend with Laurel, improved sit spin entrance</t>
-  </si>
-  <si>
-    <t>Nutcracker</t>
-  </si>
-  <si>
-    <t>Dress Rehearsal</t>
-  </si>
-  <si>
-    <t>Axel Work, Improved Waltz and Loop Jumps</t>
-  </si>
-  <si>
-    <t>First Larry Stroking, Worked on backscratches all day, dull blades</t>
-  </si>
-  <si>
-    <t>Currier</t>
-  </si>
-  <si>
-    <t>Public, Figures</t>
-  </si>
-  <si>
-    <t>Figures Camp, Learned Maltese Cross, Learned more about alignment, three turns should speed you up, brackets</t>
-  </si>
-  <si>
-    <t>Private, FSI, Public</t>
-  </si>
-  <si>
-    <t>Larry Group lesson and stroking. Worked on sitspin with hockey stick on back. Learned how to do loop patterns and how to switch from BI to FO while in a spin</t>
-  </si>
-  <si>
-    <t>Fixed Entry Edge to Waltz jump. Sit spin getting lower. Getting closer on axel. Ankle pain on both ankles. Worked on jump combos. Worked on walleys and FS4 manuevers</t>
-  </si>
-  <si>
-    <t>Low confidence day. Lesson with visiting lady. Worked on camel spins. Could not do them. Feeling much more in control of sit spin. Able to turn foot out and adjust posture while in the spin.</t>
-  </si>
-  <si>
-    <t>FS5, Stroking, FS3/FS4, Private</t>
-  </si>
-  <si>
-    <t>Worked on split jumps and half loops. Ankles hurt. Glute and lower back hurt. Got skates sharpened last night. Private with Laurel on basics. Went over three turns and mohawks. Sit spins</t>
-  </si>
-  <si>
-    <t>Sprained ankle last night at jump jam, but it doesn't hurt when I skate. Worked on jump combos with Laurel. Skipped lessons this morning because Larry was teaching them and my ankle was hurting. Did basic stroking with Laurel. Noticed Inadequacy holding certain edges. Worked on basics in my private. Learned more about properly executing three turns and learned more about entry edges.</t>
-  </si>
-  <si>
-    <t>Worked on sitspin until glute pain in left leg became too intense. Got confirmation that new skates are ordered.</t>
-  </si>
-  <si>
-    <t>Worked on sit spins with Laurel. One foot spins are getting crazy good.</t>
-  </si>
-  <si>
-    <t>Ober skating with Laurel. Played add-on and getting good with half loops.</t>
+    <r>
+      <t>Time (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jackson Freestyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Time (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jackson Elite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1924,6 +1962,36 @@
                 <c:pt idx="153">
                   <c:v>43478</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>43484</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43485</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43489</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43490</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43491</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43493</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3126,6 +3194,36 @@
                 <c:pt idx="153">
                   <c:v>43478</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>43484</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43485</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43489</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43490</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43491</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43493</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3595,6 +3693,36 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="153">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4393,7 +4521,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,6 +5276,36 @@
                 <c:pt idx="153">
                   <c:v>43478</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>43484</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43485</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43489</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43490</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43491</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43493</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5617,6 +5775,36 @@
                   <c:v>376.2</c:v>
                 </c:pt>
                 <c:pt idx="153">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>378.45</c:v>
                 </c:pt>
               </c:numCache>
@@ -9057,10 +9245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z155"/>
+  <dimension ref="A1:Z165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,9 +9272,9 @@
     <col min="19" max="19" width="16.140625" customWidth="1"/>
     <col min="20" max="20" width="13.140625" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="26" max="27" width="16.7109375" customWidth="1"/>
   </cols>
@@ -9144,13 +9332,13 @@
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -9178,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -9197,10 +9385,13 @@
         <v>4</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>64</v>
+        <v>326</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -9244,11 +9435,11 @@
         <f>SUM(M:M)</f>
         <v>378.45</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <f>SUM(M19:M390)</f>
         <v>336.7</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
@@ -9525,19 +9716,19 @@
         <v>19.25</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -9809,7 +10000,7 @@
         <v>28.75</v>
       </c>
       <c r="V15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W15" s="4">
         <f>SUM(M33:M42)</f>
@@ -9866,7 +10057,7 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M95)</f>
@@ -9921,7 +10112,7 @@
         <v>6.25</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O17" t="s">
         <v>32</v>
@@ -9937,7 +10128,7 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M96)</f>
@@ -9995,7 +10186,7 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W18" s="4">
         <f>SUM(M97:M116)</f>
@@ -10055,7 +10246,7 @@
         <v>42.75</v>
       </c>
       <c r="V19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W19" s="4">
         <f>SUM(M117:M390)</f>
@@ -10063,7 +10254,7 @@
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 4")</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="14">
         <f>C137-C117+1</f>
@@ -10071,7 +10262,7 @@
       </c>
       <c r="Z19" s="14">
         <f>Y19-X19</f>
-        <v>-7</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -10150,7 +10341,7 @@
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W21" s="4">
         <f>SUM(M50:M92)</f>
@@ -10207,7 +10398,7 @@
         <v>51.25</v>
       </c>
       <c r="V22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W22" s="4">
         <f>SUM(M93:M100)</f>
@@ -10274,7 +10465,7 @@
         <v>58.5</v>
       </c>
       <c r="V23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W23" s="4">
         <f>SUM(M100:M390)</f>
@@ -10282,15 +10473,15 @@
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -10331,7 +10522,7 @@
         <v>59.5</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -10373,7 +10564,7 @@
       </c>
       <c r="Z25">
         <f>SUM(Z11:Z19)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -10442,7 +10633,7 @@
         <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P27" s="20" t="s">
         <v>31</v>
@@ -10493,7 +10684,7 @@
         <v>62</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P28" s="20" t="s">
         <v>31</v>
@@ -10531,7 +10722,7 @@
         <v>3.5</v>
       </c>
       <c r="N29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O29" t="s">
         <v>17</v>
@@ -10587,7 +10778,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>43326</v>
@@ -10610,10 +10801,10 @@
         <v>0.45</v>
       </c>
       <c r="N31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P31" s="20" t="s">
         <v>31</v>
@@ -10651,7 +10842,7 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O32" t="s">
         <v>19</v>
@@ -10702,10 +10893,10 @@
         <v>1.75</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -10753,7 +10944,7 @@
         <v>22</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -10791,7 +10982,7 @@
         <v>17</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -10826,13 +11017,13 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="O36" t="s">
-        <v>74</v>
-      </c>
-      <c r="P36" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -10867,13 +11058,13 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -10908,10 +11099,10 @@
         <v>2.5</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -10946,13 +11137,13 @@
         <v>2.25</v>
       </c>
       <c r="N39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -10987,13 +11178,13 @@
         <v>2.5</v>
       </c>
       <c r="N40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -11005,7 +11196,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1">
         <v>43340</v>
@@ -11028,10 +11219,10 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -11076,13 +11267,13 @@
         <v>3.25</v>
       </c>
       <c r="N42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -11117,13 +11308,13 @@
         <v>2.25</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O43" t="s">
         <v>21</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -11178,13 +11369,13 @@
         <v>7.75</v>
       </c>
       <c r="N44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -11229,13 +11420,13 @@
         <v>2.75</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11247,7 +11438,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1">
         <v>43347</v>
@@ -11270,13 +11461,13 @@
         <v>0.75</v>
       </c>
       <c r="N46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O46" t="s">
         <v>36</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11311,13 +11502,13 @@
         <v>0.5</v>
       </c>
       <c r="N47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11352,13 +11543,13 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11393,13 +11584,13 @@
         <v>2.75</v>
       </c>
       <c r="N49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11434,19 +11625,19 @@
         <v>7.25</v>
       </c>
       <c r="N50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q50">
         <v>5</v>
       </c>
       <c r="R50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -11481,19 +11672,19 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q51">
         <v>5</v>
       </c>
       <c r="R51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -11528,19 +11719,19 @@
         <v>2.25</v>
       </c>
       <c r="N52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q52">
         <v>5</v>
       </c>
       <c r="R52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -11552,7 +11743,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
         <v>43354</v>
@@ -11575,19 +11766,19 @@
         <v>0.75</v>
       </c>
       <c r="N53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O53" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="P53" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="Q53">
         <v>5</v>
       </c>
       <c r="R53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -11622,19 +11813,19 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -11669,19 +11860,19 @@
         <v>3.75</v>
       </c>
       <c r="N55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q55">
         <v>5</v>
       </c>
       <c r="R55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -11716,19 +11907,19 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q56">
         <v>5</v>
       </c>
       <c r="R56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -11763,19 +11954,19 @@
         <v>2.5</v>
       </c>
       <c r="N57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q57">
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -11810,19 +12001,19 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q58">
         <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -11834,7 +12025,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1">
         <v>43361</v>
@@ -11857,19 +12048,19 @@
         <v>0.5</v>
       </c>
       <c r="N59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q59">
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -11904,13 +12095,13 @@
         <v>1</v>
       </c>
       <c r="P60" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q60">
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -11945,19 +12136,19 @@
         <v>1.75</v>
       </c>
       <c r="N61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
         <v>17</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q61">
         <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -12002,19 +12193,19 @@
         <v>6</v>
       </c>
       <c r="N62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q62">
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -12049,19 +12240,19 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" t="s">
         <v>17</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q63">
         <v>5</v>
       </c>
       <c r="R63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -12096,19 +12287,19 @@
         <v>2.25</v>
       </c>
       <c r="N64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P64" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -12120,7 +12311,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1">
         <v>43368</v>
@@ -12143,19 +12334,19 @@
         <v>0.75</v>
       </c>
       <c r="N65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q65">
         <v>5</v>
       </c>
       <c r="R65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -12190,19 +12381,19 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O66" t="s">
         <v>20</v>
       </c>
       <c r="P66" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -12237,19 +12428,19 @@
         <v>0.75</v>
       </c>
       <c r="N67" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q67">
         <v>5</v>
       </c>
       <c r="R67" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -12284,19 +12475,19 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P68" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q68">
         <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -12331,19 +12522,19 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O69" t="s">
         <v>17</v>
       </c>
       <c r="P69" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q69">
         <v>5</v>
       </c>
       <c r="R69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -12378,19 +12569,19 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P70" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q70">
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -12402,7 +12593,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
         <v>43375</v>
@@ -12425,19 +12616,19 @@
         <v>1.75</v>
       </c>
       <c r="N71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P71" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q71">
         <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -12472,19 +12663,19 @@
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q72">
         <v>5</v>
       </c>
       <c r="R72" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -12529,19 +12720,19 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P73" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q73">
         <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -12576,19 +12767,19 @@
         <v>0.25</v>
       </c>
       <c r="N74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P74" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q74">
         <v>5</v>
       </c>
       <c r="R74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -12623,19 +12814,19 @@
         <v>3.5</v>
       </c>
       <c r="N75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q75">
         <v>5</v>
       </c>
       <c r="R75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -12680,19 +12871,19 @@
         <v>2.75</v>
       </c>
       <c r="N76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P76" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q76">
         <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -12727,19 +12918,19 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P77" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q77">
         <v>5</v>
       </c>
       <c r="R77" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -12784,19 +12975,19 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P78" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q78">
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -12831,19 +13022,19 @@
         <v>3.75</v>
       </c>
       <c r="N79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
       </c>
       <c r="P79" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q79">
         <v>5</v>
       </c>
       <c r="R79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -12878,19 +13069,19 @@
         <v>4.25</v>
       </c>
       <c r="N80" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P80" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q80">
         <v>5</v>
       </c>
       <c r="R80" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -12925,19 +13116,19 @@
         <v>3.75</v>
       </c>
       <c r="N81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
       </c>
       <c r="P81" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q81">
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -12992,19 +13183,19 @@
         <v>2.75</v>
       </c>
       <c r="N82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P82" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q82">
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -13039,19 +13230,19 @@
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P83" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q83">
         <v>5</v>
       </c>
       <c r="R83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -13086,19 +13277,19 @@
         <v>4.75</v>
       </c>
       <c r="N84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P84" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q84">
         <v>5</v>
       </c>
       <c r="R84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -13133,19 +13324,19 @@
         <v>2.75</v>
       </c>
       <c r="N85" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
       </c>
       <c r="P85" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q85">
         <v>5</v>
       </c>
       <c r="R85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -13180,16 +13371,16 @@
         <v>4.25</v>
       </c>
       <c r="O86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P86" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q86">
         <v>5</v>
       </c>
       <c r="R86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -13227,13 +13418,13 @@
         <v>17</v>
       </c>
       <c r="P87" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q87">
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -13278,16 +13469,16 @@
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P88" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q88">
         <v>5</v>
       </c>
       <c r="R88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -13322,19 +13513,19 @@
         <v>0.75</v>
       </c>
       <c r="N89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P89" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q89">
         <v>5</v>
       </c>
       <c r="R89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -13379,19 +13570,19 @@
         <v>2.25</v>
       </c>
       <c r="N90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P90" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q90">
         <v>5</v>
       </c>
       <c r="R90" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -13426,19 +13617,19 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q91">
         <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -13483,19 +13674,19 @@
         <v>3.75</v>
       </c>
       <c r="N92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q92">
         <v>5</v>
       </c>
       <c r="R92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -13530,19 +13721,19 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q93">
         <v>5</v>
       </c>
       <c r="R93" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S93">
         <v>2</v>
@@ -13577,19 +13768,19 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P94" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q94">
         <v>5</v>
       </c>
       <c r="R94" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S94">
         <v>2</v>
@@ -13601,7 +13792,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B95" s="1">
         <v>43403</v>
@@ -13624,19 +13815,19 @@
         <v>0.5</v>
       </c>
       <c r="N95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P95" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q95">
         <v>5</v>
       </c>
       <c r="R95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S95">
         <v>2</v>
@@ -13648,13 +13839,13 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B96" s="1">
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C155" si="8">B96</f>
+        <f t="shared" ref="C96:C165" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -13671,19 +13862,19 @@
         <v>0.5</v>
       </c>
       <c r="N96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P96" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q96">
         <v>6</v>
       </c>
       <c r="R96" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S96">
         <v>2</v>
@@ -13718,19 +13909,19 @@
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P97" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q97">
         <v>7</v>
       </c>
       <c r="R97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S97">
         <v>2</v>
@@ -13765,16 +13956,16 @@
         <v>4</v>
       </c>
       <c r="O98" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P98" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q98">
         <v>7</v>
       </c>
       <c r="R98" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S98">
         <v>2</v>
@@ -13809,19 +14000,19 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
       </c>
       <c r="P99" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q99">
         <v>7</v>
       </c>
       <c r="R99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S99">
         <v>2</v>
@@ -13856,19 +14047,19 @@
         <v>8</v>
       </c>
       <c r="N100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P100" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q100">
         <v>7</v>
       </c>
       <c r="R100" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S100">
         <v>2</v>
@@ -13906,13 +14097,13 @@
         <v>17</v>
       </c>
       <c r="P101" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q101">
         <v>7</v>
       </c>
       <c r="R101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S101">
         <v>3</v>
@@ -13924,7 +14115,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1">
         <v>43410</v>
@@ -13947,19 +14138,19 @@
         <v>0.75</v>
       </c>
       <c r="N102" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P102" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q102">
         <v>7</v>
       </c>
       <c r="R102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S102">
         <v>3</v>
@@ -13994,19 +14185,19 @@
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P103" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q103">
         <v>7</v>
       </c>
       <c r="R103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S103">
         <v>3</v>
@@ -14051,19 +14242,19 @@
         <v>4.5</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P104" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q104">
         <v>7</v>
       </c>
       <c r="R104" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S104">
         <v>3</v>
@@ -14108,19 +14299,19 @@
         <v>3.5</v>
       </c>
       <c r="N105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O105" t="s">
         <v>36</v>
       </c>
       <c r="P105" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q105">
         <v>7</v>
       </c>
       <c r="R105" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S105">
         <v>3</v>
@@ -14155,19 +14346,19 @@
         <v>5.25</v>
       </c>
       <c r="N106" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O106" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P106" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q106">
         <v>7</v>
       </c>
       <c r="R106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S106">
         <v>3</v>
@@ -14202,19 +14393,19 @@
         <v>1.25</v>
       </c>
       <c r="N107" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O107" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P107" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q107">
         <v>7</v>
       </c>
       <c r="R107" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S107">
         <v>3</v>
@@ -14226,7 +14417,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B108" s="1">
         <v>43417</v>
@@ -14249,19 +14440,19 @@
         <v>1.25</v>
       </c>
       <c r="N108" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P108" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q108">
         <v>7</v>
       </c>
       <c r="R108" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S108">
         <v>3</v>
@@ -14296,19 +14487,19 @@
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O109" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q109">
         <v>7</v>
       </c>
       <c r="R109" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S109">
         <v>3</v>
@@ -14353,19 +14544,19 @@
         <v>2.5</v>
       </c>
       <c r="N110" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O110" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P110" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q110">
         <v>7</v>
       </c>
       <c r="R110" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S110">
         <v>3</v>
@@ -14420,19 +14611,19 @@
         <v>6.75</v>
       </c>
       <c r="N111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q111">
         <v>7</v>
       </c>
       <c r="R111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S111">
         <v>3</v>
@@ -14470,13 +14661,13 @@
         <v>17</v>
       </c>
       <c r="P112" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q112">
         <v>7</v>
       </c>
       <c r="R112" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S112">
         <v>3</v>
@@ -14488,7 +14679,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B113" s="1">
         <v>43424</v>
@@ -14511,19 +14702,19 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O113" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P113" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q113">
         <v>7</v>
       </c>
       <c r="R113" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S113">
         <v>3</v>
@@ -14558,19 +14749,19 @@
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O114" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P114" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q114">
         <v>7</v>
       </c>
       <c r="R114" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S114">
         <v>3</v>
@@ -14605,19 +14796,19 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P115" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q115">
         <v>7</v>
       </c>
       <c r="R115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S115">
         <v>3</v>
@@ -14672,19 +14863,19 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O116" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P116" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q116">
         <v>7</v>
       </c>
       <c r="R116" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S116">
         <v>3</v>
@@ -14719,19 +14910,19 @@
         <v>1.25</v>
       </c>
       <c r="N117" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O117" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P117" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q117">
         <v>8</v>
       </c>
       <c r="R117" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S117">
         <v>3</v>
@@ -14766,19 +14957,19 @@
         <v>1.5</v>
       </c>
       <c r="N118" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P118" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q118">
         <v>8</v>
       </c>
       <c r="R118" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S118">
         <v>3</v>
@@ -14790,7 +14981,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B119" s="1">
         <v>43431</v>
@@ -14813,19 +15004,19 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O119" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P119" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q119">
         <v>8</v>
       </c>
       <c r="R119" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S119">
         <v>3</v>
@@ -14860,16 +15051,16 @@
         <v>1.5</v>
       </c>
       <c r="O120" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P120" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q120">
         <v>8</v>
       </c>
       <c r="R120" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S120">
         <v>3</v>
@@ -14904,16 +15095,16 @@
         <v>4</v>
       </c>
       <c r="O121" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q121">
         <v>8</v>
       </c>
       <c r="R121" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S121">
         <v>3</v>
@@ -14960,16 +15151,16 @@
         <v>4.25</v>
       </c>
       <c r="O122" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P122" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q122">
         <v>8</v>
       </c>
       <c r="R122" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S122">
         <v>3</v>
@@ -15004,19 +15195,19 @@
         <v>3.5</v>
       </c>
       <c r="N123" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O123" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P123" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q123">
         <v>8</v>
       </c>
       <c r="R123" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S123">
         <v>3</v>
@@ -15051,19 +15242,19 @@
         <v>1.75</v>
       </c>
       <c r="N124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P124" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q124">
         <v>8</v>
       </c>
       <c r="R124" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S124">
         <v>3</v>
@@ -15098,19 +15289,19 @@
         <v>1.75</v>
       </c>
       <c r="N125" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O125" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P125" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q125">
         <v>8</v>
       </c>
       <c r="R125" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S125">
         <v>3</v>
@@ -15145,19 +15336,19 @@
         <v>1.75</v>
       </c>
       <c r="N126" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O126" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P126" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q126">
         <v>8</v>
       </c>
       <c r="R126" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S126">
         <v>3</v>
@@ -15202,19 +15393,19 @@
         <v>3.5</v>
       </c>
       <c r="N127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P127" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q127">
         <v>8</v>
       </c>
       <c r="R127" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S127">
         <v>3</v>
@@ -15259,19 +15450,19 @@
         <v>3.5</v>
       </c>
       <c r="N128" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O128" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P128" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q128">
         <v>8</v>
       </c>
       <c r="R128" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S128">
         <v>3</v>
@@ -15309,13 +15500,13 @@
         <v>36</v>
       </c>
       <c r="P129" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q129">
         <v>8</v>
       </c>
       <c r="R129" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S129">
         <v>3</v>
@@ -15353,13 +15544,13 @@
         <v>21</v>
       </c>
       <c r="P130" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q130">
         <v>8</v>
       </c>
       <c r="R130" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S130">
         <v>3</v>
@@ -15394,31 +15585,31 @@
         <v>7.75</v>
       </c>
       <c r="N131" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O131" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P131" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q131">
         <v>8</v>
       </c>
       <c r="R131" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S131">
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T155" si="17">T130+M131</f>
+        <f t="shared" ref="T131:T165" si="17">T130+M131</f>
         <v>344.95</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B132" s="1">
         <v>43452</v>
@@ -15441,16 +15632,16 @@
         <v>0.75</v>
       </c>
       <c r="O132" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P132" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q132">
         <v>8</v>
       </c>
       <c r="R132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S132">
         <v>3</v>
@@ -15485,19 +15676,19 @@
         <v>2</v>
       </c>
       <c r="N133" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
       </c>
       <c r="P133" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q133">
         <v>8</v>
       </c>
       <c r="R133" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S133">
         <v>3</v>
@@ -15535,13 +15726,13 @@
         <v>17</v>
       </c>
       <c r="P134" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q134">
         <v>8</v>
       </c>
       <c r="R134" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S134">
         <v>3</v>
@@ -15569,7 +15760,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F155" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F164" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -15586,19 +15777,19 @@
         <v>5</v>
       </c>
       <c r="N135" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O135" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q135">
         <v>8</v>
       </c>
       <c r="R135" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S135">
         <v>3</v>
@@ -15643,19 +15834,19 @@
         <v>6.75</v>
       </c>
       <c r="N136" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O136" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P136" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q136">
         <v>8</v>
       </c>
       <c r="R136" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S136">
         <v>3</v>
@@ -15700,19 +15891,19 @@
         <v>2.25</v>
       </c>
       <c r="N137" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O137" t="s">
         <v>21</v>
       </c>
       <c r="P137" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q137">
         <v>8</v>
       </c>
       <c r="R137" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S137">
         <v>3</v>
@@ -15747,19 +15938,19 @@
         <v>2.25</v>
       </c>
       <c r="N138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O138" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P138" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q138">
         <v>8</v>
       </c>
       <c r="R138" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S138">
         <v>3</v>
@@ -15804,16 +15995,16 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P139" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q139">
         <v>8</v>
       </c>
       <c r="R139" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S139">
         <v>3</v>
@@ -15842,16 +16033,16 @@
         <v>-0.52083333333333337</v>
       </c>
       <c r="N140" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P140" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q140">
         <v>8</v>
       </c>
       <c r="R140" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S140">
         <v>3</v>
@@ -15886,16 +16077,16 @@
         <v>2</v>
       </c>
       <c r="N141" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P141" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q141">
         <v>8</v>
       </c>
       <c r="R141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S141">
         <v>3</v>
@@ -15930,16 +16121,16 @@
         <v>4.25</v>
       </c>
       <c r="N142" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P142" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q142">
         <v>8</v>
       </c>
       <c r="R142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S142">
         <v>3</v>
@@ -15951,7 +16142,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B143" s="1">
         <v>43466</v>
@@ -15974,16 +16165,16 @@
         <v>2.25</v>
       </c>
       <c r="N143" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P143" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q143">
         <v>8</v>
       </c>
       <c r="R143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S143">
         <v>3</v>
@@ -16009,13 +16200,13 @@
         <v>0</v>
       </c>
       <c r="P144" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q144">
         <v>8</v>
       </c>
       <c r="R144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S144">
         <v>3</v>
@@ -16041,13 +16232,13 @@
         <v>0</v>
       </c>
       <c r="P145" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q145">
         <v>8</v>
       </c>
       <c r="R145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S145">
         <v>3</v>
@@ -16073,13 +16264,13 @@
         <v>0</v>
       </c>
       <c r="P146" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q146">
         <v>8</v>
       </c>
       <c r="R146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S146">
         <v>3</v>
@@ -16105,13 +16296,13 @@
         <v>0</v>
       </c>
       <c r="P147" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q147">
         <v>8</v>
       </c>
       <c r="R147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S147">
         <v>3</v>
@@ -16146,16 +16337,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="N148" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P148" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q148">
         <v>8</v>
       </c>
       <c r="R148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S148">
         <v>3</v>
@@ -16184,13 +16375,13 @@
         <v>-0.72916666666666663</v>
       </c>
       <c r="P149" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q149">
         <v>8</v>
       </c>
       <c r="R149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S149">
         <v>3</v>
@@ -16202,7 +16393,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B150" s="1">
         <v>43473</v>
@@ -16216,13 +16407,13 @@
         <v>0</v>
       </c>
       <c r="P150" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q150">
         <v>8</v>
       </c>
       <c r="R150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S150">
         <v>3</v>
@@ -16251,13 +16442,13 @@
         <v>-0.69791666666666663</v>
       </c>
       <c r="P151" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q151">
         <v>8</v>
       </c>
       <c r="R151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S151">
         <v>3</v>
@@ -16286,13 +16477,13 @@
         <v>-0.69791666666666663</v>
       </c>
       <c r="P152" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q152">
         <v>8</v>
       </c>
       <c r="R152" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S152">
         <v>3</v>
@@ -16321,13 +16512,13 @@
         <v>-0.78125</v>
       </c>
       <c r="P153" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q153">
         <v>8</v>
       </c>
       <c r="R153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S153">
         <v>3</v>
@@ -16356,13 +16547,13 @@
         <v>-0.73958333333333337</v>
       </c>
       <c r="P154" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q154">
         <v>8</v>
       </c>
       <c r="R154" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S154">
         <v>3</v>
@@ -16397,21 +16588,376 @@
         <v>2.25</v>
       </c>
       <c r="N155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P155" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q155">
         <v>8</v>
       </c>
       <c r="R155" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S155">
         <v>3</v>
       </c>
       <c r="T155" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C156" s="5">
+        <f t="shared" si="8"/>
+        <v>43484</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.46875</v>
+      </c>
+      <c r="P156" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q156">
+        <v>8</v>
+      </c>
+      <c r="R156" t="s">
+        <v>282</v>
+      </c>
+      <c r="S156">
+        <v>3</v>
+      </c>
+      <c r="T156" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="1">
+        <v>43485</v>
+      </c>
+      <c r="C157" s="5">
+        <f t="shared" si="8"/>
+        <v>43485</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="P157" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q157">
+        <v>8</v>
+      </c>
+      <c r="R157" t="s">
+        <v>282</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" s="1">
+        <v>43487</v>
+      </c>
+      <c r="C158" s="5">
+        <f t="shared" si="8"/>
+        <v>43487</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="P158" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q158">
+        <v>8</v>
+      </c>
+      <c r="R158" t="s">
+        <v>282</v>
+      </c>
+      <c r="S158">
+        <v>3</v>
+      </c>
+      <c r="T158" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C159" s="5">
+        <f t="shared" si="8"/>
+        <v>43489</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.69791666666666663</v>
+      </c>
+      <c r="P159" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q159">
+        <v>8</v>
+      </c>
+      <c r="R159" t="s">
+        <v>282</v>
+      </c>
+      <c r="S159">
+        <v>3</v>
+      </c>
+      <c r="T159" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C160" s="5">
+        <f t="shared" si="8"/>
+        <v>43490</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="P160" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q160">
+        <v>8</v>
+      </c>
+      <c r="R160" t="s">
+        <v>282</v>
+      </c>
+      <c r="S160">
+        <v>3</v>
+      </c>
+      <c r="T160" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1">
+        <v>43491</v>
+      </c>
+      <c r="C161" s="5">
+        <f t="shared" si="8"/>
+        <v>43491</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.65625</v>
+      </c>
+      <c r="P161" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q161">
+        <v>8</v>
+      </c>
+      <c r="R161" t="s">
+        <v>282</v>
+      </c>
+      <c r="S161">
+        <v>3</v>
+      </c>
+      <c r="T161" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="1">
+        <v>43492</v>
+      </c>
+      <c r="C162" s="5">
+        <f t="shared" si="8"/>
+        <v>43492</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="19"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="N162" t="s">
+        <v>322</v>
+      </c>
+      <c r="P162" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q162">
+        <v>8</v>
+      </c>
+      <c r="R162" t="s">
+        <v>282</v>
+      </c>
+      <c r="S162">
+        <v>3</v>
+      </c>
+      <c r="T162" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C163" s="5">
+        <f t="shared" si="8"/>
+        <v>43493</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.77083333333333337</v>
+      </c>
+      <c r="N163" t="s">
+        <v>323</v>
+      </c>
+      <c r="P163" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q163">
+        <v>8</v>
+      </c>
+      <c r="R163" t="s">
+        <v>282</v>
+      </c>
+      <c r="S163">
+        <v>3</v>
+      </c>
+      <c r="T163" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>67</v>
+      </c>
+      <c r="B164" s="1">
+        <v>43494</v>
+      </c>
+      <c r="C164" s="5">
+        <f t="shared" si="8"/>
+        <v>43494</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>321</v>
+      </c>
+      <c r="O164" t="s">
+        <v>324</v>
+      </c>
+      <c r="P164" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q164">
+        <v>8</v>
+      </c>
+      <c r="R164" t="s">
+        <v>282</v>
+      </c>
+      <c r="S164">
+        <v>3</v>
+      </c>
+      <c r="T164" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="1">
+        <v>43495</v>
+      </c>
+      <c r="C165" s="5">
+        <f t="shared" si="8"/>
+        <v>43495</v>
+      </c>
+      <c r="P165" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q165">
+        <v>8</v>
+      </c>
+      <c r="R165" t="s">
+        <v>282</v>
+      </c>
+      <c r="S165">
+        <v>3</v>
+      </c>
+      <c r="T165" s="4">
         <f t="shared" si="17"/>
         <v>378.45</v>
       </c>
@@ -16586,7 +17132,7 @@
         <v>1.75</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -16613,7 +17159,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -16640,15 +17186,15 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
         <v>43431</v>
@@ -16670,10 +17216,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -16723,7 +17269,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16731,7 +17277,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16739,7 +17285,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16747,7 +17293,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16755,7 +17301,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16763,7 +17309,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16771,7 +17317,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16779,7 +17325,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16787,7 +17333,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -16795,7 +17341,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16803,7 +17349,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16811,7 +17357,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -16819,7 +17365,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -16827,7 +17373,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16835,7 +17381,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16843,7 +17389,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16851,7 +17397,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16859,7 +17405,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -16867,7 +17413,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -16875,7 +17421,7 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -16883,7 +17429,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -16916,48 +17462,48 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="15"/>
       <c r="G1" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="18">
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="18">
         <v>9</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G3" s="13">
         <v>7</v>
@@ -16968,19 +17514,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="18">
         <v>6</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G4" s="13">
         <v>8</v>
@@ -16991,19 +17537,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="18">
         <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G5" s="13">
         <v>7</v>
@@ -17014,19 +17560,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="18">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G6" s="13">
         <v>8</v>
@@ -17037,19 +17583,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="18">
         <v>8</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="13">
         <v>9</v>
@@ -17063,21 +17609,21 @@
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -17085,13 +17631,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="18">
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -17099,13 +17645,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="18">
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -17113,13 +17659,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="18">
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -17127,13 +17673,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="18">
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -17141,13 +17687,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="18">
         <v>7</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -17155,325 +17701,325 @@
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B312D251-2B42-41CD-8120-CD126F99EBEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F9B88-EED4-420B-8ED3-9C5BD14DFE5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="333">
   <si>
     <t>Thursday</t>
   </si>
@@ -1103,6 +1102,21 @@
       </rPr>
       <t>):</t>
     </r>
+  </si>
+  <si>
+    <t>Morning Pairs with Laurel. Worked on couples Spotlight. Blister pain</t>
+  </si>
+  <si>
+    <t>Early Bird</t>
+  </si>
+  <si>
+    <t>FS4 class with Devon. FS5 class with devon. Landed 'chicken' axels. Went to show Laurel and landed my first axel. Fully rotated and checked exit.</t>
+  </si>
+  <si>
+    <t>Stroking, FS3/FS4, FS5</t>
+  </si>
+  <si>
+    <t>Axel Lesson with Devon. Greatest Showman Practice.</t>
   </si>
 </sst>
 </file>
@@ -1992,6 +2006,33 @@
                 <c:pt idx="163">
                   <c:v>43495</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43498</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43499</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43501</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43503</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3224,6 +3265,33 @@
                 <c:pt idx="163">
                   <c:v>43495</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43498</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43499</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43501</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43503</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3723,6 +3791,33 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="163">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4521,7 +4616,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,6 +5401,33 @@
                 <c:pt idx="163">
                   <c:v>43495</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43498</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43499</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43501</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43503</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5805,6 +5927,33 @@
                   <c:v>378.45</c:v>
                 </c:pt>
                 <c:pt idx="163">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>378.45</c:v>
                 </c:pt>
               </c:numCache>
@@ -9245,10 +9394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z165"/>
+  <dimension ref="A1:Z174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,7 +10403,7 @@
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 4")</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="14">
         <f>C137-C117+1</f>
@@ -10262,7 +10411,7 @@
       </c>
       <c r="Z19" s="14">
         <f>Y19-X19</f>
-        <v>-17</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -10473,11 +10622,11 @@
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
@@ -10564,7 +10713,7 @@
       </c>
       <c r="Z25">
         <f>SUM(Z11:Z19)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -13845,7 +13994,7 @@
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C165" si="8">B96</f>
+        <f t="shared" ref="C96:C168" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -15603,7 +15752,7 @@
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T165" si="17">T130+M131</f>
+        <f t="shared" ref="T131:T174" si="17">T130+M131</f>
         <v>344.95</v>
       </c>
     </row>
@@ -16945,6 +17094,15 @@
         <f t="shared" si="8"/>
         <v>43495</v>
       </c>
+      <c r="D165" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="N165" t="s">
+        <v>330</v>
+      </c>
+      <c r="O165" t="s">
+        <v>331</v>
+      </c>
       <c r="P165" s="20" t="s">
         <v>119</v>
       </c>
@@ -16958,6 +17116,300 @@
         <v>3</v>
       </c>
       <c r="T165" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="1">
+        <v>43496</v>
+      </c>
+      <c r="C166" s="5">
+        <f t="shared" si="8"/>
+        <v>43496</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="P166" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q166">
+        <v>8</v>
+      </c>
+      <c r="R166" t="s">
+        <v>282</v>
+      </c>
+      <c r="S166">
+        <v>3</v>
+      </c>
+      <c r="T166" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1">
+        <v>43497</v>
+      </c>
+      <c r="C167" s="5">
+        <f t="shared" si="8"/>
+        <v>43497</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="N167" t="s">
+        <v>332</v>
+      </c>
+      <c r="P167" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q167">
+        <v>8</v>
+      </c>
+      <c r="R167" t="s">
+        <v>282</v>
+      </c>
+      <c r="S167">
+        <v>3</v>
+      </c>
+      <c r="T167" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1">
+        <v>43498</v>
+      </c>
+      <c r="C168" s="5">
+        <f t="shared" si="8"/>
+        <v>43498</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P168" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q168">
+        <v>8</v>
+      </c>
+      <c r="R168" t="s">
+        <v>282</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C169" s="5">
+        <f t="shared" ref="C169:C174" si="20">B169</f>
+        <v>43499</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="P169" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q169">
+        <v>8</v>
+      </c>
+      <c r="R169" t="s">
+        <v>282</v>
+      </c>
+      <c r="S169">
+        <v>3</v>
+      </c>
+      <c r="T169" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C170" s="5">
+        <f t="shared" si="20"/>
+        <v>43500</v>
+      </c>
+      <c r="P170" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q170">
+        <v>8</v>
+      </c>
+      <c r="R170" t="s">
+        <v>282</v>
+      </c>
+      <c r="S170">
+        <v>3</v>
+      </c>
+      <c r="T170" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="1">
+        <v>43501</v>
+      </c>
+      <c r="C171" s="5">
+        <f t="shared" si="20"/>
+        <v>43501</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="P171" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q171">
+        <v>8</v>
+      </c>
+      <c r="R171" t="s">
+        <v>282</v>
+      </c>
+      <c r="S171">
+        <v>3</v>
+      </c>
+      <c r="T171" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="1">
+        <v>43502</v>
+      </c>
+      <c r="C172" s="5">
+        <f t="shared" si="20"/>
+        <v>43502</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P172" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q172">
+        <v>8</v>
+      </c>
+      <c r="R172" t="s">
+        <v>282</v>
+      </c>
+      <c r="S172">
+        <v>3</v>
+      </c>
+      <c r="T172" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="1">
+        <v>43503</v>
+      </c>
+      <c r="C173" s="5">
+        <f t="shared" si="20"/>
+        <v>43503</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="P173" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q173">
+        <v>8</v>
+      </c>
+      <c r="R173" t="s">
+        <v>282</v>
+      </c>
+      <c r="S173">
+        <v>3</v>
+      </c>
+      <c r="T173" s="4">
+        <f t="shared" si="17"/>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1">
+        <v>43504</v>
+      </c>
+      <c r="C174" s="5">
+        <f t="shared" si="20"/>
+        <v>43504</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="N174" t="s">
+        <v>328</v>
+      </c>
+      <c r="O174" t="s">
+        <v>329</v>
+      </c>
+      <c r="P174" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q174">
+        <v>8</v>
+      </c>
+      <c r="R174" t="s">
+        <v>282</v>
+      </c>
+      <c r="S174">
+        <v>3</v>
+      </c>
+      <c r="T174" s="4">
         <f t="shared" si="17"/>
         <v>378.45</v>
       </c>
@@ -17231,7 +17683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\repositories\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F9B88-EED4-420B-8ED3-9C5BD14DFE5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4014BAF-510A-4B19-8079-06B16EF6DCD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,17 @@
     <sheet name="Skater Evaluation" sheetId="3" r:id="rId4"/>
     <sheet name="Test Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="348">
   <si>
     <t>Thursday</t>
   </si>
@@ -1104,19 +1099,64 @@
     </r>
   </si>
   <si>
-    <t>Morning Pairs with Laurel. Worked on couples Spotlight. Blister pain</t>
-  </si>
-  <si>
-    <t>Early Bird</t>
-  </si>
-  <si>
-    <t>FS4 class with Devon. FS5 class with devon. Landed 'chicken' axels. Went to show Laurel and landed my first axel. Fully rotated and checked exit.</t>
-  </si>
-  <si>
     <t>Stroking, FS3/FS4, FS5</t>
   </si>
   <si>
     <t>Axel Lesson with Devon. Greatest Showman Practice.</t>
+  </si>
+  <si>
+    <t>Dance and FS3/FS4 with Sarah, worked on sitspins, changefoots, Laurel's Stroking, worked on figures and dance during basics</t>
+  </si>
+  <si>
+    <t>Dance, FS3/FS4, Figures, Public</t>
+  </si>
+  <si>
+    <t>Morning Pairs with Laurel. Worked on couples Spotlight. Blister pain. Then Greatest Showman</t>
+  </si>
+  <si>
+    <t>Early Bird, Rehearsal</t>
+  </si>
+  <si>
+    <t>Worked on Programs and pairs with Mary Lou</t>
+  </si>
+  <si>
+    <t>Worked on Pairs routines, Finished coreographing programs</t>
+  </si>
+  <si>
+    <t>Pairs, Private</t>
+  </si>
+  <si>
+    <t>Programs for Competition</t>
+  </si>
+  <si>
+    <t>Programs and practice</t>
+  </si>
+  <si>
+    <t>Program work, Pairs with Mary Lou</t>
+  </si>
+  <si>
+    <t>First Dance and FS3/FS4 with Sarah</t>
+  </si>
+  <si>
+    <t>FS4 class with Devon. FS5 class with devon. Landed 'chicken' axels. Went to show Laurel and landed my first axel. Fully rotated and checked exit. First night of program work</t>
+  </si>
+  <si>
+    <t>Tony Ice fill ins. Missed practice early in day and did private with Laurel, Worked on flips, sit spins</t>
+  </si>
+  <si>
+    <t>Laurel Lesson sit spins, Greatest showman</t>
+  </si>
+  <si>
+    <t>Got Blister Bandaids, Mary Lou Private</t>
+  </si>
+  <si>
+    <t>Private with Laurel</t>
+  </si>
+  <si>
+    <t>Got New skates, Lesson with Janet Lynn</t>
+  </si>
+  <si>
+    <t>Breakin in the New ones</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1550,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$391</c:f>
+              <c:f>Data!$C$2:$C$390</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2019,29 +2059,29 @@
                   <c:v>43499</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43500</c:v>
+                  <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43501</c:v>
+                  <c:v>43502</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43502</c:v>
+                  <c:v>43503</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43503</c:v>
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43504</c:v>
+                  <c:v>43505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$391</c:f>
+              <c:f>Data!$M$2:$M$390</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2456,6 +2496,9 @@
                 <c:pt idx="137">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.75</c:v>
+                </c:pt>
                 <c:pt idx="139">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2467,6 +2510,63 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,10 +2869,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$391</c:f>
+              <c:f>Data!$C$2:$C$390</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3278,29 +3378,29 @@
                   <c:v>43499</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43500</c:v>
+                  <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43501</c:v>
+                  <c:v>43502</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43502</c:v>
+                  <c:v>43503</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43503</c:v>
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43504</c:v>
+                  <c:v>43505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$391</c:f>
+              <c:f>Data!$Q$2:$Q$390</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4231,7 +4331,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.5</c:v>
+                  <c:v>119.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4905,10 +5005,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$391</c:f>
+              <c:f>Data!$C$2:$C$390</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -5414,29 +5514,29 @@
                   <c:v>43499</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43500</c:v>
+                  <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43501</c:v>
+                  <c:v>43502</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43502</c:v>
+                  <c:v>43503</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43503</c:v>
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43504</c:v>
+                  <c:v>43505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$391</c:f>
+              <c:f>Data!$T$2:$T$390</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5852,109 +5952,109 @@
                   <c:v>367.7</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>367.7</c:v>
+                  <c:v>369.45</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>369.7</c:v>
+                  <c:v>371.45</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>373.95</c:v>
+                  <c:v>375.7</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>376.2</c:v>
+                  <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>378.45</c:v>
+                  <c:v>380.2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>378.45</c:v>
+                  <c:v>385.95</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>378.45</c:v>
+                  <c:v>389.45</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>378.45</c:v>
+                  <c:v>390.2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>378.45</c:v>
+                  <c:v>390.7</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>378.45</c:v>
+                  <c:v>394.2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>378.45</c:v>
+                  <c:v>396.2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>378.45</c:v>
+                  <c:v>396.7</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>378.45</c:v>
+                  <c:v>397.95</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>378.45</c:v>
+                  <c:v>398.95</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>378.45</c:v>
+                  <c:v>401.7</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>378.45</c:v>
+                  <c:v>402.7</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>378.45</c:v>
+                  <c:v>404.45</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>378.45</c:v>
+                  <c:v>408.95</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>378.45</c:v>
+                  <c:v>411.2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>378.45</c:v>
+                  <c:v>412.2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>378.45</c:v>
+                  <c:v>414.45</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>378.45</c:v>
+                  <c:v>415.95</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>378.45</c:v>
+                  <c:v>417.7</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>378.45</c:v>
+                  <c:v>422.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9396,8 +9496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172"/>
+    <sheetView topLeftCell="F1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9582,11 +9682,15 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>378.45</v>
+        <v>422.7</v>
+      </c>
+      <c r="V3" s="4">
+        <f>SUM(M156:M400)</f>
+        <v>42.5</v>
       </c>
       <c r="W3" s="4">
-        <f>SUM(M19:M390)</f>
-        <v>336.7</v>
+        <f>SUM(M19:M155)</f>
+        <v>338.45</v>
       </c>
       <c r="X3" s="4">
         <f>SUM(M2:M18)</f>
@@ -10398,8 +10502,8 @@
         <v>292</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M117:M390)</f>
-        <v>75.5</v>
+        <f>SUM(M117:M389)</f>
+        <v>119.75</v>
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 4")</f>
@@ -10617,8 +10721,8 @@
         <v>282</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M390)</f>
-        <v>128.5</v>
+        <f>SUM(M100:M389)</f>
+        <v>172.75</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
@@ -10626,11 +10730,11 @@
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -15909,7 +16013,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F164" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F174" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -16177,9 +16281,15 @@
       <c r="D140" s="3">
         <v>0.52083333333333337</v>
       </c>
+      <c r="E140" s="3">
+        <v>0.59375</v>
+      </c>
       <c r="F140" s="2">
         <f t="shared" si="19"/>
-        <v>-0.52083333333333337</v>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M140" s="4">
+        <v>1.75</v>
       </c>
       <c r="N140" t="s">
         <v>317</v>
@@ -16198,7 +16308,7 @@
       </c>
       <c r="T140" s="4">
         <f t="shared" si="17"/>
-        <v>367.7</v>
+        <v>369.45</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -16242,7 +16352,7 @@
       </c>
       <c r="T141" s="4">
         <f t="shared" si="17"/>
-        <v>369.7</v>
+        <v>371.45</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -16286,7 +16396,7 @@
       </c>
       <c r="T142" s="4">
         <f t="shared" si="17"/>
-        <v>373.95</v>
+        <v>375.7</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -16330,7 +16440,7 @@
       </c>
       <c r="T143" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -16362,7 +16472,7 @@
       </c>
       <c r="T144" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -16394,7 +16504,7 @@
       </c>
       <c r="T145" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
@@ -16426,7 +16536,7 @@
       </c>
       <c r="T146" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
@@ -16458,7 +16568,7 @@
       </c>
       <c r="T147" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -16502,7 +16612,7 @@
       </c>
       <c r="T148" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
@@ -16537,7 +16647,7 @@
       </c>
       <c r="T149" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
@@ -16569,7 +16679,7 @@
       </c>
       <c r="T150" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
@@ -16604,7 +16714,7 @@
       </c>
       <c r="T151" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
@@ -16639,7 +16749,7 @@
       </c>
       <c r="T152" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
@@ -16674,7 +16784,7 @@
       </c>
       <c r="T153" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -16709,7 +16819,7 @@
       </c>
       <c r="T154" s="4">
         <f t="shared" si="17"/>
-        <v>376.2</v>
+        <v>377.95</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
@@ -16753,7 +16863,7 @@
       </c>
       <c r="T155" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>380.2</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
@@ -16770,9 +16880,18 @@
       <c r="D156" s="3">
         <v>0.46875</v>
       </c>
+      <c r="E156" s="3">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F156" s="2">
         <f t="shared" si="19"/>
-        <v>-0.46875</v>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="M156" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="N156" t="s">
+        <v>346</v>
       </c>
       <c r="P156" s="20" t="s">
         <v>119</v>
@@ -16788,7 +16907,7 @@
       </c>
       <c r="T156" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>385.95</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -16805,9 +16924,18 @@
       <c r="D157" s="3">
         <v>0.54166666666666663</v>
       </c>
+      <c r="E157" s="3">
+        <v>0.6875</v>
+      </c>
       <c r="F157" s="2">
         <f t="shared" si="19"/>
-        <v>-0.54166666666666663</v>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M157" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N157" t="s">
+        <v>347</v>
       </c>
       <c r="P157" s="20" t="s">
         <v>119</v>
@@ -16823,7 +16951,7 @@
       </c>
       <c r="T157" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>389.45</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
@@ -16840,9 +16968,18 @@
       <c r="D158" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E158" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F158" s="2">
         <f t="shared" si="19"/>
-        <v>-0.70833333333333337</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N158" t="s">
+        <v>345</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>119</v>
@@ -16858,7 +16995,7 @@
       </c>
       <c r="T158" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>390.2</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
@@ -16873,11 +17010,20 @@
         <v>43489</v>
       </c>
       <c r="D159" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.71875</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.73958333333333337</v>
       </c>
       <c r="F159" s="2">
         <f t="shared" si="19"/>
-        <v>-0.69791666666666663</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N159" t="s">
+        <v>344</v>
       </c>
       <c r="P159" s="20" t="s">
         <v>119</v>
@@ -16893,7 +17039,7 @@
       </c>
       <c r="T159" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>390.7</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
@@ -16910,9 +17056,18 @@
       <c r="D160" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E160" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F160" s="2">
         <f t="shared" si="19"/>
-        <v>-0.70833333333333337</v>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="M160" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N160" t="s">
+        <v>343</v>
       </c>
       <c r="P160" s="20" t="s">
         <v>119</v>
@@ -16928,7 +17083,7 @@
       </c>
       <c r="T160" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>394.2</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
@@ -16945,9 +17100,18 @@
       <c r="D161" s="3">
         <v>0.65625</v>
       </c>
+      <c r="E161" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F161" s="2">
         <f t="shared" si="19"/>
-        <v>-0.65625</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M161" s="4">
+        <v>2</v>
+      </c>
+      <c r="N161" t="s">
+        <v>342</v>
       </c>
       <c r="P161" s="20" t="s">
         <v>119</v>
@@ -16963,7 +17127,7 @@
       </c>
       <c r="T161" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>396.2</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -16987,6 +17151,9 @@
         <f t="shared" si="19"/>
         <v>2.083333333333337E-2</v>
       </c>
+      <c r="M162" s="4">
+        <v>0.5</v>
+      </c>
       <c r="N162" t="s">
         <v>322</v>
       </c>
@@ -17004,7 +17171,7 @@
       </c>
       <c r="T162" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>396.7</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -17021,9 +17188,15 @@
       <c r="D163" s="3">
         <v>0.77083333333333337</v>
       </c>
+      <c r="E163" s="3">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="F163" s="2">
         <f t="shared" si="19"/>
-        <v>-0.77083333333333337</v>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="M163" s="4">
+        <v>1.25</v>
       </c>
       <c r="N163" t="s">
         <v>323</v>
@@ -17042,7 +17215,7 @@
       </c>
       <c r="T163" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>397.95</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
@@ -17056,9 +17229,18 @@
         <f t="shared" si="8"/>
         <v>43494</v>
       </c>
+      <c r="D164" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="F164" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M164" s="4">
+        <v>1</v>
       </c>
       <c r="N164" t="s">
         <v>321</v>
@@ -17080,7 +17262,7 @@
       </c>
       <c r="T164" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>398.95</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
@@ -17097,11 +17279,21 @@
       <c r="D165" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E165" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="19"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="M165" s="4">
+        <v>2.75</v>
+      </c>
       <c r="N165" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="O165" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P165" s="20" t="s">
         <v>119</v>
@@ -17117,7 +17309,7 @@
       </c>
       <c r="T165" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>401.7</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
@@ -17134,6 +17326,19 @@
       <c r="D166" s="3">
         <v>0.69791666666666663</v>
       </c>
+      <c r="E166" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M166" s="4">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
+        <v>339</v>
+      </c>
       <c r="P166" s="20" t="s">
         <v>119</v>
       </c>
@@ -17148,7 +17353,7 @@
       </c>
       <c r="T166" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>402.7</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
@@ -17163,13 +17368,30 @@
         <v>43497</v>
       </c>
       <c r="D167" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="19"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="G167" s="3">
         <v>0.76041666666666663</v>
       </c>
+      <c r="H167" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="I167" s="2">
+        <f>H167-G167</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M167" s="4">
+        <v>1.75</v>
+      </c>
       <c r="N167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>119</v>
@@ -17185,7 +17407,7 @@
       </c>
       <c r="T167" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>404.45</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
@@ -17202,6 +17424,29 @@
       <c r="D168" s="3">
         <v>0.375</v>
       </c>
+      <c r="E168" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="19"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="I168" s="2">
+        <f>H168-G168</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M168" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="N168" t="s">
+        <v>340</v>
+      </c>
       <c r="P168" s="20" t="s">
         <v>119</v>
       </c>
@@ -17216,7 +17461,7 @@
       </c>
       <c r="T168" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>408.95</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
@@ -17236,6 +17481,19 @@
       <c r="E169" s="3">
         <v>0.6875</v>
       </c>
+      <c r="F169" s="2">
+        <f t="shared" si="19"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M169" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N169" t="s">
+        <v>338</v>
+      </c>
+      <c r="O169" t="s">
+        <v>17</v>
+      </c>
       <c r="P169" s="20" t="s">
         <v>119</v>
       </c>
@@ -17250,19 +17508,38 @@
       </c>
       <c r="T169" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>411.2</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B170" s="1">
-        <v>43500</v>
+        <v>43501</v>
       </c>
       <c r="C170" s="5">
         <f t="shared" si="20"/>
-        <v>43500</v>
+        <v>43501</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M170" s="4">
+        <v>1</v>
+      </c>
+      <c r="N170" t="s">
+        <v>337</v>
+      </c>
+      <c r="O170" t="s">
+        <v>68</v>
       </c>
       <c r="P170" s="20" t="s">
         <v>119</v>
@@ -17278,22 +17555,48 @@
       </c>
       <c r="T170" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B171" s="1">
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="C171" s="5">
         <f t="shared" si="20"/>
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="D171" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="19"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I171" s="2">
+        <f>H171-G171</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M171" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N171" t="s">
+        <v>335</v>
+      </c>
+      <c r="O171" t="s">
+        <v>336</v>
       </c>
       <c r="P171" s="20" t="s">
         <v>119</v>
@@ -17309,22 +17612,38 @@
       </c>
       <c r="T171" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>414.45</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B172" s="1">
-        <v>43502</v>
+        <v>43503</v>
       </c>
       <c r="C172" s="5">
         <f t="shared" si="20"/>
-        <v>43502</v>
+        <v>43503</v>
       </c>
       <c r="D172" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="19"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M172" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N172" t="s">
+        <v>334</v>
+      </c>
+      <c r="O172" t="s">
+        <v>266</v>
       </c>
       <c r="P172" s="20" t="s">
         <v>119</v>
@@ -17340,22 +17659,48 @@
       </c>
       <c r="T172" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>415.95</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="C173" s="5">
         <f t="shared" si="20"/>
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="D173" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="I173" s="2">
+        <f>H173-G173</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M173" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N173" t="s">
+        <v>332</v>
+      </c>
+      <c r="O173" t="s">
+        <v>333</v>
       </c>
       <c r="P173" s="20" t="s">
         <v>119</v>
@@ -17371,31 +17716,38 @@
       </c>
       <c r="T173" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>417.7</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174" s="1">
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="C174" s="5">
         <f t="shared" si="20"/>
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="D174" s="3">
-        <v>0.30208333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E174" s="3">
-        <v>0.34375</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="19"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="M174" s="4">
+        <v>5</v>
       </c>
       <c r="N174" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O174" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>119</v>
@@ -17411,11 +17763,11 @@
       </c>
       <c r="T174" s="4">
         <f t="shared" si="17"/>
-        <v>378.45</v>
+        <v>422.7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T531">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T530">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -17683,7 +18035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\repositories\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4014BAF-510A-4B19-8079-06B16EF6DCD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD4D52-6F6F-4F5F-B36C-B394BD961420}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,23 @@
     <sheet name="Skater Evaluation" sheetId="3" r:id="rId4"/>
     <sheet name="Test Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="352">
   <si>
     <t>Thursday</t>
   </si>
@@ -896,12 +902,6 @@
   </si>
   <si>
     <t>Currier, Private, Stroking</t>
-  </si>
-  <si>
-    <t>FS 1</t>
-  </si>
-  <si>
-    <t>FS 2</t>
   </si>
   <si>
     <t>FS 3</t>
@@ -1157,6 +1157,24 @@
   </si>
   <si>
     <t>Breakin in the New ones</t>
+  </si>
+  <si>
+    <t>Greatest Showman / Pairs Competition</t>
+  </si>
+  <si>
+    <t>Footwork Competition</t>
+  </si>
+  <si>
+    <t>FS Bronze Competition</t>
+  </si>
+  <si>
+    <t>Worked On FS4 Manuevers, Pairs with Laurel</t>
+  </si>
+  <si>
+    <t>Worked On FS4 Manuevers, High Confidence</t>
+  </si>
+  <si>
+    <t>FS 1 / FS 2</t>
   </si>
 </sst>
 </file>
@@ -1290,12 +1308,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -1550,10 +1568,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$390</c:f>
+              <c:f>Data!$C$2:$C$387</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2072,16 +2090,55 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43506</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43507</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43508</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43513</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43515</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43517</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43520</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$390</c:f>
+              <c:f>Data!$M$2:$M$387</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2567,6 +2624,21 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,10 +2941,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$390</c:f>
+              <c:f>Data!$C$2:$C$387</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3391,16 +3463,55 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43506</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43507</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43508</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43513</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43515</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43517</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43520</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$390</c:f>
+              <c:f>Data!$Q$2:$Q$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3918,6 +4029,45 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="172">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4267,9 +4417,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$V$11:$V$19</c:f>
+              <c:f>Data!$V$11:$V$18</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -4286,15 +4436,12 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FS 1</c:v>
+                  <c:v>FS 1 / FS 2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FS 2</c:v>
+                  <c:v>FS 3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>FS 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -4302,10 +4449,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$11:$W$19</c:f>
+              <c:f>Data!$W$11:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
                 </c:pt>
@@ -4322,16 +4469,13 @@
                   <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.25</c:v>
+                  <c:v>137.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.75</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4652,9 +4796,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$V$11:$V$19</c:f>
+              <c:f>Data!$V$11:$V$18</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -4671,15 +4815,12 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FS 1</c:v>
+                  <c:v>FS 1 / FS 2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FS 2</c:v>
+                  <c:v>FS 3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FS 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>FS 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -4687,10 +4828,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$11:$X$19</c:f>
+              <c:f>Data!$X$11:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4710,13 +4851,10 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5005,10 +5143,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$390</c:f>
+              <c:f>Data!$C$2:$C$387</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -5527,16 +5665,55 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43506</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43507</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43508</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43513</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43515</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43517</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43520</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$390</c:f>
+              <c:f>Data!$T$2:$T$387</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6055,6 +6232,45 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>422.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>422.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>422.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>422.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>422.95</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>423.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>423.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>423.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>423.7</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>423.7</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>423.7</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>427.95</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>429.95</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>429.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9494,10 +9710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z174"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9634,13 +9850,13 @@
         <v>4</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -9682,11 +9898,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>422.7</v>
+        <v>429.95</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M156:M400)</f>
-        <v>42.5</v>
+        <f>SUM(M156:M397)</f>
+        <v>49.75</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M19:M155)</f>
@@ -10310,11 +10526,11 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="W16" s="4">
-        <f>SUM(M43:M95)</f>
-        <v>137.25</v>
+        <f>SUM(M43:M96)</f>
+        <v>137.75</v>
       </c>
       <c r="X16">
         <f>COUNTIF(P:P, "Freestyle 1")</f>
@@ -10381,21 +10597,23 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W17" s="4">
-        <f>SUM(M96)</f>
-        <v>0.5</v>
+        <f>SUM(M97:M116)</f>
+        <v>61</v>
       </c>
       <c r="X17">
-        <f>COUNTIF(P:P, "Freestyle 2")</f>
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
+        <f>COUNTIF(P:P, "Freestyle 3")</f>
+        <v>20</v>
+      </c>
+      <c r="Y17" s="14">
+        <f>C116-C97+1</f>
+        <v>25</v>
+      </c>
+      <c r="Z17" s="14">
+        <f>Y17-X17</f>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -10439,23 +10657,23 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W18" s="4">
-        <f>SUM(M97:M116)</f>
-        <v>61</v>
+        <f>SUM(M117:M386)</f>
+        <v>127</v>
       </c>
       <c r="X18">
-        <f>COUNTIF(P:P, "Freestyle 3")</f>
-        <v>20</v>
+        <f>COUNTIF(P:P, "Freestyle 4")</f>
+        <v>71</v>
       </c>
       <c r="Y18" s="14">
-        <f>C116-C97+1</f>
-        <v>25</v>
+        <f>C137-C117+1</f>
+        <v>32</v>
       </c>
       <c r="Z18" s="14">
         <f>Y18-X18</f>
-        <v>5</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -10498,25 +10716,6 @@
         <f t="shared" si="2"/>
         <v>42.75</v>
       </c>
-      <c r="V19" t="s">
-        <v>292</v>
-      </c>
-      <c r="W19" s="4">
-        <f>SUM(M117:M389)</f>
-        <v>119.75</v>
-      </c>
-      <c r="X19">
-        <f>COUNTIF(P:P, "Freestyle 4")</f>
-        <v>58</v>
-      </c>
-      <c r="Y19" s="14">
-        <f>C137-C117+1</f>
-        <v>32</v>
-      </c>
-      <c r="Z19" s="14">
-        <f>Y19-X19</f>
-        <v>-26</v>
-      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -10555,6 +10754,25 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="V20" t="s">
+        <v>254</v>
+      </c>
+      <c r="W20" s="4">
+        <f>SUM(M50:M92)</f>
+        <v>114.25</v>
+      </c>
+      <c r="X20">
+        <f>COUNTIF(R:R, "Dance 1")</f>
+        <v>43</v>
+      </c>
+      <c r="Y20" s="14">
+        <f>C92-C50+1</f>
+        <v>50</v>
+      </c>
+      <c r="Z20" s="14">
+        <f>Y20-X20</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -10594,23 +10812,23 @@
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="W21" s="4">
-        <f>SUM(M50:M92)</f>
-        <v>114.25</v>
+        <f>SUM(M93:M100)</f>
+        <v>19</v>
       </c>
       <c r="X21">
-        <f>COUNTIF(R:R, "Dance 1")</f>
-        <v>43</v>
+        <f>COUNTIF(R:R, "Dance 2") - 1</f>
+        <v>7</v>
       </c>
       <c r="Y21" s="14">
-        <f>C92-C50+1</f>
-        <v>50</v>
+        <f>C100 - C92</f>
+        <v>7</v>
       </c>
       <c r="Z21" s="14">
         <f>Y21-X21</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -10651,23 +10869,23 @@
         <v>51.25</v>
       </c>
       <c r="V22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="W22" s="4">
-        <f>SUM(M93:M100)</f>
-        <v>19</v>
+        <f>SUM(M100:M386)</f>
+        <v>180</v>
       </c>
       <c r="X22">
-        <f>COUNTIF(R:R, "Dance 2") - 1</f>
-        <v>7</v>
+        <f>COUNTIF(R:R, "Dance 3")</f>
+        <v>87</v>
       </c>
       <c r="Y22" s="14">
-        <f>C100 - C92</f>
-        <v>7</v>
+        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
+        <v>114</v>
       </c>
       <c r="Z22" s="14">
         <f>Y22-X22</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -10717,24 +10935,8 @@
         <f t="shared" si="2"/>
         <v>58.5</v>
       </c>
-      <c r="V23" t="s">
-        <v>282</v>
-      </c>
-      <c r="W23" s="4">
-        <f>SUM(M100:M389)</f>
-        <v>172.75</v>
-      </c>
-      <c r="X23">
-        <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>74</v>
-      </c>
-      <c r="Y23" s="14">
-        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>98</v>
-      </c>
-      <c r="Z23" s="14">
-        <f>Y23-X23</f>
-        <v>24</v>
+      <c r="Z23" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -10774,8 +10976,9 @@
         <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
-      <c r="Z24" s="7" t="s">
-        <v>198</v>
+      <c r="Z24">
+        <f>SUM(Z11:Z18)</f>
+        <v>-12</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -10815,10 +11018,6 @@
         <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
-      <c r="Z25">
-        <f>SUM(Z11:Z19)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -14797,10 +14996,10 @@
         <v>2.5</v>
       </c>
       <c r="N110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O110" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P110" s="20" t="s">
         <v>113</v>
@@ -14864,10 +15063,10 @@
         <v>6.75</v>
       </c>
       <c r="N111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O111" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P111" s="20" t="s">
         <v>113</v>
@@ -14955,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O113" t="s">
         <v>284</v>
@@ -15049,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O115" t="s">
         <v>68</v>
@@ -15257,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O119" t="s">
         <v>284</v>
@@ -15348,7 +15547,7 @@
         <v>4</v>
       </c>
       <c r="O121" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P121" s="20" t="s">
         <v>119</v>
@@ -15404,7 +15603,7 @@
         <v>4.25</v>
       </c>
       <c r="O122" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P122" s="20" t="s">
         <v>119</v>
@@ -15448,10 +15647,10 @@
         <v>3.5</v>
       </c>
       <c r="N123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P123" s="20" t="s">
         <v>119</v>
@@ -15495,10 +15694,10 @@
         <v>1.75</v>
       </c>
       <c r="N124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P124" s="20" t="s">
         <v>119</v>
@@ -15542,10 +15741,10 @@
         <v>1.75</v>
       </c>
       <c r="N125" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O125" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P125" s="20" t="s">
         <v>119</v>
@@ -15589,10 +15788,10 @@
         <v>1.75</v>
       </c>
       <c r="N126" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O126" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P126" s="20" t="s">
         <v>119</v>
@@ -15646,10 +15845,10 @@
         <v>3.5</v>
       </c>
       <c r="N127" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O127" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P127" s="20" t="s">
         <v>119</v>
@@ -15703,10 +15902,10 @@
         <v>3.5</v>
       </c>
       <c r="N128" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O128" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P128" s="20" t="s">
         <v>119</v>
@@ -15838,10 +16037,10 @@
         <v>7.75</v>
       </c>
       <c r="N131" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O131" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P131" s="20" t="s">
         <v>119</v>
@@ -15856,7 +16055,7 @@
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T174" si="17">T130+M131</f>
+        <f t="shared" ref="T131:T187" si="17">T130+M131</f>
         <v>344.95</v>
       </c>
     </row>
@@ -15929,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="N133" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
@@ -16013,7 +16212,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F174" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F187" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -16030,10 +16229,10 @@
         <v>5</v>
       </c>
       <c r="N135" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O135" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P135" s="20" t="s">
         <v>119</v>
@@ -16087,10 +16286,10 @@
         <v>6.75</v>
       </c>
       <c r="N136" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O136" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P136" s="20" t="s">
         <v>119</v>
@@ -16144,7 +16343,7 @@
         <v>2.25</v>
       </c>
       <c r="N137" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O137" t="s">
         <v>21</v>
@@ -16191,10 +16390,10 @@
         <v>2.25</v>
       </c>
       <c r="N138" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O138" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P138" s="20" t="s">
         <v>119</v>
@@ -16248,7 +16447,7 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P139" s="20" t="s">
         <v>119</v>
@@ -16292,7 +16491,7 @@
         <v>1.75</v>
       </c>
       <c r="N140" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P140" s="20" t="s">
         <v>119</v>
@@ -16336,7 +16535,7 @@
         <v>2</v>
       </c>
       <c r="N141" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P141" s="20" t="s">
         <v>119</v>
@@ -16380,7 +16579,7 @@
         <v>4.25</v>
       </c>
       <c r="N142" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P142" s="20" t="s">
         <v>119</v>
@@ -16424,7 +16623,7 @@
         <v>2.25</v>
       </c>
       <c r="N143" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P143" s="20" t="s">
         <v>119</v>
@@ -16596,7 +16795,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="N148" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P148" s="20" t="s">
         <v>119</v>
@@ -16847,7 +17046,7 @@
         <v>2.25</v>
       </c>
       <c r="N155" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P155" s="20" t="s">
         <v>119</v>
@@ -16891,7 +17090,7 @@
         <v>5.75</v>
       </c>
       <c r="N156" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P156" s="20" t="s">
         <v>119</v>
@@ -16935,7 +17134,7 @@
         <v>3.5</v>
       </c>
       <c r="N157" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P157" s="20" t="s">
         <v>119</v>
@@ -16979,7 +17178,7 @@
         <v>0.75</v>
       </c>
       <c r="N158" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>119</v>
@@ -17023,7 +17222,7 @@
         <v>0.5</v>
       </c>
       <c r="N159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P159" s="20" t="s">
         <v>119</v>
@@ -17067,7 +17266,7 @@
         <v>3.5</v>
       </c>
       <c r="N160" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P160" s="20" t="s">
         <v>119</v>
@@ -17111,7 +17310,7 @@
         <v>2</v>
       </c>
       <c r="N161" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P161" s="20" t="s">
         <v>119</v>
@@ -17155,7 +17354,7 @@
         <v>0.5</v>
       </c>
       <c r="N162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P162" s="20" t="s">
         <v>119</v>
@@ -17199,7 +17398,7 @@
         <v>1.25</v>
       </c>
       <c r="N163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P163" s="20" t="s">
         <v>119</v>
@@ -17243,10 +17442,10 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P164" s="20" t="s">
         <v>119</v>
@@ -17290,10 +17489,10 @@
         <v>2.75</v>
       </c>
       <c r="N165" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P165" s="20" t="s">
         <v>119</v>
@@ -17337,7 +17536,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P166" s="20" t="s">
         <v>119</v>
@@ -17391,7 +17590,7 @@
         <v>1.75</v>
       </c>
       <c r="N167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>119</v>
@@ -17445,7 +17644,7 @@
         <v>4.5</v>
       </c>
       <c r="N168" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P168" s="20" t="s">
         <v>119</v>
@@ -17472,7 +17671,7 @@
         <v>43499</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" ref="C169:C174" si="20">B169</f>
+        <f t="shared" ref="C169:C187" si="20">B169</f>
         <v>43499</v>
       </c>
       <c r="D169" s="3">
@@ -17489,7 +17688,7 @@
         <v>2.25</v>
       </c>
       <c r="N169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O169" t="s">
         <v>17</v>
@@ -17536,7 +17735,7 @@
         <v>1</v>
       </c>
       <c r="N170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O170" t="s">
         <v>68</v>
@@ -17593,10 +17792,10 @@
         <v>2.25</v>
       </c>
       <c r="N171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P171" s="20" t="s">
         <v>119</v>
@@ -17640,7 +17839,7 @@
         <v>1.5</v>
       </c>
       <c r="N172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O172" t="s">
         <v>266</v>
@@ -17697,10 +17896,10 @@
         <v>1.75</v>
       </c>
       <c r="N173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O173" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P173" s="20" t="s">
         <v>119</v>
@@ -17744,10 +17943,10 @@
         <v>5</v>
       </c>
       <c r="N174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>119</v>
@@ -17766,8 +17965,508 @@
         <v>422.7</v>
       </c>
     </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C175" s="5">
+        <f t="shared" si="20"/>
+        <v>43506</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.375</v>
+      </c>
+      <c r="P175" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q175">
+        <v>8</v>
+      </c>
+      <c r="R175" t="s">
+        <v>282</v>
+      </c>
+      <c r="S175">
+        <v>3</v>
+      </c>
+      <c r="T175" s="4">
+        <f t="shared" si="17"/>
+        <v>422.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C176" s="5">
+        <f t="shared" si="20"/>
+        <v>43507</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.69791666666666663</v>
+      </c>
+      <c r="P176" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q176">
+        <v>8</v>
+      </c>
+      <c r="R176" t="s">
+        <v>282</v>
+      </c>
+      <c r="S176">
+        <v>3</v>
+      </c>
+      <c r="T176" s="4">
+        <f t="shared" si="17"/>
+        <v>422.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>67</v>
+      </c>
+      <c r="B177" s="1">
+        <v>43508</v>
+      </c>
+      <c r="C177" s="5">
+        <f t="shared" si="20"/>
+        <v>43508</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.68402777777777779</v>
+      </c>
+      <c r="P177" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q177">
+        <v>8</v>
+      </c>
+      <c r="R177" t="s">
+        <v>282</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177" s="4">
+        <f t="shared" si="17"/>
+        <v>422.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="1">
+        <v>43511</v>
+      </c>
+      <c r="C178" s="5">
+        <f t="shared" si="20"/>
+        <v>43511</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="19"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="M178" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N178" t="s">
+        <v>348</v>
+      </c>
+      <c r="P178" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q178">
+        <v>8</v>
+      </c>
+      <c r="R178" t="s">
+        <v>282</v>
+      </c>
+      <c r="S178">
+        <v>3</v>
+      </c>
+      <c r="T178" s="4">
+        <f t="shared" si="17"/>
+        <v>422.95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C179" s="5">
+        <f t="shared" si="20"/>
+        <v>43512</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="19"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="M179" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N179" t="s">
+        <v>347</v>
+      </c>
+      <c r="P179" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q179">
+        <v>8</v>
+      </c>
+      <c r="R179" t="s">
+        <v>282</v>
+      </c>
+      <c r="S179">
+        <v>3</v>
+      </c>
+      <c r="T179" s="4">
+        <f t="shared" si="17"/>
+        <v>423.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C180" s="5">
+        <f t="shared" si="20"/>
+        <v>43513</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="19"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="M180" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N180" t="s">
+        <v>346</v>
+      </c>
+      <c r="P180" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q180">
+        <v>8</v>
+      </c>
+      <c r="R180" t="s">
+        <v>282</v>
+      </c>
+      <c r="S180">
+        <v>3</v>
+      </c>
+      <c r="T180" s="4">
+        <f t="shared" si="17"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C181" s="5">
+        <f t="shared" si="20"/>
+        <v>43514</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P181" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q181">
+        <v>8</v>
+      </c>
+      <c r="R181" t="s">
+        <v>282</v>
+      </c>
+      <c r="S181">
+        <v>3</v>
+      </c>
+      <c r="T181" s="4">
+        <f t="shared" si="17"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>67</v>
+      </c>
+      <c r="B182" s="1">
+        <v>43515</v>
+      </c>
+      <c r="C182" s="5">
+        <f t="shared" si="20"/>
+        <v>43515</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.69791666666666663</v>
+      </c>
+      <c r="P182" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q182">
+        <v>8</v>
+      </c>
+      <c r="R182" t="s">
+        <v>282</v>
+      </c>
+      <c r="S182">
+        <v>3</v>
+      </c>
+      <c r="T182" s="4">
+        <f t="shared" si="17"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" s="1">
+        <v>43516</v>
+      </c>
+      <c r="C183" s="5">
+        <f t="shared" si="20"/>
+        <v>43516</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.73958333333333337</v>
+      </c>
+      <c r="P183" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q183">
+        <v>8</v>
+      </c>
+      <c r="R183" t="s">
+        <v>282</v>
+      </c>
+      <c r="S183">
+        <v>3</v>
+      </c>
+      <c r="T183" s="4">
+        <f t="shared" si="17"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1">
+        <v>43517</v>
+      </c>
+      <c r="C184" s="5">
+        <f t="shared" si="20"/>
+        <v>43517</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.69791666666666663</v>
+      </c>
+      <c r="P184" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q184">
+        <v>8</v>
+      </c>
+      <c r="R184" t="s">
+        <v>282</v>
+      </c>
+      <c r="S184">
+        <v>3</v>
+      </c>
+      <c r="T184" s="4">
+        <f t="shared" si="17"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1">
+        <v>43518</v>
+      </c>
+      <c r="C185" s="5">
+        <f t="shared" si="20"/>
+        <v>43518</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="19"/>
+        <v>0.17708333333333326</v>
+      </c>
+      <c r="M185" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="N185" t="s">
+        <v>349</v>
+      </c>
+      <c r="O185" t="s">
+        <v>17</v>
+      </c>
+      <c r="P185" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q185">
+        <v>8</v>
+      </c>
+      <c r="R185" t="s">
+        <v>282</v>
+      </c>
+      <c r="S185">
+        <v>3</v>
+      </c>
+      <c r="T185" s="4">
+        <f t="shared" si="17"/>
+        <v>427.95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C186" s="5">
+        <f t="shared" si="20"/>
+        <v>43520</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="19"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M186" s="4">
+        <v>2</v>
+      </c>
+      <c r="N186" t="s">
+        <v>350</v>
+      </c>
+      <c r="O186" t="s">
+        <v>17</v>
+      </c>
+      <c r="P186" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q186">
+        <v>8</v>
+      </c>
+      <c r="R186" t="s">
+        <v>282</v>
+      </c>
+      <c r="S186">
+        <v>3</v>
+      </c>
+      <c r="T186" s="4">
+        <f t="shared" si="17"/>
+        <v>429.95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C187" s="5">
+        <f t="shared" si="20"/>
+        <v>43521</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P187" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q187">
+        <v>8</v>
+      </c>
+      <c r="R187" t="s">
+        <v>282</v>
+      </c>
+      <c r="S187">
+        <v>3</v>
+      </c>
+      <c r="T187" s="4">
+        <f t="shared" si="17"/>
+        <v>429.95</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T530">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T527">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -18023,7 +18722,7 @@
         <v>209</v>
       </c>
       <c r="I5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -18035,7 +18734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD4D52-6F6F-4F5F-B36C-B394BD961420}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8007C56-5160-4004-8553-BA8B4A4C38E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="8640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="356">
   <si>
     <t>Thursday</t>
   </si>
@@ -1175,6 +1175,18 @@
   </si>
   <si>
     <t>FS 1 / FS 2</t>
+  </si>
+  <si>
+    <t>Pain on blisters couldn't skate</t>
+  </si>
+  <si>
+    <t>Passed FS4, got tour from greg, worked on Camels and footwork</t>
+  </si>
+  <si>
+    <t>Program Drills</t>
+  </si>
+  <si>
+    <t>FS5</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1580,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$387</c:f>
+              <c:f>Data!$C$2:$C$382</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -1999,146 +2011,152 @@
                   <c:v>43466</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>43467</c:v>
+                  <c:v>43468</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>43468</c:v>
+                  <c:v>43471</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>43469</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>43470</c:v>
+                  <c:v>43474</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>43471</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43472</c:v>
+                  <c:v>43476</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>43473</c:v>
+                  <c:v>43477</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>43474</c:v>
+                  <c:v>43478</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>43475</c:v>
+                  <c:v>43484</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>43476</c:v>
+                  <c:v>43485</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>43477</c:v>
+                  <c:v>43487</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>43478</c:v>
+                  <c:v>43489</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>43484</c:v>
+                  <c:v>43490</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>43485</c:v>
+                  <c:v>43491</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>43487</c:v>
+                  <c:v>43492</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>43489</c:v>
+                  <c:v>43493</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>43490</c:v>
+                  <c:v>43494</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>43491</c:v>
+                  <c:v>43495</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>43492</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>43493</c:v>
+                  <c:v>43497</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>43494</c:v>
+                  <c:v>43498</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>43495</c:v>
+                  <c:v>43499</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>43496</c:v>
+                  <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>43497</c:v>
+                  <c:v>43502</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>43498</c:v>
+                  <c:v>43503</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>43499</c:v>
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43501</c:v>
+                  <c:v>43505</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43502</c:v>
+                  <c:v>43506</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43503</c:v>
+                  <c:v>43507</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43504</c:v>
+                  <c:v>43508</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43505</c:v>
+                  <c:v>43511</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>43506</c:v>
+                  <c:v>43512</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>43507</c:v>
+                  <c:v>43513</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>43508</c:v>
+                  <c:v>43515</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>43511</c:v>
+                  <c:v>43516</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>43512</c:v>
+                  <c:v>43517</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>43513</c:v>
+                  <c:v>43518</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>43514</c:v>
+                  <c:v>43520</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>43515</c:v>
+                  <c:v>43521</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>43516</c:v>
+                  <c:v>43522</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>43517</c:v>
+                  <c:v>43523</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>43518</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>43520</c:v>
+                  <c:v>43525</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>43521</c:v>
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$387</c:f>
+              <c:f>Data!$M$2:$M$382</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2565,80 +2583,143 @@
                 <c:pt idx="141">
                   <c:v>2.25</c:v>
                 </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.75</c:v>
+                </c:pt>
                 <c:pt idx="153">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>1.75</c:v>
                 </c:pt>
-                <c:pt idx="166">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>2.25</c:v>
                 </c:pt>
-                <c:pt idx="168">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="186">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,10 +3022,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$387</c:f>
+              <c:f>Data!$C$2:$C$382</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3372,146 +3453,152 @@
                   <c:v>43466</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>43467</c:v>
+                  <c:v>43468</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>43468</c:v>
+                  <c:v>43471</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>43469</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>43470</c:v>
+                  <c:v>43474</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>43471</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43472</c:v>
+                  <c:v>43476</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>43473</c:v>
+                  <c:v>43477</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>43474</c:v>
+                  <c:v>43478</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>43475</c:v>
+                  <c:v>43484</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>43476</c:v>
+                  <c:v>43485</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>43477</c:v>
+                  <c:v>43487</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>43478</c:v>
+                  <c:v>43489</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>43484</c:v>
+                  <c:v>43490</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>43485</c:v>
+                  <c:v>43491</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>43487</c:v>
+                  <c:v>43492</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>43489</c:v>
+                  <c:v>43493</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>43490</c:v>
+                  <c:v>43494</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>43491</c:v>
+                  <c:v>43495</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>43492</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>43493</c:v>
+                  <c:v>43497</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>43494</c:v>
+                  <c:v>43498</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>43495</c:v>
+                  <c:v>43499</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>43496</c:v>
+                  <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>43497</c:v>
+                  <c:v>43502</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>43498</c:v>
+                  <c:v>43503</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>43499</c:v>
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43501</c:v>
+                  <c:v>43505</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43502</c:v>
+                  <c:v>43506</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43503</c:v>
+                  <c:v>43507</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43504</c:v>
+                  <c:v>43508</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43505</c:v>
+                  <c:v>43511</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>43506</c:v>
+                  <c:v>43512</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>43507</c:v>
+                  <c:v>43513</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>43508</c:v>
+                  <c:v>43515</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>43511</c:v>
+                  <c:v>43516</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>43512</c:v>
+                  <c:v>43517</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>43513</c:v>
+                  <c:v>43518</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>43514</c:v>
+                  <c:v>43520</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>43515</c:v>
+                  <c:v>43521</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>43516</c:v>
+                  <c:v>43522</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>43517</c:v>
+                  <c:v>43523</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>43518</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>43520</c:v>
+                  <c:v>43525</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>43521</c:v>
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$387</c:f>
+              <c:f>Data!$Q$2:$Q$382</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4056,19 +4143,25 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,9 +4510,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$V$11:$V$18</c:f>
+              <c:f>Data!$V$11:$V$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -4443,16 +4536,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>FS 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FS5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$11:$W$18</c:f>
+              <c:f>Data!$W$11:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
                 </c:pt>
@@ -4475,7 +4571,10 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>127</c:v>
+                  <c:v>150.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,9 +4895,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$V$11:$V$18</c:f>
+              <c:f>Data!$V$11:$V$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Pre Alpha</c:v>
                 </c:pt>
@@ -4822,16 +4921,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>FS 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FS5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$11:$X$18</c:f>
+              <c:f>Data!$X$11:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4854,7 +4956,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5143,10 +5245,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$387</c:f>
+              <c:f>Data!$C$2:$C$382</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -5574,146 +5676,152 @@
                   <c:v>43466</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>43467</c:v>
+                  <c:v>43468</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>43468</c:v>
+                  <c:v>43471</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>43469</c:v>
+                  <c:v>43472</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>43470</c:v>
+                  <c:v>43474</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>43471</c:v>
+                  <c:v>43475</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43472</c:v>
+                  <c:v>43476</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>43473</c:v>
+                  <c:v>43477</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>43474</c:v>
+                  <c:v>43478</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>43475</c:v>
+                  <c:v>43484</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>43476</c:v>
+                  <c:v>43485</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>43477</c:v>
+                  <c:v>43487</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>43478</c:v>
+                  <c:v>43489</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>43484</c:v>
+                  <c:v>43490</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>43485</c:v>
+                  <c:v>43491</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>43487</c:v>
+                  <c:v>43492</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>43489</c:v>
+                  <c:v>43493</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>43490</c:v>
+                  <c:v>43494</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>43491</c:v>
+                  <c:v>43495</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>43492</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>43493</c:v>
+                  <c:v>43497</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>43494</c:v>
+                  <c:v>43498</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>43495</c:v>
+                  <c:v>43499</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>43496</c:v>
+                  <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>43497</c:v>
+                  <c:v>43502</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>43498</c:v>
+                  <c:v>43503</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>43499</c:v>
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43501</c:v>
+                  <c:v>43505</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43502</c:v>
+                  <c:v>43506</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43503</c:v>
+                  <c:v>43507</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43504</c:v>
+                  <c:v>43508</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43505</c:v>
+                  <c:v>43511</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>43506</c:v>
+                  <c:v>43512</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>43507</c:v>
+                  <c:v>43513</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>43508</c:v>
+                  <c:v>43515</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>43511</c:v>
+                  <c:v>43516</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>43512</c:v>
+                  <c:v>43517</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>43513</c:v>
+                  <c:v>43518</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>43514</c:v>
+                  <c:v>43520</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>43515</c:v>
+                  <c:v>43521</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>43516</c:v>
+                  <c:v>43522</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>43517</c:v>
+                  <c:v>43523</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>43518</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>43520</c:v>
+                  <c:v>43525</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>43521</c:v>
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$387</c:f>
+              <c:f>Data!$T$2:$T$382</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6141,136 +6249,142 @@
                   <c:v>377.95</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>377.95</c:v>
+                  <c:v>379.45</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>377.95</c:v>
+                  <c:v>381.95</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>377.95</c:v>
+                  <c:v>384.2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>377.95</c:v>
+                  <c:v>387.2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>377.95</c:v>
+                  <c:v>388.2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>377.95</c:v>
+                  <c:v>389.95</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>377.95</c:v>
+                  <c:v>392.7</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>377.95</c:v>
+                  <c:v>394.95</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>377.95</c:v>
+                  <c:v>400.7</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>377.95</c:v>
+                  <c:v>404.2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>377.95</c:v>
+                  <c:v>404.95</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>380.2</c:v>
+                  <c:v>405.45</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>385.95</c:v>
+                  <c:v>408.95</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>389.45</c:v>
+                  <c:v>410.95</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>390.2</c:v>
+                  <c:v>411.45</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>390.7</c:v>
+                  <c:v>412.7</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>394.2</c:v>
+                  <c:v>413.7</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>396.2</c:v>
+                  <c:v>416.45</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>396.7</c:v>
+                  <c:v>417.45</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>397.95</c:v>
+                  <c:v>419.2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>398.95</c:v>
+                  <c:v>423.7</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>401.7</c:v>
+                  <c:v>425.95</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>402.7</c:v>
+                  <c:v>426.95</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>404.45</c:v>
+                  <c:v>429.2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>408.95</c:v>
+                  <c:v>430.7</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>411.2</c:v>
+                  <c:v>432.45</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>412.2</c:v>
+                  <c:v>437.45</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>414.45</c:v>
+                  <c:v>439.2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>415.95</c:v>
+                  <c:v>440.2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>417.7</c:v>
+                  <c:v>441.45</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>422.7</c:v>
+                  <c:v>441.7</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>422.7</c:v>
+                  <c:v>441.95</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>422.7</c:v>
+                  <c:v>442.45</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>422.7</c:v>
+                  <c:v>443.45</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>422.95</c:v>
+                  <c:v>445.45</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>423.2</c:v>
+                  <c:v>446.45</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>423.7</c:v>
+                  <c:v>450.7</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>423.7</c:v>
+                  <c:v>452.7</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>423.7</c:v>
+                  <c:v>453.7</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>423.7</c:v>
+                  <c:v>454.95</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>423.7</c:v>
+                  <c:v>455.45</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>427.95</c:v>
+                  <c:v>458.95</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>429.95</c:v>
+                  <c:v>460.45</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>429.95</c:v>
+                  <c:v>462.7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>463.95</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>465.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,10 +9824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z187"/>
+  <dimension ref="A1:Z189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9898,15 +10012,15 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>429.95</v>
+        <v>465.7</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M156:M397)</f>
-        <v>49.75</v>
+        <f>SUM(M152:M392)</f>
+        <v>70.75</v>
       </c>
       <c r="W3" s="4">
-        <f>SUM(M19:M155)</f>
-        <v>338.45</v>
+        <f>SUM(M19:M151)</f>
+        <v>353.2</v>
       </c>
       <c r="X3" s="4">
         <f>SUM(M2:M18)</f>
@@ -10660,12 +10774,12 @@
         <v>290</v>
       </c>
       <c r="W18" s="4">
-        <f>SUM(M117:M386)</f>
-        <v>127</v>
+        <f>SUM(M117:M182)</f>
+        <v>150.75</v>
       </c>
       <c r="X18">
         <f>COUNTIF(P:P, "Freestyle 4")</f>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Y18" s="14">
         <f>C137-C117+1</f>
@@ -10673,7 +10787,7 @@
       </c>
       <c r="Z18" s="14">
         <f>Y18-X18</f>
-        <v>-39</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -10716,6 +10830,13 @@
         <f t="shared" si="2"/>
         <v>42.75</v>
       </c>
+      <c r="V19" t="s">
+        <v>355</v>
+      </c>
+      <c r="W19" s="4">
+        <f>SUM(M183:M400)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -10754,25 +10875,6 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="V20" t="s">
-        <v>254</v>
-      </c>
-      <c r="W20" s="4">
-        <f>SUM(M50:M92)</f>
-        <v>114.25</v>
-      </c>
-      <c r="X20">
-        <f>COUNTIF(R:R, "Dance 1")</f>
-        <v>43</v>
-      </c>
-      <c r="Y20" s="14">
-        <f>C92-C50+1</f>
-        <v>50</v>
-      </c>
-      <c r="Z20" s="14">
-        <f>Y20-X20</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -10812,23 +10914,23 @@
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="W21" s="4">
-        <f>SUM(M93:M100)</f>
-        <v>19</v>
+        <f>SUM(M50:M92)</f>
+        <v>114.25</v>
       </c>
       <c r="X21">
-        <f>COUNTIF(R:R, "Dance 2") - 1</f>
-        <v>7</v>
+        <f>COUNTIF(R:R, "Dance 1")</f>
+        <v>43</v>
       </c>
       <c r="Y21" s="14">
-        <f>C100 - C92</f>
-        <v>7</v>
+        <f>C92-C50+1</f>
+        <v>50</v>
       </c>
       <c r="Z21" s="14">
         <f>Y21-X21</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -10869,23 +10971,23 @@
         <v>51.25</v>
       </c>
       <c r="V22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W22" s="4">
-        <f>SUM(M100:M386)</f>
-        <v>180</v>
+        <f>SUM(M93:M100)</f>
+        <v>19</v>
       </c>
       <c r="X22">
-        <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>87</v>
+        <f>COUNTIF(R:R, "Dance 2") - 1</f>
+        <v>7</v>
       </c>
       <c r="Y22" s="14">
-        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>114</v>
+        <f>C100 - C92</f>
+        <v>7</v>
       </c>
       <c r="Z22" s="14">
         <f>Y22-X22</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -10935,8 +11037,24 @@
         <f t="shared" si="2"/>
         <v>58.5</v>
       </c>
-      <c r="Z23" s="7" t="s">
-        <v>198</v>
+      <c r="V23" t="s">
+        <v>282</v>
+      </c>
+      <c r="W23" s="4">
+        <f>SUM(M100:M381)</f>
+        <v>215.75</v>
+      </c>
+      <c r="X23">
+        <f>COUNTIF(R:R, "Dance 3")</f>
+        <v>89</v>
+      </c>
+      <c r="Y23" s="14">
+        <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
+        <v>121</v>
+      </c>
+      <c r="Z23" s="14">
+        <f>Y23-X23</f>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -10976,9 +11094,8 @@
         <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
-      <c r="Z24">
-        <f>SUM(Z11:Z18)</f>
-        <v>-12</v>
+      <c r="Z24" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -11018,6 +11135,10 @@
         <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
+      <c r="Z25">
+        <f>SUM(Z11:Z18)</f>
+        <v>-7</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -14297,7 +14418,7 @@
         <v>43403</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C168" si="8">B96</f>
+        <f t="shared" ref="C96:C164" si="8">B96</f>
         <v>43403</v>
       </c>
       <c r="D96" s="3">
@@ -16055,7 +16176,7 @@
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T187" si="17">T130+M131</f>
+        <f t="shared" ref="T131:T189" si="17">T130+M131</f>
         <v>344.95</v>
       </c>
     </row>
@@ -16212,7 +16333,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F187" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F189" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -16644,18 +16765,27 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B144" s="1">
-        <v>43467</v>
+        <v>43468</v>
       </c>
       <c r="C144" s="5">
         <f t="shared" si="8"/>
-        <v>43467</v>
+        <v>43468</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.89583333333333337</v>
       </c>
       <c r="F144" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M144" s="4">
+        <v>1.5</v>
       </c>
       <c r="P144" s="20" t="s">
         <v>119</v>
@@ -16671,23 +16801,45 @@
       </c>
       <c r="T144" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>379.45</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B145" s="1">
-        <v>43468</v>
+        <v>43471</v>
       </c>
       <c r="C145" s="5">
         <f t="shared" si="8"/>
-        <v>43468</v>
+        <v>43471</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.46875</v>
       </c>
       <c r="F145" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I145" s="2">
+        <f>H145-G145</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M145" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N145" t="s">
+        <v>317</v>
       </c>
       <c r="P145" s="20" t="s">
         <v>119</v>
@@ -16703,23 +16855,32 @@
       </c>
       <c r="T145" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>381.95</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B146" s="1">
-        <v>43469</v>
+        <v>43472</v>
       </c>
       <c r="C146" s="5">
         <f t="shared" si="8"/>
-        <v>43469</v>
+        <v>43472</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.82291666666666663</v>
       </c>
       <c r="F146" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M146" s="4">
+        <v>2.25</v>
       </c>
       <c r="P146" s="20" t="s">
         <v>119</v>
@@ -16735,23 +16896,32 @@
       </c>
       <c r="T146" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>384.2</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B147" s="1">
-        <v>43470</v>
+        <v>43474</v>
       </c>
       <c r="C147" s="5">
         <f t="shared" si="8"/>
-        <v>43470</v>
+        <v>43474</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0.82291666666666663</v>
       </c>
       <c r="F147" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="M147" s="4">
+        <v>3</v>
       </c>
       <c r="P147" s="20" t="s">
         <v>119</v>
@@ -16767,35 +16937,32 @@
       </c>
       <c r="T147" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>387.2</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1">
-        <v>43471</v>
+        <v>43475</v>
       </c>
       <c r="C148" s="5">
         <f t="shared" si="8"/>
-        <v>43471</v>
+        <v>43475</v>
       </c>
       <c r="D148" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E148" s="3">
-        <v>0.46875</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F148" s="2">
         <f t="shared" si="19"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="N148" t="s">
-        <v>317</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M148" s="4">
+        <v>1</v>
       </c>
       <c r="P148" s="20" t="s">
         <v>119</v>
@@ -16811,26 +16978,32 @@
       </c>
       <c r="T148" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>388.2</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
-        <v>43472</v>
+        <v>43476</v>
       </c>
       <c r="C149" s="5">
         <f t="shared" si="8"/>
-        <v>43472</v>
+        <v>43476</v>
       </c>
       <c r="D149" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.78125</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0.85416666666666663</v>
       </c>
       <c r="F149" s="2">
         <f t="shared" si="19"/>
-        <v>-0.72916666666666663</v>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M149" s="4">
+        <v>1.75</v>
       </c>
       <c r="P149" s="20" t="s">
         <v>119</v>
@@ -16846,23 +17019,32 @@
       </c>
       <c r="T149" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>389.95</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B150" s="1">
-        <v>43473</v>
+        <v>43477</v>
       </c>
       <c r="C150" s="5">
         <f t="shared" si="8"/>
-        <v>43473</v>
+        <v>43477</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.85416666666666663</v>
       </c>
       <c r="F150" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="M150" s="4">
+        <v>2.75</v>
       </c>
       <c r="P150" s="20" t="s">
         <v>119</v>
@@ -16878,26 +17060,35 @@
       </c>
       <c r="T150" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>392.7</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B151" s="1">
-        <v>43474</v>
+        <v>43478</v>
       </c>
       <c r="C151" s="5">
         <f t="shared" si="8"/>
-        <v>43474</v>
+        <v>43478</v>
       </c>
       <c r="D151" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="F151" s="2">
         <f t="shared" si="19"/>
-        <v>-0.69791666666666663</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M151" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="N151" t="s">
+        <v>318</v>
       </c>
       <c r="P151" s="20" t="s">
         <v>119</v>
@@ -16913,26 +17104,35 @@
       </c>
       <c r="T151" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>394.95</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B152" s="1">
-        <v>43475</v>
+        <v>43484</v>
       </c>
       <c r="C152" s="5">
         <f t="shared" si="8"/>
-        <v>43475</v>
+        <v>43484</v>
       </c>
       <c r="D152" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.46875</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="F152" s="2">
         <f t="shared" si="19"/>
-        <v>-0.69791666666666663</v>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="M152" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="N152" t="s">
+        <v>344</v>
       </c>
       <c r="P152" s="20" t="s">
         <v>119</v>
@@ -16948,26 +17148,35 @@
       </c>
       <c r="T152" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>400.7</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1">
-        <v>43476</v>
+        <v>43485</v>
       </c>
       <c r="C153" s="5">
         <f t="shared" si="8"/>
-        <v>43476</v>
+        <v>43485</v>
       </c>
       <c r="D153" s="3">
-        <v>0.78125</v>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.6875</v>
       </c>
       <c r="F153" s="2">
         <f t="shared" si="19"/>
-        <v>-0.78125</v>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M153" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N153" t="s">
+        <v>345</v>
       </c>
       <c r="P153" s="20" t="s">
         <v>119</v>
@@ -16983,26 +17192,35 @@
       </c>
       <c r="T153" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B154" s="1">
-        <v>43477</v>
+        <v>43487</v>
       </c>
       <c r="C154" s="5">
         <f t="shared" si="8"/>
-        <v>43477</v>
+        <v>43487</v>
       </c>
       <c r="D154" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E154" s="3">
         <v>0.73958333333333337</v>
       </c>
       <c r="F154" s="2">
         <f t="shared" si="19"/>
-        <v>-0.73958333333333337</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N154" t="s">
+        <v>343</v>
       </c>
       <c r="P154" s="20" t="s">
         <v>119</v>
@@ -17018,35 +17236,35 @@
       </c>
       <c r="T154" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
+        <v>404.95</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B155" s="1">
-        <v>43478</v>
+        <v>43489</v>
       </c>
       <c r="C155" s="5">
         <f t="shared" si="8"/>
-        <v>43478</v>
+        <v>43489</v>
       </c>
       <c r="D155" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="E155" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F155" s="2">
         <f t="shared" si="19"/>
-        <v>9.375E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="M155" s="4">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="N155" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="P155" s="20" t="s">
         <v>119</v>
@@ -17062,35 +17280,35 @@
       </c>
       <c r="T155" s="4">
         <f t="shared" si="17"/>
-        <v>380.2</v>
+        <v>405.45</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1">
-        <v>43484</v>
+        <v>43490</v>
       </c>
       <c r="C156" s="5">
         <f t="shared" si="8"/>
-        <v>43484</v>
+        <v>43490</v>
       </c>
       <c r="D156" s="3">
-        <v>0.46875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E156" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F156" s="2">
         <f t="shared" si="19"/>
-        <v>0.23958333333333337</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="M156" s="4">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N156" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P156" s="20" t="s">
         <v>119</v>
@@ -17106,35 +17324,35 @@
       </c>
       <c r="T156" s="4">
         <f t="shared" si="17"/>
-        <v>385.95</v>
+        <v>408.95</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1">
-        <v>43485</v>
+        <v>43491</v>
       </c>
       <c r="C157" s="5">
         <f t="shared" si="8"/>
-        <v>43485</v>
+        <v>43491</v>
       </c>
       <c r="D157" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.65625</v>
       </c>
       <c r="E157" s="3">
-        <v>0.6875</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F157" s="2">
         <f t="shared" si="19"/>
-        <v>0.14583333333333337</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="M157" s="4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P157" s="20" t="s">
         <v>119</v>
@@ -17150,35 +17368,35 @@
       </c>
       <c r="T157" s="4">
         <f t="shared" si="17"/>
-        <v>389.45</v>
+        <v>410.95</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B158" s="1">
-        <v>43487</v>
+        <v>43492</v>
       </c>
       <c r="C158" s="5">
         <f t="shared" si="8"/>
-        <v>43487</v>
+        <v>43492</v>
       </c>
       <c r="D158" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E158" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="F158" s="2">
         <f t="shared" si="19"/>
-        <v>3.125E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="M158" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N158" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>119</v>
@@ -17194,35 +17412,35 @@
       </c>
       <c r="T158" s="4">
         <f t="shared" si="17"/>
-        <v>390.2</v>
+        <v>411.45</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B159" s="1">
-        <v>43489</v>
+        <v>43493</v>
       </c>
       <c r="C159" s="5">
         <f t="shared" si="8"/>
-        <v>43489</v>
+        <v>43493</v>
       </c>
       <c r="D159" s="3">
-        <v>0.71875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E159" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="F159" s="2">
         <f t="shared" si="19"/>
-        <v>2.083333333333337E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="M159" s="4">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="N159" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="P159" s="20" t="s">
         <v>119</v>
@@ -17238,35 +17456,38 @@
       </c>
       <c r="T159" s="4">
         <f t="shared" si="17"/>
-        <v>390.7</v>
+        <v>412.7</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B160" s="1">
-        <v>43490</v>
+        <v>43494</v>
       </c>
       <c r="C160" s="5">
         <f t="shared" si="8"/>
-        <v>43490</v>
+        <v>43494</v>
       </c>
       <c r="D160" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E160" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="F160" s="2">
         <f t="shared" si="19"/>
-        <v>0.14583333333333326</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="M160" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="N160" t="s">
-        <v>341</v>
+        <v>319</v>
+      </c>
+      <c r="O160" t="s">
+        <v>322</v>
       </c>
       <c r="P160" s="20" t="s">
         <v>119</v>
@@ -17282,35 +17503,38 @@
       </c>
       <c r="T160" s="4">
         <f t="shared" si="17"/>
-        <v>394.2</v>
+        <v>413.7</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B161" s="1">
-        <v>43491</v>
+        <v>43495</v>
       </c>
       <c r="C161" s="5">
         <f t="shared" si="8"/>
-        <v>43491</v>
+        <v>43495</v>
       </c>
       <c r="D161" s="3">
-        <v>0.65625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E161" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="F161" s="2">
         <f t="shared" si="19"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="M161" s="4">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N161" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="O161" t="s">
+        <v>326</v>
       </c>
       <c r="P161" s="20" t="s">
         <v>119</v>
@@ -17326,35 +17550,35 @@
       </c>
       <c r="T161" s="4">
         <f t="shared" si="17"/>
-        <v>396.2</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B162" s="1">
-        <v>43492</v>
+        <v>43496</v>
       </c>
       <c r="C162" s="5">
         <f t="shared" si="8"/>
-        <v>43492</v>
+        <v>43496</v>
       </c>
       <c r="D162" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E162" s="3">
-        <v>0.6875</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F162" s="2">
         <f t="shared" si="19"/>
-        <v>2.083333333333337E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="M162" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P162" s="20" t="s">
         <v>119</v>
@@ -17370,35 +17594,45 @@
       </c>
       <c r="T162" s="4">
         <f t="shared" si="17"/>
-        <v>396.7</v>
+        <v>417.45</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1">
-        <v>43493</v>
+        <v>43497</v>
       </c>
       <c r="C163" s="5">
         <f t="shared" si="8"/>
-        <v>43493</v>
+        <v>43497</v>
       </c>
       <c r="D163" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E163" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F163" s="2">
         <f t="shared" si="19"/>
-        <v>5.2083333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="I163" s="2">
+        <f>H163-G163</f>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="M163" s="4">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="N163" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P163" s="20" t="s">
         <v>119</v>
@@ -17414,38 +17648,45 @@
       </c>
       <c r="T163" s="4">
         <f t="shared" si="17"/>
-        <v>397.95</v>
+        <v>419.2</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1">
-        <v>43494</v>
+        <v>43498</v>
       </c>
       <c r="C164" s="5">
         <f t="shared" si="8"/>
-        <v>43494</v>
+        <v>43498</v>
       </c>
       <c r="D164" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="E164" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F164" s="2">
         <f t="shared" si="19"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="I164" s="2">
+        <f>H164-G164</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="M164" s="4">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="N164" t="s">
-        <v>319</v>
-      </c>
-      <c r="O164" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="P164" s="20" t="s">
         <v>119</v>
@@ -17461,38 +17702,38 @@
       </c>
       <c r="T164" s="4">
         <f t="shared" si="17"/>
-        <v>398.95</v>
+        <v>423.7</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1">
-        <v>43495</v>
+        <v>43499</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="8"/>
-        <v>43495</v>
+        <f t="shared" ref="C165:C189" si="20">B165</f>
+        <v>43499</v>
       </c>
       <c r="D165" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E165" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="F165" s="2">
         <f t="shared" si="19"/>
-        <v>0.11458333333333326</v>
+        <v>9.375E-2</v>
       </c>
       <c r="M165" s="4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N165" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O165" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="P165" s="20" t="s">
         <v>119</v>
@@ -17508,19 +17749,19 @@
       </c>
       <c r="T165" s="4">
         <f t="shared" si="17"/>
-        <v>401.7</v>
+        <v>425.95</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B166" s="1">
-        <v>43496</v>
+        <v>43501</v>
       </c>
       <c r="C166" s="5">
-        <f t="shared" si="8"/>
-        <v>43496</v>
+        <f t="shared" si="20"/>
+        <v>43501</v>
       </c>
       <c r="D166" s="3">
         <v>0.69791666666666663</v>
@@ -17536,7 +17777,10 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="O166" t="s">
+        <v>68</v>
       </c>
       <c r="P166" s="20" t="s">
         <v>119</v>
@@ -17552,45 +17796,48 @@
       </c>
       <c r="T166" s="4">
         <f t="shared" si="17"/>
-        <v>402.7</v>
+        <v>426.95</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B167" s="1">
-        <v>43497</v>
+        <v>43502</v>
       </c>
       <c r="C167" s="5">
-        <f t="shared" si="8"/>
-        <v>43497</v>
+        <f t="shared" si="20"/>
+        <v>43502</v>
       </c>
       <c r="D167" s="3">
-        <v>0.59375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E167" s="3">
-        <v>0.61458333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F167" s="2">
         <f t="shared" si="19"/>
-        <v>2.083333333333337E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="G167" s="3">
-        <v>0.76041666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="H167" s="3">
-        <v>0.8125</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="I167" s="2">
         <f>H167-G167</f>
-        <v>5.208333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="M167" s="4">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="N167" t="s">
-        <v>327</v>
+        <v>333</v>
+      </c>
+      <c r="O167" t="s">
+        <v>334</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>119</v>
@@ -17606,45 +17853,38 @@
       </c>
       <c r="T167" s="4">
         <f t="shared" si="17"/>
-        <v>404.45</v>
+        <v>429.2</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B168" s="1">
-        <v>43498</v>
+        <v>43503</v>
       </c>
       <c r="C168" s="5">
-        <f t="shared" si="8"/>
-        <v>43498</v>
+        <f t="shared" si="20"/>
+        <v>43503</v>
       </c>
       <c r="D168" s="3">
-        <v>0.375</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E168" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F168" s="2">
         <f t="shared" si="19"/>
-        <v>0.10416666666666669</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="H168" s="3">
-        <v>0.90625</v>
-      </c>
-      <c r="I168" s="2">
-        <f>H168-G168</f>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M168" s="4">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N168" t="s">
-        <v>338</v>
+        <v>332</v>
+      </c>
+      <c r="O168" t="s">
+        <v>266</v>
       </c>
       <c r="P168" s="20" t="s">
         <v>119</v>
@@ -17660,38 +17900,48 @@
       </c>
       <c r="T168" s="4">
         <f t="shared" si="17"/>
-        <v>408.95</v>
+        <v>430.7</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1">
-        <v>43499</v>
+        <v>43504</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" ref="C169:C187" si="20">B169</f>
-        <v>43499</v>
+        <f t="shared" si="20"/>
+        <v>43504</v>
       </c>
       <c r="D169" s="3">
-        <v>0.59375</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="E169" s="3">
-        <v>0.6875</v>
+        <v>0.34375</v>
       </c>
       <c r="F169" s="2">
         <f t="shared" si="19"/>
-        <v>9.375E-2</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="I169" s="2">
+        <f>H169-G169</f>
+        <v>3.125E-2</v>
       </c>
       <c r="M169" s="4">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="N169" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O169" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="P169" s="20" t="s">
         <v>119</v>
@@ -17707,38 +17957,38 @@
       </c>
       <c r="T169" s="4">
         <f t="shared" si="17"/>
-        <v>411.2</v>
+        <v>432.45</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
-        <v>43501</v>
+        <v>43505</v>
       </c>
       <c r="C170" s="5">
         <f t="shared" si="20"/>
-        <v>43501</v>
+        <v>43505</v>
       </c>
       <c r="D170" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="E170" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F170" s="2">
         <f t="shared" si="19"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="M170" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N170" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O170" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="P170" s="20" t="s">
         <v>119</v>
@@ -17754,48 +18004,35 @@
       </c>
       <c r="T170" s="4">
         <f t="shared" si="17"/>
-        <v>412.2</v>
+        <v>437.45</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B171" s="1">
-        <v>43502</v>
+        <v>43506</v>
       </c>
       <c r="C171" s="5">
         <f t="shared" si="20"/>
-        <v>43502</v>
+        <v>43506</v>
       </c>
       <c r="D171" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="E171" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F171" s="2">
         <f t="shared" si="19"/>
-        <v>5.2083333333333259E-2</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0.78125</v>
-      </c>
-      <c r="H171" s="3">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="I171" s="2">
-        <f>H171-G171</f>
-        <v>4.166666666666663E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="M171" s="4">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="N171" t="s">
-        <v>333</v>
-      </c>
-      <c r="O171" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P171" s="20" t="s">
         <v>119</v>
@@ -17811,38 +18048,35 @@
       </c>
       <c r="T171" s="4">
         <f t="shared" si="17"/>
-        <v>414.45</v>
+        <v>439.2</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B172" s="1">
-        <v>43503</v>
+        <v>43507</v>
       </c>
       <c r="C172" s="5">
         <f t="shared" si="20"/>
-        <v>43503</v>
+        <v>43507</v>
       </c>
       <c r="D172" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E172" s="3">
         <v>0.73958333333333337</v>
       </c>
       <c r="F172" s="2">
         <f t="shared" si="19"/>
-        <v>6.25E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="M172" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N172" t="s">
-        <v>332</v>
-      </c>
-      <c r="O172" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="P172" s="20" t="s">
         <v>119</v>
@@ -17858,48 +18092,35 @@
       </c>
       <c r="T172" s="4">
         <f t="shared" si="17"/>
-        <v>415.95</v>
+        <v>440.2</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B173" s="1">
-        <v>43504</v>
+        <v>43508</v>
       </c>
       <c r="C173" s="5">
         <f t="shared" si="20"/>
-        <v>43504</v>
+        <v>43508</v>
       </c>
       <c r="D173" s="3">
-        <v>0.30208333333333331</v>
+        <v>0.6875</v>
       </c>
       <c r="E173" s="3">
-        <v>0.34375</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F173" s="2">
         <f t="shared" si="19"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="H173" s="3">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="I173" s="2">
-        <f>H173-G173</f>
-        <v>3.125E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="M173" s="4">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="N173" t="s">
-        <v>330</v>
-      </c>
-      <c r="O173" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="P173" s="20" t="s">
         <v>119</v>
@@ -17915,38 +18136,35 @@
       </c>
       <c r="T173" s="4">
         <f t="shared" si="17"/>
-        <v>417.7</v>
+        <v>441.45</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="1">
-        <v>43505</v>
+        <v>43511</v>
       </c>
       <c r="C174" s="5">
         <f t="shared" si="20"/>
-        <v>43505</v>
+        <v>43511</v>
       </c>
       <c r="D174" s="3">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E174" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="F174" s="2">
         <f t="shared" si="19"/>
-        <v>0.20833333333333337</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="M174" s="4">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="N174" t="s">
-        <v>328</v>
-      </c>
-      <c r="O174" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>119</v>
@@ -17962,26 +18180,35 @@
       </c>
       <c r="T174" s="4">
         <f t="shared" si="17"/>
-        <v>422.7</v>
+        <v>441.7</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B175" s="1">
-        <v>43506</v>
+        <v>43512</v>
       </c>
       <c r="C175" s="5">
         <f t="shared" si="20"/>
-        <v>43506</v>
+        <v>43512</v>
       </c>
       <c r="D175" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.40625</v>
       </c>
       <c r="F175" s="2">
         <f t="shared" si="19"/>
-        <v>-0.375</v>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="M175" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N175" t="s">
+        <v>347</v>
       </c>
       <c r="P175" s="20" t="s">
         <v>119</v>
@@ -17997,26 +18224,35 @@
       </c>
       <c r="T175" s="4">
         <f t="shared" si="17"/>
-        <v>422.7</v>
+        <v>441.95</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B176" s="1">
-        <v>43507</v>
+        <v>43513</v>
       </c>
       <c r="C176" s="5">
         <f t="shared" si="20"/>
-        <v>43507</v>
+        <v>43513</v>
       </c>
       <c r="D176" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.60416666666666663</v>
       </c>
       <c r="F176" s="2">
         <f t="shared" si="19"/>
-        <v>-0.69791666666666663</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N176" t="s">
+        <v>346</v>
       </c>
       <c r="P176" s="20" t="s">
         <v>119</v>
@@ -18032,7 +18268,7 @@
       </c>
       <c r="T176" s="4">
         <f t="shared" si="17"/>
-        <v>422.7</v>
+        <v>442.45</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
@@ -18040,18 +18276,24 @@
         <v>67</v>
       </c>
       <c r="B177" s="1">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="C177" s="5">
         <f t="shared" si="20"/>
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="D177" s="3">
-        <v>0.68402777777777779</v>
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.73958333333333337</v>
       </c>
       <c r="F177" s="2">
         <f t="shared" si="19"/>
-        <v>-0.68402777777777779</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M177" s="4">
+        <v>1</v>
       </c>
       <c r="P177" s="20" t="s">
         <v>119</v>
@@ -18067,35 +18309,32 @@
       </c>
       <c r="T177" s="4">
         <f t="shared" si="17"/>
-        <v>422.7</v>
+        <v>443.45</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B178" s="1">
-        <v>43511</v>
+        <v>43516</v>
       </c>
       <c r="C178" s="5">
         <f t="shared" si="20"/>
-        <v>43511</v>
+        <v>43516</v>
       </c>
       <c r="D178" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E178" s="3">
-        <v>0.71875</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="F178" s="2">
         <f t="shared" si="19"/>
-        <v>1.041666666666663E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="M178" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="N178" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="P178" s="20" t="s">
         <v>119</v>
@@ -18111,35 +18350,32 @@
       </c>
       <c r="T178" s="4">
         <f t="shared" si="17"/>
-        <v>422.95</v>
+        <v>445.45</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B179" s="1">
-        <v>43512</v>
+        <v>43517</v>
       </c>
       <c r="C179" s="5">
         <f t="shared" si="20"/>
-        <v>43512</v>
+        <v>43517</v>
       </c>
       <c r="D179" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E179" s="3">
-        <v>0.40625</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F179" s="2">
         <f t="shared" si="19"/>
-        <v>1.0416666666666685E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="M179" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="N179" t="s">
-        <v>347</v>
+        <v>1</v>
       </c>
       <c r="P179" s="20" t="s">
         <v>119</v>
@@ -18155,35 +18391,38 @@
       </c>
       <c r="T179" s="4">
         <f t="shared" si="17"/>
-        <v>423.2</v>
+        <v>446.45</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1">
-        <v>43513</v>
+        <v>43518</v>
       </c>
       <c r="C180" s="5">
         <f t="shared" si="20"/>
-        <v>43513</v>
+        <v>43518</v>
       </c>
       <c r="D180" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E180" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="F180" s="2">
         <f t="shared" si="19"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="M180" s="4">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="N180" t="s">
-        <v>346</v>
+        <v>349</v>
+      </c>
+      <c r="O180" t="s">
+        <v>17</v>
       </c>
       <c r="P180" s="20" t="s">
         <v>119</v>
@@ -18199,23 +18438,38 @@
       </c>
       <c r="T180" s="4">
         <f t="shared" si="17"/>
-        <v>423.7</v>
+        <v>450.7</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B181" s="1">
-        <v>43514</v>
+        <v>43520</v>
       </c>
       <c r="C181" s="5">
         <f t="shared" si="20"/>
-        <v>43514</v>
+        <v>43520</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="F181" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M181" s="4">
+        <v>2</v>
+      </c>
+      <c r="N181" t="s">
+        <v>350</v>
+      </c>
+      <c r="O181" t="s">
+        <v>17</v>
       </c>
       <c r="P181" s="20" t="s">
         <v>119</v>
@@ -18231,26 +18485,32 @@
       </c>
       <c r="T181" s="4">
         <f t="shared" si="17"/>
-        <v>423.7</v>
+        <v>452.7</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B182" s="1">
-        <v>43515</v>
+        <v>43521</v>
       </c>
       <c r="C182" s="5">
         <f t="shared" si="20"/>
-        <v>43515</v>
+        <v>43521</v>
       </c>
       <c r="D182" s="3">
         <v>0.69791666666666663</v>
       </c>
+      <c r="E182" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F182" s="2">
         <f t="shared" si="19"/>
-        <v>-0.69791666666666663</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M182" s="4">
+        <v>1</v>
       </c>
       <c r="P182" s="20" t="s">
         <v>119</v>
@@ -18266,32 +18526,51 @@
       </c>
       <c r="T182" s="4">
         <f t="shared" si="17"/>
-        <v>423.7</v>
+        <v>453.7</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B183" s="1">
-        <v>43516</v>
+        <v>43522</v>
       </c>
       <c r="C183" s="5">
         <f t="shared" si="20"/>
-        <v>43516</v>
+        <v>43522</v>
       </c>
       <c r="D183" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.6875</v>
       </c>
       <c r="F183" s="2">
         <f t="shared" si="19"/>
-        <v>-0.73958333333333337</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I183" s="2">
+        <f>H183-G183</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M183" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N183" t="s">
+        <v>353</v>
       </c>
       <c r="P183" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R183" t="s">
         <v>282</v>
@@ -18301,32 +18580,41 @@
       </c>
       <c r="T183" s="4">
         <f t="shared" si="17"/>
-        <v>423.7</v>
+        <v>454.95</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B184" s="1">
-        <v>43517</v>
+        <v>43523</v>
       </c>
       <c r="C184" s="5">
         <f t="shared" si="20"/>
-        <v>43517</v>
+        <v>43523</v>
       </c>
       <c r="D184" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.72916666666666663</v>
       </c>
       <c r="F184" s="2">
         <f t="shared" si="19"/>
-        <v>-0.69791666666666663</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="M184" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N184" t="s">
+        <v>352</v>
       </c>
       <c r="P184" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q184">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R184" t="s">
         <v>282</v>
@@ -18336,44 +18624,48 @@
       </c>
       <c r="T184" s="4">
         <f t="shared" si="17"/>
-        <v>423.7</v>
+        <v>455.45</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" s="1">
-        <v>43518</v>
+        <v>43524</v>
       </c>
       <c r="C185" s="5">
         <f t="shared" si="20"/>
-        <v>43518</v>
+        <v>43524</v>
       </c>
       <c r="D185" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="E185" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="F185" s="2">
         <f t="shared" si="19"/>
-        <v>0.17708333333333326</v>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I185" s="2">
+        <f>H185-G185</f>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="M185" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="N185" t="s">
-        <v>349</v>
-      </c>
-      <c r="O185" t="s">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="P185" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R185" t="s">
         <v>282</v>
@@ -18383,44 +18675,38 @@
       </c>
       <c r="T185" s="4">
         <f t="shared" si="17"/>
-        <v>427.95</v>
+        <v>458.95</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1">
-        <v>43520</v>
+        <v>43525</v>
       </c>
       <c r="C186" s="5">
         <f t="shared" si="20"/>
-        <v>43520</v>
+        <v>43525</v>
       </c>
       <c r="D186" s="3">
-        <v>0.5625</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="E186" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="F186" s="2">
         <f t="shared" si="19"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M186" s="4">
-        <v>2</v>
-      </c>
-      <c r="N186" t="s">
-        <v>350</v>
-      </c>
-      <c r="O186" t="s">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="P186" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q186">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R186" t="s">
         <v>282</v>
@@ -18430,29 +18716,38 @@
       </c>
       <c r="T186" s="4">
         <f t="shared" si="17"/>
-        <v>429.95</v>
+        <v>460.45</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B187" s="1">
-        <v>43521</v>
+        <v>43526</v>
       </c>
       <c r="C187" s="5">
         <f t="shared" si="20"/>
-        <v>43521</v>
+        <v>43526</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.61458333333333337</v>
       </c>
       <c r="F187" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M187" s="4">
+        <v>2.25</v>
       </c>
       <c r="P187" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q187">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R187" t="s">
         <v>282</v>
@@ -18462,11 +18757,103 @@
       </c>
       <c r="T187" s="4">
         <f t="shared" si="17"/>
-        <v>429.95</v>
+        <v>462.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C188" s="5">
+        <f t="shared" si="20"/>
+        <v>43527</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="19"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M188" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="P188" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q188">
+        <v>9</v>
+      </c>
+      <c r="R188" t="s">
+        <v>282</v>
+      </c>
+      <c r="S188">
+        <v>3</v>
+      </c>
+      <c r="T188" s="4">
+        <f t="shared" si="17"/>
+        <v>463.95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C189" s="5">
+        <f t="shared" si="20"/>
+        <v>43528</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="19"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I189" s="2">
+        <f>H189-G189</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M189" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="P189" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q189">
+        <v>9</v>
+      </c>
+      <c r="R189" t="s">
+        <v>282</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+      <c r="T189" s="4">
+        <f t="shared" si="17"/>
+        <v>465.7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T527">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T522">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -18734,8 +19121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8007C56-5160-4004-8553-BA8B4A4C38E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC7BC0-EE78-4F6B-8196-A2058DB1676D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="8640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="358">
   <si>
     <t>Thursday</t>
   </si>
@@ -1187,6 +1187,12 @@
   </si>
   <si>
     <t>FS5</t>
+  </si>
+  <si>
+    <t>Landed Axel again!</t>
+  </si>
+  <si>
+    <t>Devon's FS5/FS6. Did interpretive and worked on spins and waltz loop</t>
   </si>
 </sst>
 </file>
@@ -1580,10 +1586,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$382</c:f>
+              <c:f>Data!$C$2:$C$379</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2147,16 +2153,31 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>43528</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$382</c:f>
+              <c:f>Data!$M$2:$M$379</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2245,7 +2266,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4</c:v>
@@ -2720,6 +2741,9 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,10 +3046,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$382</c:f>
+              <c:f>Data!$C$2:$C$379</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3589,16 +3613,31 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>43528</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$382</c:f>
+              <c:f>Data!$Q$2:$Q$379</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4161,6 +4200,21 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="187">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="192">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -4559,7 +4613,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27.75</c:v>
@@ -4574,7 +4628,7 @@
                   <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,6 +5012,9 @@
                 <c:pt idx="7">
                   <c:v>66</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5245,10 +5302,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$382</c:f>
+              <c:f>Data!$C$2:$C$379</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -5812,16 +5869,31 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>43528</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$382</c:f>
+              <c:f>Data!$T$2:$T$379</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5910,481 +5982,496 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72.45</c:v>
+                  <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.45</c:v>
+                  <c:v>76.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>78.2</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.7</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>88.7</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>89.7</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.7</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>95.2</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.45</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.95</c:v>
+                  <c:v>100.25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.95</c:v>
+                  <c:v>101.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>104.2</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>106.45</c:v>
+                  <c:v>106.75</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>114.2</c:v>
+                  <c:v>114.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>116.95</c:v>
+                  <c:v>117.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>117.7</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>118.2</c:v>
+                  <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>121.95</c:v>
+                  <c:v>122.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>124.7</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>131.94999999999999</c:v>
+                  <c:v>132.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>135.44999999999999</c:v>
+                  <c:v>135.75</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>137.69999999999999</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>138.44999999999999</c:v>
+                  <c:v>138.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>140.94999999999999</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>144.69999999999999</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>147.94999999999999</c:v>
+                  <c:v>148.25</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>150.44999999999999</c:v>
+                  <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>150.44999999999999</c:v>
+                  <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>150.94999999999999</c:v>
+                  <c:v>151.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>151.94999999999999</c:v>
+                  <c:v>152.25</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>153.69999999999999</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>159.69999999999999</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>163.19999999999999</c:v>
+                  <c:v>163.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>165.45</c:v>
+                  <c:v>165.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>166.2</c:v>
+                  <c:v>166.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167.2</c:v>
+                  <c:v>167.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>167.95</c:v>
+                  <c:v>168.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>169.95</c:v>
+                  <c:v>170.25</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>173.95</c:v>
+                  <c:v>174.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>176.95</c:v>
+                  <c:v>177.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>178.7</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>181.7</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>184.45</c:v>
+                  <c:v>184.75</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>184.7</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>188.2</c:v>
+                  <c:v>188.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>190.95</c:v>
+                  <c:v>191.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>192.95</c:v>
+                  <c:v>193.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>196.45</c:v>
+                  <c:v>196.75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>200.2</c:v>
+                  <c:v>200.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>204.45</c:v>
+                  <c:v>204.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>208.2</c:v>
+                  <c:v>208.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>210.95</c:v>
+                  <c:v>211.25</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>212.95</c:v>
+                  <c:v>213.25</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>217.7</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>220.45</c:v>
+                  <c:v>220.75</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>224.7</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>228.2</c:v>
+                  <c:v>228.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>230.2</c:v>
+                  <c:v>230.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>230.95</c:v>
+                  <c:v>231.25</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>233.2</c:v>
+                  <c:v>233.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>235.2</c:v>
+                  <c:v>235.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>238.95</c:v>
+                  <c:v>239.25</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>239.95</c:v>
+                  <c:v>240.25</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>240.95</c:v>
+                  <c:v>241.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>241.45</c:v>
+                  <c:v>241.75</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>241.95</c:v>
+                  <c:v>242.25</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>244.95</c:v>
+                  <c:v>245.25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>248.95</c:v>
+                  <c:v>249.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>249.95</c:v>
+                  <c:v>250.25</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>257.95</c:v>
+                  <c:v>258.25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>261.45</c:v>
+                  <c:v>261.75</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>262.2</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>265.2</c:v>
+                  <c:v>265.5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>269.7</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>273.2</c:v>
+                  <c:v>273.5</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>278.45</c:v>
+                  <c:v>278.75</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>279.7</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>280.95</c:v>
+                  <c:v>281.25</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>283.95</c:v>
+                  <c:v>284.25</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>286.45</c:v>
+                  <c:v>286.75</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>293.2</c:v>
+                  <c:v>293.5</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>295.45</c:v>
+                  <c:v>295.75</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>296.45</c:v>
+                  <c:v>296.75</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>298.45</c:v>
+                  <c:v>298.75</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>299.45</c:v>
+                  <c:v>299.75</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>302.95</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>304.2</c:v>
+                  <c:v>304.5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>305.7</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>306.7</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>308.2</c:v>
+                  <c:v>308.5</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>312.2</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>316.45</c:v>
+                  <c:v>316.75</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>319.95</c:v>
+                  <c:v>320.25</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>321.7</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>323.45</c:v>
+                  <c:v>323.75</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>325.2</c:v>
+                  <c:v>325.5</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>328.7</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>332.2</c:v>
+                  <c:v>332.5</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>335.45</c:v>
+                  <c:v>335.75</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>337.2</c:v>
+                  <c:v>337.5</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>344.95</c:v>
+                  <c:v>345.25</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>345.7</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>347.7</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>349.45</c:v>
+                  <c:v>349.75</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>354.45</c:v>
+                  <c:v>354.75</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>361.2</c:v>
+                  <c:v>361.5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>363.45</c:v>
+                  <c:v>363.75</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>365.7</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>367.7</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>369.45</c:v>
+                  <c:v>369.75</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>371.45</c:v>
+                  <c:v>371.75</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>375.7</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>377.95</c:v>
+                  <c:v>378.25</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>379.45</c:v>
+                  <c:v>379.75</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>381.95</c:v>
+                  <c:v>382.25</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>384.2</c:v>
+                  <c:v>384.5</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>387.2</c:v>
+                  <c:v>387.5</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>388.2</c:v>
+                  <c:v>388.5</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>389.95</c:v>
+                  <c:v>390.25</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>392.7</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>394.95</c:v>
+                  <c:v>395.25</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>400.7</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>404.2</c:v>
+                  <c:v>404.5</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>404.95</c:v>
+                  <c:v>405.25</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>405.45</c:v>
+                  <c:v>405.75</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>408.95</c:v>
+                  <c:v>409.25</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>410.95</c:v>
+                  <c:v>411.25</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>411.45</c:v>
+                  <c:v>411.75</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>412.7</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>413.7</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>416.45</c:v>
+                  <c:v>416.75</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>417.45</c:v>
+                  <c:v>417.75</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>419.2</c:v>
+                  <c:v>419.5</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>423.7</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>425.95</c:v>
+                  <c:v>426.25</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>426.95</c:v>
+                  <c:v>427.25</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>429.2</c:v>
+                  <c:v>429.5</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>430.7</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>432.45</c:v>
+                  <c:v>432.75</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>437.45</c:v>
+                  <c:v>437.75</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>439.2</c:v>
+                  <c:v>439.5</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>440.2</c:v>
+                  <c:v>440.5</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>441.45</c:v>
+                  <c:v>441.75</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>441.7</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>441.95</c:v>
+                  <c:v>442.25</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>442.45</c:v>
+                  <c:v>442.75</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>443.45</c:v>
+                  <c:v>443.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>445.45</c:v>
+                  <c:v>445.75</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>446.45</c:v>
+                  <c:v>446.75</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>450.7</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>452.7</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>453.7</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>454.95</c:v>
+                  <c:v>455.25</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>455.45</c:v>
+                  <c:v>455.75</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>458.95</c:v>
+                  <c:v>459.25</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>460.45</c:v>
+                  <c:v>460.75</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>462.7</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>463.95</c:v>
+                  <c:v>464.25</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>465.7</c:v>
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9824,41 +9911,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z189"/>
+  <dimension ref="A1:Z194"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.7265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" style="20" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="20.453125" customWidth="1"/>
+    <col min="23" max="23" width="24.81640625" customWidth="1"/>
+    <col min="24" max="24" width="16.54296875" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" customWidth="1"/>
+    <col min="26" max="27" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -9920,7 +10007,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9973,7 +10060,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10012,22 +10099,22 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>465.7</v>
+        <v>468</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M152:M392)</f>
-        <v>70.75</v>
+        <f>SUM(M152:M389)</f>
+        <v>72.75</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M19:M151)</f>
-        <v>353.2</v>
+        <v>353.5</v>
       </c>
       <c r="X3" s="4">
         <f>SUM(M2:M18)</f>
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10068,7 +10155,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10106,7 +10193,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -10144,7 +10231,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -10182,7 +10269,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -10220,7 +10307,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -10258,7 +10345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -10314,7 +10401,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10371,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10428,7 +10515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10485,7 +10572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -10530,7 +10617,7 @@
       </c>
       <c r="W14" s="4">
         <f>SUM(M18:M32)</f>
-        <v>38.200000000000003</v>
+        <v>38.5</v>
       </c>
       <c r="X14">
         <f>COUNTIF(P:P, "Gamma")</f>
@@ -10545,7 +10632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -10602,7 +10689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -10659,7 +10746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -10730,7 +10817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -10782,15 +10869,15 @@
         <v>66</v>
       </c>
       <c r="Y18" s="14">
-        <f>C137-C117+1</f>
-        <v>32</v>
+        <f>C182-C117+1</f>
+        <v>93</v>
       </c>
       <c r="Z18" s="14">
         <f>Y18-X18</f>
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -10834,11 +10921,15 @@
         <v>355</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M183:M400)</f>
+        <f>SUM(M183:M397)</f>
+        <v>14</v>
+      </c>
+      <c r="X19">
+        <f>COUNTIF(P:P, "Freestyle 5")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -10876,7 +10967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -10933,7 +11024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -10990,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -11041,23 +11132,23 @@
         <v>282</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M381)</f>
-        <v>215.75</v>
+        <f>SUM(M100:M378)</f>
+        <v>217.75</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -11098,7 +11189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -11136,11 +11227,11 @@
         <v>60.5</v>
       </c>
       <c r="Z25">
-        <f>SUM(Z11:Z18)</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <f>SUM(Z11:Z19)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -11178,7 +11269,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -11219,7 +11310,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -11270,7 +11361,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -11311,7 +11402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -11349,7 +11440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -11371,7 +11462,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="M31" s="4">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="N31" t="s">
         <v>69</v>
@@ -11387,10 +11478,10 @@
       </c>
       <c r="T31" s="4">
         <f t="shared" si="2"/>
-        <v>72.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -11428,10 +11519,10 @@
       </c>
       <c r="T32" s="4">
         <f t="shared" si="2"/>
-        <v>76.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -11476,10 +11567,10 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" si="2"/>
-        <v>78.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -11524,10 +11615,10 @@
       </c>
       <c r="T34" s="4">
         <f t="shared" si="2"/>
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -11562,10 +11653,10 @@
       </c>
       <c r="T35" s="4">
         <f t="shared" ref="T35:T66" si="5">T34+M35</f>
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -11603,10 +11694,10 @@
       </c>
       <c r="T36" s="4">
         <f t="shared" si="5"/>
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -11644,10 +11735,10 @@
       </c>
       <c r="T37" s="4">
         <f t="shared" si="5"/>
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -11682,10 +11773,10 @@
       </c>
       <c r="T38" s="4">
         <f t="shared" si="5"/>
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -11723,10 +11814,10 @@
       </c>
       <c r="T39" s="4">
         <f t="shared" si="5"/>
-        <v>97.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -11764,10 +11855,10 @@
       </c>
       <c r="T40" s="4">
         <f t="shared" si="5"/>
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>100.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -11802,10 +11893,10 @@
       </c>
       <c r="T41" s="4">
         <f t="shared" si="5"/>
-        <v>100.95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>101.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -11853,10 +11944,10 @@
       </c>
       <c r="T42" s="4">
         <f t="shared" si="5"/>
-        <v>104.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -11894,10 +11985,10 @@
       </c>
       <c r="T43" s="4">
         <f t="shared" si="5"/>
-        <v>106.45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -11955,10 +12046,10 @@
       </c>
       <c r="T44" s="4">
         <f t="shared" si="5"/>
-        <v>114.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -12006,10 +12097,10 @@
       </c>
       <c r="T45" s="4">
         <f t="shared" si="5"/>
-        <v>116.95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>117.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -12047,10 +12138,10 @@
       </c>
       <c r="T46" s="4">
         <f t="shared" si="5"/>
-        <v>117.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -12088,10 +12179,10 @@
       </c>
       <c r="T47" s="4">
         <f t="shared" si="5"/>
-        <v>118.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -12129,10 +12220,10 @@
       </c>
       <c r="T48" s="4">
         <f t="shared" si="5"/>
-        <v>121.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>122.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -12170,10 +12261,10 @@
       </c>
       <c r="T49" s="4">
         <f t="shared" si="5"/>
-        <v>124.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -12217,10 +12308,10 @@
       </c>
       <c r="T50" s="4">
         <f t="shared" si="5"/>
-        <v>131.94999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -12264,10 +12355,10 @@
       </c>
       <c r="T51" s="4">
         <f t="shared" si="5"/>
-        <v>135.44999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>135.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -12311,10 +12402,10 @@
       </c>
       <c r="T52" s="4">
         <f t="shared" si="5"/>
-        <v>137.69999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -12358,10 +12449,10 @@
       </c>
       <c r="T53" s="4">
         <f t="shared" si="5"/>
-        <v>138.44999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>138.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -12405,10 +12496,10 @@
       </c>
       <c r="T54" s="4">
         <f t="shared" si="5"/>
-        <v>140.94999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -12452,10 +12543,10 @@
       </c>
       <c r="T55" s="4">
         <f t="shared" si="5"/>
-        <v>144.69999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -12499,10 +12590,10 @@
       </c>
       <c r="T56" s="4">
         <f t="shared" si="5"/>
-        <v>147.94999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>148.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -12546,10 +12637,10 @@
       </c>
       <c r="T57" s="4">
         <f t="shared" si="5"/>
-        <v>150.44999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -12593,10 +12684,10 @@
       </c>
       <c r="T58" s="4">
         <f t="shared" si="5"/>
-        <v>150.44999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -12640,10 +12731,10 @@
       </c>
       <c r="T59" s="4">
         <f t="shared" si="5"/>
-        <v>150.94999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>151.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -12681,10 +12772,10 @@
       </c>
       <c r="T60" s="4">
         <f t="shared" si="5"/>
-        <v>151.94999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>152.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -12728,10 +12819,10 @@
       </c>
       <c r="T61" s="4">
         <f t="shared" si="5"/>
-        <v>153.69999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -12785,10 +12876,10 @@
       </c>
       <c r="T62" s="4">
         <f t="shared" si="5"/>
-        <v>159.69999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -12832,10 +12923,10 @@
       </c>
       <c r="T63" s="4">
         <f t="shared" si="5"/>
-        <v>163.19999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -12879,10 +12970,10 @@
       </c>
       <c r="T64" s="4">
         <f t="shared" si="5"/>
-        <v>165.45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>165.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -12926,10 +13017,10 @@
       </c>
       <c r="T65" s="4">
         <f t="shared" si="5"/>
-        <v>166.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -12973,10 +13064,10 @@
       </c>
       <c r="T66" s="4">
         <f t="shared" si="5"/>
-        <v>167.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -13020,10 +13111,10 @@
       </c>
       <c r="T67" s="4">
         <f t="shared" ref="T67:T130" si="7">T66+M67</f>
-        <v>167.95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <v>168.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -13067,10 +13158,10 @@
       </c>
       <c r="T68" s="4">
         <f t="shared" si="7"/>
-        <v>169.95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>170.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -13114,10 +13205,10 @@
       </c>
       <c r="T69" s="4">
         <f t="shared" si="7"/>
-        <v>173.95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -13161,10 +13252,10 @@
       </c>
       <c r="T70" s="4">
         <f t="shared" si="7"/>
-        <v>176.95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>177.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -13208,10 +13299,10 @@
       </c>
       <c r="T71" s="4">
         <f t="shared" si="7"/>
-        <v>178.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -13255,10 +13346,10 @@
       </c>
       <c r="T72" s="4">
         <f t="shared" si="7"/>
-        <v>181.7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -13312,10 +13403,10 @@
       </c>
       <c r="T73" s="4">
         <f t="shared" si="7"/>
-        <v>184.45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>184.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -13359,10 +13450,10 @@
       </c>
       <c r="T74" s="4">
         <f t="shared" si="7"/>
-        <v>184.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -13406,10 +13497,10 @@
       </c>
       <c r="T75" s="4">
         <f t="shared" si="7"/>
-        <v>188.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -13463,10 +13554,10 @@
       </c>
       <c r="T76" s="4">
         <f t="shared" si="7"/>
-        <v>190.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>191.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -13510,10 +13601,10 @@
       </c>
       <c r="T77" s="4">
         <f t="shared" si="7"/>
-        <v>192.95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>193.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -13567,10 +13658,10 @@
       </c>
       <c r="T78" s="4">
         <f t="shared" si="7"/>
-        <v>196.45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>196.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -13614,10 +13705,10 @@
       </c>
       <c r="T79" s="4">
         <f t="shared" si="7"/>
-        <v>200.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -13661,10 +13752,10 @@
       </c>
       <c r="T80" s="4">
         <f t="shared" si="7"/>
-        <v>204.45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+        <v>204.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -13708,10 +13799,10 @@
       </c>
       <c r="T81" s="4">
         <f t="shared" si="7"/>
-        <v>208.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -13775,10 +13866,10 @@
       </c>
       <c r="T82" s="4">
         <f t="shared" si="7"/>
-        <v>210.95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+        <v>211.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -13822,10 +13913,10 @@
       </c>
       <c r="T83" s="4">
         <f t="shared" si="7"/>
-        <v>212.95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>213.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -13869,10 +13960,10 @@
       </c>
       <c r="T84" s="4">
         <f t="shared" si="7"/>
-        <v>217.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -13916,10 +14007,10 @@
       </c>
       <c r="T85" s="4">
         <f t="shared" si="7"/>
-        <v>220.45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+        <v>220.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -13960,10 +14051,10 @@
       </c>
       <c r="T86" s="4">
         <f t="shared" si="7"/>
-        <v>224.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -14004,10 +14095,10 @@
       </c>
       <c r="T87" s="4">
         <f t="shared" si="7"/>
-        <v>228.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -14058,10 +14149,10 @@
       </c>
       <c r="T88" s="4">
         <f t="shared" si="7"/>
-        <v>230.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -14105,10 +14196,10 @@
       </c>
       <c r="T89" s="4">
         <f t="shared" si="7"/>
-        <v>230.95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+        <v>231.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -14162,10 +14253,10 @@
       </c>
       <c r="T90" s="4">
         <f t="shared" si="7"/>
-        <v>233.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -14209,10 +14300,10 @@
       </c>
       <c r="T91" s="4">
         <f t="shared" si="7"/>
-        <v>235.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -14266,10 +14357,10 @@
       </c>
       <c r="T92" s="4">
         <f t="shared" si="7"/>
-        <v>238.95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+        <v>239.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -14313,10 +14404,10 @@
       </c>
       <c r="T93" s="4">
         <f t="shared" si="7"/>
-        <v>239.95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+        <v>240.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -14360,10 +14451,10 @@
       </c>
       <c r="T94" s="4">
         <f t="shared" si="7"/>
-        <v>240.95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+        <v>241.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -14407,10 +14498,10 @@
       </c>
       <c r="T95" s="4">
         <f t="shared" si="7"/>
-        <v>241.45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+        <v>241.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -14454,10 +14545,10 @@
       </c>
       <c r="T96" s="4">
         <f t="shared" si="7"/>
-        <v>241.95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+        <v>242.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -14501,10 +14592,10 @@
       </c>
       <c r="T97" s="4">
         <f t="shared" si="7"/>
-        <v>244.95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -14545,10 +14636,10 @@
       </c>
       <c r="T98" s="4">
         <f t="shared" si="7"/>
-        <v>248.95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -14592,10 +14683,10 @@
       </c>
       <c r="T99" s="4">
         <f t="shared" si="7"/>
-        <v>249.95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -14639,10 +14730,10 @@
       </c>
       <c r="T100" s="4">
         <f t="shared" si="7"/>
-        <v>257.95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+        <v>258.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -14683,10 +14774,10 @@
       </c>
       <c r="T101" s="4">
         <f t="shared" si="7"/>
-        <v>261.45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+        <v>261.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -14730,10 +14821,10 @@
       </c>
       <c r="T102" s="4">
         <f t="shared" si="7"/>
-        <v>262.2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -14777,10 +14868,10 @@
       </c>
       <c r="T103" s="4">
         <f t="shared" si="7"/>
-        <v>265.2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -14834,10 +14925,10 @@
       </c>
       <c r="T104" s="4">
         <f t="shared" si="7"/>
-        <v>269.7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -14891,10 +14982,10 @@
       </c>
       <c r="T105" s="4">
         <f t="shared" si="7"/>
-        <v>273.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+        <v>273.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -14938,10 +15029,10 @@
       </c>
       <c r="T106" s="4">
         <f t="shared" si="7"/>
-        <v>278.45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+        <v>278.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -14985,10 +15076,10 @@
       </c>
       <c r="T107" s="4">
         <f t="shared" si="7"/>
-        <v>279.7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>67</v>
       </c>
@@ -15032,10 +15123,10 @@
       </c>
       <c r="T108" s="4">
         <f t="shared" si="7"/>
-        <v>280.95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -15079,10 +15170,10 @@
       </c>
       <c r="T109" s="4">
         <f t="shared" si="7"/>
-        <v>283.95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+        <v>284.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -15136,10 +15227,10 @@
       </c>
       <c r="T110" s="4">
         <f t="shared" si="7"/>
-        <v>286.45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+        <v>286.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -15203,10 +15294,10 @@
       </c>
       <c r="T111" s="4">
         <f t="shared" si="7"/>
-        <v>293.2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -15247,10 +15338,10 @@
       </c>
       <c r="T112" s="4">
         <f t="shared" si="7"/>
-        <v>295.45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+        <v>295.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -15294,10 +15385,10 @@
       </c>
       <c r="T113" s="4">
         <f t="shared" si="7"/>
-        <v>296.45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+        <v>296.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -15341,10 +15432,10 @@
       </c>
       <c r="T114" s="4">
         <f t="shared" si="7"/>
-        <v>298.45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+        <v>298.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -15388,10 +15479,10 @@
       </c>
       <c r="T115" s="4">
         <f t="shared" si="7"/>
-        <v>299.45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+        <v>299.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -15455,10 +15546,10 @@
       </c>
       <c r="T116" s="4">
         <f t="shared" si="7"/>
-        <v>302.95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+        <v>303.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -15502,10 +15593,10 @@
       </c>
       <c r="T117" s="4">
         <f t="shared" si="7"/>
-        <v>304.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -15549,10 +15640,10 @@
       </c>
       <c r="T118" s="4">
         <f t="shared" si="7"/>
-        <v>305.7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>67</v>
       </c>
@@ -15596,10 +15687,10 @@
       </c>
       <c r="T119" s="4">
         <f t="shared" si="7"/>
-        <v>306.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -15640,10 +15731,10 @@
       </c>
       <c r="T120" s="4">
         <f t="shared" si="7"/>
-        <v>308.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -15684,10 +15775,10 @@
       </c>
       <c r="T121" s="4">
         <f t="shared" si="7"/>
-        <v>312.2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -15740,10 +15831,10 @@
       </c>
       <c r="T122" s="4">
         <f t="shared" si="7"/>
-        <v>316.45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+        <v>316.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15787,10 +15878,10 @@
       </c>
       <c r="T123" s="4">
         <f t="shared" si="7"/>
-        <v>319.95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+        <v>320.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -15834,10 +15925,10 @@
       </c>
       <c r="T124" s="4">
         <f t="shared" si="7"/>
-        <v>321.7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -15881,10 +15972,10 @@
       </c>
       <c r="T125" s="4">
         <f t="shared" si="7"/>
-        <v>323.45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+        <v>323.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -15928,10 +16019,10 @@
       </c>
       <c r="T126" s="4">
         <f t="shared" si="7"/>
-        <v>325.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+        <v>325.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -15985,10 +16076,10 @@
       </c>
       <c r="T127" s="4">
         <f t="shared" si="7"/>
-        <v>328.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -16042,10 +16133,10 @@
       </c>
       <c r="T128" s="4">
         <f t="shared" si="7"/>
-        <v>332.2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+        <v>332.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -16086,10 +16177,10 @@
       </c>
       <c r="T129" s="4">
         <f t="shared" si="7"/>
-        <v>335.45</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+        <v>335.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -16130,10 +16221,10 @@
       </c>
       <c r="T130" s="4">
         <f t="shared" si="7"/>
-        <v>337.2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -16176,11 +16267,11 @@
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T189" si="17">T130+M131</f>
-        <v>344.95</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T131:T194" si="17">T130+M131</f>
+        <v>345.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -16221,10 +16312,10 @@
       </c>
       <c r="T132" s="4">
         <f t="shared" si="17"/>
-        <v>345.7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>35</v>
       </c>
@@ -16268,10 +16359,10 @@
       </c>
       <c r="T133" s="4">
         <f t="shared" si="17"/>
-        <v>347.7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -16312,10 +16403,10 @@
       </c>
       <c r="T134" s="4">
         <f t="shared" si="17"/>
-        <v>349.45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+        <v>349.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -16333,7 +16424,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F189" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F193" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -16369,10 +16460,10 @@
       </c>
       <c r="T135" s="4">
         <f t="shared" si="17"/>
-        <v>354.45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+        <v>354.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -16426,10 +16517,10 @@
       </c>
       <c r="T136" s="4">
         <f t="shared" si="17"/>
-        <v>361.2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -16483,10 +16574,10 @@
       </c>
       <c r="T137" s="4">
         <f t="shared" si="17"/>
-        <v>363.45</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+        <v>363.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -16530,10 +16621,10 @@
       </c>
       <c r="T138" s="4">
         <f t="shared" si="17"/>
-        <v>365.7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -16584,10 +16675,10 @@
       </c>
       <c r="T139" s="4">
         <f t="shared" si="17"/>
-        <v>367.7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -16628,10 +16719,10 @@
       </c>
       <c r="T140" s="4">
         <f t="shared" si="17"/>
-        <v>369.45</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+        <v>369.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -16672,10 +16763,10 @@
       </c>
       <c r="T141" s="4">
         <f t="shared" si="17"/>
-        <v>371.45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+        <v>371.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -16716,10 +16807,10 @@
       </c>
       <c r="T142" s="4">
         <f t="shared" si="17"/>
-        <v>375.7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -16760,10 +16851,10 @@
       </c>
       <c r="T143" s="4">
         <f t="shared" si="17"/>
-        <v>377.95</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+        <v>378.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -16801,10 +16892,10 @@
       </c>
       <c r="T144" s="4">
         <f t="shared" si="17"/>
-        <v>379.45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+        <v>379.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -16855,10 +16946,10 @@
       </c>
       <c r="T145" s="4">
         <f t="shared" si="17"/>
-        <v>381.95</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+        <v>382.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -16896,10 +16987,10 @@
       </c>
       <c r="T146" s="4">
         <f t="shared" si="17"/>
-        <v>384.2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -16937,10 +17028,10 @@
       </c>
       <c r="T147" s="4">
         <f t="shared" si="17"/>
-        <v>387.2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+        <v>387.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -16978,10 +17069,10 @@
       </c>
       <c r="T148" s="4">
         <f t="shared" si="17"/>
-        <v>388.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+        <v>388.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -17019,10 +17110,10 @@
       </c>
       <c r="T149" s="4">
         <f t="shared" si="17"/>
-        <v>389.95</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+        <v>390.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -17060,10 +17151,10 @@
       </c>
       <c r="T150" s="4">
         <f t="shared" si="17"/>
-        <v>392.7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -17104,10 +17195,10 @@
       </c>
       <c r="T151" s="4">
         <f t="shared" si="17"/>
-        <v>394.95</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+        <v>395.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -17148,10 +17239,10 @@
       </c>
       <c r="T152" s="4">
         <f t="shared" si="17"/>
-        <v>400.7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -17192,10 +17283,10 @@
       </c>
       <c r="T153" s="4">
         <f t="shared" si="17"/>
-        <v>404.2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+        <v>404.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -17236,10 +17327,10 @@
       </c>
       <c r="T154" s="4">
         <f t="shared" si="17"/>
-        <v>404.95</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+        <v>405.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -17280,10 +17371,10 @@
       </c>
       <c r="T155" s="4">
         <f t="shared" si="17"/>
-        <v>405.45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+        <v>405.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -17324,10 +17415,10 @@
       </c>
       <c r="T156" s="4">
         <f t="shared" si="17"/>
-        <v>408.95</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+        <v>409.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -17368,10 +17459,10 @@
       </c>
       <c r="T157" s="4">
         <f t="shared" si="17"/>
-        <v>410.95</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+        <v>411.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -17412,10 +17503,10 @@
       </c>
       <c r="T158" s="4">
         <f t="shared" si="17"/>
-        <v>411.45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+        <v>411.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -17456,10 +17547,10 @@
       </c>
       <c r="T159" s="4">
         <f t="shared" si="17"/>
-        <v>412.7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>67</v>
       </c>
@@ -17503,10 +17594,10 @@
       </c>
       <c r="T160" s="4">
         <f t="shared" si="17"/>
-        <v>413.7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -17550,10 +17641,10 @@
       </c>
       <c r="T161" s="4">
         <f t="shared" si="17"/>
-        <v>416.45</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+        <v>416.75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -17594,10 +17685,10 @@
       </c>
       <c r="T162" s="4">
         <f t="shared" si="17"/>
-        <v>417.45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+        <v>417.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -17648,10 +17739,10 @@
       </c>
       <c r="T163" s="4">
         <f t="shared" si="17"/>
-        <v>419.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+        <v>419.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -17702,10 +17793,10 @@
       </c>
       <c r="T164" s="4">
         <f t="shared" si="17"/>
-        <v>423.7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -17713,7 +17804,7 @@
         <v>43499</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" ref="C165:C189" si="20">B165</f>
+        <f t="shared" ref="C165:C194" si="20">B165</f>
         <v>43499</v>
       </c>
       <c r="D165" s="3">
@@ -17749,10 +17840,10 @@
       </c>
       <c r="T165" s="4">
         <f t="shared" si="17"/>
-        <v>425.95</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+        <v>426.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>67</v>
       </c>
@@ -17796,10 +17887,10 @@
       </c>
       <c r="T166" s="4">
         <f t="shared" si="17"/>
-        <v>426.95</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+        <v>427.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -17853,10 +17944,10 @@
       </c>
       <c r="T167" s="4">
         <f t="shared" si="17"/>
-        <v>429.2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+        <v>429.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -17900,10 +17991,10 @@
       </c>
       <c r="T168" s="4">
         <f t="shared" si="17"/>
-        <v>430.7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -17957,10 +18048,10 @@
       </c>
       <c r="T169" s="4">
         <f t="shared" si="17"/>
-        <v>432.45</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+        <v>432.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -18004,10 +18095,10 @@
       </c>
       <c r="T170" s="4">
         <f t="shared" si="17"/>
-        <v>437.45</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+        <v>437.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -18048,10 +18139,10 @@
       </c>
       <c r="T171" s="4">
         <f t="shared" si="17"/>
-        <v>439.2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+        <v>439.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -18092,10 +18183,10 @@
       </c>
       <c r="T172" s="4">
         <f t="shared" si="17"/>
-        <v>440.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+        <v>440.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>67</v>
       </c>
@@ -18136,10 +18227,10 @@
       </c>
       <c r="T173" s="4">
         <f t="shared" si="17"/>
-        <v>441.45</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+        <v>441.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -18180,10 +18271,10 @@
       </c>
       <c r="T174" s="4">
         <f t="shared" si="17"/>
-        <v>441.7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -18224,10 +18315,10 @@
       </c>
       <c r="T175" s="4">
         <f t="shared" si="17"/>
-        <v>441.95</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+        <v>442.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -18268,10 +18359,10 @@
       </c>
       <c r="T176" s="4">
         <f t="shared" si="17"/>
-        <v>442.45</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+        <v>442.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>67</v>
       </c>
@@ -18309,10 +18400,10 @@
       </c>
       <c r="T177" s="4">
         <f t="shared" si="17"/>
-        <v>443.45</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+        <v>443.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -18350,10 +18441,10 @@
       </c>
       <c r="T178" s="4">
         <f t="shared" si="17"/>
-        <v>445.45</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+        <v>445.75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -18391,10 +18482,10 @@
       </c>
       <c r="T179" s="4">
         <f t="shared" si="17"/>
-        <v>446.45</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+        <v>446.75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -18438,10 +18529,10 @@
       </c>
       <c r="T180" s="4">
         <f t="shared" si="17"/>
-        <v>450.7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -18485,10 +18576,10 @@
       </c>
       <c r="T181" s="4">
         <f t="shared" si="17"/>
-        <v>452.7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -18526,10 +18617,10 @@
       </c>
       <c r="T182" s="4">
         <f t="shared" si="17"/>
-        <v>453.7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>67</v>
       </c>
@@ -18580,10 +18671,10 @@
       </c>
       <c r="T183" s="4">
         <f t="shared" si="17"/>
-        <v>454.95</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+        <v>455.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -18624,10 +18715,10 @@
       </c>
       <c r="T184" s="4">
         <f t="shared" si="17"/>
-        <v>455.45</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+        <v>455.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -18675,10 +18766,10 @@
       </c>
       <c r="T185" s="4">
         <f t="shared" si="17"/>
-        <v>458.95</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+        <v>459.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -18716,10 +18807,10 @@
       </c>
       <c r="T186" s="4">
         <f t="shared" si="17"/>
-        <v>460.45</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+        <v>460.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -18757,10 +18848,10 @@
       </c>
       <c r="T187" s="4">
         <f t="shared" si="17"/>
-        <v>462.7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -18798,10 +18889,10 @@
       </c>
       <c r="T188" s="4">
         <f t="shared" si="17"/>
-        <v>463.95</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+        <v>464.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -18849,11 +18940,194 @@
       </c>
       <c r="T189" s="4">
         <f t="shared" si="17"/>
-        <v>465.7</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1">
+        <v>43531</v>
+      </c>
+      <c r="C190" s="5">
+        <f t="shared" si="20"/>
+        <v>43531</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.6875</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="P190" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q190">
+        <v>9</v>
+      </c>
+      <c r="R190" t="s">
+        <v>282</v>
+      </c>
+      <c r="S190">
+        <v>3</v>
+      </c>
+      <c r="T190" s="4">
+        <f t="shared" si="17"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1">
+        <v>43532</v>
+      </c>
+      <c r="C191" s="5">
+        <f t="shared" si="20"/>
+        <v>43532</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.8125</v>
+      </c>
+      <c r="P191" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q191">
+        <v>9</v>
+      </c>
+      <c r="R191" t="s">
+        <v>282</v>
+      </c>
+      <c r="S191">
+        <v>3</v>
+      </c>
+      <c r="T191" s="4">
+        <f t="shared" si="17"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1">
+        <v>43533</v>
+      </c>
+      <c r="C192" s="5">
+        <f t="shared" si="20"/>
+        <v>43533</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="19"/>
+        <v>-0.27083333333333331</v>
+      </c>
+      <c r="N192" t="s">
+        <v>357</v>
+      </c>
+      <c r="P192" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q192">
+        <v>9</v>
+      </c>
+      <c r="R192" t="s">
+        <v>282</v>
+      </c>
+      <c r="S192">
+        <v>3</v>
+      </c>
+      <c r="T192" s="4">
+        <f t="shared" si="17"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="1">
+        <v>43534</v>
+      </c>
+      <c r="C193" s="5">
+        <f t="shared" si="20"/>
+        <v>43534</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="19"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M193" s="4">
+        <v>2</v>
+      </c>
+      <c r="N193" t="s">
+        <v>356</v>
+      </c>
+      <c r="P193" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193" t="s">
+        <v>282</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193" s="4">
+        <f t="shared" si="17"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>67</v>
+      </c>
+      <c r="B194" s="1">
+        <v>43536</v>
+      </c>
+      <c r="C194" s="5">
+        <f t="shared" si="20"/>
+        <v>43536</v>
+      </c>
+      <c r="P194" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q194">
+        <v>9</v>
+      </c>
+      <c r="R194" t="s">
+        <v>282</v>
+      </c>
+      <c r="S194">
+        <v>3</v>
+      </c>
+      <c r="T194" s="4">
+        <f t="shared" si="17"/>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T522">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T519">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -18956,20 +19230,20 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -18998,7 +19272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -19025,7 +19299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19052,7 +19326,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19082,7 +19356,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -19121,11 +19395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19140,13 +19414,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
@@ -19154,7 +19428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -19162,7 +19436,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -19170,7 +19444,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -19178,7 +19452,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -19186,7 +19460,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -19194,7 +19468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -19202,7 +19476,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -19210,7 +19484,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -19218,7 +19492,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -19226,7 +19500,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -19234,7 +19508,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -19242,7 +19516,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -19250,7 +19524,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -19258,7 +19532,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -19266,7 +19540,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -19274,7 +19548,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -19282,7 +19556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -19290,7 +19564,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -19298,7 +19572,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -19306,7 +19580,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -19314,7 +19588,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -19335,22 +19609,22 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" style="17" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" customWidth="1"/>
+    <col min="10" max="10" width="28.81640625" customWidth="1"/>
+    <col min="11" max="11" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>99</v>
       </c>
@@ -19359,7 +19633,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>100</v>
       </c>
@@ -19379,7 +19653,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>101</v>
       </c>
@@ -19402,7 +19676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>102</v>
       </c>
@@ -19425,7 +19699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>105</v>
       </c>
@@ -19448,7 +19722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>103</v>
       </c>
@@ -19471,7 +19745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>104</v>
       </c>
@@ -19494,10 +19768,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>106</v>
       </c>
@@ -19505,7 +19779,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>107</v>
       </c>
@@ -19519,7 +19793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
@@ -19533,7 +19807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
@@ -19547,7 +19821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
@@ -19561,7 +19835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>111</v>
       </c>
@@ -19575,7 +19849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
@@ -19589,12 +19863,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>117</v>
       </c>
@@ -19602,7 +19876,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -19610,7 +19884,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -19618,7 +19892,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>116</v>
       </c>
@@ -19626,7 +19900,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>118</v>
       </c>
@@ -19634,7 +19908,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>110</v>
       </c>
@@ -19642,272 +19916,272 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>156</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC7BC0-EE78-4F6B-8196-A2058DB1676D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1C0D80-373C-4036-B4C3-F523814B7A0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="8640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="362">
   <si>
     <t>Thursday</t>
   </si>
@@ -536,12 +536,6 @@
   </si>
   <si>
     <t>One and One-Quarter Flip / One and One-Quarter Flip / Double Salchow</t>
-  </si>
-  <si>
-    <t>Three Butterfly Jumps in a Row</t>
-  </si>
-  <si>
-    <t>Double Jump to the Right and Double Jump to the Left (not in sequence)</t>
   </si>
   <si>
     <t>Barely Landing Loops with Sora</t>
@@ -1192,7 +1186,25 @@
     <t>Landed Axel again!</t>
   </si>
   <si>
-    <t>Devon's FS5/FS6. Did interpretive and worked on spins and waltz loop</t>
+    <t xml:space="preserve">Landed many axels. Remember to go backwards, look behind me where I want to jump, step onto edge slowly, bend down, and hold as long as possible before jumping. </t>
+  </si>
+  <si>
+    <t>Pairs, Dance</t>
+  </si>
+  <si>
+    <t>Worked on camels and got Devon compliments. Felt good compared to some others. Got socks</t>
+  </si>
+  <si>
+    <t>Did great camel sit, landed axel, started on FS5 program, First time ankle bone pain on overlapping tongue</t>
+  </si>
+  <si>
+    <t>Devon's FS5/FS6. Did interpretive and worked on spins and waltz loop. Left after Dance and did not come back due to foot pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Jump to the Right and Double Jump to the Left (not in sequence) or Triple Toe Assisted Jump/ Double Loop Jump Combination </t>
+  </si>
+  <si>
+    <t>Three Arabian Cartwheels or Butterfly Jumps in a Row (Choice of one)</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1216,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1272,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1305,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1334,6 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,10 +1607,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$379</c:f>
+              <c:f>Data!$C$2:$C$377</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2168,16 +2189,34 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43538</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$379</c:f>
+              <c:f>Data!$M$2:$M$377</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2742,7 +2781,37 @@
                 <c:pt idx="187">
                   <c:v>1.75</c:v>
                 </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.25</c:v>
+                </c:pt>
                 <c:pt idx="191">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3046,10 +3115,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$379</c:f>
+              <c:f>Data!$C$2:$C$377</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3628,16 +3697,34 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43538</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$379</c:f>
+              <c:f>Data!$Q$2:$Q$377</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4215,6 +4302,24 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="192">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="198">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -4628,7 +4733,7 @@
                   <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>41.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,7 +5118,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,10 +5407,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$379</c:f>
+              <c:f>Data!$C$2:$C$377</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -5884,16 +5989,34 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43538</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$379</c:f>
+              <c:f>Data!$T$2:$T$377</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6459,19 +6582,37 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>466</c:v>
+                  <c:v>471.5</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>466</c:v>
+                  <c:v>473.5</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>466</c:v>
+                  <c:v>476.75</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>468</c:v>
+                  <c:v>478.75</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>468</c:v>
+                  <c:v>479.75</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>483.25</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>488.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>490.75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>492.25</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>493.25</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>495.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9911,41 +10052,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z194"/>
+  <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView topLeftCell="O10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" style="20" customWidth="1"/>
-    <col min="17" max="17" width="9.453125" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" customWidth="1"/>
-    <col min="20" max="20" width="13.1796875" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="20.453125" customWidth="1"/>
-    <col min="23" max="23" width="24.81640625" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="27" width="16.7265625" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -9998,16 +10139,16 @@
         <v>25</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10032,7 +10173,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -10051,16 +10192,16 @@
         <v>4</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10099,11 +10240,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>468</v>
+        <v>495.25</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M152:M389)</f>
-        <v>72.75</v>
+        <f>SUM(M152:M387)</f>
+        <v>100</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M19:M151)</f>
@@ -10114,7 +10255,7 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10155,7 +10296,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10193,7 +10334,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -10231,7 +10372,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -10269,7 +10410,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -10307,7 +10448,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -10345,7 +10486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -10392,16 +10533,16 @@
         <v>78</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10458,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10515,7 +10656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10572,7 +10713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -10632,7 +10773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -10689,7 +10830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -10727,7 +10868,7 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M96)</f>
@@ -10746,7 +10887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -10798,7 +10939,7 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M97:M116)</f>
@@ -10817,7 +10958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -10858,7 +10999,7 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="W18" s="4">
         <f>SUM(M117:M182)</f>
@@ -10877,7 +11018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -10918,18 +11059,18 @@
         <v>42.75</v>
       </c>
       <c r="V19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M183:M397)</f>
-        <v>14</v>
+        <f>SUM(M183:M395)</f>
+        <v>41.25</v>
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 5")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -10967,7 +11108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11146,7 @@
         <v>47.25</v>
       </c>
       <c r="V21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="W21" s="4">
         <f>SUM(M50:M92)</f>
@@ -11024,7 +11165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -11062,7 +11203,7 @@
         <v>51.25</v>
       </c>
       <c r="V22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W22" s="4">
         <f>SUM(M93:M100)</f>
@@ -11081,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -11129,26 +11270,26 @@
         <v>58.5</v>
       </c>
       <c r="V23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M378)</f>
-        <v>217.75</v>
+        <f>SUM(M100:M376)</f>
+        <v>245</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -11186,10 +11327,10 @@
         <v>59.5</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -11231,7 +11372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +11410,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -11310,7 +11451,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -11361,7 +11502,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -11402,7 +11543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -11440,7 +11581,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -11481,7 +11622,7 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -11522,7 +11663,7 @@
         <v>76.75</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -11570,7 +11711,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -11618,7 +11759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -11656,7 +11797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -11697,7 +11838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -11738,7 +11879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -11776,7 +11917,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -11817,7 +11958,7 @@
         <v>97.75</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -11858,7 +11999,7 @@
         <v>100.25</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -11896,7 +12037,7 @@
         <v>101.25</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +12088,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -11988,7 +12129,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -12049,7 +12190,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -12100,7 +12241,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -12141,7 +12282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -12182,7 +12323,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -12207,7 +12348,7 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O48" t="s">
         <v>91</v>
@@ -12223,7 +12364,7 @@
         <v>122.25</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -12248,7 +12389,7 @@
         <v>2.75</v>
       </c>
       <c r="N49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O49" t="s">
         <v>92</v>
@@ -12264,7 +12405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -12289,7 +12430,7 @@
         <v>7.25</v>
       </c>
       <c r="N50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O50" t="s">
         <v>93</v>
@@ -12301,7 +12442,7 @@
         <v>5</v>
       </c>
       <c r="R50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -12311,7 +12452,7 @@
         <v>132.25</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -12336,7 +12477,7 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
@@ -12348,7 +12489,7 @@
         <v>5</v>
       </c>
       <c r="R51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -12358,7 +12499,7 @@
         <v>135.75</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -12383,7 +12524,7 @@
         <v>2.25</v>
       </c>
       <c r="N52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O52" t="s">
         <v>96</v>
@@ -12395,7 +12536,7 @@
         <v>5</v>
       </c>
       <c r="R52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -12405,7 +12546,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -12442,7 +12583,7 @@
         <v>5</v>
       </c>
       <c r="R53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -12452,7 +12593,7 @@
         <v>138.75</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -12477,10 +12618,10 @@
         <v>2.5</v>
       </c>
       <c r="N54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P54" s="21" t="s">
         <v>99</v>
@@ -12489,7 +12630,7 @@
         <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -12499,7 +12640,7 @@
         <v>141.25</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -12524,7 +12665,7 @@
         <v>3.75</v>
       </c>
       <c r="N55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O55" t="s">
         <v>91</v>
@@ -12536,7 +12677,7 @@
         <v>5</v>
       </c>
       <c r="R55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -12546,7 +12687,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -12571,10 +12712,10 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P56" s="21" t="s">
         <v>99</v>
@@ -12583,7 +12724,7 @@
         <v>5</v>
       </c>
       <c r="R56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -12593,7 +12734,7 @@
         <v>148.25</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -12618,10 +12759,10 @@
         <v>2.5</v>
       </c>
       <c r="N57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P57" s="21" t="s">
         <v>99</v>
@@ -12630,7 +12771,7 @@
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -12640,7 +12781,7 @@
         <v>150.75</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -12665,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" t="s">
         <v>68</v>
@@ -12677,7 +12818,7 @@
         <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -12687,7 +12828,7 @@
         <v>150.75</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -12712,10 +12853,10 @@
         <v>0.5</v>
       </c>
       <c r="N59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P59" s="21" t="s">
         <v>99</v>
@@ -12724,7 +12865,7 @@
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -12734,7 +12875,7 @@
         <v>151.25</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -12765,7 +12906,7 @@
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -12775,7 +12916,7 @@
         <v>152.25</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -12800,7 +12941,7 @@
         <v>1.75</v>
       </c>
       <c r="N61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O61" t="s">
         <v>17</v>
@@ -12812,7 +12953,7 @@
         <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -12822,7 +12963,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -12857,10 +12998,10 @@
         <v>6</v>
       </c>
       <c r="N62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P62" s="21" t="s">
         <v>99</v>
@@ -12869,7 +13010,7 @@
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -12879,7 +13020,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -12904,7 +13045,7 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" t="s">
         <v>17</v>
@@ -12916,7 +13057,7 @@
         <v>5</v>
       </c>
       <c r="R63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -12926,7 +13067,7 @@
         <v>163.5</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -12951,10 +13092,10 @@
         <v>2.25</v>
       </c>
       <c r="N64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P64" s="21" t="s">
         <v>99</v>
@@ -12963,7 +13104,7 @@
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -12973,7 +13114,7 @@
         <v>165.75</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -12998,10 +13139,10 @@
         <v>0.75</v>
       </c>
       <c r="N65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P65" s="21" t="s">
         <v>99</v>
@@ -13010,7 +13151,7 @@
         <v>5</v>
       </c>
       <c r="R65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -13020,7 +13161,7 @@
         <v>166.5</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -13045,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" t="s">
         <v>20</v>
@@ -13057,7 +13198,7 @@
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -13067,7 +13208,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -13092,10 +13233,10 @@
         <v>0.75</v>
       </c>
       <c r="N67" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P67" s="21" t="s">
         <v>99</v>
@@ -13104,7 +13245,7 @@
         <v>5</v>
       </c>
       <c r="R67" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -13114,7 +13255,7 @@
         <v>168.25</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -13139,10 +13280,10 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P68" s="21" t="s">
         <v>99</v>
@@ -13151,7 +13292,7 @@
         <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -13161,7 +13302,7 @@
         <v>170.25</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -13186,7 +13327,7 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O69" t="s">
         <v>17</v>
@@ -13198,7 +13339,7 @@
         <v>5</v>
       </c>
       <c r="R69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -13208,7 +13349,7 @@
         <v>174.25</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -13233,10 +13374,10 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P70" s="21" t="s">
         <v>99</v>
@@ -13245,7 +13386,7 @@
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -13255,7 +13396,7 @@
         <v>177.25</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -13280,10 +13421,10 @@
         <v>1.75</v>
       </c>
       <c r="N71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P71" s="21" t="s">
         <v>99</v>
@@ -13292,7 +13433,7 @@
         <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -13302,7 +13443,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -13327,10 +13468,10 @@
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P72" s="21" t="s">
         <v>99</v>
@@ -13339,7 +13480,7 @@
         <v>5</v>
       </c>
       <c r="R72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -13349,7 +13490,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -13384,10 +13525,10 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P73" s="21" t="s">
         <v>99</v>
@@ -13396,7 +13537,7 @@
         <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -13406,7 +13547,7 @@
         <v>184.75</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -13431,10 +13572,10 @@
         <v>0.25</v>
       </c>
       <c r="N74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P74" s="21" t="s">
         <v>99</v>
@@ -13443,7 +13584,7 @@
         <v>5</v>
       </c>
       <c r="R74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -13453,7 +13594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -13478,7 +13619,7 @@
         <v>3.5</v>
       </c>
       <c r="N75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -13490,7 +13631,7 @@
         <v>5</v>
       </c>
       <c r="R75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -13500,7 +13641,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -13535,10 +13676,10 @@
         <v>2.75</v>
       </c>
       <c r="N76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P76" s="21" t="s">
         <v>99</v>
@@ -13547,7 +13688,7 @@
         <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -13557,7 +13698,7 @@
         <v>191.25</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -13582,10 +13723,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P77" s="21" t="s">
         <v>99</v>
@@ -13594,7 +13735,7 @@
         <v>5</v>
       </c>
       <c r="R77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -13604,7 +13745,7 @@
         <v>193.25</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -13639,10 +13780,10 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P78" s="21" t="s">
         <v>99</v>
@@ -13651,7 +13792,7 @@
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -13661,7 +13802,7 @@
         <v>196.75</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -13686,7 +13827,7 @@
         <v>3.75</v>
       </c>
       <c r="N79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
@@ -13698,7 +13839,7 @@
         <v>5</v>
       </c>
       <c r="R79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -13708,7 +13849,7 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -13733,10 +13874,10 @@
         <v>4.25</v>
       </c>
       <c r="N80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P80" s="21" t="s">
         <v>99</v>
@@ -13745,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="R80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -13755,7 +13896,7 @@
         <v>204.75</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -13780,7 +13921,7 @@
         <v>3.75</v>
       </c>
       <c r="N81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
@@ -13792,7 +13933,7 @@
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -13802,7 +13943,7 @@
         <v>208.5</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -13847,10 +13988,10 @@
         <v>2.75</v>
       </c>
       <c r="N82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P82" s="21" t="s">
         <v>99</v>
@@ -13859,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -13869,7 +14010,7 @@
         <v>211.25</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -13894,10 +14035,10 @@
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P83" s="21" t="s">
         <v>99</v>
@@ -13906,7 +14047,7 @@
         <v>5</v>
       </c>
       <c r="R83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -13916,7 +14057,7 @@
         <v>213.25</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -13941,10 +14082,10 @@
         <v>4.75</v>
       </c>
       <c r="N84" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P84" s="21" t="s">
         <v>99</v>
@@ -13953,7 +14094,7 @@
         <v>5</v>
       </c>
       <c r="R84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -13963,7 +14104,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -13988,7 +14129,7 @@
         <v>2.75</v>
       </c>
       <c r="N85" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
@@ -14000,7 +14141,7 @@
         <v>5</v>
       </c>
       <c r="R85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -14010,7 +14151,7 @@
         <v>220.75</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -14035,7 +14176,7 @@
         <v>4.25</v>
       </c>
       <c r="O86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P86" s="21" t="s">
         <v>99</v>
@@ -14044,7 +14185,7 @@
         <v>5</v>
       </c>
       <c r="R86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -14054,7 +14195,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -14088,7 +14229,7 @@
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -14098,7 +14239,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -14133,7 +14274,7 @@
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P88" s="21" t="s">
         <v>99</v>
@@ -14142,7 +14283,7 @@
         <v>5</v>
       </c>
       <c r="R88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -14152,7 +14293,7 @@
         <v>230.5</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -14177,10 +14318,10 @@
         <v>0.75</v>
       </c>
       <c r="N89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P89" s="21" t="s">
         <v>99</v>
@@ -14189,7 +14330,7 @@
         <v>5</v>
       </c>
       <c r="R89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -14199,7 +14340,7 @@
         <v>231.25</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -14234,10 +14375,10 @@
         <v>2.25</v>
       </c>
       <c r="N90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O90" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P90" s="21" t="s">
         <v>99</v>
@@ -14246,7 +14387,7 @@
         <v>5</v>
       </c>
       <c r="R90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -14256,7 +14397,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -14281,7 +14422,7 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
@@ -14293,7 +14434,7 @@
         <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -14303,7 +14444,7 @@
         <v>235.5</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -14338,10 +14479,10 @@
         <v>3.75</v>
       </c>
       <c r="N92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P92" s="21" t="s">
         <v>99</v>
@@ -14350,7 +14491,7 @@
         <v>5</v>
       </c>
       <c r="R92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -14360,7 +14501,7 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -14385,7 +14526,7 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O93" t="s">
         <v>68</v>
@@ -14397,7 +14538,7 @@
         <v>5</v>
       </c>
       <c r="R93" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S93">
         <v>2</v>
@@ -14407,7 +14548,7 @@
         <v>240.25</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -14432,10 +14573,10 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P94" s="21" t="s">
         <v>99</v>
@@ -14444,7 +14585,7 @@
         <v>5</v>
       </c>
       <c r="R94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S94">
         <v>2</v>
@@ -14454,7 +14595,7 @@
         <v>241.25</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -14479,10 +14620,10 @@
         <v>0.5</v>
       </c>
       <c r="N95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P95" s="21" t="s">
         <v>99</v>
@@ -14491,7 +14632,7 @@
         <v>5</v>
       </c>
       <c r="R95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S95">
         <v>2</v>
@@ -14501,7 +14642,7 @@
         <v>241.75</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -14526,10 +14667,10 @@
         <v>0.5</v>
       </c>
       <c r="N96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O96" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P96" s="20" t="s">
         <v>106</v>
@@ -14538,7 +14679,7 @@
         <v>6</v>
       </c>
       <c r="R96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S96">
         <v>2</v>
@@ -14548,7 +14689,7 @@
         <v>242.25</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -14573,10 +14714,10 @@
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P97" s="20" t="s">
         <v>113</v>
@@ -14585,7 +14726,7 @@
         <v>7</v>
       </c>
       <c r="R97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S97">
         <v>2</v>
@@ -14595,7 +14736,7 @@
         <v>245.25</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -14620,7 +14761,7 @@
         <v>4</v>
       </c>
       <c r="O98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P98" s="20" t="s">
         <v>113</v>
@@ -14629,7 +14770,7 @@
         <v>7</v>
       </c>
       <c r="R98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S98">
         <v>2</v>
@@ -14639,7 +14780,7 @@
         <v>249.25</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -14664,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
@@ -14676,7 +14817,7 @@
         <v>7</v>
       </c>
       <c r="R99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S99">
         <v>2</v>
@@ -14686,7 +14827,7 @@
         <v>250.25</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -14711,10 +14852,10 @@
         <v>8</v>
       </c>
       <c r="N100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P100" s="20" t="s">
         <v>113</v>
@@ -14723,7 +14864,7 @@
         <v>7</v>
       </c>
       <c r="R100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S100">
         <v>2</v>
@@ -14733,7 +14874,7 @@
         <v>258.25</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -14767,7 +14908,7 @@
         <v>7</v>
       </c>
       <c r="R101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S101">
         <v>3</v>
@@ -14777,7 +14918,7 @@
         <v>261.75</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -14802,7 +14943,7 @@
         <v>0.75</v>
       </c>
       <c r="N102" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O102" t="s">
         <v>68</v>
@@ -14814,7 +14955,7 @@
         <v>7</v>
       </c>
       <c r="R102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S102">
         <v>3</v>
@@ -14824,7 +14965,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -14849,10 +14990,10 @@
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O103" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P103" s="20" t="s">
         <v>113</v>
@@ -14861,7 +15002,7 @@
         <v>7</v>
       </c>
       <c r="R103" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S103">
         <v>3</v>
@@ -14871,7 +15012,7 @@
         <v>265.5</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -14906,10 +15047,10 @@
         <v>4.5</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O104" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P104" s="20" t="s">
         <v>113</v>
@@ -14918,7 +15059,7 @@
         <v>7</v>
       </c>
       <c r="R104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S104">
         <v>3</v>
@@ -14928,7 +15069,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -14963,7 +15104,7 @@
         <v>3.5</v>
       </c>
       <c r="N105" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O105" t="s">
         <v>36</v>
@@ -14975,7 +15116,7 @@
         <v>7</v>
       </c>
       <c r="R105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S105">
         <v>3</v>
@@ -14985,7 +15126,7 @@
         <v>273.5</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -15010,10 +15151,10 @@
         <v>5.25</v>
       </c>
       <c r="N106" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O106" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P106" s="20" t="s">
         <v>113</v>
@@ -15022,7 +15163,7 @@
         <v>7</v>
       </c>
       <c r="R106" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S106">
         <v>3</v>
@@ -15032,7 +15173,7 @@
         <v>278.75</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -15057,10 +15198,10 @@
         <v>1.25</v>
       </c>
       <c r="N107" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O107" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P107" s="20" t="s">
         <v>113</v>
@@ -15069,7 +15210,7 @@
         <v>7</v>
       </c>
       <c r="R107" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S107">
         <v>3</v>
@@ -15079,7 +15220,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>67</v>
       </c>
@@ -15104,7 +15245,7 @@
         <v>1.25</v>
       </c>
       <c r="N108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O108" t="s">
         <v>68</v>
@@ -15116,7 +15257,7 @@
         <v>7</v>
       </c>
       <c r="R108" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S108">
         <v>3</v>
@@ -15126,7 +15267,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -15151,10 +15292,10 @@
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O109" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P109" s="20" t="s">
         <v>113</v>
@@ -15163,7 +15304,7 @@
         <v>7</v>
       </c>
       <c r="R109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S109">
         <v>3</v>
@@ -15173,7 +15314,7 @@
         <v>284.25</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -15208,10 +15349,10 @@
         <v>2.5</v>
       </c>
       <c r="N110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O110" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P110" s="20" t="s">
         <v>113</v>
@@ -15220,7 +15361,7 @@
         <v>7</v>
       </c>
       <c r="R110" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S110">
         <v>3</v>
@@ -15230,7 +15371,7 @@
         <v>286.75</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -15275,10 +15416,10 @@
         <v>6.75</v>
       </c>
       <c r="N111" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O111" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P111" s="20" t="s">
         <v>113</v>
@@ -15287,7 +15428,7 @@
         <v>7</v>
       </c>
       <c r="R111" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S111">
         <v>3</v>
@@ -15297,7 +15438,7 @@
         <v>293.5</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -15331,7 +15472,7 @@
         <v>7</v>
       </c>
       <c r="R112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S112">
         <v>3</v>
@@ -15341,7 +15482,7 @@
         <v>295.75</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -15366,10 +15507,10 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O113" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P113" s="20" t="s">
         <v>113</v>
@@ -15378,7 +15519,7 @@
         <v>7</v>
       </c>
       <c r="R113" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S113">
         <v>3</v>
@@ -15388,7 +15529,7 @@
         <v>296.75</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -15413,7 +15554,7 @@
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O114" t="s">
         <v>63</v>
@@ -15425,7 +15566,7 @@
         <v>7</v>
       </c>
       <c r="R114" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S114">
         <v>3</v>
@@ -15435,7 +15576,7 @@
         <v>298.75</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -15460,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O115" t="s">
         <v>68</v>
@@ -15472,7 +15613,7 @@
         <v>7</v>
       </c>
       <c r="R115" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S115">
         <v>3</v>
@@ -15482,7 +15623,7 @@
         <v>299.75</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -15527,10 +15668,10 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O116" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P116" s="20" t="s">
         <v>113</v>
@@ -15539,7 +15680,7 @@
         <v>7</v>
       </c>
       <c r="R116" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S116">
         <v>3</v>
@@ -15549,7 +15690,7 @@
         <v>303.25</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -15574,10 +15715,10 @@
         <v>1.25</v>
       </c>
       <c r="N117" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O117" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P117" s="20" t="s">
         <v>119</v>
@@ -15586,7 +15727,7 @@
         <v>8</v>
       </c>
       <c r="R117" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S117">
         <v>3</v>
@@ -15596,7 +15737,7 @@
         <v>304.5</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -15621,10 +15762,10 @@
         <v>1.5</v>
       </c>
       <c r="N118" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O118" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P118" s="20" t="s">
         <v>119</v>
@@ -15633,7 +15774,7 @@
         <v>8</v>
       </c>
       <c r="R118" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S118">
         <v>3</v>
@@ -15643,7 +15784,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>67</v>
       </c>
@@ -15668,10 +15809,10 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O119" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P119" s="20" t="s">
         <v>119</v>
@@ -15680,7 +15821,7 @@
         <v>8</v>
       </c>
       <c r="R119" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S119">
         <v>3</v>
@@ -15690,7 +15831,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -15715,7 +15856,7 @@
         <v>1.5</v>
       </c>
       <c r="O120" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P120" s="20" t="s">
         <v>119</v>
@@ -15724,7 +15865,7 @@
         <v>8</v>
       </c>
       <c r="R120" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S120">
         <v>3</v>
@@ -15734,7 +15875,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -15759,7 +15900,7 @@
         <v>4</v>
       </c>
       <c r="O121" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P121" s="20" t="s">
         <v>119</v>
@@ -15768,7 +15909,7 @@
         <v>8</v>
       </c>
       <c r="R121" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S121">
         <v>3</v>
@@ -15778,7 +15919,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -15815,7 +15956,7 @@
         <v>4.25</v>
       </c>
       <c r="O122" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P122" s="20" t="s">
         <v>119</v>
@@ -15824,7 +15965,7 @@
         <v>8</v>
       </c>
       <c r="R122" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S122">
         <v>3</v>
@@ -15834,7 +15975,7 @@
         <v>316.75</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15859,10 +16000,10 @@
         <v>3.5</v>
       </c>
       <c r="N123" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O123" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P123" s="20" t="s">
         <v>119</v>
@@ -15871,7 +16012,7 @@
         <v>8</v>
       </c>
       <c r="R123" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S123">
         <v>3</v>
@@ -15881,7 +16022,7 @@
         <v>320.25</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -15906,10 +16047,10 @@
         <v>1.75</v>
       </c>
       <c r="N124" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O124" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P124" s="20" t="s">
         <v>119</v>
@@ -15918,7 +16059,7 @@
         <v>8</v>
       </c>
       <c r="R124" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S124">
         <v>3</v>
@@ -15928,7 +16069,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -15953,10 +16094,10 @@
         <v>1.75</v>
       </c>
       <c r="N125" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O125" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P125" s="20" t="s">
         <v>119</v>
@@ -15965,7 +16106,7 @@
         <v>8</v>
       </c>
       <c r="R125" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S125">
         <v>3</v>
@@ -15975,7 +16116,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -16000,10 +16141,10 @@
         <v>1.75</v>
       </c>
       <c r="N126" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O126" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P126" s="20" t="s">
         <v>119</v>
@@ -16012,7 +16153,7 @@
         <v>8</v>
       </c>
       <c r="R126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S126">
         <v>3</v>
@@ -16022,7 +16163,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -16057,10 +16198,10 @@
         <v>3.5</v>
       </c>
       <c r="N127" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O127" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P127" s="20" t="s">
         <v>119</v>
@@ -16069,7 +16210,7 @@
         <v>8</v>
       </c>
       <c r="R127" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S127">
         <v>3</v>
@@ -16079,7 +16220,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -16114,10 +16255,10 @@
         <v>3.5</v>
       </c>
       <c r="N128" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O128" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P128" s="20" t="s">
         <v>119</v>
@@ -16126,7 +16267,7 @@
         <v>8</v>
       </c>
       <c r="R128" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S128">
         <v>3</v>
@@ -16136,7 +16277,7 @@
         <v>332.5</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -16170,7 +16311,7 @@
         <v>8</v>
       </c>
       <c r="R129" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S129">
         <v>3</v>
@@ -16180,7 +16321,7 @@
         <v>335.75</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -16214,7 +16355,7 @@
         <v>8</v>
       </c>
       <c r="R130" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S130">
         <v>3</v>
@@ -16224,7 +16365,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -16249,10 +16390,10 @@
         <v>7.75</v>
       </c>
       <c r="N131" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O131" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P131" s="20" t="s">
         <v>119</v>
@@ -16261,17 +16402,17 @@
         <v>8</v>
       </c>
       <c r="R131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S131">
         <v>3</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T194" si="17">T130+M131</f>
+        <f t="shared" ref="T131:T195" si="17">T130+M131</f>
         <v>345.25</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -16305,7 +16446,7 @@
         <v>8</v>
       </c>
       <c r="R132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S132">
         <v>3</v>
@@ -16315,7 +16456,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>35</v>
       </c>
@@ -16340,7 +16481,7 @@
         <v>2</v>
       </c>
       <c r="N133" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
@@ -16352,7 +16493,7 @@
         <v>8</v>
       </c>
       <c r="R133" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S133">
         <v>3</v>
@@ -16362,7 +16503,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -16396,7 +16537,7 @@
         <v>8</v>
       </c>
       <c r="R134" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S134">
         <v>3</v>
@@ -16406,7 +16547,7 @@
         <v>349.75</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -16424,7 +16565,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ref="F135:F193" si="19">E135-D135</f>
+        <f t="shared" ref="F135:F198" si="19">E135-D135</f>
         <v>0.125</v>
       </c>
       <c r="G135" s="3">
@@ -16441,10 +16582,10 @@
         <v>5</v>
       </c>
       <c r="N135" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O135" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P135" s="20" t="s">
         <v>119</v>
@@ -16453,7 +16594,7 @@
         <v>8</v>
       </c>
       <c r="R135" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S135">
         <v>3</v>
@@ -16463,7 +16604,7 @@
         <v>354.75</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -16498,10 +16639,10 @@
         <v>6.75</v>
       </c>
       <c r="N136" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O136" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P136" s="20" t="s">
         <v>119</v>
@@ -16510,7 +16651,7 @@
         <v>8</v>
       </c>
       <c r="R136" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S136">
         <v>3</v>
@@ -16520,7 +16661,7 @@
         <v>361.5</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -16555,7 +16696,7 @@
         <v>2.25</v>
       </c>
       <c r="N137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O137" t="s">
         <v>21</v>
@@ -16567,7 +16708,7 @@
         <v>8</v>
       </c>
       <c r="R137" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S137">
         <v>3</v>
@@ -16577,7 +16718,7 @@
         <v>363.75</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -16602,10 +16743,10 @@
         <v>2.25</v>
       </c>
       <c r="N138" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O138" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P138" s="20" t="s">
         <v>119</v>
@@ -16614,7 +16755,7 @@
         <v>8</v>
       </c>
       <c r="R138" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S138">
         <v>3</v>
@@ -16624,7 +16765,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -16659,7 +16800,7 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P139" s="20" t="s">
         <v>119</v>
@@ -16668,7 +16809,7 @@
         <v>8</v>
       </c>
       <c r="R139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S139">
         <v>3</v>
@@ -16678,7 +16819,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -16703,7 +16844,7 @@
         <v>1.75</v>
       </c>
       <c r="N140" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P140" s="20" t="s">
         <v>119</v>
@@ -16712,7 +16853,7 @@
         <v>8</v>
       </c>
       <c r="R140" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S140">
         <v>3</v>
@@ -16722,7 +16863,7 @@
         <v>369.75</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -16747,7 +16888,7 @@
         <v>2</v>
       </c>
       <c r="N141" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P141" s="20" t="s">
         <v>119</v>
@@ -16756,7 +16897,7 @@
         <v>8</v>
       </c>
       <c r="R141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S141">
         <v>3</v>
@@ -16766,7 +16907,7 @@
         <v>371.75</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -16791,7 +16932,7 @@
         <v>4.25</v>
       </c>
       <c r="N142" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P142" s="20" t="s">
         <v>119</v>
@@ -16800,7 +16941,7 @@
         <v>8</v>
       </c>
       <c r="R142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S142">
         <v>3</v>
@@ -16810,7 +16951,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -16835,7 +16976,7 @@
         <v>2.25</v>
       </c>
       <c r="N143" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P143" s="20" t="s">
         <v>119</v>
@@ -16844,7 +16985,7 @@
         <v>8</v>
       </c>
       <c r="R143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S143">
         <v>3</v>
@@ -16854,7 +16995,7 @@
         <v>378.25</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -16885,7 +17026,7 @@
         <v>8</v>
       </c>
       <c r="R144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S144">
         <v>3</v>
@@ -16895,7 +17036,7 @@
         <v>379.75</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -16930,7 +17071,7 @@
         <v>2.5</v>
       </c>
       <c r="N145" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P145" s="20" t="s">
         <v>119</v>
@@ -16939,7 +17080,7 @@
         <v>8</v>
       </c>
       <c r="R145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S145">
         <v>3</v>
@@ -16949,7 +17090,7 @@
         <v>382.25</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -16980,7 +17121,7 @@
         <v>8</v>
       </c>
       <c r="R146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S146">
         <v>3</v>
@@ -16990,7 +17131,7 @@
         <v>384.5</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -17021,7 +17162,7 @@
         <v>8</v>
       </c>
       <c r="R147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S147">
         <v>3</v>
@@ -17031,7 +17172,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -17062,7 +17203,7 @@
         <v>8</v>
       </c>
       <c r="R148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S148">
         <v>3</v>
@@ -17072,7 +17213,7 @@
         <v>388.5</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -17103,7 +17244,7 @@
         <v>8</v>
       </c>
       <c r="R149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S149">
         <v>3</v>
@@ -17113,7 +17254,7 @@
         <v>390.25</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -17144,7 +17285,7 @@
         <v>8</v>
       </c>
       <c r="R150" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S150">
         <v>3</v>
@@ -17154,7 +17295,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -17179,7 +17320,7 @@
         <v>2.25</v>
       </c>
       <c r="N151" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P151" s="20" t="s">
         <v>119</v>
@@ -17188,7 +17329,7 @@
         <v>8</v>
       </c>
       <c r="R151" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S151">
         <v>3</v>
@@ -17198,7 +17339,7 @@
         <v>395.25</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -17223,7 +17364,7 @@
         <v>5.75</v>
       </c>
       <c r="N152" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P152" s="20" t="s">
         <v>119</v>
@@ -17232,7 +17373,7 @@
         <v>8</v>
       </c>
       <c r="R152" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S152">
         <v>3</v>
@@ -17242,7 +17383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -17267,7 +17408,7 @@
         <v>3.5</v>
       </c>
       <c r="N153" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P153" s="20" t="s">
         <v>119</v>
@@ -17276,7 +17417,7 @@
         <v>8</v>
       </c>
       <c r="R153" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S153">
         <v>3</v>
@@ -17286,7 +17427,7 @@
         <v>404.5</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -17311,7 +17452,7 @@
         <v>0.75</v>
       </c>
       <c r="N154" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P154" s="20" t="s">
         <v>119</v>
@@ -17320,7 +17461,7 @@
         <v>8</v>
       </c>
       <c r="R154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S154">
         <v>3</v>
@@ -17330,7 +17471,7 @@
         <v>405.25</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -17355,7 +17496,7 @@
         <v>0.5</v>
       </c>
       <c r="N155" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P155" s="20" t="s">
         <v>119</v>
@@ -17364,7 +17505,7 @@
         <v>8</v>
       </c>
       <c r="R155" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S155">
         <v>3</v>
@@ -17374,7 +17515,7 @@
         <v>405.75</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -17399,7 +17540,7 @@
         <v>3.5</v>
       </c>
       <c r="N156" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P156" s="20" t="s">
         <v>119</v>
@@ -17408,7 +17549,7 @@
         <v>8</v>
       </c>
       <c r="R156" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S156">
         <v>3</v>
@@ -17418,7 +17559,7 @@
         <v>409.25</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -17443,7 +17584,7 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P157" s="20" t="s">
         <v>119</v>
@@ -17452,7 +17593,7 @@
         <v>8</v>
       </c>
       <c r="R157" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S157">
         <v>3</v>
@@ -17462,7 +17603,7 @@
         <v>411.25</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -17487,7 +17628,7 @@
         <v>0.5</v>
       </c>
       <c r="N158" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>119</v>
@@ -17496,7 +17637,7 @@
         <v>8</v>
       </c>
       <c r="R158" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S158">
         <v>3</v>
@@ -17506,7 +17647,7 @@
         <v>411.75</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -17531,7 +17672,7 @@
         <v>1.25</v>
       </c>
       <c r="N159" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P159" s="20" t="s">
         <v>119</v>
@@ -17540,7 +17681,7 @@
         <v>8</v>
       </c>
       <c r="R159" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S159">
         <v>3</v>
@@ -17550,7 +17691,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>67</v>
       </c>
@@ -17575,10 +17716,10 @@
         <v>1</v>
       </c>
       <c r="N160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O160" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P160" s="20" t="s">
         <v>119</v>
@@ -17587,7 +17728,7 @@
         <v>8</v>
       </c>
       <c r="R160" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S160">
         <v>3</v>
@@ -17597,7 +17738,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -17622,10 +17763,10 @@
         <v>2.75</v>
       </c>
       <c r="N161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O161" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P161" s="20" t="s">
         <v>119</v>
@@ -17634,7 +17775,7 @@
         <v>8</v>
       </c>
       <c r="R161" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S161">
         <v>3</v>
@@ -17644,7 +17785,7 @@
         <v>416.75</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -17669,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P162" s="20" t="s">
         <v>119</v>
@@ -17678,7 +17819,7 @@
         <v>8</v>
       </c>
       <c r="R162" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S162">
         <v>3</v>
@@ -17688,7 +17829,7 @@
         <v>417.75</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -17723,7 +17864,7 @@
         <v>1.75</v>
       </c>
       <c r="N163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P163" s="20" t="s">
         <v>119</v>
@@ -17732,7 +17873,7 @@
         <v>8</v>
       </c>
       <c r="R163" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S163">
         <v>3</v>
@@ -17742,7 +17883,7 @@
         <v>419.5</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -17777,7 +17918,7 @@
         <v>4.5</v>
       </c>
       <c r="N164" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P164" s="20" t="s">
         <v>119</v>
@@ -17786,7 +17927,7 @@
         <v>8</v>
       </c>
       <c r="R164" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S164">
         <v>3</v>
@@ -17796,7 +17937,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -17804,7 +17945,7 @@
         <v>43499</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" ref="C165:C194" si="20">B165</f>
+        <f t="shared" ref="C165:C200" si="20">B165</f>
         <v>43499</v>
       </c>
       <c r="D165" s="3">
@@ -17821,7 +17962,7 @@
         <v>2.25</v>
       </c>
       <c r="N165" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O165" t="s">
         <v>17</v>
@@ -17833,7 +17974,7 @@
         <v>8</v>
       </c>
       <c r="R165" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S165">
         <v>3</v>
@@ -17843,7 +17984,7 @@
         <v>426.25</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>67</v>
       </c>
@@ -17868,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O166" t="s">
         <v>68</v>
@@ -17880,7 +18021,7 @@
         <v>8</v>
       </c>
       <c r="R166" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S166">
         <v>3</v>
@@ -17890,7 +18031,7 @@
         <v>427.25</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -17925,10 +18066,10 @@
         <v>2.25</v>
       </c>
       <c r="N167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>119</v>
@@ -17937,7 +18078,7 @@
         <v>8</v>
       </c>
       <c r="R167" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S167">
         <v>3</v>
@@ -17947,7 +18088,7 @@
         <v>429.5</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -17972,10 +18113,10 @@
         <v>1.5</v>
       </c>
       <c r="N168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O168" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P168" s="20" t="s">
         <v>119</v>
@@ -17984,7 +18125,7 @@
         <v>8</v>
       </c>
       <c r="R168" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S168">
         <v>3</v>
@@ -17994,7 +18135,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -18029,10 +18170,10 @@
         <v>1.75</v>
       </c>
       <c r="N169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P169" s="20" t="s">
         <v>119</v>
@@ -18041,7 +18182,7 @@
         <v>8</v>
       </c>
       <c r="R169" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S169">
         <v>3</v>
@@ -18051,7 +18192,7 @@
         <v>432.75</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -18076,10 +18217,10 @@
         <v>5</v>
       </c>
       <c r="N170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P170" s="20" t="s">
         <v>119</v>
@@ -18088,7 +18229,7 @@
         <v>8</v>
       </c>
       <c r="R170" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S170">
         <v>3</v>
@@ -18098,7 +18239,7 @@
         <v>437.75</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -18123,7 +18264,7 @@
         <v>1.75</v>
       </c>
       <c r="N171" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P171" s="20" t="s">
         <v>119</v>
@@ -18132,7 +18273,7 @@
         <v>8</v>
       </c>
       <c r="R171" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S171">
         <v>3</v>
@@ -18142,7 +18283,7 @@
         <v>439.5</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -18167,7 +18308,7 @@
         <v>1</v>
       </c>
       <c r="N172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P172" s="20" t="s">
         <v>119</v>
@@ -18176,7 +18317,7 @@
         <v>8</v>
       </c>
       <c r="R172" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S172">
         <v>3</v>
@@ -18186,7 +18327,7 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>67</v>
       </c>
@@ -18211,7 +18352,7 @@
         <v>1.25</v>
       </c>
       <c r="N173" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P173" s="20" t="s">
         <v>119</v>
@@ -18220,7 +18361,7 @@
         <v>8</v>
       </c>
       <c r="R173" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S173">
         <v>3</v>
@@ -18230,7 +18371,7 @@
         <v>441.75</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -18255,7 +18396,7 @@
         <v>0.25</v>
       </c>
       <c r="N174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>119</v>
@@ -18264,7 +18405,7 @@
         <v>8</v>
       </c>
       <c r="R174" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S174">
         <v>3</v>
@@ -18274,7 +18415,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -18299,7 +18440,7 @@
         <v>0.25</v>
       </c>
       <c r="N175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P175" s="20" t="s">
         <v>119</v>
@@ -18308,7 +18449,7 @@
         <v>8</v>
       </c>
       <c r="R175" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S175">
         <v>3</v>
@@ -18318,7 +18459,7 @@
         <v>442.25</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -18343,7 +18484,7 @@
         <v>0.5</v>
       </c>
       <c r="N176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P176" s="20" t="s">
         <v>119</v>
@@ -18352,7 +18493,7 @@
         <v>8</v>
       </c>
       <c r="R176" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S176">
         <v>3</v>
@@ -18362,7 +18503,7 @@
         <v>442.75</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>67</v>
       </c>
@@ -18393,7 +18534,7 @@
         <v>8</v>
       </c>
       <c r="R177" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S177">
         <v>3</v>
@@ -18403,7 +18544,7 @@
         <v>443.75</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -18434,7 +18575,7 @@
         <v>8</v>
       </c>
       <c r="R178" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S178">
         <v>3</v>
@@ -18444,7 +18585,7 @@
         <v>445.75</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -18475,7 +18616,7 @@
         <v>8</v>
       </c>
       <c r="R179" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S179">
         <v>3</v>
@@ -18485,7 +18626,7 @@
         <v>446.75</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -18510,7 +18651,7 @@
         <v>4.25</v>
       </c>
       <c r="N180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O180" t="s">
         <v>17</v>
@@ -18522,7 +18663,7 @@
         <v>8</v>
       </c>
       <c r="R180" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S180">
         <v>3</v>
@@ -18532,7 +18673,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -18557,7 +18698,7 @@
         <v>2</v>
       </c>
       <c r="N181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O181" t="s">
         <v>17</v>
@@ -18569,7 +18710,7 @@
         <v>8</v>
       </c>
       <c r="R181" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S181">
         <v>3</v>
@@ -18579,7 +18720,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -18610,7 +18751,7 @@
         <v>8</v>
       </c>
       <c r="R182" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S182">
         <v>3</v>
@@ -18620,7 +18761,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>67</v>
       </c>
@@ -18655,7 +18796,7 @@
         <v>1.25</v>
       </c>
       <c r="N183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P183" s="20" t="s">
         <v>125</v>
@@ -18664,7 +18805,7 @@
         <v>9</v>
       </c>
       <c r="R183" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S183">
         <v>3</v>
@@ -18674,7 +18815,7 @@
         <v>455.25</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -18699,7 +18840,7 @@
         <v>0.5</v>
       </c>
       <c r="N184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P184" s="20" t="s">
         <v>125</v>
@@ -18708,7 +18849,7 @@
         <v>9</v>
       </c>
       <c r="R184" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S184">
         <v>3</v>
@@ -18718,7 +18859,7 @@
         <v>455.75</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -18759,7 +18900,7 @@
         <v>9</v>
       </c>
       <c r="R185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S185">
         <v>3</v>
@@ -18769,7 +18910,7 @@
         <v>459.25</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -18800,7 +18941,7 @@
         <v>9</v>
       </c>
       <c r="R186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S186">
         <v>3</v>
@@ -18810,7 +18951,7 @@
         <v>460.75</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -18841,7 +18982,7 @@
         <v>9</v>
       </c>
       <c r="R187" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S187">
         <v>3</v>
@@ -18851,7 +18992,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -18882,7 +19023,7 @@
         <v>9</v>
       </c>
       <c r="R188" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S188">
         <v>3</v>
@@ -18892,7 +19033,7 @@
         <v>464.25</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -18933,7 +19074,7 @@
         <v>9</v>
       </c>
       <c r="R189" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S189">
         <v>3</v>
@@ -18943,7 +19084,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -18957,12 +19098,15 @@
       <c r="D190" s="3">
         <v>0.6875</v>
       </c>
+      <c r="E190" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F190" s="2">
         <f t="shared" si="19"/>
-        <v>-0.6875</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0.80208333333333337</v>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="M190" s="4">
+        <v>5.5</v>
       </c>
       <c r="P190" s="20" t="s">
         <v>125</v>
@@ -18971,17 +19115,17 @@
         <v>9</v>
       </c>
       <c r="R190" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S190">
         <v>3</v>
       </c>
       <c r="T190" s="4">
         <f t="shared" si="17"/>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -18995,9 +19139,15 @@
       <c r="D191" s="3">
         <v>0.8125</v>
       </c>
+      <c r="E191" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F191" s="2">
         <f t="shared" si="19"/>
-        <v>-0.8125</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M191" s="4">
+        <v>2</v>
       </c>
       <c r="P191" s="20" t="s">
         <v>125</v>
@@ -19006,17 +19156,17 @@
         <v>9</v>
       </c>
       <c r="R191" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S191">
         <v>3</v>
       </c>
       <c r="T191" s="4">
         <f t="shared" si="17"/>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+        <v>473.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -19030,12 +19180,18 @@
       <c r="D192" s="3">
         <v>0.27083333333333331</v>
       </c>
+      <c r="E192" s="3">
+        <v>0.40625</v>
+      </c>
       <c r="F192" s="2">
         <f t="shared" si="19"/>
-        <v>-0.27083333333333331</v>
+        <v>0.13541666666666669</v>
+      </c>
+      <c r="M192" s="4">
+        <v>3.25</v>
       </c>
       <c r="N192" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P192" s="20" t="s">
         <v>125</v>
@@ -19044,17 +19200,17 @@
         <v>9</v>
       </c>
       <c r="R192" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S192">
         <v>3</v>
       </c>
       <c r="T192" s="4">
         <f t="shared" si="17"/>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+        <v>476.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -19079,7 +19235,7 @@
         <v>2</v>
       </c>
       <c r="N193" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P193" s="20" t="s">
         <v>125</v>
@@ -19088,17 +19244,17 @@
         <v>9</v>
       </c>
       <c r="R193" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S193">
         <v>3</v>
       </c>
       <c r="T193" s="4">
         <f t="shared" si="17"/>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+        <v>478.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>67</v>
       </c>
@@ -19109,6 +19265,19 @@
         <f t="shared" si="20"/>
         <v>43536</v>
       </c>
+      <c r="D194" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M194" s="4">
+        <v>1</v>
+      </c>
       <c r="P194" s="20" t="s">
         <v>125</v>
       </c>
@@ -19116,18 +19285,280 @@
         <v>9</v>
       </c>
       <c r="R194" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S194">
         <v>3</v>
       </c>
       <c r="T194" s="4">
         <f t="shared" si="17"/>
-        <v>468</v>
-      </c>
+        <v>479.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195" s="1">
+        <v>43537</v>
+      </c>
+      <c r="C195" s="5">
+        <f t="shared" si="20"/>
+        <v>43537</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F195" s="2">
+        <f t="shared" si="19"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="M195" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N195" t="s">
+        <v>357</v>
+      </c>
+      <c r="P195" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q195">
+        <v>9</v>
+      </c>
+      <c r="R195" t="s">
+        <v>280</v>
+      </c>
+      <c r="S195">
+        <v>3</v>
+      </c>
+      <c r="T195" s="4">
+        <f t="shared" si="17"/>
+        <v>483.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="1">
+        <v>43538</v>
+      </c>
+      <c r="C196" s="5">
+        <f t="shared" si="20"/>
+        <v>43538</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" si="19"/>
+        <v>0.21875</v>
+      </c>
+      <c r="M196" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="P196" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196" t="s">
+        <v>280</v>
+      </c>
+      <c r="S196">
+        <v>3</v>
+      </c>
+      <c r="T196" s="4">
+        <f t="shared" ref="T196:T200" si="21">T195+M196</f>
+        <v>488.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1">
+        <v>43539</v>
+      </c>
+      <c r="C197" s="5">
+        <f t="shared" si="20"/>
+        <v>43539</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" si="19"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="M197" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="P197" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q197">
+        <v>9</v>
+      </c>
+      <c r="R197" t="s">
+        <v>280</v>
+      </c>
+      <c r="S197">
+        <v>3</v>
+      </c>
+      <c r="T197" s="4">
+        <f t="shared" si="21"/>
+        <v>490.75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C198" s="5">
+        <f t="shared" si="20"/>
+        <v>43542</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="19"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M198" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N198" t="s">
+        <v>356</v>
+      </c>
+      <c r="P198" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q198">
+        <v>9</v>
+      </c>
+      <c r="R198" t="s">
+        <v>280</v>
+      </c>
+      <c r="S198">
+        <v>3</v>
+      </c>
+      <c r="T198" s="4">
+        <f t="shared" si="21"/>
+        <v>492.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>67</v>
+      </c>
+      <c r="B199" s="1">
+        <v>43543</v>
+      </c>
+      <c r="C199" s="5">
+        <f t="shared" si="20"/>
+        <v>43543</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" ref="F199:F200" si="22">E199-D199</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M199" s="4">
+        <v>1</v>
+      </c>
+      <c r="N199" t="s">
+        <v>358</v>
+      </c>
+      <c r="P199" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q199">
+        <v>9</v>
+      </c>
+      <c r="R199" t="s">
+        <v>280</v>
+      </c>
+      <c r="S199">
+        <v>3</v>
+      </c>
+      <c r="T199" s="4">
+        <f t="shared" si="21"/>
+        <v>493.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" s="1">
+        <v>43544</v>
+      </c>
+      <c r="C200" s="5">
+        <f t="shared" si="20"/>
+        <v>43544</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="22"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M200" s="4">
+        <v>2</v>
+      </c>
+      <c r="N200" t="s">
+        <v>355</v>
+      </c>
+      <c r="P200" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q200">
+        <v>9</v>
+      </c>
+      <c r="R200" t="s">
+        <v>280</v>
+      </c>
+      <c r="S200">
+        <v>3</v>
+      </c>
+      <c r="T200" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+      <c r="C201"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T519">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T517">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -19230,20 +19661,20 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -19272,7 +19703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -19299,7 +19730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19323,10 +19754,10 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19350,13 +19781,13 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -19380,10 +19811,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -19395,11 +19826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19414,13 +19845,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
@@ -19428,172 +19859,172 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -19605,35 +20036,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="17" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="3.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" customWidth="1"/>
-    <col min="10" max="10" width="28.81640625" customWidth="1"/>
-    <col min="11" max="11" width="28.54296875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="15"/>
       <c r="G1" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>100</v>
       </c>
@@ -19641,19 +20072,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>101</v>
       </c>
@@ -19661,13 +20092,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G3" s="13">
         <v>7</v>
@@ -19676,7 +20107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>102</v>
       </c>
@@ -19684,13 +20115,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G4" s="13">
         <v>8</v>
@@ -19699,7 +20130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>105</v>
       </c>
@@ -19707,13 +20138,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G5" s="13">
         <v>7</v>
@@ -19722,7 +20153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>103</v>
       </c>
@@ -19730,13 +20161,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G6" s="13">
         <v>8</v>
@@ -19745,7 +20176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>104</v>
       </c>
@@ -19753,13 +20184,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G7" s="13">
         <v>9</v>
@@ -19768,18 +20199,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>107</v>
       </c>
@@ -19787,13 +20218,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
@@ -19801,13 +20232,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
@@ -19815,13 +20246,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
@@ -19829,13 +20260,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>111</v>
       </c>
@@ -19843,13 +20274,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
@@ -19857,331 +20288,331 @@
         <v>7</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>156</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1C0D80-373C-4036-B4C3-F523814B7A0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EFC9E-4A0B-4BE7-B548-38696A952418}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="8640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39960" yWindow="1815" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="365">
   <si>
     <t>Thursday</t>
   </si>
@@ -1205,6 +1205,15 @@
   </si>
   <si>
     <t>Three Arabian Cartwheels or Butterfly Jumps in a Row (Choice of one)</t>
+  </si>
+  <si>
+    <t>Devon's FS5/FS6 class, worked on FS6 Footwork</t>
+  </si>
+  <si>
+    <t>Landed First Double Salchow, Sit-Change-Sit looking good, Larry 'wowed' at Axel</t>
+  </si>
+  <si>
+    <t>Got on the ice, but too sore to do anything, so I left</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1355,11 +1364,33 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2208,6 +2239,42 @@
                 <c:pt idx="198">
                   <c:v>43544</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>43545</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43550</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43552</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43553</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43554</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43557</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2813,6 +2880,9 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,6 +3786,42 @@
                 <c:pt idx="198">
                   <c:v>43544</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>43545</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43550</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43552</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43553</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43554</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43557</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4320,6 +4426,42 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="198">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -4733,7 +4875,7 @@
                   <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.25</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5118,7 +5260,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6008,6 +6150,42 @@
                 <c:pt idx="198">
                   <c:v>43544</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>43545</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43550</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43552</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43553</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43554</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43557</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6613,6 +6791,42 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>495.25</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10052,10 +10266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView topLeftCell="O10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="P219" sqref="P219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10240,11 +10454,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>495.25</v>
+        <v>496</v>
       </c>
       <c r="V3" s="4">
         <f>SUM(M152:M387)</f>
-        <v>100</v>
+        <v>100.75</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M19:M151)</f>
@@ -11063,11 +11277,11 @@
       </c>
       <c r="W19" s="4">
         <f>SUM(M183:M395)</f>
-        <v>41.25</v>
+        <v>42</v>
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 5")</f>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -11274,19 +11488,19 @@
       </c>
       <c r="W23" s="4">
         <f>SUM(M100:M376)</f>
-        <v>245</v>
+        <v>245.75</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -17945,7 +18159,7 @@
         <v>43499</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" ref="C165:C200" si="20">B165</f>
+        <f t="shared" ref="C165:C212" si="20">B165</f>
         <v>43499</v>
       </c>
       <c r="D165" s="3">
@@ -19376,7 +19590,7 @@
         <v>3</v>
       </c>
       <c r="T196" s="4">
-        <f t="shared" ref="T196:T200" si="21">T195+M196</f>
+        <f t="shared" ref="T196:T212" si="21">T195+M196</f>
         <v>488.5</v>
       </c>
     </row>
@@ -19483,7 +19697,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F199" s="2">
-        <f t="shared" ref="F199:F200" si="22">E199-D199</f>
+        <f t="shared" ref="F199:F212" si="22">E199-D199</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="M199" s="4">
@@ -19554,96 +19768,568 @@
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B201"/>
-      <c r="C201"/>
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="1">
+        <v>43545</v>
+      </c>
+      <c r="C201" s="5">
+        <f t="shared" si="20"/>
+        <v>43545</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.6875</v>
+      </c>
+      <c r="P201" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q201">
+        <v>9</v>
+      </c>
+      <c r="R201" t="str">
+        <f t="shared" ref="R201:R212" si="23">R200</f>
+        <v>Dance 3</v>
+      </c>
+      <c r="S201">
+        <v>3</v>
+      </c>
+      <c r="T201" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C202" s="5">
+        <f t="shared" si="20"/>
+        <v>43549</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.71875</v>
+      </c>
+      <c r="P202" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q202">
+        <v>9</v>
+      </c>
+      <c r="R202" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S202">
+        <v>3</v>
+      </c>
+      <c r="T202" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>67</v>
+      </c>
+      <c r="B203" s="1">
+        <v>43550</v>
+      </c>
+      <c r="C203" s="5">
+        <f t="shared" si="20"/>
+        <v>43550</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.72916666666666663</v>
+      </c>
+      <c r="P203" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q203">
+        <v>9</v>
+      </c>
+      <c r="R203" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S203">
+        <v>3</v>
+      </c>
+      <c r="T203" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="1">
+        <v>43552</v>
+      </c>
+      <c r="C204" s="5">
+        <f t="shared" si="20"/>
+        <v>43552</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="P204" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q204">
+        <v>9</v>
+      </c>
+      <c r="R204" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S204">
+        <v>3</v>
+      </c>
+      <c r="T204" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1">
+        <v>43553</v>
+      </c>
+      <c r="C205" s="5">
+        <f t="shared" si="20"/>
+        <v>43553</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.80208333333333337</v>
+      </c>
+      <c r="P205" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q205">
+        <v>9</v>
+      </c>
+      <c r="R205" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S205">
+        <v>3</v>
+      </c>
+      <c r="T205" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1">
+        <v>43554</v>
+      </c>
+      <c r="C206" s="5">
+        <f t="shared" si="20"/>
+        <v>43554</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.58333333333333337</v>
+      </c>
+      <c r="P206" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q206">
+        <v>9</v>
+      </c>
+      <c r="R206" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S206">
+        <v>3</v>
+      </c>
+      <c r="T206" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="1">
+        <v>43555</v>
+      </c>
+      <c r="C207" s="5">
+        <f t="shared" si="20"/>
+        <v>43555</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.38541666666666669</v>
+      </c>
+      <c r="P207" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q207">
+        <v>9</v>
+      </c>
+      <c r="R207" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S207">
+        <v>3</v>
+      </c>
+      <c r="T207" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C208" s="5">
+        <f t="shared" si="20"/>
+        <v>43556</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.67708333333333337</v>
+      </c>
+      <c r="P208" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q208">
+        <v>9</v>
+      </c>
+      <c r="R208" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S208">
+        <v>3</v>
+      </c>
+      <c r="T208" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>67</v>
+      </c>
+      <c r="B209" s="1">
+        <v>43557</v>
+      </c>
+      <c r="C209" s="5">
+        <f t="shared" si="20"/>
+        <v>43557</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="P209" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q209">
+        <v>9</v>
+      </c>
+      <c r="R209" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S209">
+        <v>3</v>
+      </c>
+      <c r="T209" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210" s="1">
+        <v>43558</v>
+      </c>
+      <c r="C210" s="5">
+        <f t="shared" si="20"/>
+        <v>43558</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I210" s="2">
+        <f>H210-G210</f>
+        <v>-0.73958333333333337</v>
+      </c>
+      <c r="N210" t="s">
+        <v>362</v>
+      </c>
+      <c r="P210" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q210">
+        <v>9</v>
+      </c>
+      <c r="R210" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S210">
+        <v>3</v>
+      </c>
+      <c r="T210" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="1">
+        <v>43559</v>
+      </c>
+      <c r="C211" s="5">
+        <f t="shared" si="20"/>
+        <v>43559</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I211" s="2">
+        <f>H211-G211</f>
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="N211" t="s">
+        <v>363</v>
+      </c>
+      <c r="P211" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q211">
+        <v>9</v>
+      </c>
+      <c r="R211" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S211">
+        <v>3</v>
+      </c>
+      <c r="T211" s="4">
+        <f t="shared" si="21"/>
+        <v>495.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1">
+        <v>43560</v>
+      </c>
+      <c r="C212" s="5">
+        <f t="shared" si="20"/>
+        <v>43560</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="22"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M212" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N212" t="s">
+        <v>364</v>
+      </c>
+      <c r="P212" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q212">
+        <v>9</v>
+      </c>
+      <c r="R212" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S212">
+        <v>3</v>
+      </c>
+      <c r="T212" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T517">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T200 A213:T517">
+    <cfRule type="expression" dxfId="20" priority="35">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N104">
+    <cfRule type="expression" dxfId="19" priority="34">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P99:P100">
+    <cfRule type="expression" dxfId="18" priority="33">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P101:P102">
     <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N104">
+  <conditionalFormatting sqref="P103:P104">
     <cfRule type="expression" dxfId="16" priority="31">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P99:P100">
+  <conditionalFormatting sqref="P105:P106">
     <cfRule type="expression" dxfId="15" priority="30">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P101:P102">
+  <conditionalFormatting sqref="P107:P108">
     <cfRule type="expression" dxfId="14" priority="29">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P103:P104">
+  <conditionalFormatting sqref="P109:P110">
     <cfRule type="expression" dxfId="13" priority="28">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P105:P106">
-    <cfRule type="expression" dxfId="12" priority="27">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P107:P108">
-    <cfRule type="expression" dxfId="11" priority="26">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P109:P110">
-    <cfRule type="expression" dxfId="10" priority="25">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P112">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113:P114">
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115:P116">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P126:P128">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N123:N128">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H209:O209 A201:F212 Q201:T212 G210:O212 G201:O208">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
+  <conditionalFormatting sqref="P201:P206">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N123:N128">
+  <conditionalFormatting sqref="P207:P212">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
@@ -19826,7 +20512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EFC9E-4A0B-4BE7-B548-38696A952418}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0854598-4F2B-413D-94CE-588D5870C61B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="1815" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="368">
   <si>
     <t>Thursday</t>
   </si>
@@ -896,12 +896,6 @@
   </si>
   <si>
     <t>Currier, Private, Stroking</t>
-  </si>
-  <si>
-    <t>FS 3</t>
-  </si>
-  <si>
-    <t>FS 4</t>
   </si>
   <si>
     <t>Axels with Laurel</t>
@@ -1168,9 +1162,6 @@
     <t>Worked On FS4 Manuevers, High Confidence</t>
   </si>
   <si>
-    <t>FS 1 / FS 2</t>
-  </si>
-  <si>
     <t>Pain on blisters couldn't skate</t>
   </si>
   <si>
@@ -1214,6 +1205,24 @@
   </si>
   <si>
     <t>Got on the ice, but too sore to do anything, so I left</t>
+  </si>
+  <si>
+    <t>Landed crazy good axels consistently. Need to make sure that the cirlce I'm on is large. Also need to bend down when going backwards and not let my left shoulder go. Lesson with Devon working on backscratch, camels, Layback, and catchfoot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public, Stroking, FS5/6, FSIce, Private </t>
+  </si>
+  <si>
+    <t>FS Ice</t>
+  </si>
+  <si>
+    <t>FS1 / FS2</t>
+  </si>
+  <si>
+    <t>FS4</t>
+  </si>
+  <si>
+    <t>FS3</t>
   </si>
 </sst>
 </file>
@@ -1369,14 +1378,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1638,10 +1640,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$377</c:f>
+              <c:f>Data!$C$2:$C$372</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2274,16 +2276,37 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43562</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$377</c:f>
+              <c:f>Data!$M$2:$M$372</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3185,10 +3208,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$377</c:f>
+              <c:f>Data!$C$2:$C$372</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3821,16 +3844,37 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43562</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$377</c:f>
+              <c:f>Data!$Q$2:$Q$372</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4462,6 +4506,27 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="210">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -4830,13 +4895,13 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FS 1 / FS 2</c:v>
+                  <c:v>FS1 / FS2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FS 3</c:v>
+                  <c:v>FS3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FS 4</c:v>
+                  <c:v>FS4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>FS5</c:v>
@@ -5215,13 +5280,13 @@
                   <c:v>Delta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FS 1 / FS 2</c:v>
+                  <c:v>FS1 / FS2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FS 3</c:v>
+                  <c:v>FS3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FS 4</c:v>
+                  <c:v>FS4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>FS5</c:v>
@@ -5260,7 +5325,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,10 +5614,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$377</c:f>
+              <c:f>Data!$C$2:$C$372</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -6185,16 +6250,37 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43562</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$377</c:f>
+              <c:f>Data!$T$2:$T$372</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6826,6 +6912,27 @@
                   <c:v>495.25</c:v>
                 </c:pt>
                 <c:pt idx="210">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>496</c:v>
                 </c:pt>
               </c:numCache>
@@ -10266,10 +10373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z212"/>
+  <dimension ref="A1:Z232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="P219" sqref="P219"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10406,13 +10513,13 @@
         <v>4</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -10457,7 +10564,7 @@
         <v>496</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M152:M387)</f>
+        <f>SUM(M152:M382)</f>
         <v>100.75</v>
       </c>
       <c r="W3" s="4">
@@ -11082,7 +11189,7 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="W16" s="4">
         <f>SUM(M43:M96)</f>
@@ -11153,7 +11260,7 @@
         <v>38.25</v>
       </c>
       <c r="V17" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="W17" s="4">
         <f>SUM(M97:M116)</f>
@@ -11213,7 +11320,7 @@
         <v>41.75</v>
       </c>
       <c r="V18" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="W18" s="4">
         <f>SUM(M117:M182)</f>
@@ -11273,15 +11380,15 @@
         <v>42.75</v>
       </c>
       <c r="V19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M183:M395)</f>
+        <f>SUM(M183:M390)</f>
         <v>42</v>
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 5")</f>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -11487,20 +11594,20 @@
         <v>280</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M376)</f>
+        <f>SUM(M100:M371)</f>
         <v>245.75</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -15563,10 +15670,10 @@
         <v>2.5</v>
       </c>
       <c r="N110" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O110" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P110" s="20" t="s">
         <v>113</v>
@@ -15630,10 +15737,10 @@
         <v>6.75</v>
       </c>
       <c r="N111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O111" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P111" s="20" t="s">
         <v>113</v>
@@ -15721,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O113" t="s">
         <v>282</v>
@@ -15815,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O115" t="s">
         <v>68</v>
@@ -16023,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O119" t="s">
         <v>282</v>
@@ -16114,7 +16221,7 @@
         <v>4</v>
       </c>
       <c r="O121" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P121" s="20" t="s">
         <v>119</v>
@@ -16170,7 +16277,7 @@
         <v>4.25</v>
       </c>
       <c r="O122" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P122" s="20" t="s">
         <v>119</v>
@@ -16214,10 +16321,10 @@
         <v>3.5</v>
       </c>
       <c r="N123" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O123" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P123" s="20" t="s">
         <v>119</v>
@@ -16261,10 +16368,10 @@
         <v>1.75</v>
       </c>
       <c r="N124" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O124" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P124" s="20" t="s">
         <v>119</v>
@@ -16308,10 +16415,10 @@
         <v>1.75</v>
       </c>
       <c r="N125" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O125" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P125" s="20" t="s">
         <v>119</v>
@@ -16355,10 +16462,10 @@
         <v>1.75</v>
       </c>
       <c r="N126" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O126" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P126" s="20" t="s">
         <v>119</v>
@@ -16412,10 +16519,10 @@
         <v>3.5</v>
       </c>
       <c r="N127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P127" s="20" t="s">
         <v>119</v>
@@ -16469,10 +16576,10 @@
         <v>3.5</v>
       </c>
       <c r="N128" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O128" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P128" s="20" t="s">
         <v>119</v>
@@ -16604,10 +16711,10 @@
         <v>7.75</v>
       </c>
       <c r="N131" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O131" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P131" s="20" t="s">
         <v>119</v>
@@ -16695,7 +16802,7 @@
         <v>2</v>
       </c>
       <c r="N133" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
@@ -16796,10 +16903,10 @@
         <v>5</v>
       </c>
       <c r="N135" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O135" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P135" s="20" t="s">
         <v>119</v>
@@ -16853,10 +16960,10 @@
         <v>6.75</v>
       </c>
       <c r="N136" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O136" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P136" s="20" t="s">
         <v>119</v>
@@ -16910,7 +17017,7 @@
         <v>2.25</v>
       </c>
       <c r="N137" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O137" t="s">
         <v>21</v>
@@ -16957,10 +17064,10 @@
         <v>2.25</v>
       </c>
       <c r="N138" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O138" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P138" s="20" t="s">
         <v>119</v>
@@ -17014,7 +17121,7 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P139" s="20" t="s">
         <v>119</v>
@@ -17058,7 +17165,7 @@
         <v>1.75</v>
       </c>
       <c r="N140" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P140" s="20" t="s">
         <v>119</v>
@@ -17102,7 +17209,7 @@
         <v>2</v>
       </c>
       <c r="N141" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P141" s="20" t="s">
         <v>119</v>
@@ -17146,7 +17253,7 @@
         <v>4.25</v>
       </c>
       <c r="N142" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P142" s="20" t="s">
         <v>119</v>
@@ -17190,7 +17297,7 @@
         <v>2.25</v>
       </c>
       <c r="N143" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P143" s="20" t="s">
         <v>119</v>
@@ -17285,7 +17392,7 @@
         <v>2.5</v>
       </c>
       <c r="N145" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P145" s="20" t="s">
         <v>119</v>
@@ -17534,7 +17641,7 @@
         <v>2.25</v>
       </c>
       <c r="N151" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P151" s="20" t="s">
         <v>119</v>
@@ -17578,7 +17685,7 @@
         <v>5.75</v>
       </c>
       <c r="N152" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P152" s="20" t="s">
         <v>119</v>
@@ -17622,7 +17729,7 @@
         <v>3.5</v>
       </c>
       <c r="N153" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P153" s="20" t="s">
         <v>119</v>
@@ -17666,7 +17773,7 @@
         <v>0.75</v>
       </c>
       <c r="N154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P154" s="20" t="s">
         <v>119</v>
@@ -17710,7 +17817,7 @@
         <v>0.5</v>
       </c>
       <c r="N155" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P155" s="20" t="s">
         <v>119</v>
@@ -17754,7 +17861,7 @@
         <v>3.5</v>
       </c>
       <c r="N156" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P156" s="20" t="s">
         <v>119</v>
@@ -17798,7 +17905,7 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P157" s="20" t="s">
         <v>119</v>
@@ -17842,7 +17949,7 @@
         <v>0.5</v>
       </c>
       <c r="N158" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>119</v>
@@ -17886,7 +17993,7 @@
         <v>1.25</v>
       </c>
       <c r="N159" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P159" s="20" t="s">
         <v>119</v>
@@ -17930,10 +18037,10 @@
         <v>1</v>
       </c>
       <c r="N160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P160" s="20" t="s">
         <v>119</v>
@@ -17977,10 +18084,10 @@
         <v>2.75</v>
       </c>
       <c r="N161" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O161" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P161" s="20" t="s">
         <v>119</v>
@@ -18024,7 +18131,7 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P162" s="20" t="s">
         <v>119</v>
@@ -18078,7 +18185,7 @@
         <v>1.75</v>
       </c>
       <c r="N163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P163" s="20" t="s">
         <v>119</v>
@@ -18132,7 +18239,7 @@
         <v>4.5</v>
       </c>
       <c r="N164" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P164" s="20" t="s">
         <v>119</v>
@@ -18159,7 +18266,7 @@
         <v>43499</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" ref="C165:C212" si="20">B165</f>
+        <f t="shared" ref="C165:C219" si="20">B165</f>
         <v>43499</v>
       </c>
       <c r="D165" s="3">
@@ -18176,7 +18283,7 @@
         <v>2.25</v>
       </c>
       <c r="N165" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O165" t="s">
         <v>17</v>
@@ -18223,7 +18330,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O166" t="s">
         <v>68</v>
@@ -18280,10 +18387,10 @@
         <v>2.25</v>
       </c>
       <c r="N167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>119</v>
@@ -18327,7 +18434,7 @@
         <v>1.5</v>
       </c>
       <c r="N168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O168" t="s">
         <v>264</v>
@@ -18384,10 +18491,10 @@
         <v>1.75</v>
       </c>
       <c r="N169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P169" s="20" t="s">
         <v>119</v>
@@ -18431,10 +18538,10 @@
         <v>5</v>
       </c>
       <c r="N170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P170" s="20" t="s">
         <v>119</v>
@@ -18478,7 +18585,7 @@
         <v>1.75</v>
       </c>
       <c r="N171" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P171" s="20" t="s">
         <v>119</v>
@@ -18522,7 +18629,7 @@
         <v>1</v>
       </c>
       <c r="N172" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P172" s="20" t="s">
         <v>119</v>
@@ -18566,7 +18673,7 @@
         <v>1.25</v>
       </c>
       <c r="N173" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P173" s="20" t="s">
         <v>119</v>
@@ -18610,7 +18717,7 @@
         <v>0.25</v>
       </c>
       <c r="N174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>119</v>
@@ -18654,7 +18761,7 @@
         <v>0.25</v>
       </c>
       <c r="N175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P175" s="20" t="s">
         <v>119</v>
@@ -18698,7 +18805,7 @@
         <v>0.5</v>
       </c>
       <c r="N176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P176" s="20" t="s">
         <v>119</v>
@@ -18865,7 +18972,7 @@
         <v>4.25</v>
       </c>
       <c r="N180" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O180" t="s">
         <v>17</v>
@@ -18912,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="N181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O181" t="s">
         <v>17</v>
@@ -19010,7 +19117,7 @@
         <v>1.25</v>
       </c>
       <c r="N183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P183" s="20" t="s">
         <v>125</v>
@@ -19054,7 +19161,7 @@
         <v>0.5</v>
       </c>
       <c r="N184" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P184" s="20" t="s">
         <v>125</v>
@@ -19405,7 +19512,7 @@
         <v>3.25</v>
       </c>
       <c r="N192" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P192" s="20" t="s">
         <v>125</v>
@@ -19449,7 +19556,7 @@
         <v>2</v>
       </c>
       <c r="N193" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P193" s="20" t="s">
         <v>125</v>
@@ -19534,7 +19641,7 @@
         <v>3.5</v>
       </c>
       <c r="N195" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P195" s="20" t="s">
         <v>125</v>
@@ -19590,7 +19697,7 @@
         <v>3</v>
       </c>
       <c r="T196" s="4">
-        <f t="shared" ref="T196:T212" si="21">T195+M196</f>
+        <f t="shared" ref="T196:T219" si="21">T195+M196</f>
         <v>488.5</v>
       </c>
     </row>
@@ -19660,7 +19767,7 @@
         <v>1.5</v>
       </c>
       <c r="N198" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P198" s="20" t="s">
         <v>125</v>
@@ -19697,14 +19804,14 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F199" s="2">
-        <f t="shared" ref="F199:F212" si="22">E199-D199</f>
+        <f t="shared" ref="F199:F219" si="22">E199-D199</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="M199" s="4">
         <v>1</v>
       </c>
       <c r="N199" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P199" s="20" t="s">
         <v>125</v>
@@ -19748,7 +19855,7 @@
         <v>2</v>
       </c>
       <c r="N200" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P200" s="20" t="s">
         <v>125</v>
@@ -19792,7 +19899,7 @@
         <v>9</v>
       </c>
       <c r="R201" t="str">
-        <f t="shared" ref="R201:R212" si="23">R200</f>
+        <f t="shared" ref="R201:R219" si="23">R200</f>
         <v>Dance 3</v>
       </c>
       <c r="S201">
@@ -20117,7 +20224,10 @@
         <v>-0.73958333333333337</v>
       </c>
       <c r="N210" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="O210" t="s">
+        <v>363</v>
       </c>
       <c r="P210" s="20" t="s">
         <v>125</v>
@@ -20163,7 +20273,10 @@
         <v>-0.83333333333333337</v>
       </c>
       <c r="N211" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+      <c r="O211" t="s">
+        <v>217</v>
       </c>
       <c r="P211" s="20" t="s">
         <v>125</v>
@@ -20208,6 +20321,9 @@
         <v>0.75</v>
       </c>
       <c r="N212" t="s">
+        <v>361</v>
+      </c>
+      <c r="O212" t="s">
         <v>364</v>
       </c>
       <c r="P212" s="25" t="s">
@@ -20228,109 +20344,417 @@
         <v>496</v>
       </c>
     </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="1">
+        <v>43562</v>
+      </c>
+      <c r="C213" s="5">
+        <f t="shared" si="20"/>
+        <v>43562</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="P213" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q213">
+        <v>9</v>
+      </c>
+      <c r="R213" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S213">
+        <v>3</v>
+      </c>
+      <c r="T213" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>67</v>
+      </c>
+      <c r="B214" s="1">
+        <v>43564</v>
+      </c>
+      <c r="C214" s="5">
+        <f t="shared" si="20"/>
+        <v>43564</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.6875</v>
+      </c>
+      <c r="P214" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q214">
+        <v>9</v>
+      </c>
+      <c r="R214" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S214">
+        <v>3</v>
+      </c>
+      <c r="T214" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="1">
+        <v>43565</v>
+      </c>
+      <c r="C215" s="5">
+        <f t="shared" si="20"/>
+        <v>43565</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.6875</v>
+      </c>
+      <c r="P215" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q215">
+        <v>9</v>
+      </c>
+      <c r="R215" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S215">
+        <v>3</v>
+      </c>
+      <c r="T215" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C216" s="5">
+        <f t="shared" si="20"/>
+        <v>43566</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.6875</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="P216" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q216">
+        <v>9</v>
+      </c>
+      <c r="R216" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S216">
+        <v>3</v>
+      </c>
+      <c r="T216" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C217" s="5">
+        <f t="shared" si="20"/>
+        <v>43567</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.80208333333333337</v>
+      </c>
+      <c r="P217" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q217">
+        <v>9</v>
+      </c>
+      <c r="R217" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S217">
+        <v>3</v>
+      </c>
+      <c r="T217" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>67</v>
+      </c>
+      <c r="B218" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C218" s="5">
+        <f t="shared" si="20"/>
+        <v>43571</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.64583333333333337</v>
+      </c>
+      <c r="P218" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q218">
+        <v>9</v>
+      </c>
+      <c r="R218" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S218">
+        <v>3</v>
+      </c>
+      <c r="T218" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>35</v>
+      </c>
+      <c r="B219" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C219" s="5">
+        <f t="shared" si="20"/>
+        <v>43572</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="N219" t="s">
+        <v>362</v>
+      </c>
+      <c r="O219" t="s">
+        <v>363</v>
+      </c>
+      <c r="P219" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q219">
+        <v>9</v>
+      </c>
+      <c r="R219" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S219">
+        <v>3</v>
+      </c>
+      <c r="T219" s="4">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B220"/>
+      <c r="C220"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B221"/>
+      <c r="C221"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B222"/>
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B223"/>
+      <c r="C223"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B224"/>
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225"/>
+      <c r="C225"/>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226"/>
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227"/>
+      <c r="C227"/>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228"/>
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229"/>
+      <c r="C229"/>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230"/>
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231"/>
+      <c r="C231"/>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232"/>
+      <c r="C232"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T200 A213:T517">
-    <cfRule type="expression" dxfId="20" priority="35">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T200 A220:T512 A213:O219 P207:P219 Q201:T219">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N104">
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P99:P100">
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P101:P102">
-    <cfRule type="expression" dxfId="17" priority="32">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P103:P104">
-    <cfRule type="expression" dxfId="16" priority="31">
+    <cfRule type="expression" dxfId="15" priority="31">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P106">
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="14" priority="30">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P107:P108">
-    <cfRule type="expression" dxfId="14" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P109:P110">
-    <cfRule type="expression" dxfId="13" priority="28">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P112">
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113:P114">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="10" priority="25">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115:P116">
-    <cfRule type="expression" dxfId="10" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P126:P128">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N123:N128">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209:O209 A201:F212 Q201:T212 G210:O212 G201:O208">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="H209:O209 A201:F212 G210:O212 G201:O208">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P201:P206">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P207:P212">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20500,7 +20924,7 @@
         <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -20512,7 +20936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -21290,12 +21714,12 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8ag\Desktop\ice-skating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aNDREW\Desktop\ice-skating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0854598-4F2B-413D-94CE-588D5870C61B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B45F27-9FA7-4CAA-B355-AEE4C96D4EAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="383">
   <si>
     <t>Thursday</t>
   </si>
@@ -1223,6 +1223,51 @@
   </si>
   <si>
     <t>FS3</t>
+  </si>
+  <si>
+    <t>Competition: Pandas</t>
+  </si>
+  <si>
+    <t>Competition: J&amp;S, FS4, Group Interp</t>
+  </si>
+  <si>
+    <t>Competition: Pairs, Silver, WTIC</t>
+  </si>
+  <si>
+    <t>DEVON</t>
+  </si>
+  <si>
+    <t>Converted Axels, OneFoot to backscratch, Waltz loop loop backspin</t>
+  </si>
+  <si>
+    <t>With Reagen and Ellie, did axels</t>
+  </si>
+  <si>
+    <t>Did two wallies with Privo, worked on general skating ability</t>
+  </si>
+  <si>
+    <t>Wallies, Axels, Axel-halfloop-flip, remember to wind up when stepping into axel</t>
+  </si>
+  <si>
+    <t>Class and Stroking with Devon, worked on axels and couldn't do any, Camels in private</t>
+  </si>
+  <si>
+    <t>Axel Work, Worked on singles</t>
+  </si>
+  <si>
+    <t>Pairs with Laurel, worked on edge control and loop takeoff direction</t>
+  </si>
+  <si>
+    <t>Couples spotlight, program prep</t>
+  </si>
+  <si>
+    <t>Program Runthrough</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Late Night Skate</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1423,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1640,10 +1741,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$372</c:f>
+              <c:f>Data!$C$2:$C$361</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -2297,16 +2398,85 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43580</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43587</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43588</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43589</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43590</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43592</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43594</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$M$2:$M$372</c:f>
+              <c:f>Data!$M$2:$M$361</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2904,8 +3074,122 @@
                 <c:pt idx="198">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.25</c:v>
+                </c:pt>
                 <c:pt idx="210">
                   <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,10 +3492,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$372</c:f>
+              <c:f>Data!$C$2:$C$361</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -3865,16 +4149,85 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43580</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43587</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43588</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43589</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43590</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43592</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43594</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$372</c:f>
+              <c:f>Data!$Q$2:$Q$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4527,6 +4880,75 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="217">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="240">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -4940,7 +5362,7 @@
                   <c:v>150.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>124.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5325,7 +5747,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,10 +6036,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$372</c:f>
+              <c:f>Data!$C$2:$C$361</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>43286</c:v>
                 </c:pt>
@@ -6271,16 +6693,85 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43580</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43587</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43588</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43589</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43590</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43592</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43594</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$2:$T$372</c:f>
+              <c:f>Data!$T$2:$T$361</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6879,61 +7370,130 @@
                   <c:v>495.25</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>495.25</c:v>
+                  <c:v>498.25</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>495.25</c:v>
+                  <c:v>498.75</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>495.25</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>495.25</c:v>
+                  <c:v>499.75</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>495.25</c:v>
+                  <c:v>503.5</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>495.25</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>495.25</c:v>
+                  <c:v>508.75</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>495.25</c:v>
+                  <c:v>510.25</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>495.25</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>495.25</c:v>
+                  <c:v>513.75</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>495.25</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>496</c:v>
+                  <c:v>516.75</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>496</c:v>
+                  <c:v>520.25</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>496</c:v>
+                  <c:v>521.5</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>496</c:v>
+                  <c:v>524.75</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>496</c:v>
+                  <c:v>528.5</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>496</c:v>
+                  <c:v>530.5</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>496</c:v>
+                  <c:v>532.75</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>496</c:v>
+                  <c:v>536.5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>538.25</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>539.25</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>542.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>545.25</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>547.5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>551.5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>553.25</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>556.75</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>558.75</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>560.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>564.25</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>566.25</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>569.75</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>574.25</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>578.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10373,10 +10933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z232"/>
+  <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10561,11 +11121,11 @@
       </c>
       <c r="U3" s="4">
         <f>SUM(M:M)</f>
-        <v>496</v>
+        <v>578.75</v>
       </c>
       <c r="V3" s="4">
-        <f>SUM(M152:M382)</f>
-        <v>100.75</v>
+        <f>SUM(M152:M371)</f>
+        <v>183.5</v>
       </c>
       <c r="W3" s="4">
         <f>SUM(M19:M151)</f>
@@ -11383,12 +11943,12 @@
         <v>350</v>
       </c>
       <c r="W19" s="4">
-        <f>SUM(M183:M390)</f>
-        <v>42</v>
+        <f>SUM(M183:M379)</f>
+        <v>124.75</v>
       </c>
       <c r="X19">
         <f>COUNTIF(P:P, "Freestyle 5")</f>
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -11594,20 +12154,20 @@
         <v>280</v>
       </c>
       <c r="W23" s="4">
-        <f>SUM(M100:M371)</f>
-        <v>245.75</v>
+        <f>SUM(M100:M360)</f>
+        <v>328.5</v>
       </c>
       <c r="X23">
         <f>COUNTIF(R:R, "Dance 3")</f>
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Y23" s="14">
         <f>(INDEX(C:C,COUNTA(C:C))) - C100</f>
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="Z23" s="14">
         <f>Y23-X23</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -18266,7 +18826,7 @@
         <v>43499</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" ref="C165:C219" si="20">B165</f>
+        <f t="shared" ref="C165:C227" si="20">B165</f>
         <v>43499</v>
       </c>
       <c r="D165" s="3">
@@ -19697,7 +20257,7 @@
         <v>3</v>
       </c>
       <c r="T196" s="4">
-        <f t="shared" ref="T196:T219" si="21">T195+M196</f>
+        <f t="shared" ref="T196:T242" si="21">T195+M196</f>
         <v>488.5</v>
       </c>
     </row>
@@ -19804,7 +20364,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="F199" s="2">
-        <f t="shared" ref="F199:F219" si="22">E199-D199</f>
+        <f t="shared" ref="F199:F242" si="22">E199-D199</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="M199" s="4">
@@ -19845,11 +20405,11 @@
         <v>0.75</v>
       </c>
       <c r="E200" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="F200" s="2">
         <f t="shared" si="22"/>
-        <v>8.333333333333337E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="M200" s="4">
         <v>2</v>
@@ -19888,9 +20448,15 @@
       <c r="D201" s="3">
         <v>0.6875</v>
       </c>
+      <c r="E201" s="3">
+        <v>0.8125</v>
+      </c>
       <c r="F201" s="2">
         <f t="shared" si="22"/>
-        <v>-0.6875</v>
+        <v>0.125</v>
+      </c>
+      <c r="M201" s="4">
+        <v>3</v>
       </c>
       <c r="P201" s="20" t="s">
         <v>125</v>
@@ -19899,7 +20465,7 @@
         <v>9</v>
       </c>
       <c r="R201" t="str">
-        <f t="shared" ref="R201:R219" si="23">R200</f>
+        <f t="shared" ref="R201:R242" si="23">R200</f>
         <v>Dance 3</v>
       </c>
       <c r="S201">
@@ -19907,7 +20473,7 @@
       </c>
       <c r="T201" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>498.25</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -19924,9 +20490,15 @@
       <c r="D202" s="3">
         <v>0.71875</v>
       </c>
+      <c r="E202" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F202" s="2">
         <f t="shared" si="22"/>
-        <v>-0.71875</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="M202" s="4">
+        <v>0.5</v>
       </c>
       <c r="P202" s="20" t="s">
         <v>125</v>
@@ -19943,7 +20515,7 @@
       </c>
       <c r="T202" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>498.75</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -19960,9 +20532,15 @@
       <c r="D203" s="3">
         <v>0.72916666666666663</v>
       </c>
+      <c r="E203" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F203" s="2">
         <f t="shared" si="22"/>
-        <v>-0.72916666666666663</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="M203" s="4">
+        <v>0.25</v>
       </c>
       <c r="P203" s="20" t="s">
         <v>125</v>
@@ -19979,7 +20557,7 @@
       </c>
       <c r="T203" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -19996,9 +20574,15 @@
       <c r="D204" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E204" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F204" s="2">
         <f t="shared" si="22"/>
-        <v>-0.70833333333333337</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M204" s="4">
+        <v>0.75</v>
       </c>
       <c r="P204" s="20" t="s">
         <v>125</v>
@@ -20015,7 +20599,7 @@
       </c>
       <c r="T204" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>499.75</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -20032,9 +20616,18 @@
       <c r="D205" s="3">
         <v>0.80208333333333337</v>
       </c>
+      <c r="E205" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F205" s="2">
         <f t="shared" si="22"/>
-        <v>-0.80208333333333337</v>
+        <v>0.15625</v>
+      </c>
+      <c r="M205" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="N205" t="s">
+        <v>382</v>
       </c>
       <c r="P205" s="20" t="s">
         <v>125</v>
@@ -20051,7 +20644,7 @@
       </c>
       <c r="T205" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>503.5</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -20068,9 +20661,15 @@
       <c r="D206" s="3">
         <v>0.58333333333333337</v>
       </c>
+      <c r="E206" s="3">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F206" s="2">
         <f t="shared" si="22"/>
-        <v>-0.58333333333333337</v>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="M206" s="4">
+        <v>3.5</v>
       </c>
       <c r="P206" s="25" t="s">
         <v>125</v>
@@ -20087,7 +20686,7 @@
       </c>
       <c r="T206" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -20104,9 +20703,15 @@
       <c r="D207" s="3">
         <v>0.38541666666666669</v>
       </c>
+      <c r="E207" s="3">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F207" s="2">
         <f t="shared" si="22"/>
-        <v>-0.38541666666666669</v>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M207" s="4">
+        <v>1.75</v>
       </c>
       <c r="P207" s="20" t="s">
         <v>125</v>
@@ -20123,7 +20728,7 @@
       </c>
       <c r="T207" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>508.75</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -20140,9 +20745,15 @@
       <c r="D208" s="3">
         <v>0.67708333333333337</v>
       </c>
+      <c r="E208" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F208" s="2">
         <f t="shared" si="22"/>
-        <v>-0.67708333333333337</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M208" s="4">
+        <v>1.5</v>
       </c>
       <c r="P208" s="20" t="s">
         <v>125</v>
@@ -20159,7 +20770,7 @@
       </c>
       <c r="T208" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>510.25</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
@@ -20176,9 +20787,15 @@
       <c r="D209" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E209" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F209" s="2">
         <f t="shared" si="22"/>
-        <v>-0.70833333333333337</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M209" s="4">
+        <v>0.75</v>
       </c>
       <c r="P209" s="20" t="s">
         <v>125</v>
@@ -20195,7 +20812,7 @@
       </c>
       <c r="T209" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>511</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
@@ -20212,16 +20829,15 @@
       <c r="D210" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E210" s="3">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="F210" s="2">
         <f t="shared" si="22"/>
-        <v>-0.70833333333333337</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="I210" s="2">
-        <f>H210-G210</f>
-        <v>-0.73958333333333337</v>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="M210" s="4">
+        <v>2.75</v>
       </c>
       <c r="N210" t="s">
         <v>359</v>
@@ -20244,7 +20860,7 @@
       </c>
       <c r="T210" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>513.75</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
@@ -20261,16 +20877,25 @@
       <c r="D211" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="E211" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F211" s="2">
         <f t="shared" si="22"/>
-        <v>-0.70833333333333337</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G211" s="3">
         <v>0.83333333333333337</v>
       </c>
+      <c r="H211" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="I211" s="2">
         <f>H211-G211</f>
-        <v>-0.83333333333333337</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M211" s="4">
+        <v>2.25</v>
       </c>
       <c r="N211" t="s">
         <v>360</v>
@@ -20293,7 +20918,7 @@
       </c>
       <c r="T211" s="4">
         <f t="shared" si="21"/>
-        <v>495.25</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
@@ -20341,7 +20966,7 @@
       </c>
       <c r="T212" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>516.75</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -20358,9 +20983,15 @@
       <c r="D213" s="3">
         <v>0.54166666666666663</v>
       </c>
+      <c r="E213" s="3">
+        <v>0.6875</v>
+      </c>
       <c r="F213" s="2">
         <f t="shared" si="22"/>
-        <v>-0.54166666666666663</v>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M213" s="4">
+        <v>3.5</v>
       </c>
       <c r="P213" s="25" t="s">
         <v>125</v>
@@ -20377,7 +21008,7 @@
       </c>
       <c r="T213" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>520.25</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
@@ -20394,9 +21025,15 @@
       <c r="D214" s="3">
         <v>0.6875</v>
       </c>
+      <c r="E214" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F214" s="2">
         <f t="shared" si="22"/>
-        <v>-0.6875</v>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M214" s="4">
+        <v>1.25</v>
       </c>
       <c r="P214" s="25" t="s">
         <v>125</v>
@@ -20413,7 +21050,7 @@
       </c>
       <c r="T214" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>521.5</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
@@ -20430,9 +21067,15 @@
       <c r="D215" s="3">
         <v>0.6875</v>
       </c>
+      <c r="E215" s="3">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="F215" s="2">
         <f t="shared" si="22"/>
-        <v>-0.6875</v>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="M215" s="4">
+        <v>3.25</v>
       </c>
       <c r="P215" s="25" t="s">
         <v>125</v>
@@ -20449,7 +21092,7 @@
       </c>
       <c r="T215" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>524.75</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
@@ -20466,12 +21109,25 @@
       <c r="D216" s="3">
         <v>0.6875</v>
       </c>
+      <c r="E216" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F216" s="2">
         <f t="shared" si="22"/>
-        <v>-0.6875</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="G216" s="3">
         <v>0.8125</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I216" s="2">
+        <f t="shared" ref="I216" si="24">H216-G216</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="M216" s="4">
+        <v>3.75</v>
       </c>
       <c r="P216" s="25" t="s">
         <v>125</v>
@@ -20488,7 +21144,7 @@
       </c>
       <c r="T216" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>528.5</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
@@ -20505,9 +21161,15 @@
       <c r="D217" s="3">
         <v>0.80208333333333337</v>
       </c>
+      <c r="E217" s="3">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="F217" s="2">
         <f t="shared" si="22"/>
-        <v>-0.80208333333333337</v>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="M217" s="4">
+        <v>2</v>
       </c>
       <c r="P217" s="25" t="s">
         <v>125</v>
@@ -20524,7 +21186,7 @@
       </c>
       <c r="T217" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>530.5</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
@@ -20541,9 +21203,15 @@
       <c r="D218" s="3">
         <v>0.64583333333333337</v>
       </c>
+      <c r="E218" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F218" s="2">
         <f t="shared" si="22"/>
-        <v>-0.64583333333333337</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M218" s="4">
+        <v>2.25</v>
       </c>
       <c r="P218" s="25" t="s">
         <v>125</v>
@@ -20560,7 +21228,7 @@
       </c>
       <c r="T218" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>532.75</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
@@ -20577,9 +21245,15 @@
       <c r="D219" s="3">
         <v>0.66666666666666663</v>
       </c>
+      <c r="E219" s="3">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="F219" s="2">
         <f t="shared" si="22"/>
-        <v>-0.66666666666666663</v>
+        <v>0.15625</v>
+      </c>
+      <c r="M219" s="4">
+        <v>3.75</v>
       </c>
       <c r="N219" t="s">
         <v>362</v>
@@ -20602,159 +21276,1156 @@
       </c>
       <c r="T219" s="4">
         <f t="shared" si="21"/>
-        <v>496</v>
+        <v>536.5</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B220"/>
-      <c r="C220"/>
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C220" s="5">
+        <f t="shared" si="20"/>
+        <v>43573</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="22"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="M220" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="P220" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q220">
+        <v>9</v>
+      </c>
+      <c r="R220" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S220">
+        <v>3</v>
+      </c>
+      <c r="T220" s="4">
+        <f t="shared" si="21"/>
+        <v>538.25</v>
+      </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B221"/>
-      <c r="C221"/>
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C221" s="5">
+        <f t="shared" si="20"/>
+        <v>43574</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="22"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="M221" s="4">
+        <v>1</v>
+      </c>
+      <c r="P221" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q221">
+        <v>9</v>
+      </c>
+      <c r="R221" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S221">
+        <v>3</v>
+      </c>
+      <c r="T221" s="4">
+        <f t="shared" si="21"/>
+        <v>539.25</v>
+      </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B222"/>
-      <c r="C222"/>
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1">
+        <v>43575</v>
+      </c>
+      <c r="C222" s="5">
+        <f t="shared" si="20"/>
+        <v>43575</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="22"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="I222" s="2">
+        <f t="shared" ref="I222" si="25">H222-G222</f>
+        <v>0.125</v>
+      </c>
+      <c r="M222" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="P222" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q222">
+        <v>9</v>
+      </c>
+      <c r="R222" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S222">
+        <v>3</v>
+      </c>
+      <c r="T222" s="4">
+        <f t="shared" si="21"/>
+        <v>542.5</v>
+      </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B223"/>
-      <c r="C223"/>
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="1">
+        <v>43576</v>
+      </c>
+      <c r="C223" s="5">
+        <f t="shared" si="20"/>
+        <v>43576</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="22"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="M223" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="P223" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q223">
+        <v>9</v>
+      </c>
+      <c r="R223" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S223">
+        <v>3</v>
+      </c>
+      <c r="T223" s="4">
+        <f t="shared" si="21"/>
+        <v>545.25</v>
+      </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B224"/>
-      <c r="C224"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225"/>
-      <c r="C225"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226"/>
-      <c r="C226"/>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227"/>
-      <c r="C227"/>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228"/>
-      <c r="C228"/>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229"/>
-      <c r="C229"/>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230"/>
-      <c r="C230"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231"/>
-      <c r="C231"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232"/>
-      <c r="C232"/>
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C224" s="5">
+        <f t="shared" si="20"/>
+        <v>43577</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="22"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M224" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="P224" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q224">
+        <v>9</v>
+      </c>
+      <c r="R224" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S224">
+        <v>3</v>
+      </c>
+      <c r="T224" s="4">
+        <f t="shared" si="21"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>67</v>
+      </c>
+      <c r="B225" s="1">
+        <v>43578</v>
+      </c>
+      <c r="C225" s="5">
+        <f t="shared" si="20"/>
+        <v>43578</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="22"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M225" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P225" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q225">
+        <v>9</v>
+      </c>
+      <c r="R225" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S225">
+        <v>3</v>
+      </c>
+      <c r="T225" s="4">
+        <f t="shared" si="21"/>
+        <v>547.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="1">
+        <v>43580</v>
+      </c>
+      <c r="C226" s="5">
+        <f t="shared" si="20"/>
+        <v>43580</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F226" s="2">
+        <f t="shared" si="22"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M226" s="4">
+        <v>4</v>
+      </c>
+      <c r="P226" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q226">
+        <v>9</v>
+      </c>
+      <c r="R226" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S226">
+        <v>3</v>
+      </c>
+      <c r="T226" s="4">
+        <f t="shared" si="21"/>
+        <v>551.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C227" s="5">
+        <f t="shared" si="20"/>
+        <v>43581</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F227" s="2">
+        <f t="shared" si="22"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="M227" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="P227" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q227">
+        <v>9</v>
+      </c>
+      <c r="R227" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S227">
+        <v>3</v>
+      </c>
+      <c r="T227" s="4">
+        <f t="shared" si="21"/>
+        <v>553.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1">
+        <v>43582</v>
+      </c>
+      <c r="C228" s="5">
+        <f t="shared" ref="C228:C242" si="26">B228</f>
+        <v>43582</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F228" s="2">
+        <f t="shared" si="22"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M228" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="P228" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q228">
+        <v>9</v>
+      </c>
+      <c r="R228" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S228">
+        <v>3</v>
+      </c>
+      <c r="T228" s="4">
+        <f t="shared" si="21"/>
+        <v>556.75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C229" s="5">
+        <f t="shared" si="26"/>
+        <v>43584</v>
+      </c>
+      <c r="D229" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F229" s="2">
+        <f t="shared" si="22"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M229" s="4">
+        <v>2</v>
+      </c>
+      <c r="P229" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q229">
+        <v>9</v>
+      </c>
+      <c r="R229" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S229">
+        <v>3</v>
+      </c>
+      <c r="T229" s="4">
+        <f t="shared" si="21"/>
+        <v>558.75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>67</v>
+      </c>
+      <c r="B230" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C230" s="5">
+        <f t="shared" si="26"/>
+        <v>43585</v>
+      </c>
+      <c r="D230" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" si="22"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="M230" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="P230" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q230">
+        <v>9</v>
+      </c>
+      <c r="R230" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S230">
+        <v>3</v>
+      </c>
+      <c r="T230" s="4">
+        <f t="shared" si="21"/>
+        <v>560.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>35</v>
+      </c>
+      <c r="B231" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C231" s="5">
+        <f t="shared" si="26"/>
+        <v>43586</v>
+      </c>
+      <c r="D231" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F231" s="2">
+        <f t="shared" si="22"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="M231" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N231" t="s">
+        <v>380</v>
+      </c>
+      <c r="P231" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q231">
+        <v>9</v>
+      </c>
+      <c r="R231" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S231">
+        <v>3</v>
+      </c>
+      <c r="T231" s="4">
+        <f t="shared" si="21"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="1">
+        <v>43587</v>
+      </c>
+      <c r="C232" s="5">
+        <f t="shared" si="26"/>
+        <v>43587</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="22"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M232" s="4">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
+        <v>379</v>
+      </c>
+      <c r="O232" s="4"/>
+      <c r="P232" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q232">
+        <v>9</v>
+      </c>
+      <c r="R232" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S232">
+        <v>3</v>
+      </c>
+      <c r="T232" s="4">
+        <f t="shared" si="21"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1">
+        <v>43588</v>
+      </c>
+      <c r="C233" s="5">
+        <f t="shared" si="26"/>
+        <v>43588</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N233" t="s">
+        <v>369</v>
+      </c>
+      <c r="P233" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q233">
+        <v>9</v>
+      </c>
+      <c r="R233" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S233">
+        <v>3</v>
+      </c>
+      <c r="T233" s="4">
+        <f t="shared" si="21"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1">
+        <v>43589</v>
+      </c>
+      <c r="C234" s="5">
+        <f t="shared" si="26"/>
+        <v>43589</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N234" t="s">
+        <v>370</v>
+      </c>
+      <c r="O234" s="4"/>
+      <c r="P234" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q234">
+        <v>9</v>
+      </c>
+      <c r="R234" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S234">
+        <v>3</v>
+      </c>
+      <c r="T234" s="4">
+        <f t="shared" si="21"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1">
+        <v>43590</v>
+      </c>
+      <c r="C235" s="5">
+        <f t="shared" si="26"/>
+        <v>43590</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N235" t="s">
+        <v>368</v>
+      </c>
+      <c r="P235" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q235">
+        <v>9</v>
+      </c>
+      <c r="R235" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S235">
+        <v>3</v>
+      </c>
+      <c r="T235" s="4">
+        <f t="shared" si="21"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>67</v>
+      </c>
+      <c r="B236" s="1">
+        <v>43592</v>
+      </c>
+      <c r="C236" s="5">
+        <f t="shared" si="26"/>
+        <v>43592</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F236" s="2">
+        <f t="shared" si="22"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="M236" s="4">
+        <v>1</v>
+      </c>
+      <c r="N236" t="s">
+        <v>372</v>
+      </c>
+      <c r="O236" s="4"/>
+      <c r="P236" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q236">
+        <v>9</v>
+      </c>
+      <c r="R236" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S236">
+        <v>3</v>
+      </c>
+      <c r="T236" s="4">
+        <f t="shared" si="21"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="1">
+        <v>43594</v>
+      </c>
+      <c r="C237" s="5">
+        <f t="shared" si="26"/>
+        <v>43594</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F237" s="2">
+        <f t="shared" si="22"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="M237" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N237" t="s">
+        <v>377</v>
+      </c>
+      <c r="P237" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q237">
+        <v>9</v>
+      </c>
+      <c r="R237" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S237">
+        <v>3</v>
+      </c>
+      <c r="T237" s="4">
+        <f t="shared" si="21"/>
+        <v>564.25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1">
+        <v>43595</v>
+      </c>
+      <c r="C238" s="5">
+        <f t="shared" si="26"/>
+        <v>43595</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F238" s="2">
+        <f t="shared" si="22"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M238" s="4">
+        <v>2</v>
+      </c>
+      <c r="N238" t="s">
+        <v>373</v>
+      </c>
+      <c r="O238" s="4"/>
+      <c r="P238" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q238">
+        <v>9</v>
+      </c>
+      <c r="R238" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S238">
+        <v>3</v>
+      </c>
+      <c r="T238" s="4">
+        <f t="shared" si="21"/>
+        <v>566.25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>35</v>
+      </c>
+      <c r="B239" s="1">
+        <v>43600</v>
+      </c>
+      <c r="C239" s="5">
+        <f t="shared" si="26"/>
+        <v>43600</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F239" s="2">
+        <f t="shared" si="22"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="M239" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N239" t="s">
+        <v>376</v>
+      </c>
+      <c r="P239" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q239">
+        <v>9</v>
+      </c>
+      <c r="R239" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S239">
+        <v>3</v>
+      </c>
+      <c r="T239" s="4">
+        <f t="shared" si="21"/>
+        <v>569.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="1">
+        <v>43601</v>
+      </c>
+      <c r="C240" s="5">
+        <f t="shared" si="26"/>
+        <v>43601</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F240" s="2">
+        <f t="shared" si="22"/>
+        <v>0.1875</v>
+      </c>
+      <c r="M240" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="N240" t="s">
+        <v>378</v>
+      </c>
+      <c r="O240" s="4"/>
+      <c r="P240" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q240">
+        <v>9</v>
+      </c>
+      <c r="R240" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S240">
+        <v>3</v>
+      </c>
+      <c r="T240" s="4">
+        <f t="shared" si="21"/>
+        <v>574.25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1">
+        <v>43602</v>
+      </c>
+      <c r="C241" s="5">
+        <f t="shared" si="26"/>
+        <v>43602</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F241" s="2">
+        <f t="shared" si="22"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="M241" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="N241" t="s">
+        <v>374</v>
+      </c>
+      <c r="P241" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q241">
+        <v>9</v>
+      </c>
+      <c r="R241" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S241">
+        <v>3</v>
+      </c>
+      <c r="T241" s="4">
+        <f t="shared" si="21"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="1">
+        <v>43603</v>
+      </c>
+      <c r="C242" s="5">
+        <f t="shared" si="26"/>
+        <v>43603</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="22"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="M242" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N242" t="s">
+        <v>375</v>
+      </c>
+      <c r="O242" s="4"/>
+      <c r="P242" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q242">
+        <v>9</v>
+      </c>
+      <c r="R242" t="str">
+        <f t="shared" si="23"/>
+        <v>Dance 3</v>
+      </c>
+      <c r="S242">
+        <v>3</v>
+      </c>
+      <c r="T242" s="4">
+        <f t="shared" si="21"/>
+        <v>578.75</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T200 A220:T512 A213:O219 P207:P219 Q201:T219">
+  <conditionalFormatting sqref="O104 A104:M104 A98:O103 A2:T97 P98:T98 A105:O109 Q99:T109 Q110:Q116 A110:F119 P111 G110:O116 G117:Q119 A120:Q120 L122:O122 A123:D128 F127:G128 A129:P130 R110:T119 A122:I122 F123:M126 I127:M128 A121:O121 Q121:Q130 P121:P125 R120:S130 O123:O128 A131:S137 T120:T137 A138:T200 A231:N242 Q201:T235 P207:P235 A243:T501 P236:T242 A213:O230">
+    <cfRule type="expression" dxfId="27" priority="44">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N104">
+    <cfRule type="expression" dxfId="26" priority="43">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P99:P100">
+    <cfRule type="expression" dxfId="25" priority="42">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P101:P102">
+    <cfRule type="expression" dxfId="24" priority="41">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P103:P104">
+    <cfRule type="expression" dxfId="23" priority="40">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P105:P106">
+    <cfRule type="expression" dxfId="22" priority="39">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P107:P108">
+    <cfRule type="expression" dxfId="21" priority="38">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109:P110">
+    <cfRule type="expression" dxfId="20" priority="37">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P112">
     <cfRule type="expression" dxfId="19" priority="35">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N104">
+  <conditionalFormatting sqref="P113:P114">
     <cfRule type="expression" dxfId="18" priority="34">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P99:P100">
-    <cfRule type="expression" dxfId="17" priority="33">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P101:P102">
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P103:P104">
-    <cfRule type="expression" dxfId="15" priority="31">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P105:P106">
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P107:P108">
-    <cfRule type="expression" dxfId="13" priority="29">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P109:P110">
-    <cfRule type="expression" dxfId="12" priority="28">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P112">
-    <cfRule type="expression" dxfId="11" priority="26">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P113:P114">
-    <cfRule type="expression" dxfId="10" priority="25">
-      <formula>MOD(ROW(), 2) = 0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P115:P116">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="17" priority="32">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P126:P128">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N123:N128">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H209:O209 A201:F201 G210:O212 G201:O208 A209:F212 A208:D208 F208 A203:F207 A202:D202 F202">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P201:P206">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O232">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O234">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="O236">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="O238">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="O240">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N123:N128">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="O242">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209:O209 A201:F212 G210:O212 G201:O208">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="E208">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P201:P206">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="E202">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20936,7 +22607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -21146,7 +22817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
